--- a/data/rooming.xlsx
+++ b/data/rooming.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\Desktop\이서호\제안서\롯데 면세점\참여자 명단\방배정표\방배정표조회\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{758CD9C0-5FFD-4895-A8D8-B0B0353110C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75E117C4-AE5C-4420-B87B-F9710F54B61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="룸배정표(8.25~26) (2)" sheetId="6" r:id="rId1"/>
-    <sheet name="룸배정표 (8.27~28)" sheetId="5" r:id="rId2"/>
+    <sheet name="룸배정표 1차수 (8.25~26) (2)" sheetId="6" r:id="rId1"/>
+    <sheet name="룸배정표 2차수  (8.27~28)" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'룸배정표 (8.27~28)'!$A$1:$E$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'룸배정표(8.25~26) (2)'!$A$1:$E$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'룸배정표 1차수 (8.25~26) (2)'!$A$1:$E$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'룸배정표 2차수  (8.27~28)'!$A$1:$E$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2129,8 +2129,8 @@
   </sheetPr>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/data/rooming.xlsx
+++ b/data/rooming.xlsx
@@ -5,38 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\Desktop\이서호\제안서\롯데 면세점\참여자 명단\방배정표\방배정표조회\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250821\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75E117C4-AE5C-4420-B87B-F9710F54B61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{695C6F29-8321-4675-84E7-301475CBC7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="룸배정표 1차수 (8.25~26) (2)" sheetId="6" r:id="rId1"/>
-    <sheet name="룸배정표 2차수  (8.27~28)" sheetId="5" r:id="rId2"/>
+    <sheet name="1차수" sheetId="6" r:id="rId1"/>
+    <sheet name="2차수" sheetId="5" r:id="rId2"/>
+    <sheet name="3차수" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'룸배정표 1차수 (8.25~26) (2)'!$A$1:$E$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'룸배정표 2차수  (8.27~28)'!$A$1:$E$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1차수'!$A$1:$E$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2차수'!$A$1:$E$44</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="153">
   <si>
     <t>Guest Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,6 +473,180 @@
     <t>디럭스 더블트윈
 (더블*2)
 23객실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip실추가 (250806)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야모이자(롯데면세점) 9/1~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠다드 트윈*1
+디럭스 더블*2
+진행자객실
+8/31~9/2(2박)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠다드 트윈
+(싱글 *2)
+15객실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디럭스 더블트윈
+(더블*2)
+24객실</t>
+  </si>
+  <si>
+    <t>김정철, 왕승일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지현, 최승현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오정석, 김선효</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허기, 임지호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고승균, 양진욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임석원, 황원철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김우중, 김태환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전태환, 김영빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준성, 여승빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이권혁, 진준승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정진석, 김필준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김성민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남궁표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김신영, 조아라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서은영, 최성희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수연, 나은정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송은애, 시지은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤재희, 이수현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정지윤, 정정숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고영희, 임혜진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신지은, 한지윤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변소영, 김민경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정은, 임석미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김보영, 김보미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신영진, 윤지영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유문희, 강경민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유문희: 박정숙 요청 / 강경민: 유문희 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박정숙, 윤영화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안보슬, 조혜림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동민, 김한빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이세롬, 이수경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송화엽, 김보라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성호선, 박은경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선민, 채연주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고현민, 박혜란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이윤숙, 채학림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40객실</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +657,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,8 +903,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -951,8 +1123,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1339,6 +1517,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1477,7 +1754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1611,6 +1888,36 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1680,36 +1987,28 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1736,7 +2035,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1775,6 +2078,23 @@
     <xf numFmtId="176" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -2129,8 +2449,8 @@
   </sheetPr>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:E43"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2142,13 +2462,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="25.2" x14ac:dyDescent="0.4">
@@ -2178,7 +2498,7 @@
       <c r="D3" s="4">
         <v>601</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="59" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -2196,7 +2516,7 @@
       <c r="D4" s="4">
         <v>604</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -2220,7 +2540,7 @@
       <c r="D5" s="5">
         <v>605</v>
       </c>
-      <c r="E5" s="52"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="2" t="s">
         <v>50</v>
       </c>
@@ -2229,7 +2549,7 @@
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="67" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -2238,7 +2558,7 @@
       <c r="D6" s="4">
         <v>606</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="62" t="s">
         <v>109</v>
       </c>
       <c r="F6" s="2"/>
@@ -2247,14 +2567,14 @@
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="4">
         <v>607</v>
       </c>
-      <c r="E7" s="53"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="2"/>
       <c r="J7" s="31"/>
     </row>
@@ -2262,42 +2582,42 @@
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="4">
         <v>609</v>
       </c>
-      <c r="E8" s="53"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="4">
         <v>610</v>
       </c>
-      <c r="E9" s="53"/>
+      <c r="E9" s="62"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="5">
         <v>613</v>
       </c>
-      <c r="E10" s="53"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="2"/>
       <c r="I10" t="s">
         <v>6</v>
@@ -2307,70 +2627,70 @@
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="4">
         <v>614</v>
       </c>
-      <c r="E11" s="53"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="4">
         <v>617</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="4">
         <v>618</v>
       </c>
-      <c r="E13" s="53"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="4">
         <v>619</v>
       </c>
-      <c r="E14" s="53"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="4">
         <v>620</v>
       </c>
-      <c r="E15" s="53"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="2" t="s">
         <v>48</v>
       </c>
@@ -2379,7 +2699,7 @@
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="12" t="s">
         <v>29</v>
       </c>
@@ -2395,14 +2715,14 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="4">
         <v>915</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="59" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="2"/>
@@ -2411,35 +2731,35 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="4">
         <v>923</v>
       </c>
-      <c r="E18" s="51"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="60"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D19" s="4">
         <v>926</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="67" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -2448,175 +2768,175 @@
       <c r="D20" s="4">
         <v>1001</v>
       </c>
-      <c r="E20" s="51"/>
+      <c r="E20" s="60"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="4">
         <v>1002</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="60"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="4">
         <v>1003</v>
       </c>
-      <c r="E22" s="51"/>
+      <c r="E22" s="60"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="59"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="4">
         <v>1004</v>
       </c>
-      <c r="E23" s="51"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="4">
         <v>1005</v>
       </c>
-      <c r="E24" s="51"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="59"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="4">
         <v>1006</v>
       </c>
-      <c r="E25" s="51"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="4">
         <v>1007</v>
       </c>
-      <c r="E26" s="51"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="4">
         <v>1008</v>
       </c>
-      <c r="E27" s="51"/>
+      <c r="E27" s="60"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="4">
         <v>1009</v>
       </c>
-      <c r="E28" s="51"/>
+      <c r="E28" s="60"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="59"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="4">
         <v>1010</v>
       </c>
-      <c r="E29" s="51"/>
+      <c r="E29" s="60"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="59"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="4">
         <v>1011</v>
       </c>
-      <c r="E30" s="51"/>
+      <c r="E30" s="60"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="59"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="4">
         <v>1012</v>
       </c>
-      <c r="E31" s="51"/>
+      <c r="E31" s="60"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="59"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D32" s="4">
         <v>1013</v>
       </c>
-      <c r="E32" s="51"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="2" t="s">
         <v>54</v>
       </c>
@@ -2625,126 +2945,126 @@
       <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="59"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="12" t="s">
         <v>101</v>
       </c>
       <c r="D33" s="4">
         <v>1014</v>
       </c>
-      <c r="E33" s="51"/>
+      <c r="E33" s="60"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="59"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="4">
         <v>1015</v>
       </c>
-      <c r="E34" s="51"/>
+      <c r="E34" s="60"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="59"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="4">
         <v>1017</v>
       </c>
-      <c r="E35" s="51"/>
+      <c r="E35" s="60"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="59"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="4">
         <v>1018</v>
       </c>
-      <c r="E36" s="51"/>
+      <c r="E36" s="60"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="59"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="4">
         <v>1019</v>
       </c>
-      <c r="E37" s="51"/>
+      <c r="E37" s="60"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="59"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="4">
         <v>1020</v>
       </c>
-      <c r="E38" s="51"/>
+      <c r="E38" s="60"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>37</v>
       </c>
-      <c r="B39" s="59"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="4">
         <v>1021</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="59"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="4">
         <v>1022</v>
       </c>
-      <c r="E40" s="51"/>
+      <c r="E40" s="60"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>39</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="4">
         <v>1023</v>
       </c>
-      <c r="E41" s="51"/>
+      <c r="E41" s="60"/>
       <c r="F41" s="2" t="s">
         <v>58</v>
       </c>
@@ -2753,58 +3073,58 @@
       <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="68"/>
       <c r="C42" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="4">
         <v>1024</v>
       </c>
-      <c r="E42" s="51"/>
+      <c r="E42" s="60"/>
     </row>
     <row r="43" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="B43" s="60"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D43" s="4">
         <v>1025</v>
       </c>
-      <c r="E43" s="52"/>
+      <c r="E43" s="61"/>
       <c r="F43" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56" t="str">
+      <c r="B44" s="64"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65" t="str">
         <f>COUNT(D3:D43)&amp;"객실"</f>
         <v>41객실</v>
       </c>
-      <c r="E44" s="57"/>
+      <c r="E44" s="66"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A45" s="38"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="41"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="50"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="42"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="45"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="54"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
@@ -2837,10 +3157,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2852,13 +3172,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="25.2" x14ac:dyDescent="0.4">
@@ -2888,7 +3208,7 @@
       <c r="D3" s="22">
         <v>601</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="87" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="23" t="s">
@@ -2906,7 +3226,7 @@
       <c r="D4" s="22">
         <v>604</v>
       </c>
-      <c r="E4" s="80"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="24" t="s">
         <v>60</v>
       </c>
@@ -2922,14 +3242,14 @@
       <c r="D5" s="25">
         <v>605</v>
       </c>
-      <c r="E5" s="81"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="90" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -2938,7 +3258,7 @@
       <c r="D6" s="22">
         <v>606</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="85" t="s">
         <v>108</v>
       </c>
       <c r="F6" s="16"/>
@@ -2947,28 +3267,28 @@
       <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="83"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="30" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="22">
         <v>607</v>
       </c>
-      <c r="E7" s="78"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="83"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="22">
         <v>609</v>
       </c>
-      <c r="E8" s="78"/>
+      <c r="E8" s="86"/>
       <c r="F8" s="16"/>
       <c r="K8" s="32"/>
     </row>
@@ -2976,42 +3296,42 @@
       <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B9" s="83"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="30" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="22">
         <v>610</v>
       </c>
-      <c r="E9" s="78"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="83"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="30" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="25">
         <v>613</v>
       </c>
-      <c r="E10" s="78"/>
+      <c r="E10" s="86"/>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="83"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="30" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="22">
         <v>614</v>
       </c>
-      <c r="E11" s="78"/>
+      <c r="E11" s="86"/>
       <c r="F11" s="16"/>
       <c r="I11" t="s">
         <v>6</v>
@@ -3021,42 +3341,42 @@
       <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="30" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="22">
         <v>617</v>
       </c>
-      <c r="E12" s="78"/>
+      <c r="E12" s="86"/>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="30" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="22">
         <v>618</v>
       </c>
-      <c r="E13" s="78"/>
+      <c r="E13" s="86"/>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="83"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="22">
         <v>619</v>
       </c>
-      <c r="E14" s="78"/>
+      <c r="E14" s="86"/>
       <c r="F14" s="16" t="s">
         <v>71</v>
       </c>
@@ -3065,56 +3385,56 @@
       <c r="A15" s="20">
         <v>13</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="30" t="s">
         <v>72</v>
       </c>
       <c r="D15" s="22">
         <v>620</v>
       </c>
-      <c r="E15" s="78"/>
+      <c r="E15" s="86"/>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="22">
         <v>622</v>
       </c>
-      <c r="E16" s="78"/>
+      <c r="E16" s="86"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20">
         <v>15</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="22">
         <v>623</v>
       </c>
-      <c r="E17" s="78"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="83"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="30" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="22">
         <v>626</v>
       </c>
-      <c r="E18" s="78"/>
+      <c r="E18" s="86"/>
       <c r="F18" s="16" t="s">
         <v>76</v>
       </c>
@@ -3123,7 +3443,7 @@
       <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="90" t="s">
         <v>106</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -3132,21 +3452,21 @@
       <c r="D19" s="22">
         <v>704</v>
       </c>
-      <c r="E19" s="78"/>
+      <c r="E19" s="86"/>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="20">
         <v>18</v>
       </c>
-      <c r="B20" s="84"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="26" t="s">
         <v>102</v>
       </c>
       <c r="D20" s="22">
         <v>705</v>
       </c>
-      <c r="E20" s="78"/>
+      <c r="E20" s="86"/>
       <c r="F20" s="16" t="s">
         <v>103</v>
       </c>
@@ -3155,7 +3475,7 @@
       <c r="A21" s="20">
         <v>19</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="91" t="s">
         <v>105</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -3171,7 +3491,7 @@
       <c r="A22" s="20">
         <v>20</v>
       </c>
-      <c r="B22" s="84"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="21" t="s">
         <v>61</v>
       </c>
@@ -3188,375 +3508,1054 @@
       <c r="A23" s="20">
         <v>21</v>
       </c>
-      <c r="B23" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="22">
-        <v>1001</v>
-      </c>
-      <c r="E23" s="79" t="s">
-        <v>110</v>
-      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="94"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="16"/>
+      <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="20">
         <v>22</v>
       </c>
-      <c r="B24" s="83"/>
+      <c r="B24" s="90" t="s">
+        <v>106</v>
+      </c>
       <c r="C24" s="30" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D24" s="22">
-        <v>1002</v>
-      </c>
-      <c r="E24" s="80"/>
+        <v>1001</v>
+      </c>
+      <c r="E24" s="87" t="s">
+        <v>110</v>
+      </c>
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20">
         <v>23</v>
       </c>
-      <c r="B25" s="83"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="30" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D25" s="22">
-        <v>1003</v>
-      </c>
-      <c r="E25" s="80"/>
+        <v>1002</v>
+      </c>
+      <c r="E25" s="88"/>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20">
         <v>24</v>
       </c>
-      <c r="B26" s="83"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="22">
-        <v>1004</v>
-      </c>
-      <c r="E26" s="80"/>
+        <v>1003</v>
+      </c>
+      <c r="E26" s="88"/>
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20">
         <v>25</v>
       </c>
-      <c r="B27" s="83"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="22">
-        <v>1005</v>
-      </c>
-      <c r="E27" s="80"/>
+        <v>1004</v>
+      </c>
+      <c r="E27" s="88"/>
       <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20">
         <v>26</v>
       </c>
-      <c r="B28" s="83"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="22">
-        <v>1006</v>
-      </c>
-      <c r="E28" s="80"/>
+        <v>1005</v>
+      </c>
+      <c r="E28" s="88"/>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20">
         <v>27</v>
       </c>
-      <c r="B29" s="83"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="22">
-        <v>1007</v>
-      </c>
-      <c r="E29" s="80"/>
+        <v>1006</v>
+      </c>
+      <c r="E29" s="88"/>
       <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="20">
         <v>28</v>
       </c>
-      <c r="B30" s="83"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" s="22">
-        <v>1008</v>
-      </c>
-      <c r="E30" s="80"/>
+        <v>1007</v>
+      </c>
+      <c r="E30" s="88"/>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20">
         <v>29</v>
       </c>
-      <c r="B31" s="83"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="22">
-        <v>1009</v>
-      </c>
-      <c r="E31" s="80"/>
+        <v>1008</v>
+      </c>
+      <c r="E31" s="88"/>
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="20">
         <v>30</v>
       </c>
-      <c r="B32" s="83"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D32" s="22">
-        <v>1010</v>
-      </c>
-      <c r="E32" s="80"/>
+        <v>1009</v>
+      </c>
+      <c r="E32" s="88"/>
       <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20">
         <v>31</v>
       </c>
-      <c r="B33" s="83"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D33" s="22">
-        <v>1011</v>
-      </c>
-      <c r="E33" s="80"/>
+        <v>1010</v>
+      </c>
+      <c r="E33" s="88"/>
       <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="20">
         <v>32</v>
       </c>
-      <c r="B34" s="83"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D34" s="22">
-        <v>1012</v>
-      </c>
-      <c r="E34" s="80"/>
+        <v>1011</v>
+      </c>
+      <c r="E34" s="88"/>
       <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20">
         <v>33</v>
       </c>
-      <c r="B35" s="83"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D35" s="22">
-        <v>1013</v>
-      </c>
-      <c r="E35" s="80"/>
+        <v>1012</v>
+      </c>
+      <c r="E35" s="88"/>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="20">
         <v>34</v>
       </c>
-      <c r="B36" s="83"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="22">
-        <v>1014</v>
-      </c>
-      <c r="E36" s="80"/>
+        <v>1013</v>
+      </c>
+      <c r="E36" s="88"/>
       <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20">
         <v>35</v>
       </c>
-      <c r="B37" s="83"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37" s="22">
-        <v>1015</v>
-      </c>
-      <c r="E37" s="80"/>
+        <v>1014</v>
+      </c>
+      <c r="E37" s="88"/>
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="20">
         <v>36</v>
       </c>
-      <c r="B38" s="83"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" s="22">
-        <v>1017</v>
-      </c>
-      <c r="E38" s="80"/>
+        <v>1015</v>
+      </c>
+      <c r="E38" s="88"/>
       <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="20">
         <v>37</v>
       </c>
-      <c r="B39" s="83"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="22">
-        <v>1018</v>
-      </c>
-      <c r="E39" s="80"/>
+        <v>1017</v>
+      </c>
+      <c r="E39" s="88"/>
       <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="20">
         <v>38</v>
       </c>
-      <c r="B40" s="83"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="22">
-        <v>1019</v>
-      </c>
-      <c r="E40" s="80"/>
+        <v>1018</v>
+      </c>
+      <c r="E40" s="88"/>
       <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="20">
         <v>39</v>
       </c>
-      <c r="B41" s="83"/>
-      <c r="C41" s="26" t="s">
-        <v>94</v>
+      <c r="B41" s="91"/>
+      <c r="C41" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="D41" s="22">
-        <v>1020</v>
-      </c>
-      <c r="E41" s="80"/>
-      <c r="F41" s="16" t="s">
-        <v>95</v>
-      </c>
+        <v>1019</v>
+      </c>
+      <c r="E41" s="88"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="20">
         <v>40</v>
       </c>
-      <c r="B42" s="83"/>
-      <c r="C42" s="30" t="s">
-        <v>96</v>
+      <c r="B42" s="91"/>
+      <c r="C42" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="D42" s="22">
-        <v>1021</v>
-      </c>
-      <c r="E42" s="80"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+        <v>1020</v>
+      </c>
+      <c r="E42" s="88"/>
+      <c r="F42" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="20">
         <v>41</v>
       </c>
-      <c r="B43" s="83"/>
+      <c r="B43" s="91"/>
       <c r="C43" s="30" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D43" s="22">
-        <v>1022</v>
-      </c>
-      <c r="E43" s="80"/>
-      <c r="F43" s="28"/>
+        <v>1021</v>
+      </c>
+      <c r="E43" s="88"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="20">
         <v>42</v>
       </c>
-      <c r="B44" s="83"/>
+      <c r="B44" s="91"/>
       <c r="C44" s="30" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D44" s="22">
-        <v>1023</v>
-      </c>
-      <c r="E44" s="80"/>
+        <v>1022</v>
+      </c>
+      <c r="E44" s="88"/>
       <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="20">
         <v>43</v>
       </c>
-      <c r="B45" s="84"/>
-      <c r="C45" s="21" t="s">
+      <c r="B45" s="91"/>
+      <c r="C45" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="22">
+        <v>1023</v>
+      </c>
+      <c r="E45" s="88"/>
+      <c r="F45" s="28"/>
+    </row>
+    <row r="46" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A46" s="20">
+        <v>44</v>
+      </c>
+      <c r="B46" s="92"/>
+      <c r="C46" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D46" s="22">
         <v>1024</v>
       </c>
-      <c r="E45" s="81"/>
-      <c r="F45" s="28"/>
-    </row>
-    <row r="46" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="75" t="s">
+      <c r="E46" s="89"/>
+      <c r="F46" s="28"/>
+    </row>
+    <row r="47" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="76"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73" t="s">
+      <c r="B47" s="83"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="74"/>
-      <c r="F46" s="28"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="61"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="29"/>
-    </row>
-    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="65"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="68"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="28"/>
+    </row>
+    <row r="48" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="70"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="72"/>
       <c r="F48" s="29"/>
     </row>
+    <row r="49" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="73"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A47:E48"/>
+  <mergeCells count="12">
+    <mergeCell ref="A48:E49"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A47:C47"/>
     <mergeCell ref="E6:E20"/>
     <mergeCell ref="E3:E5"/>
-    <mergeCell ref="B23:B45"/>
+    <mergeCell ref="B24:B46"/>
     <mergeCell ref="B6:B18"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="E23:E45"/>
+    <mergeCell ref="E24:E46"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C9648B-A392-41F5-A8B4-06A1D4DE9CD0}">
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" customWidth="1"/>
+    <col min="5" max="5" width="23.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4">
+        <v>707</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1101</v>
+      </c>
+      <c r="E4" s="96"/>
+      <c r="F4" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="41">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1104</v>
+      </c>
+      <c r="E5" s="97"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="41">
+        <v>4</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="4">
+        <v>601</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="91"/>
+      <c r="C7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="4">
+        <v>604</v>
+      </c>
+      <c r="E7" s="96"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="41">
+        <v>6</v>
+      </c>
+      <c r="B8" s="91"/>
+      <c r="C8" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="4">
+        <v>605</v>
+      </c>
+      <c r="E8" s="96"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="41">
+        <v>7</v>
+      </c>
+      <c r="B9" s="91"/>
+      <c r="C9" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="4">
+        <v>606</v>
+      </c>
+      <c r="E9" s="96"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="41">
+        <v>8</v>
+      </c>
+      <c r="B10" s="91"/>
+      <c r="C10" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="5">
+        <v>607</v>
+      </c>
+      <c r="E10" s="96"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="41">
+        <v>9</v>
+      </c>
+      <c r="B11" s="91"/>
+      <c r="C11" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="4">
+        <v>609</v>
+      </c>
+      <c r="E11" s="96"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="91"/>
+      <c r="C12" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="4">
+        <v>610</v>
+      </c>
+      <c r="E12" s="96"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="41">
+        <v>11</v>
+      </c>
+      <c r="B13" s="91"/>
+      <c r="C13" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="4">
+        <v>613</v>
+      </c>
+      <c r="E13" s="96"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="41">
+        <v>12</v>
+      </c>
+      <c r="B14" s="91"/>
+      <c r="C14" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="4">
+        <v>614</v>
+      </c>
+      <c r="E14" s="96"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="41">
+        <v>13</v>
+      </c>
+      <c r="B15" s="91"/>
+      <c r="C15" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="4">
+        <v>617</v>
+      </c>
+      <c r="E15" s="96"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="41">
+        <v>14</v>
+      </c>
+      <c r="B16" s="91"/>
+      <c r="C16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="4">
+        <v>618</v>
+      </c>
+      <c r="E16" s="96"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="41">
+        <v>15</v>
+      </c>
+      <c r="B17" s="91"/>
+      <c r="C17" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="4">
+        <v>619</v>
+      </c>
+      <c r="E17" s="96"/>
+      <c r="F17" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="41">
+        <v>16</v>
+      </c>
+      <c r="B18" s="91"/>
+      <c r="C18" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="4">
+        <v>620</v>
+      </c>
+      <c r="E18" s="96"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="41">
+        <v>17</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1114</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="41">
+        <v>18</v>
+      </c>
+      <c r="B20" s="90"/>
+      <c r="C20" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1001</v>
+      </c>
+      <c r="E20" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="41">
+        <v>19</v>
+      </c>
+      <c r="B21" s="91"/>
+      <c r="C21" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1002</v>
+      </c>
+      <c r="E21" s="96"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="41">
+        <v>20</v>
+      </c>
+      <c r="B22" s="91"/>
+      <c r="C22" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1003</v>
+      </c>
+      <c r="E22" s="96"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="41">
+        <v>21</v>
+      </c>
+      <c r="B23" s="91"/>
+      <c r="C23" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1004</v>
+      </c>
+      <c r="E23" s="96"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="41">
+        <v>22</v>
+      </c>
+      <c r="B24" s="91"/>
+      <c r="C24" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1005</v>
+      </c>
+      <c r="E24" s="96"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="41">
+        <v>23</v>
+      </c>
+      <c r="B25" s="91"/>
+      <c r="C25" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1006</v>
+      </c>
+      <c r="E25" s="96"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="41">
+        <v>24</v>
+      </c>
+      <c r="B26" s="91"/>
+      <c r="C26" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1007</v>
+      </c>
+      <c r="E26" s="96"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="41">
+        <v>25</v>
+      </c>
+      <c r="B27" s="91"/>
+      <c r="C27" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1008</v>
+      </c>
+      <c r="E27" s="96"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="41">
+        <v>26</v>
+      </c>
+      <c r="B28" s="91"/>
+      <c r="C28" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1009</v>
+      </c>
+      <c r="E28" s="96"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="41">
+        <v>27</v>
+      </c>
+      <c r="B29" s="91"/>
+      <c r="C29" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1010</v>
+      </c>
+      <c r="E29" s="96"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="41">
+        <v>28</v>
+      </c>
+      <c r="B30" s="91"/>
+      <c r="C30" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1011</v>
+      </c>
+      <c r="E30" s="96"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="41">
+        <v>29</v>
+      </c>
+      <c r="B31" s="91"/>
+      <c r="C31" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1012</v>
+      </c>
+      <c r="E31" s="96"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="41">
+        <v>30</v>
+      </c>
+      <c r="B32" s="91"/>
+      <c r="C32" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1013</v>
+      </c>
+      <c r="E32" s="96"/>
+      <c r="F32" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="41">
+        <v>31</v>
+      </c>
+      <c r="B33" s="91"/>
+      <c r="C33" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1014</v>
+      </c>
+      <c r="E33" s="96"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="41">
+        <v>32</v>
+      </c>
+      <c r="B34" s="91"/>
+      <c r="C34" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1015</v>
+      </c>
+      <c r="E34" s="96"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="41">
+        <v>33</v>
+      </c>
+      <c r="B35" s="91"/>
+      <c r="C35" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1017</v>
+      </c>
+      <c r="E35" s="96"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="41">
+        <v>34</v>
+      </c>
+      <c r="B36" s="91"/>
+      <c r="C36" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1018</v>
+      </c>
+      <c r="E36" s="96"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="41">
+        <v>35</v>
+      </c>
+      <c r="B37" s="91"/>
+      <c r="C37" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1019</v>
+      </c>
+      <c r="E37" s="96"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="41">
+        <v>36</v>
+      </c>
+      <c r="B38" s="91"/>
+      <c r="C38" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1020</v>
+      </c>
+      <c r="E38" s="96"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="41">
+        <v>37</v>
+      </c>
+      <c r="B39" s="91"/>
+      <c r="C39" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1021</v>
+      </c>
+      <c r="E39" s="96"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="41">
+        <v>38</v>
+      </c>
+      <c r="B40" s="91"/>
+      <c r="C40" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1022</v>
+      </c>
+      <c r="E40" s="96"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A41" s="41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="91"/>
+      <c r="C41" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1023</v>
+      </c>
+      <c r="E41" s="96"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A42" s="41">
+        <v>40</v>
+      </c>
+      <c r="B42" s="92"/>
+      <c r="C42" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1024</v>
+      </c>
+      <c r="E42" s="96"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="64"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="66"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="50"/>
+    </row>
+    <row r="45" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="B20:B42"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E18"/>
+    <mergeCell ref="E20:E42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/rooming.xlsx
+++ b/data/rooming.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250821\4시24분\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\Desktop\이서호\제안서\롯데 면세점\참여자 명단\방배정표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{695C6F29-8321-4675-84E7-301475CBC7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EB30CBE-9AA0-418E-B20F-FB49618FEBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,18 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1차수'!$A$1:$E$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2차수'!$A$1:$E$44</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -550,10 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>남궁표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김신영, 조아라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -647,6 +654,10 @@
   </si>
   <si>
     <t>40객실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김원식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3899,8 +3910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C9648B-A392-41F5-A8B4-06A1D4DE9CD0}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4181,7 +4192,7 @@
         <v>105</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D19" s="4">
         <v>1114</v>
@@ -4197,7 +4208,7 @@
       </c>
       <c r="B20" s="90"/>
       <c r="C20" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="4">
         <v>1001</v>
@@ -4213,7 +4224,7 @@
       </c>
       <c r="B21" s="91"/>
       <c r="C21" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21" s="4">
         <v>1002</v>
@@ -4227,7 +4238,7 @@
       </c>
       <c r="B22" s="91"/>
       <c r="C22" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" s="4">
         <v>1003</v>
@@ -4241,7 +4252,7 @@
       </c>
       <c r="B23" s="91"/>
       <c r="C23" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="4">
         <v>1004</v>
@@ -4255,7 +4266,7 @@
       </c>
       <c r="B24" s="91"/>
       <c r="C24" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" s="4">
         <v>1005</v>
@@ -4269,7 +4280,7 @@
       </c>
       <c r="B25" s="91"/>
       <c r="C25" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D25" s="4">
         <v>1006</v>
@@ -4283,7 +4294,7 @@
       </c>
       <c r="B26" s="91"/>
       <c r="C26" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D26" s="4">
         <v>1007</v>
@@ -4297,7 +4308,7 @@
       </c>
       <c r="B27" s="91"/>
       <c r="C27" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" s="4">
         <v>1008</v>
@@ -4311,7 +4322,7 @@
       </c>
       <c r="B28" s="91"/>
       <c r="C28" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" s="4">
         <v>1009</v>
@@ -4325,7 +4336,7 @@
       </c>
       <c r="B29" s="91"/>
       <c r="C29" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D29" s="4">
         <v>1010</v>
@@ -4339,7 +4350,7 @@
       </c>
       <c r="B30" s="91"/>
       <c r="C30" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D30" s="4">
         <v>1011</v>
@@ -4353,7 +4364,7 @@
       </c>
       <c r="B31" s="91"/>
       <c r="C31" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31" s="4">
         <v>1012</v>
@@ -4367,14 +4378,14 @@
       </c>
       <c r="B32" s="91"/>
       <c r="C32" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" s="4">
         <v>1013</v>
       </c>
       <c r="E32" s="96"/>
       <c r="F32" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4383,7 +4394,7 @@
       </c>
       <c r="B33" s="91"/>
       <c r="C33" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" s="4">
         <v>1014</v>
@@ -4397,7 +4408,7 @@
       </c>
       <c r="B34" s="91"/>
       <c r="C34" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" s="4">
         <v>1015</v>
@@ -4411,7 +4422,7 @@
       </c>
       <c r="B35" s="91"/>
       <c r="C35" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D35" s="4">
         <v>1017</v>
@@ -4425,7 +4436,7 @@
       </c>
       <c r="B36" s="91"/>
       <c r="C36" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D36" s="4">
         <v>1018</v>
@@ -4439,7 +4450,7 @@
       </c>
       <c r="B37" s="91"/>
       <c r="C37" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" s="4">
         <v>1019</v>
@@ -4453,7 +4464,7 @@
       </c>
       <c r="B38" s="91"/>
       <c r="C38" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D38" s="4">
         <v>1020</v>
@@ -4467,7 +4478,7 @@
       </c>
       <c r="B39" s="91"/>
       <c r="C39" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D39" s="4">
         <v>1021</v>
@@ -4481,7 +4492,7 @@
       </c>
       <c r="B40" s="91"/>
       <c r="C40" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D40" s="4">
         <v>1022</v>
@@ -4495,7 +4506,7 @@
       </c>
       <c r="B41" s="91"/>
       <c r="C41" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D41" s="4">
         <v>1023</v>
@@ -4524,7 +4535,7 @@
       <c r="B43" s="64"/>
       <c r="C43" s="65"/>
       <c r="D43" s="65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E43" s="66"/>
       <c r="F43" s="3"/>

--- a/data/rooming.xlsx
+++ b/data/rooming.xlsx
@@ -5,39 +5,232 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\Desktop\이서호\제안서\롯데 면세점\참여자 명단\방배정표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EB30CBE-9AA0-418E-B20F-FB49618FEBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA5B2B32-B2E5-46C8-A45D-615A2D2A299D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1차수" sheetId="6" r:id="rId1"/>
     <sheet name="2차수" sheetId="5" r:id="rId2"/>
     <sheet name="3차수" sheetId="7" r:id="rId3"/>
+    <sheet name="4차수" sheetId="10" r:id="rId4"/>
+    <sheet name="5차수" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1차수'!$A$1:$E$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2차수'!$A$1:$E$44</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>썬밸리호텔 프론트 2</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{8816CC52-D1A4-4D38-9056-DA36638A63C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>연박</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D45" authorId="0" shapeId="0" xr:uid="{30D4DFC7-C775-48AF-945F-EEB6EAB84672}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>연박</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>썬밸리호텔 프론트 2</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{3B3D2415-C51C-4549-8ACD-375EE83F4E8C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>트윈으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가야함</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>근데</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>관악구청이랑</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중복이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안되게끔</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해야함</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="250">
   <si>
     <t>Guest Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,6 +754,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>남궁표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>김신영, 조아라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -657,7 +854,570 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김원식</t>
+    <t>롯데면세점 야모이자(9/7~9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데(교육생,남)
+13객실
+싱글 2개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데(교육생,여)
+25객실
+더블 2개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데면세점 9/10~11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스탠다드 트윈 
+24객실
+여성층
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디럭스 더블 트윈
+13객실
+남성층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43객실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">9/7~9(2박)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>야모이자 대행사
+(더블1, 싱글1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>9/8~9(1박)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+야모이자 대행사
+(더블1, 싱글1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤건준, 김태완</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조서형, 진영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍영식, 오시윤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조강일, 강성민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황순재, 김지안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강종우, 지석근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서홍석, 이준호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강만석, 정용해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조민우, 송철호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조재서, 박경식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채희민, 조영길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태준, 강문진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채희민: 이준홍 희망 (이준홍 차수변경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강성철: 사전신청x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박현정, 최솔님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송정원, 문현주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이영미, 김서연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조인혜, 안진주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조현미, 신혜경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김성희, 성지은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전혜경, 장효주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진소민, 허정윤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천자영, 류경아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최은아, 김민정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김소정, 류미희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김유나, 한주현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전유림, 황은미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신새미, 박가영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유옥경, 강나경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수진, 김솔비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표영희, 이영신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최정민, 황미령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김가혜, 김초희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김은숙, 유경아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김혜린, 이유나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘, 남지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최윤아, 홍미연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고경숙, 김미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이교자: 사전신청x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영진, 이재영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고서영, 이현숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김수정, 이진영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김정화, 배은희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장민희, 신현주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김숙경, 이경미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김유연, 최지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진주, 황지은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서현정, 맹수현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성경아, 김은선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재영, 조아름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김혜숙, 양혜자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현진, 김나은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이민희, 김연아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김려원, 김은정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이유정, 장유진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현숙, 이윤선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이유지, 이보람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재희, 윤영혜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안영미, 이미현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최지영, 서연서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이소연, 이유리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재하, 최세린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준석, 김경호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최영훈, 강흥수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장종훈, 김창호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강건, 왕대웅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍범기, 하영환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김기경, 김주영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김상준, 김재하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정현웅, 권태수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장현호, 장성훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최정이, 장우성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남종우, 오동근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민우, 홍정석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이준영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">디럭스 더블 2객실
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>9/9~11(2박)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">디럭스 더블 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">9/7~9(2박)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 롯데(진행자)
+2객실
+디럭스 더블</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디럭스 더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>9/10~11(1박)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+야모이자
+(더블1, 싱글1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">9/9~11(2박)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>야모이자
+(더블1, 싱글1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강성철</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 박재호</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이교자</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 김정현</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김성훈, 노승현</t>
+  </si>
+  <si>
+    <t>황영랑, 최유선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안영미: 박지은 희망</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +1428,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,6 +1682,52 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -1141,7 +1947,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1627,6 +2433,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1765,7 +2582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1929,6 +2746,30 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="34" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2106,6 +2947,63 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -2460,7 +3358,7 @@
   </sheetPr>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2473,13 +3371,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="25.2" x14ac:dyDescent="0.4">
@@ -2509,7 +3407,7 @@
       <c r="D3" s="4">
         <v>601</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="67" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -2527,7 +3425,7 @@
       <c r="D4" s="4">
         <v>604</v>
       </c>
-      <c r="E4" s="60"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -2551,7 +3449,7 @@
       <c r="D5" s="5">
         <v>605</v>
       </c>
-      <c r="E5" s="61"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="2" t="s">
         <v>50</v>
       </c>
@@ -2560,7 +3458,7 @@
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="75" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -2569,7 +3467,7 @@
       <c r="D6" s="4">
         <v>606</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="70" t="s">
         <v>109</v>
       </c>
       <c r="F6" s="2"/>
@@ -2578,14 +3476,14 @@
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="4">
         <v>607</v>
       </c>
-      <c r="E7" s="62"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="2"/>
       <c r="J7" s="31"/>
     </row>
@@ -2593,42 +3491,42 @@
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="4">
         <v>609</v>
       </c>
-      <c r="E8" s="62"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="4">
         <v>610</v>
       </c>
-      <c r="E9" s="62"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="5">
         <v>613</v>
       </c>
-      <c r="E10" s="62"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="2"/>
       <c r="I10" t="s">
         <v>6</v>
@@ -2638,70 +3536,70 @@
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="68"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="4">
         <v>614</v>
       </c>
-      <c r="E11" s="62"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="4">
         <v>617</v>
       </c>
-      <c r="E12" s="62"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="4">
         <v>618</v>
       </c>
-      <c r="E13" s="62"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="4">
         <v>619</v>
       </c>
-      <c r="E14" s="62"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="4">
         <v>620</v>
       </c>
-      <c r="E15" s="62"/>
+      <c r="E15" s="70"/>
       <c r="F15" s="2" t="s">
         <v>48</v>
       </c>
@@ -2710,7 +3608,7 @@
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="68"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="12" t="s">
         <v>29</v>
       </c>
@@ -2726,14 +3624,14 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="68"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="4">
         <v>915</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="67" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="2"/>
@@ -2742,35 +3640,35 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="68"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="4">
         <v>923</v>
       </c>
-      <c r="E18" s="60"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="69"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D19" s="4">
         <v>926</v>
       </c>
-      <c r="E19" s="60"/>
+      <c r="E19" s="68"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="75" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -2779,175 +3677,175 @@
       <c r="D20" s="4">
         <v>1001</v>
       </c>
-      <c r="E20" s="60"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="68"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="4">
         <v>1002</v>
       </c>
-      <c r="E21" s="60"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="68"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="4">
         <v>1003</v>
       </c>
-      <c r="E22" s="60"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="68"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="4">
         <v>1004</v>
       </c>
-      <c r="E23" s="60"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="68"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="4">
         <v>1005</v>
       </c>
-      <c r="E24" s="60"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="68"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="4">
         <v>1006</v>
       </c>
-      <c r="E25" s="60"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="68"/>
+      <c r="B26" s="76"/>
       <c r="C26" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="4">
         <v>1007</v>
       </c>
-      <c r="E26" s="60"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="68"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="4">
         <v>1008</v>
       </c>
-      <c r="E27" s="60"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="4">
         <v>1009</v>
       </c>
-      <c r="E28" s="60"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="68"/>
+      <c r="B29" s="76"/>
       <c r="C29" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="4">
         <v>1010</v>
       </c>
-      <c r="E29" s="60"/>
+      <c r="E29" s="68"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="68"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="4">
         <v>1011</v>
       </c>
-      <c r="E30" s="60"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="68"/>
+      <c r="B31" s="76"/>
       <c r="C31" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="4">
         <v>1012</v>
       </c>
-      <c r="E31" s="60"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D32" s="4">
         <v>1013</v>
       </c>
-      <c r="E32" s="60"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="2" t="s">
         <v>54</v>
       </c>
@@ -2956,126 +3854,126 @@
       <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="68"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="12" t="s">
         <v>101</v>
       </c>
       <c r="D33" s="4">
         <v>1014</v>
       </c>
-      <c r="E33" s="60"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="68"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="4">
         <v>1015</v>
       </c>
-      <c r="E34" s="60"/>
+      <c r="E34" s="68"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="68"/>
+      <c r="B35" s="76"/>
       <c r="C35" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="4">
         <v>1017</v>
       </c>
-      <c r="E35" s="60"/>
+      <c r="E35" s="68"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="68"/>
+      <c r="B36" s="76"/>
       <c r="C36" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="4">
         <v>1018</v>
       </c>
-      <c r="E36" s="60"/>
+      <c r="E36" s="68"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="76"/>
       <c r="C37" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="4">
         <v>1019</v>
       </c>
-      <c r="E37" s="60"/>
+      <c r="E37" s="68"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="68"/>
+      <c r="B38" s="76"/>
       <c r="C38" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="4">
         <v>1020</v>
       </c>
-      <c r="E38" s="60"/>
+      <c r="E38" s="68"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>37</v>
       </c>
-      <c r="B39" s="68"/>
+      <c r="B39" s="76"/>
       <c r="C39" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="4">
         <v>1021</v>
       </c>
-      <c r="E39" s="60"/>
+      <c r="E39" s="68"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="68"/>
+      <c r="B40" s="76"/>
       <c r="C40" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="4">
         <v>1022</v>
       </c>
-      <c r="E40" s="60"/>
+      <c r="E40" s="68"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>39</v>
       </c>
-      <c r="B41" s="68"/>
+      <c r="B41" s="76"/>
       <c r="C41" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="4">
         <v>1023</v>
       </c>
-      <c r="E41" s="60"/>
+      <c r="E41" s="68"/>
       <c r="F41" s="2" t="s">
         <v>58</v>
       </c>
@@ -3084,58 +3982,58 @@
       <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="68"/>
+      <c r="B42" s="76"/>
       <c r="C42" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="4">
         <v>1024</v>
       </c>
-      <c r="E42" s="60"/>
+      <c r="E42" s="68"/>
     </row>
     <row r="43" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="B43" s="69"/>
+      <c r="B43" s="77"/>
       <c r="C43" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D43" s="4">
         <v>1025</v>
       </c>
-      <c r="E43" s="61"/>
+      <c r="E43" s="69"/>
       <c r="F43" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65" t="str">
+      <c r="B44" s="72"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73" t="str">
         <f>COUNT(D3:D43)&amp;"객실"</f>
         <v>41객실</v>
       </c>
-      <c r="E44" s="66"/>
+      <c r="E44" s="74"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A45" s="47"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="50"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="58"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="51"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="54"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="62"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
@@ -3170,7 +4068,7 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B2" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -3183,13 +4081,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="25.2" x14ac:dyDescent="0.4">
@@ -3219,7 +4117,7 @@
       <c r="D3" s="22">
         <v>601</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="95" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="23" t="s">
@@ -3237,7 +4135,7 @@
       <c r="D4" s="22">
         <v>604</v>
       </c>
-      <c r="E4" s="88"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="24" t="s">
         <v>60</v>
       </c>
@@ -3253,14 +4151,14 @@
       <c r="D5" s="25">
         <v>605</v>
       </c>
-      <c r="E5" s="89"/>
+      <c r="E5" s="97"/>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="98" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -3269,7 +4167,7 @@
       <c r="D6" s="22">
         <v>606</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="93" t="s">
         <v>108</v>
       </c>
       <c r="F6" s="16"/>
@@ -3278,28 +4176,28 @@
       <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="91"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="30" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="22">
         <v>607</v>
       </c>
-      <c r="E7" s="86"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="91"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="22">
         <v>609</v>
       </c>
-      <c r="E8" s="86"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="16"/>
       <c r="K8" s="32"/>
     </row>
@@ -3307,42 +4205,42 @@
       <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B9" s="91"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="30" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="22">
         <v>610</v>
       </c>
-      <c r="E9" s="86"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="91"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="30" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="25">
         <v>613</v>
       </c>
-      <c r="E10" s="86"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="30" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="22">
         <v>614</v>
       </c>
-      <c r="E11" s="86"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="16"/>
       <c r="I11" t="s">
         <v>6</v>
@@ -3352,42 +4250,42 @@
       <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="30" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="22">
         <v>617</v>
       </c>
-      <c r="E12" s="86"/>
+      <c r="E12" s="94"/>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="30" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="22">
         <v>618</v>
       </c>
-      <c r="E13" s="86"/>
+      <c r="E13" s="94"/>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="22">
         <v>619</v>
       </c>
-      <c r="E14" s="86"/>
+      <c r="E14" s="94"/>
       <c r="F14" s="16" t="s">
         <v>71</v>
       </c>
@@ -3396,56 +4294,56 @@
       <c r="A15" s="20">
         <v>13</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="30" t="s">
         <v>72</v>
       </c>
       <c r="D15" s="22">
         <v>620</v>
       </c>
-      <c r="E15" s="86"/>
+      <c r="E15" s="94"/>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="22">
         <v>622</v>
       </c>
-      <c r="E16" s="86"/>
+      <c r="E16" s="94"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20">
         <v>15</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="22">
         <v>623</v>
       </c>
-      <c r="E17" s="86"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="91"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="30" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="22">
         <v>626</v>
       </c>
-      <c r="E18" s="86"/>
+      <c r="E18" s="94"/>
       <c r="F18" s="16" t="s">
         <v>76</v>
       </c>
@@ -3454,7 +4352,7 @@
       <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="98" t="s">
         <v>106</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -3463,21 +4361,21 @@
       <c r="D19" s="22">
         <v>704</v>
       </c>
-      <c r="E19" s="86"/>
+      <c r="E19" s="94"/>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="20">
         <v>18</v>
       </c>
-      <c r="B20" s="92"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="26" t="s">
         <v>102</v>
       </c>
       <c r="D20" s="22">
         <v>705</v>
       </c>
-      <c r="E20" s="86"/>
+      <c r="E20" s="94"/>
       <c r="F20" s="16" t="s">
         <v>103</v>
       </c>
@@ -3486,7 +4384,7 @@
       <c r="A21" s="20">
         <v>19</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="99" t="s">
         <v>105</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -3502,7 +4400,7 @@
       <c r="A22" s="20">
         <v>20</v>
       </c>
-      <c r="B22" s="92"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="21" t="s">
         <v>61</v>
       </c>
@@ -3520,10 +4418,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="39"/>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="94"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="38"/>
       <c r="F23" s="16"/>
       <c r="K23" s="32"/>
@@ -3532,7 +4430,7 @@
       <c r="A24" s="20">
         <v>22</v>
       </c>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="98" t="s">
         <v>106</v>
       </c>
       <c r="C24" s="30" t="s">
@@ -3541,7 +4439,7 @@
       <c r="D24" s="22">
         <v>1001</v>
       </c>
-      <c r="E24" s="87" t="s">
+      <c r="E24" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F24" s="16"/>
@@ -3550,252 +4448,252 @@
       <c r="A25" s="20">
         <v>23</v>
       </c>
-      <c r="B25" s="91"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="30" t="s">
         <v>99</v>
       </c>
       <c r="D25" s="22">
         <v>1002</v>
       </c>
-      <c r="E25" s="88"/>
+      <c r="E25" s="96"/>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20">
         <v>24</v>
       </c>
-      <c r="B26" s="91"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="30" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="22">
         <v>1003</v>
       </c>
-      <c r="E26" s="88"/>
+      <c r="E26" s="96"/>
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20">
         <v>25</v>
       </c>
-      <c r="B27" s="91"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="30" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="22">
         <v>1004</v>
       </c>
-      <c r="E27" s="88"/>
+      <c r="E27" s="96"/>
       <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20">
         <v>26</v>
       </c>
-      <c r="B28" s="91"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="30" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="22">
         <v>1005</v>
       </c>
-      <c r="E28" s="88"/>
+      <c r="E28" s="96"/>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20">
         <v>27</v>
       </c>
-      <c r="B29" s="91"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="30" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="22">
         <v>1006</v>
       </c>
-      <c r="E29" s="88"/>
+      <c r="E29" s="96"/>
       <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="20">
         <v>28</v>
       </c>
-      <c r="B30" s="91"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D30" s="22">
         <v>1007</v>
       </c>
-      <c r="E30" s="88"/>
+      <c r="E30" s="96"/>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20">
         <v>29</v>
       </c>
-      <c r="B31" s="91"/>
+      <c r="B31" s="99"/>
       <c r="C31" s="30" t="s">
         <v>83</v>
       </c>
       <c r="D31" s="22">
         <v>1008</v>
       </c>
-      <c r="E31" s="88"/>
+      <c r="E31" s="96"/>
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="20">
         <v>30</v>
       </c>
-      <c r="B32" s="91"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="30" t="s">
         <v>84</v>
       </c>
       <c r="D32" s="22">
         <v>1009</v>
       </c>
-      <c r="E32" s="88"/>
+      <c r="E32" s="96"/>
       <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20">
         <v>31</v>
       </c>
-      <c r="B33" s="91"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="30" t="s">
         <v>86</v>
       </c>
       <c r="D33" s="22">
         <v>1010</v>
       </c>
-      <c r="E33" s="88"/>
+      <c r="E33" s="96"/>
       <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="20">
         <v>32</v>
       </c>
-      <c r="B34" s="91"/>
+      <c r="B34" s="99"/>
       <c r="C34" s="30" t="s">
         <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>1011</v>
       </c>
-      <c r="E34" s="88"/>
+      <c r="E34" s="96"/>
       <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20">
         <v>33</v>
       </c>
-      <c r="B35" s="91"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="30" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="22">
         <v>1012</v>
       </c>
-      <c r="E35" s="88"/>
+      <c r="E35" s="96"/>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="20">
         <v>34</v>
       </c>
-      <c r="B36" s="91"/>
+      <c r="B36" s="99"/>
       <c r="C36" s="30" t="s">
         <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>1013</v>
       </c>
-      <c r="E36" s="88"/>
+      <c r="E36" s="96"/>
       <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20">
         <v>35</v>
       </c>
-      <c r="B37" s="91"/>
+      <c r="B37" s="99"/>
       <c r="C37" s="30" t="s">
         <v>89</v>
       </c>
       <c r="D37" s="22">
         <v>1014</v>
       </c>
-      <c r="E37" s="88"/>
+      <c r="E37" s="96"/>
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="20">
         <v>36</v>
       </c>
-      <c r="B38" s="91"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="30" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="22">
         <v>1015</v>
       </c>
-      <c r="E38" s="88"/>
+      <c r="E38" s="96"/>
       <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="20">
         <v>37</v>
       </c>
-      <c r="B39" s="91"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="30" t="s">
         <v>91</v>
       </c>
       <c r="D39" s="22">
         <v>1017</v>
       </c>
-      <c r="E39" s="88"/>
+      <c r="E39" s="96"/>
       <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="20">
         <v>38</v>
       </c>
-      <c r="B40" s="91"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="30" t="s">
         <v>92</v>
       </c>
       <c r="D40" s="22">
         <v>1018</v>
       </c>
-      <c r="E40" s="88"/>
+      <c r="E40" s="96"/>
       <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="20">
         <v>39</v>
       </c>
-      <c r="B41" s="91"/>
+      <c r="B41" s="99"/>
       <c r="C41" s="30" t="s">
         <v>93</v>
       </c>
       <c r="D41" s="22">
         <v>1019</v>
       </c>
-      <c r="E41" s="88"/>
+      <c r="E41" s="96"/>
       <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="20">
         <v>40</v>
       </c>
-      <c r="B42" s="91"/>
+      <c r="B42" s="99"/>
       <c r="C42" s="26" t="s">
         <v>94</v>
       </c>
       <c r="D42" s="22">
         <v>1020</v>
       </c>
-      <c r="E42" s="88"/>
+      <c r="E42" s="96"/>
       <c r="F42" s="16" t="s">
         <v>95</v>
       </c>
@@ -3804,84 +4702,84 @@
       <c r="A43" s="20">
         <v>41</v>
       </c>
-      <c r="B43" s="91"/>
+      <c r="B43" s="99"/>
       <c r="C43" s="30" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="22">
         <v>1021</v>
       </c>
-      <c r="E43" s="88"/>
+      <c r="E43" s="96"/>
       <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="20">
         <v>42</v>
       </c>
-      <c r="B44" s="91"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="30" t="s">
         <v>104</v>
       </c>
       <c r="D44" s="22">
         <v>1022</v>
       </c>
-      <c r="E44" s="88"/>
+      <c r="E44" s="96"/>
       <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="20">
         <v>43</v>
       </c>
-      <c r="B45" s="91"/>
+      <c r="B45" s="99"/>
       <c r="C45" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="22">
         <v>1023</v>
       </c>
-      <c r="E45" s="88"/>
+      <c r="E45" s="96"/>
       <c r="F45" s="28"/>
     </row>
     <row r="46" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A46" s="20">
         <v>44</v>
       </c>
-      <c r="B46" s="92"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="22">
         <v>1024</v>
       </c>
-      <c r="E46" s="89"/>
+      <c r="E46" s="97"/>
       <c r="F46" s="28"/>
     </row>
     <row r="47" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="82" t="s">
+      <c r="A47" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="83"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="80" t="s">
+      <c r="B47" s="91"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="81"/>
+      <c r="E47" s="89"/>
       <c r="F47" s="28"/>
     </row>
     <row r="48" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="70"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="72"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="80"/>
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="73"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="75"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="83"/>
       <c r="F49" s="29"/>
     </row>
   </sheetData>
@@ -3910,8 +4808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C9648B-A392-41F5-A8B4-06A1D4DE9CD0}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3923,13 +4821,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="25.2" x14ac:dyDescent="0.4">
@@ -3959,7 +4857,7 @@
       <c r="D3" s="4">
         <v>707</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="103" t="s">
         <v>113</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -3977,7 +4875,7 @@
       <c r="D4" s="4">
         <v>1101</v>
       </c>
-      <c r="E4" s="96"/>
+      <c r="E4" s="104"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -3993,14 +4891,14 @@
       <c r="D5" s="5">
         <v>1104</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="98" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -4009,7 +4907,7 @@
       <c r="D6" s="4">
         <v>601</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="103" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="2"/>
@@ -4018,154 +4916,154 @@
       <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="91"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="12" t="s">
         <v>117</v>
       </c>
       <c r="D7" s="4">
         <v>604</v>
       </c>
-      <c r="E7" s="96"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="91"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="12" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="4">
         <v>605</v>
       </c>
-      <c r="E8" s="96"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="91"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D9" s="4">
         <v>606</v>
       </c>
-      <c r="E9" s="96"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="91"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="45" t="s">
         <v>120</v>
       </c>
       <c r="D10" s="5">
         <v>607</v>
       </c>
-      <c r="E10" s="96"/>
+      <c r="E10" s="104"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <v>9</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="4">
         <v>609</v>
       </c>
-      <c r="E11" s="96"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <v>10</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D12" s="4">
         <v>610</v>
       </c>
-      <c r="E12" s="96"/>
+      <c r="E12" s="104"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <v>11</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D13" s="4">
         <v>613</v>
       </c>
-      <c r="E13" s="96"/>
+      <c r="E13" s="104"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>12</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D14" s="4">
         <v>614</v>
       </c>
-      <c r="E14" s="96"/>
+      <c r="E14" s="104"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <v>13</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="12" t="s">
         <v>125</v>
       </c>
       <c r="D15" s="4">
         <v>617</v>
       </c>
-      <c r="E15" s="96"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <v>14</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="12" t="s">
         <v>126</v>
       </c>
       <c r="D16" s="4">
         <v>618</v>
       </c>
-      <c r="E16" s="96"/>
+      <c r="E16" s="104"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <v>15</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="42" t="s">
         <v>127</v>
       </c>
       <c r="D17" s="4">
         <v>619</v>
       </c>
-      <c r="E17" s="96"/>
+      <c r="E17" s="104"/>
       <c r="F17" s="2" t="s">
         <v>76</v>
       </c>
@@ -4174,14 +5072,14 @@
       <c r="A18" s="41">
         <v>16</v>
       </c>
-      <c r="B18" s="91"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="42" t="s">
         <v>100</v>
       </c>
       <c r="D18" s="4">
         <v>620</v>
       </c>
-      <c r="E18" s="96"/>
+      <c r="E18" s="104"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4192,7 +5090,7 @@
         <v>105</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="D19" s="4">
         <v>1114</v>
@@ -4206,14 +5104,14 @@
       <c r="A20" s="41">
         <v>18</v>
       </c>
-      <c r="B20" s="90"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D20" s="4">
         <v>1001</v>
       </c>
-      <c r="E20" s="95" t="s">
+      <c r="E20" s="103" t="s">
         <v>115</v>
       </c>
       <c r="F20" s="2"/>
@@ -4222,337 +5120,337 @@
       <c r="A21" s="41">
         <v>19</v>
       </c>
-      <c r="B21" s="91"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D21" s="4">
         <v>1002</v>
       </c>
-      <c r="E21" s="96"/>
+      <c r="E21" s="104"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <v>20</v>
       </c>
-      <c r="B22" s="91"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D22" s="4">
         <v>1003</v>
       </c>
-      <c r="E22" s="96"/>
+      <c r="E22" s="104"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <v>21</v>
       </c>
-      <c r="B23" s="91"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D23" s="4">
         <v>1004</v>
       </c>
-      <c r="E23" s="96"/>
+      <c r="E23" s="104"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <v>22</v>
       </c>
-      <c r="B24" s="91"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D24" s="4">
         <v>1005</v>
       </c>
-      <c r="E24" s="96"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <v>23</v>
       </c>
-      <c r="B25" s="91"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D25" s="4">
         <v>1006</v>
       </c>
-      <c r="E25" s="96"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <v>24</v>
       </c>
-      <c r="B26" s="91"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D26" s="4">
         <v>1007</v>
       </c>
-      <c r="E26" s="96"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <v>25</v>
       </c>
-      <c r="B27" s="91"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D27" s="4">
         <v>1008</v>
       </c>
-      <c r="E27" s="96"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <v>26</v>
       </c>
-      <c r="B28" s="91"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D28" s="4">
         <v>1009</v>
       </c>
-      <c r="E28" s="96"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <v>27</v>
       </c>
-      <c r="B29" s="91"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D29" s="4">
         <v>1010</v>
       </c>
-      <c r="E29" s="96"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <v>28</v>
       </c>
-      <c r="B30" s="91"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D30" s="4">
         <v>1011</v>
       </c>
-      <c r="E30" s="96"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <v>29</v>
       </c>
-      <c r="B31" s="91"/>
+      <c r="B31" s="99"/>
       <c r="C31" s="45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D31" s="4">
         <v>1012</v>
       </c>
-      <c r="E31" s="96"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <v>30</v>
       </c>
-      <c r="B32" s="91"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D32" s="4">
         <v>1013</v>
       </c>
-      <c r="E32" s="96"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <v>31</v>
       </c>
-      <c r="B33" s="91"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D33" s="4">
         <v>1014</v>
       </c>
-      <c r="E33" s="96"/>
+      <c r="E33" s="104"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <v>32</v>
       </c>
-      <c r="B34" s="91"/>
+      <c r="B34" s="99"/>
       <c r="C34" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D34" s="4">
         <v>1015</v>
       </c>
-      <c r="E34" s="96"/>
+      <c r="E34" s="104"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <v>33</v>
       </c>
-      <c r="B35" s="91"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D35" s="4">
         <v>1017</v>
       </c>
-      <c r="E35" s="96"/>
+      <c r="E35" s="104"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <v>34</v>
       </c>
-      <c r="B36" s="91"/>
+      <c r="B36" s="99"/>
       <c r="C36" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D36" s="4">
         <v>1018</v>
       </c>
-      <c r="E36" s="96"/>
+      <c r="E36" s="104"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <v>35</v>
       </c>
-      <c r="B37" s="91"/>
+      <c r="B37" s="99"/>
       <c r="C37" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D37" s="4">
         <v>1019</v>
       </c>
-      <c r="E37" s="96"/>
+      <c r="E37" s="104"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <v>36</v>
       </c>
-      <c r="B38" s="91"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D38" s="4">
         <v>1020</v>
       </c>
-      <c r="E38" s="96"/>
+      <c r="E38" s="104"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <v>37</v>
       </c>
-      <c r="B39" s="91"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D39" s="4">
         <v>1021</v>
       </c>
-      <c r="E39" s="96"/>
+      <c r="E39" s="104"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <v>38</v>
       </c>
-      <c r="B40" s="91"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D40" s="4">
         <v>1022</v>
       </c>
-      <c r="E40" s="96"/>
+      <c r="E40" s="104"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <v>39</v>
       </c>
-      <c r="B41" s="91"/>
+      <c r="B41" s="99"/>
       <c r="C41" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D41" s="4">
         <v>1023</v>
       </c>
-      <c r="E41" s="96"/>
+      <c r="E41" s="104"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <v>40</v>
       </c>
-      <c r="B42" s="92"/>
+      <c r="B42" s="100"/>
       <c r="C42" s="42" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="4">
         <v>1024</v>
       </c>
-      <c r="E42" s="96"/>
+      <c r="E42" s="104"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" s="66"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="74"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="47"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="50"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="58"/>
     </row>
     <row r="45" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="54"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4569,4 +5467,1455 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE77CA-235E-4DAA-B93C-2D5EF1F7BEAF}">
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="24.8984375" customWidth="1"/>
+    <col min="4" max="4" width="22.59765625" customWidth="1"/>
+    <col min="5" max="5" width="20.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A3" s="41">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1107</v>
+      </c>
+      <c r="E3" s="106" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="41">
+        <f t="shared" ref="A4:A46" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1109</v>
+      </c>
+      <c r="E4" s="106"/>
+      <c r="F4" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A5" s="41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1114</v>
+      </c>
+      <c r="E5" s="106" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A6" s="41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="108"/>
+      <c r="C6" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1217</v>
+      </c>
+      <c r="E6" s="106"/>
+    </row>
+    <row r="7" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A7" s="41">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="4">
+        <v>701</v>
+      </c>
+      <c r="E7" s="106" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A8" s="41">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="121"/>
+      <c r="C8" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="4">
+        <v>704</v>
+      </c>
+      <c r="E8" s="106"/>
+    </row>
+    <row r="9" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A9" s="41">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="121"/>
+      <c r="C9" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="4">
+        <v>705</v>
+      </c>
+      <c r="E9" s="106"/>
+    </row>
+    <row r="10" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A10" s="41">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="121"/>
+      <c r="C10" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="5">
+        <v>706</v>
+      </c>
+      <c r="E10" s="106"/>
+    </row>
+    <row r="11" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A11" s="41">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="121"/>
+      <c r="C11" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="4">
+        <v>707</v>
+      </c>
+      <c r="E11" s="106"/>
+    </row>
+    <row r="12" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A12" s="41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="121"/>
+      <c r="C12" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="4">
+        <v>709</v>
+      </c>
+      <c r="E12" s="106"/>
+    </row>
+    <row r="13" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A13" s="41">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="121"/>
+      <c r="C13" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="4">
+        <v>710</v>
+      </c>
+      <c r="E13" s="106"/>
+    </row>
+    <row r="14" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A14" s="41">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="121"/>
+      <c r="C14" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="4">
+        <v>713</v>
+      </c>
+      <c r="E14" s="106"/>
+    </row>
+    <row r="15" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A15" s="41">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="4">
+        <v>714</v>
+      </c>
+      <c r="E15" s="106"/>
+    </row>
+    <row r="16" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A16" s="41">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="121"/>
+      <c r="C16" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="4">
+        <v>717</v>
+      </c>
+      <c r="E16" s="106"/>
+    </row>
+    <row r="17" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A17" s="41">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="121"/>
+      <c r="C17" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="4">
+        <v>718</v>
+      </c>
+      <c r="E17" s="106"/>
+    </row>
+    <row r="18" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A18" s="41">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="121"/>
+      <c r="C18" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="4">
+        <v>719</v>
+      </c>
+      <c r="E18" s="106"/>
+      <c r="F18" s="54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A19" s="41">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="108"/>
+      <c r="C19" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="4">
+        <v>720</v>
+      </c>
+      <c r="E19" s="106"/>
+    </row>
+    <row r="20" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A20" s="41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1001</v>
+      </c>
+      <c r="E20" s="106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A21" s="41">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="121"/>
+      <c r="C21" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1002</v>
+      </c>
+      <c r="E21" s="106"/>
+    </row>
+    <row r="22" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A22" s="41">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="121"/>
+      <c r="C22" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1003</v>
+      </c>
+      <c r="E22" s="106"/>
+      <c r="F22" s="54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A23" s="41">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="121"/>
+      <c r="C23" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1004</v>
+      </c>
+      <c r="E23" s="106"/>
+    </row>
+    <row r="24" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="41">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="121"/>
+      <c r="C24" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1005</v>
+      </c>
+      <c r="E24" s="106"/>
+    </row>
+    <row r="25" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A25" s="41">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="121"/>
+      <c r="C25" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1006</v>
+      </c>
+      <c r="E25" s="106"/>
+    </row>
+    <row r="26" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A26" s="41">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="121"/>
+      <c r="C26" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1007</v>
+      </c>
+      <c r="E26" s="106"/>
+    </row>
+    <row r="27" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A27" s="41">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="121"/>
+      <c r="C27" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1008</v>
+      </c>
+      <c r="E27" s="106"/>
+    </row>
+    <row r="28" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A28" s="41">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="121"/>
+      <c r="C28" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1009</v>
+      </c>
+      <c r="E28" s="106"/>
+    </row>
+    <row r="29" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A29" s="41">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="121"/>
+      <c r="C29" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1010</v>
+      </c>
+      <c r="E29" s="106"/>
+    </row>
+    <row r="30" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A30" s="41">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="121"/>
+      <c r="C30" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1011</v>
+      </c>
+      <c r="E30" s="106"/>
+    </row>
+    <row r="31" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A31" s="41">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="121"/>
+      <c r="C31" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1012</v>
+      </c>
+      <c r="E31" s="106"/>
+    </row>
+    <row r="32" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A32" s="41">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="121"/>
+      <c r="C32" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1013</v>
+      </c>
+      <c r="E32" s="106"/>
+    </row>
+    <row r="33" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A33" s="41">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="121"/>
+      <c r="C33" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1014</v>
+      </c>
+      <c r="E33" s="106"/>
+    </row>
+    <row r="34" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A34" s="41">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="121"/>
+      <c r="C34" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1015</v>
+      </c>
+      <c r="E34" s="106"/>
+    </row>
+    <row r="35" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A35" s="41">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="121"/>
+      <c r="C35" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1017</v>
+      </c>
+      <c r="E35" s="106"/>
+    </row>
+    <row r="36" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A36" s="41">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="121"/>
+      <c r="C36" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1018</v>
+      </c>
+      <c r="E36" s="106"/>
+    </row>
+    <row r="37" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A37" s="41">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="121"/>
+      <c r="C37" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1019</v>
+      </c>
+      <c r="E37" s="106"/>
+    </row>
+    <row r="38" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A38" s="41">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="121"/>
+      <c r="C38" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1020</v>
+      </c>
+      <c r="E38" s="106"/>
+    </row>
+    <row r="39" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A39" s="41">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="121"/>
+      <c r="C39" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1021</v>
+      </c>
+      <c r="E39" s="106"/>
+    </row>
+    <row r="40" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A40" s="41">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="121"/>
+      <c r="C40" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1022</v>
+      </c>
+      <c r="E40" s="106"/>
+    </row>
+    <row r="41" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A41" s="41">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="121"/>
+      <c r="C41" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1023</v>
+      </c>
+      <c r="E41" s="106"/>
+    </row>
+    <row r="42" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A42" s="41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="121"/>
+      <c r="C42" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1024</v>
+      </c>
+      <c r="E42" s="106"/>
+    </row>
+    <row r="43" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A43" s="41">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="121"/>
+      <c r="C43" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1025</v>
+      </c>
+      <c r="E43" s="106"/>
+    </row>
+    <row r="44" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A44" s="41">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="108"/>
+      <c r="C44" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1026</v>
+      </c>
+      <c r="E44" s="106"/>
+    </row>
+    <row r="45" spans="1:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="A45" s="41">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="51"/>
+      <c r="C45" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="5">
+        <v>819</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="A46" s="41">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="51"/>
+      <c r="C46" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="5">
+        <v>822</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A47" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="110"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111" t="str">
+        <f>COUNT(D3:D46)&amp;"객실"</f>
+        <v>44객실</v>
+      </c>
+      <c r="E47" s="112"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="113"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="116"/>
+    </row>
+    <row r="49" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="117"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="120"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A48:E49"/>
+    <mergeCell ref="B20:B44"/>
+    <mergeCell ref="B7:B19"/>
+    <mergeCell ref="E20:E44"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E19"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1C208C-2BF7-424A-9DD3-974103DD6970}">
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="24.8984375" customWidth="1"/>
+    <col min="4" max="4" width="22.59765625" customWidth="1"/>
+    <col min="5" max="5" width="20.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="41">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1107</v>
+      </c>
+      <c r="E3" s="103" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="41">
+        <f t="shared" ref="A4:A45" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1109</v>
+      </c>
+      <c r="E4" s="105"/>
+      <c r="F4" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A5" s="41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1114</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A6" s="41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="108"/>
+      <c r="C6" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1122</v>
+      </c>
+      <c r="E6" s="105"/>
+    </row>
+    <row r="7" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A7" s="41">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="4">
+        <v>601</v>
+      </c>
+      <c r="E7" s="103" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A8" s="41">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="121"/>
+      <c r="C8" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="4">
+        <v>604</v>
+      </c>
+      <c r="E8" s="104"/>
+    </row>
+    <row r="9" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A9" s="41">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="121"/>
+      <c r="C9" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="4">
+        <v>605</v>
+      </c>
+      <c r="E9" s="104"/>
+    </row>
+    <row r="10" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A10" s="41">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="121"/>
+      <c r="C10" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="4">
+        <v>606</v>
+      </c>
+      <c r="E10" s="104"/>
+    </row>
+    <row r="11" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A11" s="41">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="121"/>
+      <c r="C11" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="5">
+        <v>607</v>
+      </c>
+      <c r="E11" s="104"/>
+    </row>
+    <row r="12" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A12" s="41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="121"/>
+      <c r="C12" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="4">
+        <v>609</v>
+      </c>
+      <c r="E12" s="104"/>
+    </row>
+    <row r="13" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A13" s="41">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="121"/>
+      <c r="C13" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="4">
+        <v>610</v>
+      </c>
+      <c r="E13" s="104"/>
+    </row>
+    <row r="14" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A14" s="41">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="121"/>
+      <c r="C14" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="4">
+        <v>613</v>
+      </c>
+      <c r="E14" s="104"/>
+    </row>
+    <row r="15" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A15" s="41">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="4">
+        <v>614</v>
+      </c>
+      <c r="E15" s="104"/>
+    </row>
+    <row r="16" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A16" s="41">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="121"/>
+      <c r="C16" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="4">
+        <v>617</v>
+      </c>
+      <c r="E16" s="104"/>
+    </row>
+    <row r="17" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A17" s="41">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="121"/>
+      <c r="C17" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="4">
+        <v>618</v>
+      </c>
+      <c r="E17" s="104"/>
+    </row>
+    <row r="18" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A18" s="41">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="121"/>
+      <c r="C18" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="4">
+        <v>619</v>
+      </c>
+      <c r="E18" s="104"/>
+    </row>
+    <row r="19" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A19" s="41">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="121"/>
+      <c r="C19" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="4">
+        <v>620</v>
+      </c>
+      <c r="E19" s="104"/>
+    </row>
+    <row r="20" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A20" s="41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="121"/>
+      <c r="C20" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="4">
+        <v>622</v>
+      </c>
+      <c r="E20" s="104"/>
+    </row>
+    <row r="21" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A21" s="41">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="121"/>
+      <c r="C21" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="4">
+        <v>623</v>
+      </c>
+      <c r="E21" s="104"/>
+    </row>
+    <row r="22" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A22" s="41">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="121"/>
+      <c r="C22" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="4">
+        <v>626</v>
+      </c>
+      <c r="E22" s="104"/>
+    </row>
+    <row r="23" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A23" s="41">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="121"/>
+      <c r="C23" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="4">
+        <v>701</v>
+      </c>
+      <c r="E23" s="104"/>
+      <c r="F23" s="54"/>
+    </row>
+    <row r="24" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="41">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="121"/>
+      <c r="C24" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="4">
+        <v>704</v>
+      </c>
+      <c r="E24" s="104"/>
+    </row>
+    <row r="25" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A25" s="41">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="121"/>
+      <c r="C25" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="4">
+        <v>705</v>
+      </c>
+      <c r="E25" s="104"/>
+    </row>
+    <row r="26" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A26" s="41">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="121"/>
+      <c r="C26" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="4">
+        <v>706</v>
+      </c>
+      <c r="E26" s="104"/>
+    </row>
+    <row r="27" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A27" s="41">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="121"/>
+      <c r="C27" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="4">
+        <v>707</v>
+      </c>
+      <c r="E27" s="104"/>
+      <c r="F27" s="54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A28" s="41">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="121"/>
+      <c r="C28" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" s="4">
+        <v>709</v>
+      </c>
+      <c r="E28" s="104"/>
+    </row>
+    <row r="29" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A29" s="41">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="121"/>
+      <c r="C29" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="4">
+        <v>710</v>
+      </c>
+      <c r="E29" s="104"/>
+    </row>
+    <row r="30" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A30" s="41">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="121"/>
+      <c r="C30" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" s="4">
+        <v>713</v>
+      </c>
+      <c r="E30" s="104"/>
+    </row>
+    <row r="31" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="41">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="5">
+        <v>819</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="41">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="51"/>
+      <c r="C32" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="5">
+        <v>822</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A33" s="41">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1012</v>
+      </c>
+      <c r="E33" s="103" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A34" s="41">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="121"/>
+      <c r="C34" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1013</v>
+      </c>
+      <c r="E34" s="104"/>
+    </row>
+    <row r="35" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A35" s="41">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="121"/>
+      <c r="C35" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1014</v>
+      </c>
+      <c r="E35" s="104"/>
+      <c r="F35" s="54"/>
+    </row>
+    <row r="36" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A36" s="41">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="121"/>
+      <c r="C36" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1015</v>
+      </c>
+      <c r="E36" s="104"/>
+    </row>
+    <row r="37" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A37" s="41">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="121"/>
+      <c r="C37" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1017</v>
+      </c>
+      <c r="E37" s="104"/>
+    </row>
+    <row r="38" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A38" s="41">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="121"/>
+      <c r="C38" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1018</v>
+      </c>
+      <c r="E38" s="104"/>
+    </row>
+    <row r="39" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A39" s="41">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="121"/>
+      <c r="C39" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1019</v>
+      </c>
+      <c r="E39" s="104"/>
+    </row>
+    <row r="40" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A40" s="41">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="121"/>
+      <c r="C40" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1020</v>
+      </c>
+      <c r="E40" s="104"/>
+    </row>
+    <row r="41" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A41" s="41">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="121"/>
+      <c r="C41" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1021</v>
+      </c>
+      <c r="E41" s="104"/>
+    </row>
+    <row r="42" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A42" s="41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="121"/>
+      <c r="C42" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1022</v>
+      </c>
+      <c r="E42" s="104"/>
+    </row>
+    <row r="43" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A43" s="41">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="121"/>
+      <c r="C43" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1023</v>
+      </c>
+      <c r="E43" s="104"/>
+    </row>
+    <row r="44" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A44" s="41">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="121"/>
+      <c r="C44" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1024</v>
+      </c>
+      <c r="E44" s="104"/>
+    </row>
+    <row r="45" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A45" s="41">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="108"/>
+      <c r="C45" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1025</v>
+      </c>
+      <c r="E45" s="105"/>
+    </row>
+    <row r="46" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="72"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="74"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="122"/>
+      <c r="B47" s="123"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="124"/>
+    </row>
+    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="117"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="119"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A47:E48"/>
+    <mergeCell ref="B7:B30"/>
+    <mergeCell ref="B33:B45"/>
+    <mergeCell ref="E7:E30"/>
+    <mergeCell ref="E33:E45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:E46"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/rooming.xlsx
+++ b/data/rooming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA5B2B32-B2E5-46C8-A45D-615A2D2A299D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00999DE0-A566-4D96-9313-710A26BFD994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="251">
   <si>
     <t>Guest Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -917,33 +917,6 @@
         <charset val="129"/>
       </rPr>
       <t>야모이자 대행사
-(더블1, 싱글1)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HY견고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>9/8~9(1박)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="HY견고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-야모이자 대행사
 (더블1, 싱글1)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1418,6 +1391,14 @@
   </si>
   <si>
     <t>안영미: 박지은 희망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반납</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1947,7 +1928,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -2444,6 +2425,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2582,7 +2589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2770,6 +2777,15 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2948,52 +2964,64 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3371,13 +3399,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="25.2" x14ac:dyDescent="0.4">
@@ -3407,7 +3435,7 @@
       <c r="D3" s="4">
         <v>601</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="70" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -3425,7 +3453,7 @@
       <c r="D4" s="4">
         <v>604</v>
       </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -3449,7 +3477,7 @@
       <c r="D5" s="5">
         <v>605</v>
       </c>
-      <c r="E5" s="69"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="2" t="s">
         <v>50</v>
       </c>
@@ -3458,7 +3486,7 @@
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="78" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -3467,7 +3495,7 @@
       <c r="D6" s="4">
         <v>606</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="73" t="s">
         <v>109</v>
       </c>
       <c r="F6" s="2"/>
@@ -3476,14 +3504,14 @@
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="4">
         <v>607</v>
       </c>
-      <c r="E7" s="70"/>
+      <c r="E7" s="73"/>
       <c r="F7" s="2"/>
       <c r="J7" s="31"/>
     </row>
@@ -3491,42 +3519,42 @@
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="4">
         <v>609</v>
       </c>
-      <c r="E8" s="70"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="4">
         <v>610</v>
       </c>
-      <c r="E9" s="70"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="76"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="5">
         <v>613</v>
       </c>
-      <c r="E10" s="70"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="2"/>
       <c r="I10" t="s">
         <v>6</v>
@@ -3536,70 +3564,70 @@
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="76"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="4">
         <v>614</v>
       </c>
-      <c r="E11" s="70"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="76"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="4">
         <v>617</v>
       </c>
-      <c r="E12" s="70"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="76"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="4">
         <v>618</v>
       </c>
-      <c r="E13" s="70"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="76"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="4">
         <v>619</v>
       </c>
-      <c r="E14" s="70"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="76"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="4">
         <v>620</v>
       </c>
-      <c r="E15" s="70"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="2" t="s">
         <v>48</v>
       </c>
@@ -3608,7 +3636,7 @@
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="76"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="12" t="s">
         <v>29</v>
       </c>
@@ -3624,14 +3652,14 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="76"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="4">
         <v>915</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="70" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="2"/>
@@ -3640,35 +3668,35 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="76"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="4">
         <v>923</v>
       </c>
-      <c r="E18" s="68"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="77"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D19" s="4">
         <v>926</v>
       </c>
-      <c r="E19" s="68"/>
+      <c r="E19" s="71"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="78" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -3677,175 +3705,175 @@
       <c r="D20" s="4">
         <v>1001</v>
       </c>
-      <c r="E20" s="68"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="76"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="4">
         <v>1002</v>
       </c>
-      <c r="E21" s="68"/>
+      <c r="E21" s="71"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="76"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="4">
         <v>1003</v>
       </c>
-      <c r="E22" s="68"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="76"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="4">
         <v>1004</v>
       </c>
-      <c r="E23" s="68"/>
+      <c r="E23" s="71"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="76"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="4">
         <v>1005</v>
       </c>
-      <c r="E24" s="68"/>
+      <c r="E24" s="71"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="76"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="4">
         <v>1006</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="71"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="76"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="4">
         <v>1007</v>
       </c>
-      <c r="E26" s="68"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="76"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="4">
         <v>1008</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="71"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="76"/>
+      <c r="B28" s="79"/>
       <c r="C28" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="4">
         <v>1009</v>
       </c>
-      <c r="E28" s="68"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="76"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="4">
         <v>1010</v>
       </c>
-      <c r="E29" s="68"/>
+      <c r="E29" s="71"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="76"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="4">
         <v>1011</v>
       </c>
-      <c r="E30" s="68"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="76"/>
+      <c r="B31" s="79"/>
       <c r="C31" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="4">
         <v>1012</v>
       </c>
-      <c r="E31" s="68"/>
+      <c r="E31" s="71"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="76"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D32" s="4">
         <v>1013</v>
       </c>
-      <c r="E32" s="68"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="2" t="s">
         <v>54</v>
       </c>
@@ -3854,126 +3882,126 @@
       <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="76"/>
+      <c r="B33" s="79"/>
       <c r="C33" s="12" t="s">
         <v>101</v>
       </c>
       <c r="D33" s="4">
         <v>1014</v>
       </c>
-      <c r="E33" s="68"/>
+      <c r="E33" s="71"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="76"/>
+      <c r="B34" s="79"/>
       <c r="C34" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="4">
         <v>1015</v>
       </c>
-      <c r="E34" s="68"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="76"/>
+      <c r="B35" s="79"/>
       <c r="C35" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="4">
         <v>1017</v>
       </c>
-      <c r="E35" s="68"/>
+      <c r="E35" s="71"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="76"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="4">
         <v>1018</v>
       </c>
-      <c r="E36" s="68"/>
+      <c r="E36" s="71"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="76"/>
+      <c r="B37" s="79"/>
       <c r="C37" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="4">
         <v>1019</v>
       </c>
-      <c r="E37" s="68"/>
+      <c r="E37" s="71"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="76"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="4">
         <v>1020</v>
       </c>
-      <c r="E38" s="68"/>
+      <c r="E38" s="71"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>37</v>
       </c>
-      <c r="B39" s="76"/>
+      <c r="B39" s="79"/>
       <c r="C39" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="4">
         <v>1021</v>
       </c>
-      <c r="E39" s="68"/>
+      <c r="E39" s="71"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="76"/>
+      <c r="B40" s="79"/>
       <c r="C40" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="4">
         <v>1022</v>
       </c>
-      <c r="E40" s="68"/>
+      <c r="E40" s="71"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>39</v>
       </c>
-      <c r="B41" s="76"/>
+      <c r="B41" s="79"/>
       <c r="C41" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="4">
         <v>1023</v>
       </c>
-      <c r="E41" s="68"/>
+      <c r="E41" s="71"/>
       <c r="F41" s="2" t="s">
         <v>58</v>
       </c>
@@ -3982,58 +4010,58 @@
       <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="76"/>
+      <c r="B42" s="79"/>
       <c r="C42" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="4">
         <v>1024</v>
       </c>
-      <c r="E42" s="68"/>
+      <c r="E42" s="71"/>
     </row>
     <row r="43" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="B43" s="77"/>
+      <c r="B43" s="80"/>
       <c r="C43" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D43" s="4">
         <v>1025</v>
       </c>
-      <c r="E43" s="69"/>
+      <c r="E43" s="72"/>
       <c r="F43" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="71" t="s">
+      <c r="A44" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="72"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73" t="str">
+      <c r="B44" s="75"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76" t="str">
         <f>COUNT(D3:D43)&amp;"객실"</f>
         <v>41객실</v>
       </c>
-      <c r="E44" s="74"/>
+      <c r="E44" s="77"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A45" s="55"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="58"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="61"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="59"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="62"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="65"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
@@ -4081,13 +4109,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90"/>
       <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="25.2" x14ac:dyDescent="0.4">
@@ -4117,7 +4145,7 @@
       <c r="D3" s="22">
         <v>601</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="23" t="s">
@@ -4135,7 +4163,7 @@
       <c r="D4" s="22">
         <v>604</v>
       </c>
-      <c r="E4" s="96"/>
+      <c r="E4" s="99"/>
       <c r="F4" s="24" t="s">
         <v>60</v>
       </c>
@@ -4151,14 +4179,14 @@
       <c r="D5" s="25">
         <v>605</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="101" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -4167,7 +4195,7 @@
       <c r="D6" s="22">
         <v>606</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="96" t="s">
         <v>108</v>
       </c>
       <c r="F6" s="16"/>
@@ -4176,28 +4204,28 @@
       <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="99"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="30" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="22">
         <v>607</v>
       </c>
-      <c r="E7" s="94"/>
+      <c r="E7" s="97"/>
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="99"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="22">
         <v>609</v>
       </c>
-      <c r="E8" s="94"/>
+      <c r="E8" s="97"/>
       <c r="F8" s="16"/>
       <c r="K8" s="32"/>
     </row>
@@ -4205,42 +4233,42 @@
       <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B9" s="99"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="30" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="22">
         <v>610</v>
       </c>
-      <c r="E9" s="94"/>
+      <c r="E9" s="97"/>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="99"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="30" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="25">
         <v>613</v>
       </c>
-      <c r="E10" s="94"/>
+      <c r="E10" s="97"/>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="99"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="30" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="22">
         <v>614</v>
       </c>
-      <c r="E11" s="94"/>
+      <c r="E11" s="97"/>
       <c r="F11" s="16"/>
       <c r="I11" t="s">
         <v>6</v>
@@ -4250,42 +4278,42 @@
       <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="99"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="30" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="22">
         <v>617</v>
       </c>
-      <c r="E12" s="94"/>
+      <c r="E12" s="97"/>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="99"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="30" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="22">
         <v>618</v>
       </c>
-      <c r="E13" s="94"/>
+      <c r="E13" s="97"/>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="99"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="22">
         <v>619</v>
       </c>
-      <c r="E14" s="94"/>
+      <c r="E14" s="97"/>
       <c r="F14" s="16" t="s">
         <v>71</v>
       </c>
@@ -4294,56 +4322,56 @@
       <c r="A15" s="20">
         <v>13</v>
       </c>
-      <c r="B15" s="99"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="30" t="s">
         <v>72</v>
       </c>
       <c r="D15" s="22">
         <v>620</v>
       </c>
-      <c r="E15" s="94"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="99"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="22">
         <v>622</v>
       </c>
-      <c r="E16" s="94"/>
+      <c r="E16" s="97"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20">
         <v>15</v>
       </c>
-      <c r="B17" s="99"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="22">
         <v>623</v>
       </c>
-      <c r="E17" s="94"/>
+      <c r="E17" s="97"/>
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="99"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="30" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="22">
         <v>626</v>
       </c>
-      <c r="E18" s="94"/>
+      <c r="E18" s="97"/>
       <c r="F18" s="16" t="s">
         <v>76</v>
       </c>
@@ -4352,7 +4380,7 @@
       <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="101" t="s">
         <v>106</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -4361,21 +4389,21 @@
       <c r="D19" s="22">
         <v>704</v>
       </c>
-      <c r="E19" s="94"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="20">
         <v>18</v>
       </c>
-      <c r="B20" s="100"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="26" t="s">
         <v>102</v>
       </c>
       <c r="D20" s="22">
         <v>705</v>
       </c>
-      <c r="E20" s="94"/>
+      <c r="E20" s="97"/>
       <c r="F20" s="16" t="s">
         <v>103</v>
       </c>
@@ -4384,7 +4412,7 @@
       <c r="A21" s="20">
         <v>19</v>
       </c>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="102" t="s">
         <v>105</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -4400,7 +4428,7 @@
       <c r="A22" s="20">
         <v>20</v>
       </c>
-      <c r="B22" s="100"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="21" t="s">
         <v>61</v>
       </c>
@@ -4418,10 +4446,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="39"/>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="102"/>
+      <c r="D23" s="105"/>
       <c r="E23" s="38"/>
       <c r="F23" s="16"/>
       <c r="K23" s="32"/>
@@ -4430,7 +4458,7 @@
       <c r="A24" s="20">
         <v>22</v>
       </c>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="101" t="s">
         <v>106</v>
       </c>
       <c r="C24" s="30" t="s">
@@ -4439,7 +4467,7 @@
       <c r="D24" s="22">
         <v>1001</v>
       </c>
-      <c r="E24" s="95" t="s">
+      <c r="E24" s="98" t="s">
         <v>110</v>
       </c>
       <c r="F24" s="16"/>
@@ -4448,252 +4476,252 @@
       <c r="A25" s="20">
         <v>23</v>
       </c>
-      <c r="B25" s="99"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="30" t="s">
         <v>99</v>
       </c>
       <c r="D25" s="22">
         <v>1002</v>
       </c>
-      <c r="E25" s="96"/>
+      <c r="E25" s="99"/>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20">
         <v>24</v>
       </c>
-      <c r="B26" s="99"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="30" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="22">
         <v>1003</v>
       </c>
-      <c r="E26" s="96"/>
+      <c r="E26" s="99"/>
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20">
         <v>25</v>
       </c>
-      <c r="B27" s="99"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="30" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="22">
         <v>1004</v>
       </c>
-      <c r="E27" s="96"/>
+      <c r="E27" s="99"/>
       <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20">
         <v>26</v>
       </c>
-      <c r="B28" s="99"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="30" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="22">
         <v>1005</v>
       </c>
-      <c r="E28" s="96"/>
+      <c r="E28" s="99"/>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20">
         <v>27</v>
       </c>
-      <c r="B29" s="99"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="30" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="22">
         <v>1006</v>
       </c>
-      <c r="E29" s="96"/>
+      <c r="E29" s="99"/>
       <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="20">
         <v>28</v>
       </c>
-      <c r="B30" s="99"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D30" s="22">
         <v>1007</v>
       </c>
-      <c r="E30" s="96"/>
+      <c r="E30" s="99"/>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20">
         <v>29</v>
       </c>
-      <c r="B31" s="99"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="30" t="s">
         <v>83</v>
       </c>
       <c r="D31" s="22">
         <v>1008</v>
       </c>
-      <c r="E31" s="96"/>
+      <c r="E31" s="99"/>
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="20">
         <v>30</v>
       </c>
-      <c r="B32" s="99"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="30" t="s">
         <v>84</v>
       </c>
       <c r="D32" s="22">
         <v>1009</v>
       </c>
-      <c r="E32" s="96"/>
+      <c r="E32" s="99"/>
       <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20">
         <v>31</v>
       </c>
-      <c r="B33" s="99"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="30" t="s">
         <v>86</v>
       </c>
       <c r="D33" s="22">
         <v>1010</v>
       </c>
-      <c r="E33" s="96"/>
+      <c r="E33" s="99"/>
       <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="20">
         <v>32</v>
       </c>
-      <c r="B34" s="99"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="30" t="s">
         <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>1011</v>
       </c>
-      <c r="E34" s="96"/>
+      <c r="E34" s="99"/>
       <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20">
         <v>33</v>
       </c>
-      <c r="B35" s="99"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="30" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="22">
         <v>1012</v>
       </c>
-      <c r="E35" s="96"/>
+      <c r="E35" s="99"/>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="20">
         <v>34</v>
       </c>
-      <c r="B36" s="99"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="30" t="s">
         <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>1013</v>
       </c>
-      <c r="E36" s="96"/>
+      <c r="E36" s="99"/>
       <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20">
         <v>35</v>
       </c>
-      <c r="B37" s="99"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="30" t="s">
         <v>89</v>
       </c>
       <c r="D37" s="22">
         <v>1014</v>
       </c>
-      <c r="E37" s="96"/>
+      <c r="E37" s="99"/>
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="20">
         <v>36</v>
       </c>
-      <c r="B38" s="99"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="30" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="22">
         <v>1015</v>
       </c>
-      <c r="E38" s="96"/>
+      <c r="E38" s="99"/>
       <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="20">
         <v>37</v>
       </c>
-      <c r="B39" s="99"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="30" t="s">
         <v>91</v>
       </c>
       <c r="D39" s="22">
         <v>1017</v>
       </c>
-      <c r="E39" s="96"/>
+      <c r="E39" s="99"/>
       <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="20">
         <v>38</v>
       </c>
-      <c r="B40" s="99"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="30" t="s">
         <v>92</v>
       </c>
       <c r="D40" s="22">
         <v>1018</v>
       </c>
-      <c r="E40" s="96"/>
+      <c r="E40" s="99"/>
       <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="20">
         <v>39</v>
       </c>
-      <c r="B41" s="99"/>
+      <c r="B41" s="102"/>
       <c r="C41" s="30" t="s">
         <v>93</v>
       </c>
       <c r="D41" s="22">
         <v>1019</v>
       </c>
-      <c r="E41" s="96"/>
+      <c r="E41" s="99"/>
       <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="20">
         <v>40</v>
       </c>
-      <c r="B42" s="99"/>
+      <c r="B42" s="102"/>
       <c r="C42" s="26" t="s">
         <v>94</v>
       </c>
       <c r="D42" s="22">
         <v>1020</v>
       </c>
-      <c r="E42" s="96"/>
+      <c r="E42" s="99"/>
       <c r="F42" s="16" t="s">
         <v>95</v>
       </c>
@@ -4702,84 +4730,84 @@
       <c r="A43" s="20">
         <v>41</v>
       </c>
-      <c r="B43" s="99"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="30" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="22">
         <v>1021</v>
       </c>
-      <c r="E43" s="96"/>
+      <c r="E43" s="99"/>
       <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="20">
         <v>42</v>
       </c>
-      <c r="B44" s="99"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="30" t="s">
         <v>104</v>
       </c>
       <c r="D44" s="22">
         <v>1022</v>
       </c>
-      <c r="E44" s="96"/>
+      <c r="E44" s="99"/>
       <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="20">
         <v>43</v>
       </c>
-      <c r="B45" s="99"/>
+      <c r="B45" s="102"/>
       <c r="C45" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="22">
         <v>1023</v>
       </c>
-      <c r="E45" s="96"/>
+      <c r="E45" s="99"/>
       <c r="F45" s="28"/>
     </row>
     <row r="46" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A46" s="20">
         <v>44</v>
       </c>
-      <c r="B46" s="100"/>
+      <c r="B46" s="103"/>
       <c r="C46" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="22">
         <v>1024</v>
       </c>
-      <c r="E46" s="97"/>
+      <c r="E46" s="100"/>
       <c r="F46" s="28"/>
     </row>
     <row r="47" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="90" t="s">
+      <c r="A47" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="91"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="88" t="s">
+      <c r="B47" s="94"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="89"/>
+      <c r="E47" s="92"/>
       <c r="F47" s="28"/>
     </row>
     <row r="48" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="78"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="80"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="83"/>
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="81"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="83"/>
+      <c r="A49" s="84"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="86"/>
       <c r="F49" s="29"/>
     </row>
   </sheetData>
@@ -4821,13 +4849,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="25.2" x14ac:dyDescent="0.4">
@@ -4857,7 +4885,7 @@
       <c r="D3" s="4">
         <v>707</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="106" t="s">
         <v>113</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -4875,7 +4903,7 @@
       <c r="D4" s="4">
         <v>1101</v>
       </c>
-      <c r="E4" s="104"/>
+      <c r="E4" s="107"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -4891,14 +4919,14 @@
       <c r="D5" s="5">
         <v>1104</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="101" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -4907,7 +4935,7 @@
       <c r="D6" s="4">
         <v>601</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="106" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="2"/>
@@ -4916,154 +4944,154 @@
       <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="99"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="12" t="s">
         <v>117</v>
       </c>
       <c r="D7" s="4">
         <v>604</v>
       </c>
-      <c r="E7" s="104"/>
+      <c r="E7" s="107"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="99"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="12" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="4">
         <v>605</v>
       </c>
-      <c r="E8" s="104"/>
+      <c r="E8" s="107"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="99"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D9" s="4">
         <v>606</v>
       </c>
-      <c r="E9" s="104"/>
+      <c r="E9" s="107"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="99"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="45" t="s">
         <v>120</v>
       </c>
       <c r="D10" s="5">
         <v>607</v>
       </c>
-      <c r="E10" s="104"/>
+      <c r="E10" s="107"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <v>9</v>
       </c>
-      <c r="B11" s="99"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="4">
         <v>609</v>
       </c>
-      <c r="E11" s="104"/>
+      <c r="E11" s="107"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <v>10</v>
       </c>
-      <c r="B12" s="99"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D12" s="4">
         <v>610</v>
       </c>
-      <c r="E12" s="104"/>
+      <c r="E12" s="107"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <v>11</v>
       </c>
-      <c r="B13" s="99"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D13" s="4">
         <v>613</v>
       </c>
-      <c r="E13" s="104"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>12</v>
       </c>
-      <c r="B14" s="99"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D14" s="4">
         <v>614</v>
       </c>
-      <c r="E14" s="104"/>
+      <c r="E14" s="107"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <v>13</v>
       </c>
-      <c r="B15" s="99"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="12" t="s">
         <v>125</v>
       </c>
       <c r="D15" s="4">
         <v>617</v>
       </c>
-      <c r="E15" s="104"/>
+      <c r="E15" s="107"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <v>14</v>
       </c>
-      <c r="B16" s="99"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="12" t="s">
         <v>126</v>
       </c>
       <c r="D16" s="4">
         <v>618</v>
       </c>
-      <c r="E16" s="104"/>
+      <c r="E16" s="107"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <v>15</v>
       </c>
-      <c r="B17" s="99"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="42" t="s">
         <v>127</v>
       </c>
       <c r="D17" s="4">
         <v>619</v>
       </c>
-      <c r="E17" s="104"/>
+      <c r="E17" s="107"/>
       <c r="F17" s="2" t="s">
         <v>76</v>
       </c>
@@ -5072,14 +5100,14 @@
       <c r="A18" s="41">
         <v>16</v>
       </c>
-      <c r="B18" s="99"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="42" t="s">
         <v>100</v>
       </c>
       <c r="D18" s="4">
         <v>620</v>
       </c>
-      <c r="E18" s="104"/>
+      <c r="E18" s="107"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -5104,14 +5132,14 @@
       <c r="A20" s="41">
         <v>18</v>
       </c>
-      <c r="B20" s="98"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D20" s="4">
         <v>1001</v>
       </c>
-      <c r="E20" s="103" t="s">
+      <c r="E20" s="106" t="s">
         <v>115</v>
       </c>
       <c r="F20" s="2"/>
@@ -5120,168 +5148,168 @@
       <c r="A21" s="41">
         <v>19</v>
       </c>
-      <c r="B21" s="99"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="12" t="s">
         <v>130</v>
       </c>
       <c r="D21" s="4">
         <v>1002</v>
       </c>
-      <c r="E21" s="104"/>
+      <c r="E21" s="107"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <v>20</v>
       </c>
-      <c r="B22" s="99"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D22" s="4">
         <v>1003</v>
       </c>
-      <c r="E22" s="104"/>
+      <c r="E22" s="107"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <v>21</v>
       </c>
-      <c r="B23" s="99"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="12" t="s">
         <v>132</v>
       </c>
       <c r="D23" s="4">
         <v>1004</v>
       </c>
-      <c r="E23" s="104"/>
+      <c r="E23" s="107"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <v>22</v>
       </c>
-      <c r="B24" s="99"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D24" s="4">
         <v>1005</v>
       </c>
-      <c r="E24" s="104"/>
+      <c r="E24" s="107"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <v>23</v>
       </c>
-      <c r="B25" s="99"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="12" t="s">
         <v>134</v>
       </c>
       <c r="D25" s="4">
         <v>1006</v>
       </c>
-      <c r="E25" s="104"/>
+      <c r="E25" s="107"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <v>24</v>
       </c>
-      <c r="B26" s="99"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="12" t="s">
         <v>135</v>
       </c>
       <c r="D26" s="4">
         <v>1007</v>
       </c>
-      <c r="E26" s="104"/>
+      <c r="E26" s="107"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <v>25</v>
       </c>
-      <c r="B27" s="99"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="12" t="s">
         <v>136</v>
       </c>
       <c r="D27" s="4">
         <v>1008</v>
       </c>
-      <c r="E27" s="104"/>
+      <c r="E27" s="107"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <v>26</v>
       </c>
-      <c r="B28" s="99"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="12" t="s">
         <v>137</v>
       </c>
       <c r="D28" s="4">
         <v>1009</v>
       </c>
-      <c r="E28" s="104"/>
+      <c r="E28" s="107"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <v>27</v>
       </c>
-      <c r="B29" s="99"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="12" t="s">
         <v>138</v>
       </c>
       <c r="D29" s="4">
         <v>1010</v>
       </c>
-      <c r="E29" s="104"/>
+      <c r="E29" s="107"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <v>28</v>
       </c>
-      <c r="B30" s="99"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="12" t="s">
         <v>139</v>
       </c>
       <c r="D30" s="4">
         <v>1011</v>
       </c>
-      <c r="E30" s="104"/>
+      <c r="E30" s="107"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <v>29</v>
       </c>
-      <c r="B31" s="99"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="45" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="4">
         <v>1012</v>
       </c>
-      <c r="E31" s="104"/>
+      <c r="E31" s="107"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <v>30</v>
       </c>
-      <c r="B32" s="99"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D32" s="4">
         <v>1013</v>
       </c>
-      <c r="E32" s="104"/>
+      <c r="E32" s="107"/>
       <c r="F32" s="2" t="s">
         <v>142</v>
       </c>
@@ -5290,167 +5318,167 @@
       <c r="A33" s="41">
         <v>31</v>
       </c>
-      <c r="B33" s="99"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="12" t="s">
         <v>143</v>
       </c>
       <c r="D33" s="4">
         <v>1014</v>
       </c>
-      <c r="E33" s="104"/>
+      <c r="E33" s="107"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <v>32</v>
       </c>
-      <c r="B34" s="99"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D34" s="4">
         <v>1015</v>
       </c>
-      <c r="E34" s="104"/>
+      <c r="E34" s="107"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <v>33</v>
       </c>
-      <c r="B35" s="99"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="12" t="s">
         <v>145</v>
       </c>
       <c r="D35" s="4">
         <v>1017</v>
       </c>
-      <c r="E35" s="104"/>
+      <c r="E35" s="107"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <v>34</v>
       </c>
-      <c r="B36" s="99"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="12" t="s">
         <v>146</v>
       </c>
       <c r="D36" s="4">
         <v>1018</v>
       </c>
-      <c r="E36" s="104"/>
+      <c r="E36" s="107"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <v>35</v>
       </c>
-      <c r="B37" s="99"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="12" t="s">
         <v>147</v>
       </c>
       <c r="D37" s="4">
         <v>1019</v>
       </c>
-      <c r="E37" s="104"/>
+      <c r="E37" s="107"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <v>36</v>
       </c>
-      <c r="B38" s="99"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="12" t="s">
         <v>148</v>
       </c>
       <c r="D38" s="4">
         <v>1020</v>
       </c>
-      <c r="E38" s="104"/>
+      <c r="E38" s="107"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <v>37</v>
       </c>
-      <c r="B39" s="99"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="12" t="s">
         <v>149</v>
       </c>
       <c r="D39" s="4">
         <v>1021</v>
       </c>
-      <c r="E39" s="104"/>
+      <c r="E39" s="107"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <v>38</v>
       </c>
-      <c r="B40" s="99"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="12" t="s">
         <v>150</v>
       </c>
       <c r="D40" s="4">
         <v>1022</v>
       </c>
-      <c r="E40" s="104"/>
+      <c r="E40" s="107"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <v>39</v>
       </c>
-      <c r="B41" s="99"/>
+      <c r="B41" s="102"/>
       <c r="C41" s="12" t="s">
         <v>151</v>
       </c>
       <c r="D41" s="4">
         <v>1023</v>
       </c>
-      <c r="E41" s="104"/>
+      <c r="E41" s="107"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <v>40</v>
       </c>
-      <c r="B42" s="100"/>
+      <c r="B42" s="103"/>
       <c r="C42" s="42" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="4">
         <v>1024</v>
       </c>
-      <c r="E42" s="104"/>
+      <c r="E42" s="107"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73" t="s">
+      <c r="B43" s="75"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="E43" s="74"/>
+      <c r="E43" s="77"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="55"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="58"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="61"/>
     </row>
     <row r="45" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="62"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5471,30 +5499,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE77CA-235E-4DAA-B93C-2D5EF1F7BEAF}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="24.8984375" customWidth="1"/>
-    <col min="4" max="4" width="22.59765625" customWidth="1"/>
-    <col min="5" max="5" width="20.09765625" customWidth="1"/>
+    <col min="4" max="6" width="22.59765625" customWidth="1"/>
+    <col min="7" max="7" width="20.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:8" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="69"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
@@ -5505,11 +5535,17 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A3" s="41">
         <f>ROW()-2</f>
         <v>1</v>
@@ -5521,16 +5557,18 @@
       <c r="D3" s="4">
         <v>1107</v>
       </c>
-      <c r="E3" s="106" t="s">
-        <v>241</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="127" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
-        <f t="shared" ref="A4:A46" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A45" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="53"/>
@@ -5540,593 +5578,675 @@
       <c r="D4" s="4">
         <v>1109</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="124" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D5" s="4">
         <v>1114</v>
       </c>
-      <c r="E5" s="106" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="127" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A6" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="108"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="43" t="s">
         <v>154</v>
       </c>
       <c r="D6" s="5">
         <v>1217</v>
       </c>
-      <c r="E6" s="106"/>
-    </row>
-    <row r="7" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="127"/>
+    </row>
+    <row r="7" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="124" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" s="4">
         <v>701</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="54" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="H7" s="54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="121"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" s="4">
         <v>704</v>
       </c>
-      <c r="E8" s="106"/>
-    </row>
-    <row r="9" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="127"/>
+    </row>
+    <row r="9" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="121"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" s="4">
         <v>705</v>
       </c>
-      <c r="E9" s="106"/>
-    </row>
-    <row r="10" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="127"/>
+    </row>
+    <row r="10" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="5">
         <v>706</v>
       </c>
-      <c r="E10" s="106"/>
-    </row>
-    <row r="11" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="127"/>
+    </row>
+    <row r="11" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="121"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D11" s="4">
         <v>707</v>
       </c>
-      <c r="E11" s="106"/>
-    </row>
-    <row r="12" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="127"/>
+    </row>
+    <row r="12" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="121"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" s="4">
         <v>709</v>
       </c>
-      <c r="E12" s="106"/>
-    </row>
-    <row r="13" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="127"/>
+    </row>
+    <row r="13" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="121"/>
+      <c r="B13" s="125"/>
       <c r="C13" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="4">
         <v>710</v>
       </c>
-      <c r="E13" s="106"/>
-    </row>
-    <row r="14" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="127"/>
+    </row>
+    <row r="14" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="121"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" s="4">
         <v>713</v>
       </c>
-      <c r="E14" s="106"/>
-    </row>
-    <row r="15" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="127"/>
+    </row>
+    <row r="15" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="121"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15" s="4">
         <v>714</v>
       </c>
-      <c r="E15" s="106"/>
-    </row>
-    <row r="16" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="127"/>
+    </row>
+    <row r="16" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="121"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" s="4">
         <v>717</v>
       </c>
-      <c r="E16" s="106"/>
-    </row>
-    <row r="17" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="127"/>
+    </row>
+    <row r="17" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="121"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" s="4">
         <v>718</v>
       </c>
-      <c r="E17" s="106"/>
-    </row>
-    <row r="18" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="127"/>
+    </row>
+    <row r="18" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="125"/>
       <c r="C18" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" s="4">
         <v>719</v>
       </c>
-      <c r="E18" s="106"/>
-      <c r="F18" s="54" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="54" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="108"/>
+      <c r="B19" s="126"/>
       <c r="C19" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D19" s="4">
         <v>720</v>
       </c>
-      <c r="E19" s="106"/>
-    </row>
-    <row r="20" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="127"/>
+    </row>
+    <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="124" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D20" s="4">
         <v>1001</v>
       </c>
-      <c r="E20" s="106" t="s">
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="127" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="121"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D21" s="4">
         <v>1002</v>
       </c>
-      <c r="E21" s="106"/>
-    </row>
-    <row r="22" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="127"/>
+    </row>
+    <row r="22" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="121"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D22" s="4">
         <v>1003</v>
       </c>
-      <c r="E22" s="106"/>
-      <c r="F22" s="54" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="121"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D23" s="4">
         <v>1004</v>
       </c>
-      <c r="E23" s="106"/>
-    </row>
-    <row r="24" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="127"/>
+    </row>
+    <row r="24" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="121"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D24" s="4">
         <v>1005</v>
       </c>
-      <c r="E24" s="106"/>
-    </row>
-    <row r="25" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="127"/>
+    </row>
+    <row r="25" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="121"/>
+      <c r="B25" s="125"/>
       <c r="C25" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D25" s="4">
         <v>1006</v>
       </c>
-      <c r="E25" s="106"/>
-    </row>
-    <row r="26" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="127"/>
+    </row>
+    <row r="26" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="121"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D26" s="4">
         <v>1007</v>
       </c>
-      <c r="E26" s="106"/>
-    </row>
-    <row r="27" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="127"/>
+    </row>
+    <row r="27" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="121"/>
+      <c r="B27" s="125"/>
       <c r="C27" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D27" s="4">
         <v>1008</v>
       </c>
-      <c r="E27" s="106"/>
-    </row>
-    <row r="28" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="127"/>
+    </row>
+    <row r="28" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="121"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D28" s="4">
         <v>1009</v>
       </c>
-      <c r="E28" s="106"/>
-    </row>
-    <row r="29" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="127"/>
+    </row>
+    <row r="29" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="121"/>
+      <c r="B29" s="125"/>
       <c r="C29" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D29" s="4">
         <v>1010</v>
       </c>
-      <c r="E29" s="106"/>
-    </row>
-    <row r="30" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="127"/>
+    </row>
+    <row r="30" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="121"/>
+      <c r="B30" s="125"/>
       <c r="C30" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D30" s="4">
         <v>1011</v>
       </c>
-      <c r="E30" s="106"/>
-    </row>
-    <row r="31" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="127"/>
+    </row>
+    <row r="31" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="121"/>
+      <c r="B31" s="125"/>
       <c r="C31" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D31" s="4">
         <v>1012</v>
       </c>
-      <c r="E31" s="106"/>
-    </row>
-    <row r="32" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="127"/>
+    </row>
+    <row r="32" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="121"/>
+      <c r="B32" s="125"/>
       <c r="C32" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D32" s="4">
         <v>1013</v>
       </c>
-      <c r="E32" s="106"/>
-    </row>
-    <row r="33" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="127"/>
+    </row>
+    <row r="33" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="121"/>
+      <c r="B33" s="125"/>
       <c r="C33" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D33" s="4">
         <v>1014</v>
       </c>
-      <c r="E33" s="106"/>
-    </row>
-    <row r="34" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="127"/>
+    </row>
+    <row r="34" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="121"/>
+      <c r="B34" s="125"/>
       <c r="C34" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D34" s="4">
         <v>1015</v>
       </c>
-      <c r="E34" s="106"/>
-    </row>
-    <row r="35" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="127"/>
+    </row>
+    <row r="35" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="121"/>
+      <c r="B35" s="125"/>
       <c r="C35" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D35" s="4">
         <v>1017</v>
       </c>
-      <c r="E35" s="106"/>
-    </row>
-    <row r="36" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="127"/>
+    </row>
+    <row r="36" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="121"/>
+      <c r="B36" s="125"/>
       <c r="C36" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D36" s="4">
         <v>1018</v>
       </c>
-      <c r="E36" s="106"/>
-    </row>
-    <row r="37" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="127"/>
+    </row>
+    <row r="37" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="121"/>
+      <c r="B37" s="125"/>
       <c r="C37" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D37" s="4">
         <v>1019</v>
       </c>
-      <c r="E37" s="106"/>
-    </row>
-    <row r="38" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="127"/>
+    </row>
+    <row r="38" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="121"/>
+      <c r="B38" s="125"/>
       <c r="C38" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D38" s="4">
         <v>1020</v>
       </c>
-      <c r="E38" s="106"/>
-    </row>
-    <row r="39" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="127"/>
+    </row>
+    <row r="39" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="121"/>
+      <c r="B39" s="125"/>
       <c r="C39" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D39" s="4">
         <v>1021</v>
       </c>
-      <c r="E39" s="106"/>
-    </row>
-    <row r="40" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="127"/>
+    </row>
+    <row r="40" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="121"/>
+      <c r="B40" s="125"/>
       <c r="C40" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D40" s="4">
         <v>1022</v>
       </c>
-      <c r="E40" s="106"/>
-    </row>
-    <row r="41" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="127"/>
+    </row>
+    <row r="41" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="121"/>
+      <c r="B41" s="125"/>
       <c r="C41" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D41" s="4">
         <v>1023</v>
       </c>
-      <c r="E41" s="106"/>
-    </row>
-    <row r="42" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="127"/>
+    </row>
+    <row r="42" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="121"/>
+      <c r="B42" s="125"/>
       <c r="C42" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D42" s="4">
         <v>1024</v>
       </c>
-      <c r="E42" s="106"/>
-    </row>
-    <row r="43" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="127"/>
+    </row>
+    <row r="43" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="121"/>
+      <c r="B43" s="125"/>
       <c r="C43" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D43" s="4">
         <v>1025</v>
       </c>
-      <c r="E43" s="106"/>
-    </row>
-    <row r="44" spans="1:5" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="127"/>
+    </row>
+    <row r="44" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="108"/>
+      <c r="B44" s="126"/>
       <c r="C44" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D44" s="4">
         <v>1026</v>
       </c>
-      <c r="E44" s="106"/>
-    </row>
-    <row r="45" spans="1:5" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="127"/>
+    </row>
+    <row r="45" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6138,65 +6258,57 @@
       <c r="D45" s="5">
         <v>819</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="48" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="A46" s="41">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="5">
-        <v>822</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="109" t="s">
+    <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A46" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="110"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111" t="str">
-        <f>COUNT(D3:D46)&amp;"객실"</f>
-        <v>44객실</v>
-      </c>
-      <c r="E47" s="112"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="113"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="116"/>
-    </row>
-    <row r="49" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="117"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="119"/>
-      <c r="E49" s="120"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111" t="str">
+        <f>COUNT(D3:D45)&amp;"객실"</f>
+        <v>43객실</v>
+      </c>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="113"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="114"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="118"/>
+    </row>
+    <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="119"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A48:E49"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="A47:G48"/>
     <mergeCell ref="B20:B44"/>
     <mergeCell ref="B7:B19"/>
-    <mergeCell ref="E20:E44"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E19"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G20:G44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6221,13 +6333,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
@@ -6256,8 +6368,8 @@
       <c r="D3" s="4">
         <v>1107</v>
       </c>
-      <c r="E3" s="103" t="s">
-        <v>239</v>
+      <c r="E3" s="106" t="s">
+        <v>238</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>59</v>
@@ -6275,7 +6387,7 @@
       <c r="D4" s="4">
         <v>1109</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -6285,17 +6397,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="124" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" s="5">
         <v>1114</v>
       </c>
-      <c r="E5" s="104" t="s">
-        <v>240</v>
+      <c r="E5" s="107" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
@@ -6303,30 +6415,30 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="108"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="42" t="s">
         <v>154</v>
       </c>
       <c r="D6" s="4">
         <v>1122</v>
       </c>
-      <c r="E6" s="105"/>
+      <c r="E6" s="108"/>
     </row>
     <row r="7" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="124" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7" s="4">
         <v>601</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="106" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6335,224 +6447,224 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="121"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8" s="4">
         <v>604</v>
       </c>
-      <c r="E8" s="104"/>
+      <c r="E8" s="107"/>
     </row>
     <row r="9" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="121"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9" s="4">
         <v>605</v>
       </c>
-      <c r="E9" s="104"/>
+      <c r="E9" s="107"/>
     </row>
     <row r="10" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D10" s="4">
         <v>606</v>
       </c>
-      <c r="E10" s="104"/>
+      <c r="E10" s="107"/>
     </row>
     <row r="11" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="121"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="5">
         <v>607</v>
       </c>
-      <c r="E11" s="104"/>
+      <c r="E11" s="107"/>
     </row>
     <row r="12" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="121"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="4">
         <v>609</v>
       </c>
-      <c r="E12" s="104"/>
+      <c r="E12" s="107"/>
     </row>
     <row r="13" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="121"/>
+      <c r="B13" s="125"/>
       <c r="C13" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" s="4">
         <v>610</v>
       </c>
-      <c r="E13" s="104"/>
+      <c r="E13" s="107"/>
     </row>
     <row r="14" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="121"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D14" s="4">
         <v>613</v>
       </c>
-      <c r="E14" s="104"/>
+      <c r="E14" s="107"/>
     </row>
     <row r="15" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="121"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15" s="4">
         <v>614</v>
       </c>
-      <c r="E15" s="104"/>
+      <c r="E15" s="107"/>
     </row>
     <row r="16" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="121"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D16" s="4">
         <v>617</v>
       </c>
-      <c r="E16" s="104"/>
+      <c r="E16" s="107"/>
     </row>
     <row r="17" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="121"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D17" s="4">
         <v>618</v>
       </c>
-      <c r="E17" s="104"/>
+      <c r="E17" s="107"/>
     </row>
     <row r="18" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="125"/>
       <c r="C18" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D18" s="4">
         <v>619</v>
       </c>
-      <c r="E18" s="104"/>
+      <c r="E18" s="107"/>
     </row>
     <row r="19" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="121"/>
+      <c r="B19" s="125"/>
       <c r="C19" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D19" s="4">
         <v>620</v>
       </c>
-      <c r="E19" s="104"/>
+      <c r="E19" s="107"/>
     </row>
     <row r="20" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="121"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D20" s="4">
         <v>622</v>
       </c>
-      <c r="E20" s="104"/>
+      <c r="E20" s="107"/>
     </row>
     <row r="21" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="121"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D21" s="4">
         <v>623</v>
       </c>
-      <c r="E21" s="104"/>
+      <c r="E21" s="107"/>
     </row>
     <row r="22" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="121"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D22" s="4">
         <v>626</v>
       </c>
-      <c r="E22" s="104"/>
+      <c r="E22" s="107"/>
     </row>
     <row r="23" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="121"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D23" s="4">
         <v>701</v>
       </c>
-      <c r="E23" s="104"/>
+      <c r="E23" s="107"/>
       <c r="F23" s="54"/>
     </row>
     <row r="24" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
@@ -6560,58 +6672,58 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="121"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D24" s="4">
         <v>704</v>
       </c>
-      <c r="E24" s="104"/>
+      <c r="E24" s="107"/>
     </row>
     <row r="25" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="121"/>
+      <c r="B25" s="125"/>
       <c r="C25" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D25" s="4">
         <v>705</v>
       </c>
-      <c r="E25" s="104"/>
+      <c r="E25" s="107"/>
     </row>
     <row r="26" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="121"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D26" s="4">
         <v>706</v>
       </c>
-      <c r="E26" s="104"/>
+      <c r="E26" s="107"/>
     </row>
     <row r="27" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="121"/>
+      <c r="B27" s="125"/>
       <c r="C27" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D27" s="4">
         <v>707</v>
       </c>
-      <c r="E27" s="104"/>
+      <c r="E27" s="107"/>
       <c r="F27" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
@@ -6619,42 +6731,42 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="121"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D28" s="4">
         <v>709</v>
       </c>
-      <c r="E28" s="104"/>
+      <c r="E28" s="107"/>
     </row>
     <row r="29" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="121"/>
+      <c r="B29" s="125"/>
       <c r="C29" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D29" s="4">
         <v>710</v>
       </c>
-      <c r="E29" s="104"/>
+      <c r="E29" s="107"/>
     </row>
     <row r="30" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="121"/>
+      <c r="B30" s="125"/>
       <c r="C30" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D30" s="4">
         <v>713</v>
       </c>
-      <c r="E30" s="104"/>
+      <c r="E30" s="107"/>
     </row>
     <row r="31" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
@@ -6669,7 +6781,7 @@
         <v>819</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -6685,7 +6797,7 @@
         <v>822</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
@@ -6693,16 +6805,16 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="107" t="s">
+      <c r="B33" s="124" t="s">
         <v>105</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D33" s="4">
         <v>1012</v>
       </c>
-      <c r="E33" s="103" t="s">
+      <c r="E33" s="106" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6711,28 +6823,28 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="121"/>
+      <c r="B34" s="125"/>
       <c r="C34" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D34" s="4">
         <v>1013</v>
       </c>
-      <c r="E34" s="104"/>
+      <c r="E34" s="107"/>
     </row>
     <row r="35" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="121"/>
+      <c r="B35" s="125"/>
       <c r="C35" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D35" s="4">
         <v>1014</v>
       </c>
-      <c r="E35" s="104"/>
+      <c r="E35" s="107"/>
       <c r="F35" s="54"/>
     </row>
     <row r="36" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
@@ -6740,165 +6852,165 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="121"/>
+      <c r="B36" s="125"/>
       <c r="C36" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D36" s="4">
         <v>1015</v>
       </c>
-      <c r="E36" s="104"/>
+      <c r="E36" s="107"/>
     </row>
     <row r="37" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="121"/>
+      <c r="B37" s="125"/>
       <c r="C37" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D37" s="4">
         <v>1017</v>
       </c>
-      <c r="E37" s="104"/>
+      <c r="E37" s="107"/>
     </row>
     <row r="38" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="121"/>
+      <c r="B38" s="125"/>
       <c r="C38" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D38" s="4">
         <v>1018</v>
       </c>
-      <c r="E38" s="104"/>
+      <c r="E38" s="107"/>
     </row>
     <row r="39" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="121"/>
+      <c r="B39" s="125"/>
       <c r="C39" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D39" s="4">
         <v>1019</v>
       </c>
-      <c r="E39" s="104"/>
+      <c r="E39" s="107"/>
     </row>
     <row r="40" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="121"/>
+      <c r="B40" s="125"/>
       <c r="C40" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D40" s="4">
         <v>1020</v>
       </c>
-      <c r="E40" s="104"/>
+      <c r="E40" s="107"/>
     </row>
     <row r="41" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="121"/>
+      <c r="B41" s="125"/>
       <c r="C41" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D41" s="4">
         <v>1021</v>
       </c>
-      <c r="E41" s="104"/>
+      <c r="E41" s="107"/>
     </row>
     <row r="42" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="121"/>
+      <c r="B42" s="125"/>
       <c r="C42" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D42" s="4">
         <v>1022</v>
       </c>
-      <c r="E42" s="104"/>
+      <c r="E42" s="107"/>
     </row>
     <row r="43" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="121"/>
+      <c r="B43" s="125"/>
       <c r="C43" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D43" s="4">
         <v>1023</v>
       </c>
-      <c r="E43" s="104"/>
+      <c r="E43" s="107"/>
     </row>
     <row r="44" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="121"/>
+      <c r="B44" s="125"/>
       <c r="C44" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D44" s="4">
         <v>1024</v>
       </c>
-      <c r="E44" s="104"/>
+      <c r="E44" s="107"/>
     </row>
     <row r="45" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="108"/>
+      <c r="B45" s="126"/>
       <c r="C45" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D45" s="4">
         <v>1025</v>
       </c>
-      <c r="E45" s="105"/>
+      <c r="E45" s="108"/>
     </row>
     <row r="46" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="71" t="s">
+      <c r="A46" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="72"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73" t="s">
+      <c r="B46" s="75"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="74"/>
+      <c r="E46" s="77"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="122"/>
-      <c r="B47" s="123"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="124"/>
-      <c r="E47" s="124"/>
+      <c r="A47" s="129"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="131"/>
     </row>
     <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="117"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="119"/>
-      <c r="E48" s="119"/>
+      <c r="A48" s="119"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/data/rooming.xlsx
+++ b/data/rooming.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00999DE0-A566-4D96-9313-710A26BFD994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C05837A-5A0C-487C-9E69-F5C8A8A94A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10692" yWindow="0" windowWidth="11712" windowHeight="12240" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1차수" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="3차수" sheetId="7" r:id="rId3"/>
     <sheet name="4차수" sheetId="10" r:id="rId4"/>
     <sheet name="5차수" sheetId="11" r:id="rId5"/>
+    <sheet name="6차수" sheetId="13" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1차수'!$A$1:$E$44</definedName>
@@ -230,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="296">
   <si>
     <t>Guest Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1401,6 +1402,264 @@
     <t>반납</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>롯데면세점 야모이자(9/15~16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스탠다드 트윈
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>9/14~16(2박)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">디럭스 더블 트윈
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>9/14~16(2박)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준홍, 이재욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데(교육생,남)
+11객실
+스탠다드 트윈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진, 윤남호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한성욱, 이성환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신준영, 권오찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성수, 안인섭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조현준, 김태근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이준우, 최연규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동현, 전도일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전상진, 김동률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이승재,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 박성규</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박성규: 김동률 희망</t>
+  </si>
+  <si>
+    <t>이세훈, 김석원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현자, 이진아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데(교육생,여)
+26객실
+더블 트윈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송예나, 이상아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유영주, 이혜원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이근혜, 임혜지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안소영, 양승주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고윤정, 강명숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>김명화, 김지현</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(월드타워점)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김선영, 박희정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선아, 오정민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김수진, 박규진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정진주, 노유주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노미영, 최현정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정윤아, 안재옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전예슬, 박경진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최원단, 함수경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백윤희, 박유정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허경미, 장유진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황유진, 조은경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유미진, 이정은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>이소영, 김지현</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(명동본점)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김수진, 이시현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송이슬, 이숙자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원정임, 이선미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박민정, 이영희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전미영, 이성희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서윤정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서윤정: 이경아 희망 (불참)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42객실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1409,7 +1668,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1709,6 +1968,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -2589,7 +2872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2964,6 +3247,18 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3009,21 +3304,9 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3032,6 +3315,18 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -5501,7 +5796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE77CA-235E-4DAA-B93C-2D5EF1F7BEAF}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -5520,8 +5815,8 @@
       <c r="B1" s="67"/>
       <c r="C1" s="68"/>
       <c r="D1" s="68"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
       <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
@@ -5559,7 +5854,7 @@
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="127" t="s">
+      <c r="G3" s="110" t="s">
         <v>240</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -5580,7 +5875,7 @@
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
-      <c r="G4" s="127"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="14" t="s">
         <v>60</v>
       </c>
@@ -5590,7 +5885,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="111" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -5601,7 +5896,7 @@
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
-      <c r="G5" s="127" t="s">
+      <c r="G5" s="110" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5610,7 +5905,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="126"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="43" t="s">
         <v>154</v>
       </c>
@@ -5619,14 +5914,14 @@
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
-      <c r="G6" s="127"/>
+      <c r="G6" s="110"/>
     </row>
     <row r="7" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="111" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -5637,7 +5932,7 @@
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
-      <c r="G7" s="127" t="s">
+      <c r="G7" s="110" t="s">
         <v>155</v>
       </c>
       <c r="H7" s="54" t="s">
@@ -5649,7 +5944,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="125"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="12" t="s">
         <v>162</v>
       </c>
@@ -5658,14 +5953,14 @@
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
-      <c r="G8" s="127"/>
+      <c r="G8" s="110"/>
     </row>
     <row r="9" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="125"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="12" t="s">
         <v>163</v>
       </c>
@@ -5674,14 +5969,14 @@
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
-      <c r="G9" s="127"/>
+      <c r="G9" s="110"/>
     </row>
     <row r="10" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="125"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="45" t="s">
         <v>164</v>
       </c>
@@ -5690,14 +5985,14 @@
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
-      <c r="G10" s="127"/>
+      <c r="G10" s="110"/>
     </row>
     <row r="11" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="125"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="12" t="s">
         <v>165</v>
       </c>
@@ -5706,14 +6001,14 @@
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
-      <c r="G11" s="127"/>
+      <c r="G11" s="110"/>
     </row>
     <row r="12" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="125"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="12" t="s">
         <v>166</v>
       </c>
@@ -5722,14 +6017,14 @@
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="56"/>
-      <c r="G12" s="127"/>
+      <c r="G12" s="110"/>
     </row>
     <row r="13" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="125"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="12" t="s">
         <v>167</v>
       </c>
@@ -5738,14 +6033,14 @@
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
-      <c r="G13" s="127"/>
+      <c r="G13" s="110"/>
     </row>
     <row r="14" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="125"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="12" t="s">
         <v>168</v>
       </c>
@@ -5754,14 +6049,14 @@
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
-      <c r="G14" s="127"/>
+      <c r="G14" s="110"/>
     </row>
     <row r="15" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="125"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="12" t="s">
         <v>169</v>
       </c>
@@ -5770,14 +6065,14 @@
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
-      <c r="G15" s="127"/>
+      <c r="G15" s="110"/>
     </row>
     <row r="16" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="125"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="12" t="s">
         <v>170</v>
       </c>
@@ -5786,14 +6081,14 @@
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
-      <c r="G16" s="127"/>
+      <c r="G16" s="110"/>
     </row>
     <row r="17" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="125"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="12" t="s">
         <v>171</v>
       </c>
@@ -5802,14 +6097,14 @@
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
-      <c r="G17" s="127"/>
+      <c r="G17" s="110"/>
     </row>
     <row r="18" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="11" t="s">
         <v>172</v>
       </c>
@@ -5818,7 +6113,7 @@
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
-      <c r="G18" s="127"/>
+      <c r="G18" s="110"/>
       <c r="H18" s="54" t="s">
         <v>174</v>
       </c>
@@ -5828,7 +6123,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="126"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="12" t="s">
         <v>173</v>
       </c>
@@ -5837,14 +6132,14 @@
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
-      <c r="G19" s="127"/>
+      <c r="G19" s="110"/>
     </row>
     <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="111" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -5855,7 +6150,7 @@
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="127" t="s">
+      <c r="G20" s="110" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5864,7 +6159,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="125"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="12" t="s">
         <v>177</v>
       </c>
@@ -5873,14 +6168,14 @@
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
-      <c r="G21" s="127"/>
+      <c r="G21" s="110"/>
     </row>
     <row r="22" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="125"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="12" t="s">
         <v>245</v>
       </c>
@@ -5889,7 +6184,7 @@
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="56"/>
-      <c r="G22" s="127"/>
+      <c r="G22" s="110"/>
       <c r="H22" s="54" t="s">
         <v>200</v>
       </c>
@@ -5899,7 +6194,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="125"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="12" t="s">
         <v>178</v>
       </c>
@@ -5908,14 +6203,14 @@
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
-      <c r="G23" s="127"/>
+      <c r="G23" s="110"/>
     </row>
     <row r="24" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="125"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="12" t="s">
         <v>179</v>
       </c>
@@ -5924,14 +6219,14 @@
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
-      <c r="G24" s="127"/>
+      <c r="G24" s="110"/>
     </row>
     <row r="25" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="125"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="12" t="s">
         <v>180</v>
       </c>
@@ -5940,14 +6235,14 @@
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="56"/>
-      <c r="G25" s="127"/>
+      <c r="G25" s="110"/>
     </row>
     <row r="26" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="125"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="12" t="s">
         <v>181</v>
       </c>
@@ -5956,14 +6251,14 @@
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
-      <c r="G26" s="127"/>
+      <c r="G26" s="110"/>
     </row>
     <row r="27" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="125"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="12" t="s">
         <v>182</v>
       </c>
@@ -5972,14 +6267,14 @@
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
-      <c r="G27" s="127"/>
+      <c r="G27" s="110"/>
     </row>
     <row r="28" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="125"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="12" t="s">
         <v>183</v>
       </c>
@@ -5988,14 +6283,14 @@
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
-      <c r="G28" s="127"/>
+      <c r="G28" s="110"/>
     </row>
     <row r="29" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="125"/>
+      <c r="B29" s="128"/>
       <c r="C29" s="12" t="s">
         <v>184</v>
       </c>
@@ -6004,14 +6299,14 @@
       </c>
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
-      <c r="G29" s="127"/>
+      <c r="G29" s="110"/>
     </row>
     <row r="30" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="125"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="12" t="s">
         <v>185</v>
       </c>
@@ -6020,14 +6315,14 @@
       </c>
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
-      <c r="G30" s="127"/>
+      <c r="G30" s="110"/>
     </row>
     <row r="31" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="125"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="12" t="s">
         <v>186</v>
       </c>
@@ -6036,14 +6331,14 @@
       </c>
       <c r="E31" s="56"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="127"/>
+      <c r="G31" s="110"/>
     </row>
     <row r="32" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="125"/>
+      <c r="B32" s="128"/>
       <c r="C32" s="12" t="s">
         <v>187</v>
       </c>
@@ -6052,14 +6347,14 @@
       </c>
       <c r="E32" s="56"/>
       <c r="F32" s="56"/>
-      <c r="G32" s="127"/>
+      <c r="G32" s="110"/>
     </row>
     <row r="33" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="125"/>
+      <c r="B33" s="128"/>
       <c r="C33" s="12" t="s">
         <v>188</v>
       </c>
@@ -6068,14 +6363,14 @@
       </c>
       <c r="E33" s="56"/>
       <c r="F33" s="56"/>
-      <c r="G33" s="127"/>
+      <c r="G33" s="110"/>
     </row>
     <row r="34" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="125"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="12" t="s">
         <v>189</v>
       </c>
@@ -6084,14 +6379,14 @@
       </c>
       <c r="E34" s="56"/>
       <c r="F34" s="56"/>
-      <c r="G34" s="127"/>
+      <c r="G34" s="110"/>
     </row>
     <row r="35" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="125"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="12" t="s">
         <v>190</v>
       </c>
@@ -6100,14 +6395,14 @@
       </c>
       <c r="E35" s="56"/>
       <c r="F35" s="56"/>
-      <c r="G35" s="127"/>
+      <c r="G35" s="110"/>
     </row>
     <row r="36" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="125"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="12" t="s">
         <v>191</v>
       </c>
@@ -6116,14 +6411,14 @@
       </c>
       <c r="E36" s="56"/>
       <c r="F36" s="56"/>
-      <c r="G36" s="127"/>
+      <c r="G36" s="110"/>
     </row>
     <row r="37" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="125"/>
+      <c r="B37" s="128"/>
       <c r="C37" s="12" t="s">
         <v>192</v>
       </c>
@@ -6132,14 +6427,14 @@
       </c>
       <c r="E37" s="56"/>
       <c r="F37" s="56"/>
-      <c r="G37" s="127"/>
+      <c r="G37" s="110"/>
     </row>
     <row r="38" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="125"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="12" t="s">
         <v>193</v>
       </c>
@@ -6148,14 +6443,14 @@
       </c>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
-      <c r="G38" s="127"/>
+      <c r="G38" s="110"/>
     </row>
     <row r="39" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="125"/>
+      <c r="B39" s="128"/>
       <c r="C39" s="12" t="s">
         <v>194</v>
       </c>
@@ -6164,14 +6459,14 @@
       </c>
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
-      <c r="G39" s="127"/>
+      <c r="G39" s="110"/>
     </row>
     <row r="40" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="125"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="12" t="s">
         <v>195</v>
       </c>
@@ -6180,14 +6475,14 @@
       </c>
       <c r="E40" s="56"/>
       <c r="F40" s="56"/>
-      <c r="G40" s="127"/>
+      <c r="G40" s="110"/>
     </row>
     <row r="41" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="125"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="12" t="s">
         <v>196</v>
       </c>
@@ -6196,14 +6491,14 @@
       </c>
       <c r="E41" s="56"/>
       <c r="F41" s="56"/>
-      <c r="G41" s="127"/>
+      <c r="G41" s="110"/>
     </row>
     <row r="42" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="125"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="12" t="s">
         <v>197</v>
       </c>
@@ -6212,14 +6507,14 @@
       </c>
       <c r="E42" s="56"/>
       <c r="F42" s="56"/>
-      <c r="G42" s="127"/>
+      <c r="G42" s="110"/>
     </row>
     <row r="43" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="125"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="12" t="s">
         <v>198</v>
       </c>
@@ -6228,14 +6523,14 @@
       </c>
       <c r="E43" s="56"/>
       <c r="F43" s="56"/>
-      <c r="G43" s="127"/>
+      <c r="G43" s="110"/>
     </row>
     <row r="44" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="126"/>
+      <c r="B44" s="112"/>
       <c r="C44" s="12" t="s">
         <v>199</v>
       </c>
@@ -6244,7 +6539,7 @@
       </c>
       <c r="E44" s="56"/>
       <c r="F44" s="56"/>
-      <c r="G44" s="127"/>
+      <c r="G44" s="110"/>
     </row>
     <row r="45" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
@@ -6265,50 +6560,50 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="109" t="s">
+      <c r="A46" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="110"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111" t="str">
+      <c r="B46" s="114"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115" t="str">
         <f>COUNT(D3:D45)&amp;"객실"</f>
         <v>43객실</v>
       </c>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="113"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="117"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="114"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="118"/>
+      <c r="A47" s="118"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="122"/>
     </row>
     <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="119"/>
-      <c r="B48" s="120"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="122"/>
-      <c r="G48" s="123"/>
+      <c r="A48" s="123"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="126"/>
+      <c r="G48" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="D46:G46"/>
     <mergeCell ref="A47:G48"/>
     <mergeCell ref="B20:B44"/>
     <mergeCell ref="B7:B19"/>
     <mergeCell ref="G20:G44"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6397,7 +6692,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="111" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -6415,7 +6710,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="126"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="42" t="s">
         <v>154</v>
       </c>
@@ -6429,7 +6724,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="111" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -6447,7 +6742,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="125"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="12" t="s">
         <v>203</v>
       </c>
@@ -6461,7 +6756,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="125"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="12" t="s">
         <v>201</v>
       </c>
@@ -6475,7 +6770,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="125"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="12" t="s">
         <v>204</v>
       </c>
@@ -6489,7 +6784,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="125"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="45" t="s">
         <v>205</v>
       </c>
@@ -6503,7 +6798,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="125"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="12" t="s">
         <v>206</v>
       </c>
@@ -6517,7 +6812,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="125"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="12" t="s">
         <v>207</v>
       </c>
@@ -6531,7 +6826,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="125"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="12" t="s">
         <v>208</v>
       </c>
@@ -6545,7 +6840,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="125"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="12" t="s">
         <v>209</v>
       </c>
@@ -6559,7 +6854,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="125"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="12" t="s">
         <v>210</v>
       </c>
@@ -6573,7 +6868,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="125"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="12" t="s">
         <v>211</v>
       </c>
@@ -6587,7 +6882,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="12" t="s">
         <v>212</v>
       </c>
@@ -6601,7 +6896,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="125"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="12" t="s">
         <v>213</v>
       </c>
@@ -6615,7 +6910,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="125"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="12" t="s">
         <v>214</v>
       </c>
@@ -6629,7 +6924,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="125"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="12" t="s">
         <v>215</v>
       </c>
@@ -6643,7 +6938,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="125"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="12" t="s">
         <v>216</v>
       </c>
@@ -6657,7 +6952,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="125"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="12" t="s">
         <v>247</v>
       </c>
@@ -6672,7 +6967,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="125"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="12" t="s">
         <v>217</v>
       </c>
@@ -6686,7 +6981,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="125"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="12" t="s">
         <v>218</v>
       </c>
@@ -6700,7 +6995,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="125"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="12" t="s">
         <v>219</v>
       </c>
@@ -6714,7 +7009,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="125"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="11" t="s">
         <v>220</v>
       </c>
@@ -6731,7 +7026,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="125"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="12" t="s">
         <v>221</v>
       </c>
@@ -6745,7 +7040,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="125"/>
+      <c r="B29" s="128"/>
       <c r="C29" s="12" t="s">
         <v>222</v>
       </c>
@@ -6759,7 +7054,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="125"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="12" t="s">
         <v>223</v>
       </c>
@@ -6805,7 +7100,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="124" t="s">
+      <c r="B33" s="111" t="s">
         <v>105</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -6823,7 +7118,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="125"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="12" t="s">
         <v>225</v>
       </c>
@@ -6837,7 +7132,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="125"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="12" t="s">
         <v>246</v>
       </c>
@@ -6852,7 +7147,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="125"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="12" t="s">
         <v>226</v>
       </c>
@@ -6866,7 +7161,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="125"/>
+      <c r="B37" s="128"/>
       <c r="C37" s="12" t="s">
         <v>227</v>
       </c>
@@ -6880,7 +7175,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="125"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="12" t="s">
         <v>228</v>
       </c>
@@ -6894,7 +7189,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="125"/>
+      <c r="B39" s="128"/>
       <c r="C39" s="12" t="s">
         <v>229</v>
       </c>
@@ -6908,7 +7203,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="125"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="12" t="s">
         <v>230</v>
       </c>
@@ -6922,7 +7217,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="125"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="12" t="s">
         <v>231</v>
       </c>
@@ -6936,7 +7231,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="125"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="12" t="s">
         <v>232</v>
       </c>
@@ -6950,7 +7245,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="125"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="12" t="s">
         <v>233</v>
       </c>
@@ -6964,7 +7259,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="125"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="12" t="s">
         <v>234</v>
       </c>
@@ -6978,7 +7273,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="126"/>
+      <c r="B45" s="112"/>
       <c r="C45" s="12" t="s">
         <v>235</v>
       </c>
@@ -7006,11 +7301,11 @@
       <c r="E47" s="131"/>
     </row>
     <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="119"/>
-      <c r="B48" s="120"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="121"/>
+      <c r="A48" s="123"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7030,4 +7325,702 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F85112-7CEF-4334-84B4-FD45E7083DEB}">
+  <dimension ref="A1:M47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="11.296875" customWidth="1"/>
+    <col min="3" max="3" width="32.796875" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A3" s="41">
+        <f t="shared" ref="A3:A44" si="0">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="132" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4">
+        <v>705</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1102</v>
+      </c>
+      <c r="E4" s="107" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A5" s="41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="4">
+        <v>1103</v>
+      </c>
+      <c r="E5" s="108"/>
+    </row>
+    <row r="6" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A6" s="41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="111" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1211</v>
+      </c>
+      <c r="E6" s="110" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A7" s="41">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="128"/>
+      <c r="C7" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1207</v>
+      </c>
+      <c r="E7" s="110"/>
+    </row>
+    <row r="8" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A8" s="41">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="128"/>
+      <c r="C8" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="4">
+        <v>601</v>
+      </c>
+      <c r="E8" s="110" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A9" s="41">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="128"/>
+      <c r="C9" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="4">
+        <v>606</v>
+      </c>
+      <c r="E9" s="110"/>
+    </row>
+    <row r="10" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A10" s="41">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="128"/>
+      <c r="C10" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="4">
+        <v>607</v>
+      </c>
+      <c r="E10" s="110"/>
+    </row>
+    <row r="11" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A11" s="41">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="128"/>
+      <c r="C11" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="5">
+        <v>609</v>
+      </c>
+      <c r="E11" s="110"/>
+    </row>
+    <row r="12" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A12" s="41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="128"/>
+      <c r="C12" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" s="4">
+        <v>610</v>
+      </c>
+      <c r="E12" s="110"/>
+    </row>
+    <row r="13" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A13" s="41">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="128"/>
+      <c r="C13" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="4">
+        <v>613</v>
+      </c>
+      <c r="E13" s="110"/>
+    </row>
+    <row r="14" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A14" s="41">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="128"/>
+      <c r="C14" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="4">
+        <v>614</v>
+      </c>
+      <c r="E14" s="110"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A15" s="41">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="128"/>
+      <c r="C15" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="4">
+        <v>617</v>
+      </c>
+      <c r="E15" s="110"/>
+    </row>
+    <row r="16" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A16" s="41">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="128"/>
+      <c r="C16" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="4">
+        <v>618</v>
+      </c>
+      <c r="E16" s="110"/>
+      <c r="M16" s="43"/>
+    </row>
+    <row r="17" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A17" s="41">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="128"/>
+      <c r="C17" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" s="4">
+        <v>619</v>
+      </c>
+      <c r="E17" s="110"/>
+      <c r="F17" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A18" s="41">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="112"/>
+      <c r="C18" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="4">
+        <v>620</v>
+      </c>
+      <c r="E18" s="110"/>
+    </row>
+    <row r="19" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A19" s="41">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="4">
+        <v>909</v>
+      </c>
+      <c r="E19" s="110" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A20" s="41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="128"/>
+      <c r="C20" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="4">
+        <v>910</v>
+      </c>
+      <c r="E20" s="110"/>
+    </row>
+    <row r="21" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A21" s="41">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="128"/>
+      <c r="C21" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="4">
+        <v>911</v>
+      </c>
+      <c r="E21" s="110"/>
+    </row>
+    <row r="22" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A22" s="41">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="128"/>
+      <c r="C22" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="4">
+        <v>912</v>
+      </c>
+      <c r="E22" s="110"/>
+    </row>
+    <row r="23" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A23" s="41">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="128"/>
+      <c r="C23" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23" s="4">
+        <v>913</v>
+      </c>
+      <c r="E23" s="110"/>
+    </row>
+    <row r="24" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="41">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="128"/>
+      <c r="C24" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="4">
+        <v>914</v>
+      </c>
+      <c r="E24" s="110"/>
+    </row>
+    <row r="25" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A25" s="41">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="128"/>
+      <c r="C25" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="4">
+        <v>915</v>
+      </c>
+      <c r="E25" s="110"/>
+    </row>
+    <row r="26" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A26" s="41">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="128"/>
+      <c r="C26" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="4">
+        <v>917</v>
+      </c>
+      <c r="E26" s="110"/>
+    </row>
+    <row r="27" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A27" s="41">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="128"/>
+      <c r="C27" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D27" s="4">
+        <v>919</v>
+      </c>
+      <c r="E27" s="110"/>
+    </row>
+    <row r="28" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A28" s="41">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="128"/>
+      <c r="C28" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="4">
+        <v>920</v>
+      </c>
+      <c r="E28" s="110"/>
+    </row>
+    <row r="29" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A29" s="41">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="128"/>
+      <c r="C29" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29" s="4">
+        <v>922</v>
+      </c>
+      <c r="E29" s="110"/>
+    </row>
+    <row r="30" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A30" s="41">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="128"/>
+      <c r="C30" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" s="4">
+        <v>923</v>
+      </c>
+      <c r="E30" s="110"/>
+    </row>
+    <row r="31" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A31" s="41">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="128"/>
+      <c r="C31" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="4">
+        <v>926</v>
+      </c>
+      <c r="E31" s="110"/>
+    </row>
+    <row r="32" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A32" s="41">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="128"/>
+      <c r="C32" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1013</v>
+      </c>
+      <c r="E32" s="110"/>
+    </row>
+    <row r="33" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A33" s="41">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="128"/>
+      <c r="C33" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1014</v>
+      </c>
+      <c r="E33" s="110"/>
+    </row>
+    <row r="34" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A34" s="41">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="128"/>
+      <c r="C34" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1015</v>
+      </c>
+      <c r="E34" s="110"/>
+    </row>
+    <row r="35" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A35" s="41">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="128"/>
+      <c r="C35" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1017</v>
+      </c>
+      <c r="E35" s="110"/>
+    </row>
+    <row r="36" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A36" s="41">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="128"/>
+      <c r="C36" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1018</v>
+      </c>
+      <c r="E36" s="110"/>
+    </row>
+    <row r="37" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A37" s="41">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="128"/>
+      <c r="C37" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1019</v>
+      </c>
+      <c r="E37" s="110"/>
+    </row>
+    <row r="38" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A38" s="41">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="128"/>
+      <c r="C38" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1020</v>
+      </c>
+      <c r="E38" s="110"/>
+    </row>
+    <row r="39" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A39" s="41">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="128"/>
+      <c r="C39" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1021</v>
+      </c>
+      <c r="E39" s="110"/>
+    </row>
+    <row r="40" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A40" s="41">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="128"/>
+      <c r="C40" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1022</v>
+      </c>
+      <c r="E40" s="110"/>
+    </row>
+    <row r="41" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A41" s="41">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="128"/>
+      <c r="C41" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1023</v>
+      </c>
+      <c r="E41" s="110"/>
+    </row>
+    <row r="42" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A42" s="41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="128"/>
+      <c r="C42" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1024</v>
+      </c>
+      <c r="E42" s="110"/>
+    </row>
+    <row r="43" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A43" s="41">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="128"/>
+      <c r="C43" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1025</v>
+      </c>
+      <c r="E43" s="110"/>
+    </row>
+    <row r="44" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A44" s="41">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="112"/>
+      <c r="C44" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1026</v>
+      </c>
+      <c r="E44" s="110"/>
+      <c r="F44" s="135" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A45" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="114"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115" t="s">
+        <v>295</v>
+      </c>
+      <c r="E45" s="117"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="118"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="122"/>
+    </row>
+    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="123"/>
+      <c r="B47" s="124"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="127"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B19:B44"/>
+    <mergeCell ref="E19:E44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/rooming.xlsx
+++ b/data/rooming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C05837A-5A0C-487C-9E69-F5C8A8A94A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC31986-0C2A-46FF-A660-47FA9629DB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10692" yWindow="0" windowWidth="11712" windowHeight="12240" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1차수" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="3차수" sheetId="7" r:id="rId3"/>
     <sheet name="4차수" sheetId="10" r:id="rId4"/>
     <sheet name="5차수" sheetId="11" r:id="rId5"/>
-    <sheet name="6차수" sheetId="13" r:id="rId6"/>
+    <sheet name="6차수" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1차수'!$A$1:$E$44</definedName>
@@ -1407,81 +1407,188 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>롯데(교육생,남)
+11객실
+스탠다드 트윈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데(교육생,여)
+26객실
+더블 트윈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42객실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준홍, 이재욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진, 윤남호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신준영, 권오찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성수, 안인섭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조현준, 김태근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전상진, 김동률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동현, 전도일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이세훈, 김석원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한성욱, 이성환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박성규: 김동률 희망</t>
+  </si>
+  <si>
+    <t>김현자, 이진아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송예나, 이상아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유영주, 이혜원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이근혜, 임혜지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안소영, 양승주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고윤정, 강명숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김선영, 박희정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선아, 오정민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정진주, 노유주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노미영, 최현정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정윤아, 안재옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전예슬, 박경진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최원단, 함수경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허경미, 장유진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황유진, 조은경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백윤희, 박유정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유미진, 이정은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">스탠다드 트윈
-</t>
+      <t>김명화, 김지현</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="HY견고딕"/>
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>9/14~16(2박)</t>
+      <t>(월드타워점)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">디럭스 더블 트윈
-</t>
+      <t>이소영, 김지현</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="HY견고딕"/>
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>9/14~16(2박)</t>
+      <t>(명동본점)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김준홍, 이재욱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롯데(교육생,남)
-11객실
-스탠다드 트윈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박진, 윤남호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한성욱, 이성환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신준영, 권오찬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이성수, 안인섭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조현준, 김태근</t>
+    <t>송이슬, 이숙자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원정임, 이선미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박민정, 이영희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전미영, 이성희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서윤정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서윤정: 이경아 희망 (불참)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이준우, 최연규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김동현, 전도일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전상진, 김동률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1510,45 +1617,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>박성규: 김동률 희망</t>
-  </si>
-  <si>
-    <t>이세훈, 김석원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김현자, 이진아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롯데(교육생,여)
-26객실
-더블 트윈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>송예나, 이상아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유영주, 이혜원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이근혜, 임혜지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안소영, 양승주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고윤정, 강명숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>김명화, 김지현</t>
+      <t>김수진</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(J&amp;W팀)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 이시현</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>김수진</t>
     </r>
     <r>
       <rPr>
@@ -1561,103 +1659,38 @@
       </rPr>
       <t>(월드타워점)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김선영, 박희정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이선아, 오정민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김수진, 박규진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정진주, 노유주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노미영, 최현정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정윤아, 안재옥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전예슬, 박경진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최원단, 함수경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백윤희, 박유정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허경미, 장유진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황유진, 조은경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유미진, 이정은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>이소영, 김지현</t>
-    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="16"/>
         <color rgb="FFFF0000"/>
         <rFont val="HY견고딕"/>
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>(명동본점)</t>
+      <t>, 박규진</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김수진, 이시현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>송이슬, 이숙자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원정임, 이선미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박민정, 이영희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전미영, 이성희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서윤정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서윤정: 이경아 희망 (불참)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42객실</t>
+  </si>
+  <si>
+    <t>스탠다드 트윈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">디럭스 더블
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>9/14~16(2박)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2872,7 +2905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3069,6 +3102,9 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3316,17 +3352,11 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -3694,13 +3724,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="25.2" x14ac:dyDescent="0.4">
@@ -3730,7 +3760,7 @@
       <c r="D3" s="4">
         <v>601</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="71" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -3748,7 +3778,7 @@
       <c r="D4" s="4">
         <v>604</v>
       </c>
-      <c r="E4" s="71"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -3772,7 +3802,7 @@
       <c r="D5" s="5">
         <v>605</v>
       </c>
-      <c r="E5" s="72"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="2" t="s">
         <v>50</v>
       </c>
@@ -3781,7 +3811,7 @@
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="79" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -3790,7 +3820,7 @@
       <c r="D6" s="4">
         <v>606</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="74" t="s">
         <v>109</v>
       </c>
       <c r="F6" s="2"/>
@@ -3799,14 +3829,14 @@
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="79"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="4">
         <v>607</v>
       </c>
-      <c r="E7" s="73"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="2"/>
       <c r="J7" s="31"/>
     </row>
@@ -3814,42 +3844,42 @@
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="79"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="4">
         <v>609</v>
       </c>
-      <c r="E8" s="73"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="79"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="4">
         <v>610</v>
       </c>
-      <c r="E9" s="73"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="79"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="5">
         <v>613</v>
       </c>
-      <c r="E10" s="73"/>
+      <c r="E10" s="74"/>
       <c r="F10" s="2"/>
       <c r="I10" t="s">
         <v>6</v>
@@ -3859,70 +3889,70 @@
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="79"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="4">
         <v>614</v>
       </c>
-      <c r="E11" s="73"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="79"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="4">
         <v>617</v>
       </c>
-      <c r="E12" s="73"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="79"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="4">
         <v>618</v>
       </c>
-      <c r="E13" s="73"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="79"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="4">
         <v>619</v>
       </c>
-      <c r="E14" s="73"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="79"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="4">
         <v>620</v>
       </c>
-      <c r="E15" s="73"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="2" t="s">
         <v>48</v>
       </c>
@@ -3931,7 +3961,7 @@
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="79"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="12" t="s">
         <v>29</v>
       </c>
@@ -3947,14 +3977,14 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="79"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="4">
         <v>915</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="71" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="2"/>
@@ -3963,35 +3993,35 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="79"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="4">
         <v>923</v>
       </c>
-      <c r="E18" s="71"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="80"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D19" s="4">
         <v>926</v>
       </c>
-      <c r="E19" s="71"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="79" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -4000,175 +4030,175 @@
       <c r="D20" s="4">
         <v>1001</v>
       </c>
-      <c r="E20" s="71"/>
+      <c r="E20" s="72"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="79"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="4">
         <v>1002</v>
       </c>
-      <c r="E21" s="71"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="79"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="4">
         <v>1003</v>
       </c>
-      <c r="E22" s="71"/>
+      <c r="E22" s="72"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="79"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="4">
         <v>1004</v>
       </c>
-      <c r="E23" s="71"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="79"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="4">
         <v>1005</v>
       </c>
-      <c r="E24" s="71"/>
+      <c r="E24" s="72"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="79"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="4">
         <v>1006</v>
       </c>
-      <c r="E25" s="71"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="79"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="4">
         <v>1007</v>
       </c>
-      <c r="E26" s="71"/>
+      <c r="E26" s="72"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="79"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="4">
         <v>1008</v>
       </c>
-      <c r="E27" s="71"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="79"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="4">
         <v>1009</v>
       </c>
-      <c r="E28" s="71"/>
+      <c r="E28" s="72"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="79"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="4">
         <v>1010</v>
       </c>
-      <c r="E29" s="71"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="79"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="4">
         <v>1011</v>
       </c>
-      <c r="E30" s="71"/>
+      <c r="E30" s="72"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="79"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="4">
         <v>1012</v>
       </c>
-      <c r="E31" s="71"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="79"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D32" s="4">
         <v>1013</v>
       </c>
-      <c r="E32" s="71"/>
+      <c r="E32" s="72"/>
       <c r="F32" s="2" t="s">
         <v>54</v>
       </c>
@@ -4177,126 +4207,126 @@
       <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="79"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="12" t="s">
         <v>101</v>
       </c>
       <c r="D33" s="4">
         <v>1014</v>
       </c>
-      <c r="E33" s="71"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="79"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="4">
         <v>1015</v>
       </c>
-      <c r="E34" s="71"/>
+      <c r="E34" s="72"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="79"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="4">
         <v>1017</v>
       </c>
-      <c r="E35" s="71"/>
+      <c r="E35" s="72"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="79"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="4">
         <v>1018</v>
       </c>
-      <c r="E36" s="71"/>
+      <c r="E36" s="72"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="79"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="4">
         <v>1019</v>
       </c>
-      <c r="E37" s="71"/>
+      <c r="E37" s="72"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="79"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="4">
         <v>1020</v>
       </c>
-      <c r="E38" s="71"/>
+      <c r="E38" s="72"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>37</v>
       </c>
-      <c r="B39" s="79"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="4">
         <v>1021</v>
       </c>
-      <c r="E39" s="71"/>
+      <c r="E39" s="72"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="79"/>
+      <c r="B40" s="80"/>
       <c r="C40" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="4">
         <v>1022</v>
       </c>
-      <c r="E40" s="71"/>
+      <c r="E40" s="72"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>39</v>
       </c>
-      <c r="B41" s="79"/>
+      <c r="B41" s="80"/>
       <c r="C41" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="4">
         <v>1023</v>
       </c>
-      <c r="E41" s="71"/>
+      <c r="E41" s="72"/>
       <c r="F41" s="2" t="s">
         <v>58</v>
       </c>
@@ -4305,58 +4335,58 @@
       <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="79"/>
+      <c r="B42" s="80"/>
       <c r="C42" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="4">
         <v>1024</v>
       </c>
-      <c r="E42" s="71"/>
+      <c r="E42" s="72"/>
     </row>
     <row r="43" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="B43" s="80"/>
+      <c r="B43" s="81"/>
       <c r="C43" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D43" s="4">
         <v>1025</v>
       </c>
-      <c r="E43" s="72"/>
+      <c r="E43" s="73"/>
       <c r="F43" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="75"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76" t="str">
+      <c r="B44" s="76"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77" t="str">
         <f>COUNT(D3:D43)&amp;"객실"</f>
         <v>41객실</v>
       </c>
-      <c r="E44" s="77"/>
+      <c r="E44" s="78"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A45" s="58"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="61"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="62"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="62"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="65"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="66"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
@@ -4404,13 +4434,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91"/>
       <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="25.2" x14ac:dyDescent="0.4">
@@ -4440,7 +4470,7 @@
       <c r="D3" s="22">
         <v>601</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="99" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="23" t="s">
@@ -4458,7 +4488,7 @@
       <c r="D4" s="22">
         <v>604</v>
       </c>
-      <c r="E4" s="99"/>
+      <c r="E4" s="100"/>
       <c r="F4" s="24" t="s">
         <v>60</v>
       </c>
@@ -4474,14 +4504,14 @@
       <c r="D5" s="25">
         <v>605</v>
       </c>
-      <c r="E5" s="100"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="102" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -4490,7 +4520,7 @@
       <c r="D6" s="22">
         <v>606</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="97" t="s">
         <v>108</v>
       </c>
       <c r="F6" s="16"/>
@@ -4499,28 +4529,28 @@
       <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="102"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="30" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="22">
         <v>607</v>
       </c>
-      <c r="E7" s="97"/>
+      <c r="E7" s="98"/>
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="102"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="22">
         <v>609</v>
       </c>
-      <c r="E8" s="97"/>
+      <c r="E8" s="98"/>
       <c r="F8" s="16"/>
       <c r="K8" s="32"/>
     </row>
@@ -4528,42 +4558,42 @@
       <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B9" s="102"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="30" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="22">
         <v>610</v>
       </c>
-      <c r="E9" s="97"/>
+      <c r="E9" s="98"/>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="102"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="30" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="25">
         <v>613</v>
       </c>
-      <c r="E10" s="97"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="102"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="30" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="22">
         <v>614</v>
       </c>
-      <c r="E11" s="97"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="16"/>
       <c r="I11" t="s">
         <v>6</v>
@@ -4573,42 +4603,42 @@
       <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="30" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="22">
         <v>617</v>
       </c>
-      <c r="E12" s="97"/>
+      <c r="E12" s="98"/>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="102"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="30" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="22">
         <v>618</v>
       </c>
-      <c r="E13" s="97"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="102"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="22">
         <v>619</v>
       </c>
-      <c r="E14" s="97"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="16" t="s">
         <v>71</v>
       </c>
@@ -4617,56 +4647,56 @@
       <c r="A15" s="20">
         <v>13</v>
       </c>
-      <c r="B15" s="102"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="30" t="s">
         <v>72</v>
       </c>
       <c r="D15" s="22">
         <v>620</v>
       </c>
-      <c r="E15" s="97"/>
+      <c r="E15" s="98"/>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="102"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="22">
         <v>622</v>
       </c>
-      <c r="E16" s="97"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20">
         <v>15</v>
       </c>
-      <c r="B17" s="102"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="22">
         <v>623</v>
       </c>
-      <c r="E17" s="97"/>
+      <c r="E17" s="98"/>
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="102"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="30" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="22">
         <v>626</v>
       </c>
-      <c r="E18" s="97"/>
+      <c r="E18" s="98"/>
       <c r="F18" s="16" t="s">
         <v>76</v>
       </c>
@@ -4675,7 +4705,7 @@
       <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="102" t="s">
         <v>106</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -4684,21 +4714,21 @@
       <c r="D19" s="22">
         <v>704</v>
       </c>
-      <c r="E19" s="97"/>
+      <c r="E19" s="98"/>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="20">
         <v>18</v>
       </c>
-      <c r="B20" s="103"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="26" t="s">
         <v>102</v>
       </c>
       <c r="D20" s="22">
         <v>705</v>
       </c>
-      <c r="E20" s="97"/>
+      <c r="E20" s="98"/>
       <c r="F20" s="16" t="s">
         <v>103</v>
       </c>
@@ -4707,7 +4737,7 @@
       <c r="A21" s="20">
         <v>19</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="103" t="s">
         <v>105</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -4723,7 +4753,7 @@
       <c r="A22" s="20">
         <v>20</v>
       </c>
-      <c r="B22" s="103"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="21" t="s">
         <v>61</v>
       </c>
@@ -4741,10 +4771,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="39"/>
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="105"/>
+      <c r="D23" s="106"/>
       <c r="E23" s="38"/>
       <c r="F23" s="16"/>
       <c r="K23" s="32"/>
@@ -4753,7 +4783,7 @@
       <c r="A24" s="20">
         <v>22</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="102" t="s">
         <v>106</v>
       </c>
       <c r="C24" s="30" t="s">
@@ -4762,7 +4792,7 @@
       <c r="D24" s="22">
         <v>1001</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="99" t="s">
         <v>110</v>
       </c>
       <c r="F24" s="16"/>
@@ -4771,252 +4801,252 @@
       <c r="A25" s="20">
         <v>23</v>
       </c>
-      <c r="B25" s="102"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="30" t="s">
         <v>99</v>
       </c>
       <c r="D25" s="22">
         <v>1002</v>
       </c>
-      <c r="E25" s="99"/>
+      <c r="E25" s="100"/>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20">
         <v>24</v>
       </c>
-      <c r="B26" s="102"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="30" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="22">
         <v>1003</v>
       </c>
-      <c r="E26" s="99"/>
+      <c r="E26" s="100"/>
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20">
         <v>25</v>
       </c>
-      <c r="B27" s="102"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="30" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="22">
         <v>1004</v>
       </c>
-      <c r="E27" s="99"/>
+      <c r="E27" s="100"/>
       <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20">
         <v>26</v>
       </c>
-      <c r="B28" s="102"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="30" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="22">
         <v>1005</v>
       </c>
-      <c r="E28" s="99"/>
+      <c r="E28" s="100"/>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20">
         <v>27</v>
       </c>
-      <c r="B29" s="102"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="30" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="22">
         <v>1006</v>
       </c>
-      <c r="E29" s="99"/>
+      <c r="E29" s="100"/>
       <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="20">
         <v>28</v>
       </c>
-      <c r="B30" s="102"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D30" s="22">
         <v>1007</v>
       </c>
-      <c r="E30" s="99"/>
+      <c r="E30" s="100"/>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20">
         <v>29</v>
       </c>
-      <c r="B31" s="102"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="30" t="s">
         <v>83</v>
       </c>
       <c r="D31" s="22">
         <v>1008</v>
       </c>
-      <c r="E31" s="99"/>
+      <c r="E31" s="100"/>
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="20">
         <v>30</v>
       </c>
-      <c r="B32" s="102"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="30" t="s">
         <v>84</v>
       </c>
       <c r="D32" s="22">
         <v>1009</v>
       </c>
-      <c r="E32" s="99"/>
+      <c r="E32" s="100"/>
       <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20">
         <v>31</v>
       </c>
-      <c r="B33" s="102"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="30" t="s">
         <v>86</v>
       </c>
       <c r="D33" s="22">
         <v>1010</v>
       </c>
-      <c r="E33" s="99"/>
+      <c r="E33" s="100"/>
       <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="20">
         <v>32</v>
       </c>
-      <c r="B34" s="102"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="30" t="s">
         <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>1011</v>
       </c>
-      <c r="E34" s="99"/>
+      <c r="E34" s="100"/>
       <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20">
         <v>33</v>
       </c>
-      <c r="B35" s="102"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="30" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="22">
         <v>1012</v>
       </c>
-      <c r="E35" s="99"/>
+      <c r="E35" s="100"/>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="20">
         <v>34</v>
       </c>
-      <c r="B36" s="102"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="30" t="s">
         <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>1013</v>
       </c>
-      <c r="E36" s="99"/>
+      <c r="E36" s="100"/>
       <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20">
         <v>35</v>
       </c>
-      <c r="B37" s="102"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="30" t="s">
         <v>89</v>
       </c>
       <c r="D37" s="22">
         <v>1014</v>
       </c>
-      <c r="E37" s="99"/>
+      <c r="E37" s="100"/>
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="20">
         <v>36</v>
       </c>
-      <c r="B38" s="102"/>
+      <c r="B38" s="103"/>
       <c r="C38" s="30" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="22">
         <v>1015</v>
       </c>
-      <c r="E38" s="99"/>
+      <c r="E38" s="100"/>
       <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="20">
         <v>37</v>
       </c>
-      <c r="B39" s="102"/>
+      <c r="B39" s="103"/>
       <c r="C39" s="30" t="s">
         <v>91</v>
       </c>
       <c r="D39" s="22">
         <v>1017</v>
       </c>
-      <c r="E39" s="99"/>
+      <c r="E39" s="100"/>
       <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="20">
         <v>38</v>
       </c>
-      <c r="B40" s="102"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="30" t="s">
         <v>92</v>
       </c>
       <c r="D40" s="22">
         <v>1018</v>
       </c>
-      <c r="E40" s="99"/>
+      <c r="E40" s="100"/>
       <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="20">
         <v>39</v>
       </c>
-      <c r="B41" s="102"/>
+      <c r="B41" s="103"/>
       <c r="C41" s="30" t="s">
         <v>93</v>
       </c>
       <c r="D41" s="22">
         <v>1019</v>
       </c>
-      <c r="E41" s="99"/>
+      <c r="E41" s="100"/>
       <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="20">
         <v>40</v>
       </c>
-      <c r="B42" s="102"/>
+      <c r="B42" s="103"/>
       <c r="C42" s="26" t="s">
         <v>94</v>
       </c>
       <c r="D42" s="22">
         <v>1020</v>
       </c>
-      <c r="E42" s="99"/>
+      <c r="E42" s="100"/>
       <c r="F42" s="16" t="s">
         <v>95</v>
       </c>
@@ -5025,84 +5055,84 @@
       <c r="A43" s="20">
         <v>41</v>
       </c>
-      <c r="B43" s="102"/>
+      <c r="B43" s="103"/>
       <c r="C43" s="30" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="22">
         <v>1021</v>
       </c>
-      <c r="E43" s="99"/>
+      <c r="E43" s="100"/>
       <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="20">
         <v>42</v>
       </c>
-      <c r="B44" s="102"/>
+      <c r="B44" s="103"/>
       <c r="C44" s="30" t="s">
         <v>104</v>
       </c>
       <c r="D44" s="22">
         <v>1022</v>
       </c>
-      <c r="E44" s="99"/>
+      <c r="E44" s="100"/>
       <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="20">
         <v>43</v>
       </c>
-      <c r="B45" s="102"/>
+      <c r="B45" s="103"/>
       <c r="C45" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="22">
         <v>1023</v>
       </c>
-      <c r="E45" s="99"/>
+      <c r="E45" s="100"/>
       <c r="F45" s="28"/>
     </row>
     <row r="46" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A46" s="20">
         <v>44</v>
       </c>
-      <c r="B46" s="103"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="22">
         <v>1024</v>
       </c>
-      <c r="E46" s="100"/>
+      <c r="E46" s="101"/>
       <c r="F46" s="28"/>
     </row>
     <row r="47" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="93" t="s">
+      <c r="A47" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="94"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="91" t="s">
+      <c r="B47" s="95"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="92"/>
+      <c r="E47" s="93"/>
       <c r="F47" s="28"/>
     </row>
     <row r="48" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="83"/>
+      <c r="A48" s="82"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="84"/>
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="84"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="86"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="87"/>
       <c r="F49" s="29"/>
     </row>
   </sheetData>
@@ -5144,13 +5174,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="25.2" x14ac:dyDescent="0.4">
@@ -5180,7 +5210,7 @@
       <c r="D3" s="4">
         <v>707</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="107" t="s">
         <v>113</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -5198,7 +5228,7 @@
       <c r="D4" s="4">
         <v>1101</v>
       </c>
-      <c r="E4" s="107"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -5214,14 +5244,14 @@
       <c r="D5" s="5">
         <v>1104</v>
       </c>
-      <c r="E5" s="108"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="102" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -5230,7 +5260,7 @@
       <c r="D6" s="4">
         <v>601</v>
       </c>
-      <c r="E6" s="106" t="s">
+      <c r="E6" s="107" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="2"/>
@@ -5239,154 +5269,154 @@
       <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="102"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="12" t="s">
         <v>117</v>
       </c>
       <c r="D7" s="4">
         <v>604</v>
       </c>
-      <c r="E7" s="107"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="102"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="12" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="4">
         <v>605</v>
       </c>
-      <c r="E8" s="107"/>
+      <c r="E8" s="108"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="102"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D9" s="4">
         <v>606</v>
       </c>
-      <c r="E9" s="107"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="102"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="45" t="s">
         <v>120</v>
       </c>
       <c r="D10" s="5">
         <v>607</v>
       </c>
-      <c r="E10" s="107"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <v>9</v>
       </c>
-      <c r="B11" s="102"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="4">
         <v>609</v>
       </c>
-      <c r="E11" s="107"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <v>10</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D12" s="4">
         <v>610</v>
       </c>
-      <c r="E12" s="107"/>
+      <c r="E12" s="108"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <v>11</v>
       </c>
-      <c r="B13" s="102"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D13" s="4">
         <v>613</v>
       </c>
-      <c r="E13" s="107"/>
+      <c r="E13" s="108"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>12</v>
       </c>
-      <c r="B14" s="102"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D14" s="4">
         <v>614</v>
       </c>
-      <c r="E14" s="107"/>
+      <c r="E14" s="108"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <v>13</v>
       </c>
-      <c r="B15" s="102"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="12" t="s">
         <v>125</v>
       </c>
       <c r="D15" s="4">
         <v>617</v>
       </c>
-      <c r="E15" s="107"/>
+      <c r="E15" s="108"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <v>14</v>
       </c>
-      <c r="B16" s="102"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="12" t="s">
         <v>126</v>
       </c>
       <c r="D16" s="4">
         <v>618</v>
       </c>
-      <c r="E16" s="107"/>
+      <c r="E16" s="108"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <v>15</v>
       </c>
-      <c r="B17" s="102"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="42" t="s">
         <v>127</v>
       </c>
       <c r="D17" s="4">
         <v>619</v>
       </c>
-      <c r="E17" s="107"/>
+      <c r="E17" s="108"/>
       <c r="F17" s="2" t="s">
         <v>76</v>
       </c>
@@ -5395,14 +5425,14 @@
       <c r="A18" s="41">
         <v>16</v>
       </c>
-      <c r="B18" s="102"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="42" t="s">
         <v>100</v>
       </c>
       <c r="D18" s="4">
         <v>620</v>
       </c>
-      <c r="E18" s="107"/>
+      <c r="E18" s="108"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -5427,14 +5457,14 @@
       <c r="A20" s="41">
         <v>18</v>
       </c>
-      <c r="B20" s="101"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D20" s="4">
         <v>1001</v>
       </c>
-      <c r="E20" s="106" t="s">
+      <c r="E20" s="107" t="s">
         <v>115</v>
       </c>
       <c r="F20" s="2"/>
@@ -5443,168 +5473,168 @@
       <c r="A21" s="41">
         <v>19</v>
       </c>
-      <c r="B21" s="102"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="12" t="s">
         <v>130</v>
       </c>
       <c r="D21" s="4">
         <v>1002</v>
       </c>
-      <c r="E21" s="107"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <v>20</v>
       </c>
-      <c r="B22" s="102"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D22" s="4">
         <v>1003</v>
       </c>
-      <c r="E22" s="107"/>
+      <c r="E22" s="108"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <v>21</v>
       </c>
-      <c r="B23" s="102"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="12" t="s">
         <v>132</v>
       </c>
       <c r="D23" s="4">
         <v>1004</v>
       </c>
-      <c r="E23" s="107"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <v>22</v>
       </c>
-      <c r="B24" s="102"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D24" s="4">
         <v>1005</v>
       </c>
-      <c r="E24" s="107"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <v>23</v>
       </c>
-      <c r="B25" s="102"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="12" t="s">
         <v>134</v>
       </c>
       <c r="D25" s="4">
         <v>1006</v>
       </c>
-      <c r="E25" s="107"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <v>24</v>
       </c>
-      <c r="B26" s="102"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="12" t="s">
         <v>135</v>
       </c>
       <c r="D26" s="4">
         <v>1007</v>
       </c>
-      <c r="E26" s="107"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <v>25</v>
       </c>
-      <c r="B27" s="102"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="12" t="s">
         <v>136</v>
       </c>
       <c r="D27" s="4">
         <v>1008</v>
       </c>
-      <c r="E27" s="107"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <v>26</v>
       </c>
-      <c r="B28" s="102"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="12" t="s">
         <v>137</v>
       </c>
       <c r="D28" s="4">
         <v>1009</v>
       </c>
-      <c r="E28" s="107"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <v>27</v>
       </c>
-      <c r="B29" s="102"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="12" t="s">
         <v>138</v>
       </c>
       <c r="D29" s="4">
         <v>1010</v>
       </c>
-      <c r="E29" s="107"/>
+      <c r="E29" s="108"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <v>28</v>
       </c>
-      <c r="B30" s="102"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="12" t="s">
         <v>139</v>
       </c>
       <c r="D30" s="4">
         <v>1011</v>
       </c>
-      <c r="E30" s="107"/>
+      <c r="E30" s="108"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <v>29</v>
       </c>
-      <c r="B31" s="102"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="45" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="4">
         <v>1012</v>
       </c>
-      <c r="E31" s="107"/>
+      <c r="E31" s="108"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <v>30</v>
       </c>
-      <c r="B32" s="102"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D32" s="4">
         <v>1013</v>
       </c>
-      <c r="E32" s="107"/>
+      <c r="E32" s="108"/>
       <c r="F32" s="2" t="s">
         <v>142</v>
       </c>
@@ -5613,167 +5643,167 @@
       <c r="A33" s="41">
         <v>31</v>
       </c>
-      <c r="B33" s="102"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="12" t="s">
         <v>143</v>
       </c>
       <c r="D33" s="4">
         <v>1014</v>
       </c>
-      <c r="E33" s="107"/>
+      <c r="E33" s="108"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <v>32</v>
       </c>
-      <c r="B34" s="102"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D34" s="4">
         <v>1015</v>
       </c>
-      <c r="E34" s="107"/>
+      <c r="E34" s="108"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <v>33</v>
       </c>
-      <c r="B35" s="102"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="12" t="s">
         <v>145</v>
       </c>
       <c r="D35" s="4">
         <v>1017</v>
       </c>
-      <c r="E35" s="107"/>
+      <c r="E35" s="108"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <v>34</v>
       </c>
-      <c r="B36" s="102"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="12" t="s">
         <v>146</v>
       </c>
       <c r="D36" s="4">
         <v>1018</v>
       </c>
-      <c r="E36" s="107"/>
+      <c r="E36" s="108"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <v>35</v>
       </c>
-      <c r="B37" s="102"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="12" t="s">
         <v>147</v>
       </c>
       <c r="D37" s="4">
         <v>1019</v>
       </c>
-      <c r="E37" s="107"/>
+      <c r="E37" s="108"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <v>36</v>
       </c>
-      <c r="B38" s="102"/>
+      <c r="B38" s="103"/>
       <c r="C38" s="12" t="s">
         <v>148</v>
       </c>
       <c r="D38" s="4">
         <v>1020</v>
       </c>
-      <c r="E38" s="107"/>
+      <c r="E38" s="108"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <v>37</v>
       </c>
-      <c r="B39" s="102"/>
+      <c r="B39" s="103"/>
       <c r="C39" s="12" t="s">
         <v>149</v>
       </c>
       <c r="D39" s="4">
         <v>1021</v>
       </c>
-      <c r="E39" s="107"/>
+      <c r="E39" s="108"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <v>38</v>
       </c>
-      <c r="B40" s="102"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="12" t="s">
         <v>150</v>
       </c>
       <c r="D40" s="4">
         <v>1022</v>
       </c>
-      <c r="E40" s="107"/>
+      <c r="E40" s="108"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <v>39</v>
       </c>
-      <c r="B41" s="102"/>
+      <c r="B41" s="103"/>
       <c r="C41" s="12" t="s">
         <v>151</v>
       </c>
       <c r="D41" s="4">
         <v>1023</v>
       </c>
-      <c r="E41" s="107"/>
+      <c r="E41" s="108"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <v>40</v>
       </c>
-      <c r="B42" s="103"/>
+      <c r="B42" s="104"/>
       <c r="C42" s="42" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="4">
         <v>1024</v>
       </c>
-      <c r="E42" s="107"/>
+      <c r="E42" s="108"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="74" t="s">
+      <c r="A43" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76" t="s">
+      <c r="B43" s="76"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="E43" s="77"/>
+      <c r="E43" s="78"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="58"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="61"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="62"/>
     </row>
     <row r="45" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="62"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="65"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5797,7 +5827,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5809,15 +5839,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="69"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
@@ -5854,7 +5884,7 @@
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="110" t="s">
+      <c r="G3" s="111" t="s">
         <v>240</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -5875,7 +5905,7 @@
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
-      <c r="G4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="14" t="s">
         <v>60</v>
       </c>
@@ -5885,7 +5915,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="112" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -5896,7 +5926,7 @@
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="111" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5905,7 +5935,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="43" t="s">
         <v>154</v>
       </c>
@@ -5914,14 +5944,14 @@
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
-      <c r="G6" s="110"/>
+      <c r="G6" s="111"/>
     </row>
     <row r="7" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="112" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -5932,7 +5962,7 @@
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
-      <c r="G7" s="110" t="s">
+      <c r="G7" s="111" t="s">
         <v>155</v>
       </c>
       <c r="H7" s="54" t="s">
@@ -5944,7 +5974,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="128"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="12" t="s">
         <v>162</v>
       </c>
@@ -5953,14 +5983,14 @@
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
-      <c r="G8" s="110"/>
+      <c r="G8" s="111"/>
     </row>
     <row r="9" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="128"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="12" t="s">
         <v>163</v>
       </c>
@@ -5969,14 +5999,14 @@
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
-      <c r="G9" s="110"/>
+      <c r="G9" s="111"/>
     </row>
     <row r="10" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="45" t="s">
         <v>164</v>
       </c>
@@ -5985,14 +6015,14 @@
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
-      <c r="G10" s="110"/>
+      <c r="G10" s="111"/>
     </row>
     <row r="11" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="12" t="s">
         <v>165</v>
       </c>
@@ -6001,14 +6031,14 @@
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
-      <c r="G11" s="110"/>
+      <c r="G11" s="111"/>
     </row>
     <row r="12" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="128"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="12" t="s">
         <v>166</v>
       </c>
@@ -6017,14 +6047,14 @@
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="56"/>
-      <c r="G12" s="110"/>
+      <c r="G12" s="111"/>
     </row>
     <row r="13" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="128"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="12" t="s">
         <v>167</v>
       </c>
@@ -6033,14 +6063,14 @@
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
-      <c r="G13" s="110"/>
+      <c r="G13" s="111"/>
     </row>
     <row r="14" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="128"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="12" t="s">
         <v>168</v>
       </c>
@@ -6049,14 +6079,14 @@
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
-      <c r="G14" s="110"/>
+      <c r="G14" s="111"/>
     </row>
     <row r="15" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="128"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="12" t="s">
         <v>169</v>
       </c>
@@ -6065,14 +6095,14 @@
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
-      <c r="G15" s="110"/>
+      <c r="G15" s="111"/>
     </row>
     <row r="16" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="12" t="s">
         <v>170</v>
       </c>
@@ -6081,14 +6111,14 @@
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
-      <c r="G16" s="110"/>
+      <c r="G16" s="111"/>
     </row>
     <row r="17" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="12" t="s">
         <v>171</v>
       </c>
@@ -6097,14 +6127,14 @@
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
-      <c r="G17" s="110"/>
+      <c r="G17" s="111"/>
     </row>
     <row r="18" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="128"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="11" t="s">
         <v>172</v>
       </c>
@@ -6113,7 +6143,7 @@
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
-      <c r="G18" s="110"/>
+      <c r="G18" s="111"/>
       <c r="H18" s="54" t="s">
         <v>174</v>
       </c>
@@ -6123,7 +6153,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="112"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="12" t="s">
         <v>173</v>
       </c>
@@ -6132,14 +6162,14 @@
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
-      <c r="G19" s="110"/>
+      <c r="G19" s="111"/>
     </row>
     <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="112" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -6150,7 +6180,7 @@
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="110" t="s">
+      <c r="G20" s="111" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6159,7 +6189,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="128"/>
+      <c r="B21" s="129"/>
       <c r="C21" s="12" t="s">
         <v>177</v>
       </c>
@@ -6168,14 +6198,14 @@
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
-      <c r="G21" s="110"/>
+      <c r="G21" s="111"/>
     </row>
     <row r="22" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="128"/>
+      <c r="B22" s="129"/>
       <c r="C22" s="12" t="s">
         <v>245</v>
       </c>
@@ -6184,7 +6214,7 @@
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="56"/>
-      <c r="G22" s="110"/>
+      <c r="G22" s="111"/>
       <c r="H22" s="54" t="s">
         <v>200</v>
       </c>
@@ -6194,7 +6224,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="128"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="12" t="s">
         <v>178</v>
       </c>
@@ -6203,14 +6233,14 @@
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
-      <c r="G23" s="110"/>
+      <c r="G23" s="111"/>
     </row>
     <row r="24" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="128"/>
+      <c r="B24" s="129"/>
       <c r="C24" s="12" t="s">
         <v>179</v>
       </c>
@@ -6219,14 +6249,14 @@
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
-      <c r="G24" s="110"/>
+      <c r="G24" s="111"/>
     </row>
     <row r="25" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="128"/>
+      <c r="B25" s="129"/>
       <c r="C25" s="12" t="s">
         <v>180</v>
       </c>
@@ -6235,14 +6265,14 @@
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="56"/>
-      <c r="G25" s="110"/>
+      <c r="G25" s="111"/>
     </row>
     <row r="26" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="128"/>
+      <c r="B26" s="129"/>
       <c r="C26" s="12" t="s">
         <v>181</v>
       </c>
@@ -6251,14 +6281,14 @@
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
-      <c r="G26" s="110"/>
+      <c r="G26" s="111"/>
     </row>
     <row r="27" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="128"/>
+      <c r="B27" s="129"/>
       <c r="C27" s="12" t="s">
         <v>182</v>
       </c>
@@ -6267,14 +6297,14 @@
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
-      <c r="G27" s="110"/>
+      <c r="G27" s="111"/>
     </row>
     <row r="28" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="128"/>
+      <c r="B28" s="129"/>
       <c r="C28" s="12" t="s">
         <v>183</v>
       </c>
@@ -6283,14 +6313,14 @@
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
-      <c r="G28" s="110"/>
+      <c r="G28" s="111"/>
     </row>
     <row r="29" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="128"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="12" t="s">
         <v>184</v>
       </c>
@@ -6299,14 +6329,14 @@
       </c>
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
-      <c r="G29" s="110"/>
+      <c r="G29" s="111"/>
     </row>
     <row r="30" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="128"/>
+      <c r="B30" s="129"/>
       <c r="C30" s="12" t="s">
         <v>185</v>
       </c>
@@ -6315,14 +6345,14 @@
       </c>
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
-      <c r="G30" s="110"/>
+      <c r="G30" s="111"/>
     </row>
     <row r="31" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="128"/>
+      <c r="B31" s="129"/>
       <c r="C31" s="12" t="s">
         <v>186</v>
       </c>
@@ -6331,14 +6361,14 @@
       </c>
       <c r="E31" s="56"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="110"/>
+      <c r="G31" s="111"/>
     </row>
     <row r="32" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="128"/>
+      <c r="B32" s="129"/>
       <c r="C32" s="12" t="s">
         <v>187</v>
       </c>
@@ -6347,14 +6377,14 @@
       </c>
       <c r="E32" s="56"/>
       <c r="F32" s="56"/>
-      <c r="G32" s="110"/>
+      <c r="G32" s="111"/>
     </row>
     <row r="33" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="128"/>
+      <c r="B33" s="129"/>
       <c r="C33" s="12" t="s">
         <v>188</v>
       </c>
@@ -6363,14 +6393,14 @@
       </c>
       <c r="E33" s="56"/>
       <c r="F33" s="56"/>
-      <c r="G33" s="110"/>
+      <c r="G33" s="111"/>
     </row>
     <row r="34" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="128"/>
+      <c r="B34" s="129"/>
       <c r="C34" s="12" t="s">
         <v>189</v>
       </c>
@@ -6379,14 +6409,14 @@
       </c>
       <c r="E34" s="56"/>
       <c r="F34" s="56"/>
-      <c r="G34" s="110"/>
+      <c r="G34" s="111"/>
     </row>
     <row r="35" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="128"/>
+      <c r="B35" s="129"/>
       <c r="C35" s="12" t="s">
         <v>190</v>
       </c>
@@ -6395,14 +6425,14 @@
       </c>
       <c r="E35" s="56"/>
       <c r="F35" s="56"/>
-      <c r="G35" s="110"/>
+      <c r="G35" s="111"/>
     </row>
     <row r="36" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="128"/>
+      <c r="B36" s="129"/>
       <c r="C36" s="12" t="s">
         <v>191</v>
       </c>
@@ -6411,14 +6441,14 @@
       </c>
       <c r="E36" s="56"/>
       <c r="F36" s="56"/>
-      <c r="G36" s="110"/>
+      <c r="G36" s="111"/>
     </row>
     <row r="37" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="128"/>
+      <c r="B37" s="129"/>
       <c r="C37" s="12" t="s">
         <v>192</v>
       </c>
@@ -6427,14 +6457,14 @@
       </c>
       <c r="E37" s="56"/>
       <c r="F37" s="56"/>
-      <c r="G37" s="110"/>
+      <c r="G37" s="111"/>
     </row>
     <row r="38" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="128"/>
+      <c r="B38" s="129"/>
       <c r="C38" s="12" t="s">
         <v>193</v>
       </c>
@@ -6443,14 +6473,14 @@
       </c>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
-      <c r="G38" s="110"/>
+      <c r="G38" s="111"/>
     </row>
     <row r="39" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="128"/>
+      <c r="B39" s="129"/>
       <c r="C39" s="12" t="s">
         <v>194</v>
       </c>
@@ -6459,14 +6489,14 @@
       </c>
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
-      <c r="G39" s="110"/>
+      <c r="G39" s="111"/>
     </row>
     <row r="40" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="128"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="12" t="s">
         <v>195</v>
       </c>
@@ -6475,14 +6505,14 @@
       </c>
       <c r="E40" s="56"/>
       <c r="F40" s="56"/>
-      <c r="G40" s="110"/>
+      <c r="G40" s="111"/>
     </row>
     <row r="41" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="128"/>
+      <c r="B41" s="129"/>
       <c r="C41" s="12" t="s">
         <v>196</v>
       </c>
@@ -6491,14 +6521,14 @@
       </c>
       <c r="E41" s="56"/>
       <c r="F41" s="56"/>
-      <c r="G41" s="110"/>
+      <c r="G41" s="111"/>
     </row>
     <row r="42" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="128"/>
+      <c r="B42" s="129"/>
       <c r="C42" s="12" t="s">
         <v>197</v>
       </c>
@@ -6507,14 +6537,14 @@
       </c>
       <c r="E42" s="56"/>
       <c r="F42" s="56"/>
-      <c r="G42" s="110"/>
+      <c r="G42" s="111"/>
     </row>
     <row r="43" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="128"/>
+      <c r="B43" s="129"/>
       <c r="C43" s="12" t="s">
         <v>198</v>
       </c>
@@ -6523,14 +6553,14 @@
       </c>
       <c r="E43" s="56"/>
       <c r="F43" s="56"/>
-      <c r="G43" s="110"/>
+      <c r="G43" s="111"/>
     </row>
     <row r="44" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="112"/>
+      <c r="B44" s="113"/>
       <c r="C44" s="12" t="s">
         <v>199</v>
       </c>
@@ -6539,7 +6569,7 @@
       </c>
       <c r="E44" s="56"/>
       <c r="F44" s="56"/>
-      <c r="G44" s="110"/>
+      <c r="G44" s="111"/>
     </row>
     <row r="45" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
@@ -6560,36 +6590,36 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="113" t="s">
+      <c r="A46" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="114"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115" t="str">
+      <c r="B46" s="115"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116" t="str">
         <f>COUNT(D3:D45)&amp;"객실"</f>
         <v>43객실</v>
       </c>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="118"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="118"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="120"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="122"/>
+      <c r="A47" s="119"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="123"/>
     </row>
     <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="123"/>
-      <c r="B48" s="124"/>
-      <c r="C48" s="125"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
-      <c r="G48" s="127"/>
+      <c r="A48" s="124"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="127"/>
+      <c r="G48" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6616,7 +6646,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F4"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6628,13 +6658,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
@@ -6663,7 +6693,7 @@
       <c r="D3" s="4">
         <v>1107</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="107" t="s">
         <v>238</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -6682,7 +6712,7 @@
       <c r="D4" s="4">
         <v>1109</v>
       </c>
-      <c r="E4" s="108"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -6692,7 +6722,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="112" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -6701,7 +6731,7 @@
       <c r="D5" s="5">
         <v>1114</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="108" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6710,21 +6740,21 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="42" t="s">
         <v>154</v>
       </c>
       <c r="D6" s="4">
         <v>1122</v>
       </c>
-      <c r="E6" s="108"/>
+      <c r="E6" s="109"/>
     </row>
     <row r="7" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="112" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -6733,7 +6763,7 @@
       <c r="D7" s="4">
         <v>601</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="107" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6742,224 +6772,224 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="128"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="12" t="s">
         <v>203</v>
       </c>
       <c r="D8" s="4">
         <v>604</v>
       </c>
-      <c r="E8" s="107"/>
+      <c r="E8" s="108"/>
     </row>
     <row r="9" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="128"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="12" t="s">
         <v>201</v>
       </c>
       <c r="D9" s="4">
         <v>605</v>
       </c>
-      <c r="E9" s="107"/>
+      <c r="E9" s="108"/>
     </row>
     <row r="10" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="12" t="s">
         <v>204</v>
       </c>
       <c r="D10" s="4">
         <v>606</v>
       </c>
-      <c r="E10" s="107"/>
+      <c r="E10" s="108"/>
     </row>
     <row r="11" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="45" t="s">
         <v>205</v>
       </c>
       <c r="D11" s="5">
         <v>607</v>
       </c>
-      <c r="E11" s="107"/>
+      <c r="E11" s="108"/>
     </row>
     <row r="12" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="128"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="12" t="s">
         <v>206</v>
       </c>
       <c r="D12" s="4">
         <v>609</v>
       </c>
-      <c r="E12" s="107"/>
+      <c r="E12" s="108"/>
     </row>
     <row r="13" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="128"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D13" s="4">
         <v>610</v>
       </c>
-      <c r="E13" s="107"/>
+      <c r="E13" s="108"/>
     </row>
     <row r="14" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="128"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="12" t="s">
         <v>208</v>
       </c>
       <c r="D14" s="4">
         <v>613</v>
       </c>
-      <c r="E14" s="107"/>
+      <c r="E14" s="108"/>
     </row>
     <row r="15" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="128"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="12" t="s">
         <v>209</v>
       </c>
       <c r="D15" s="4">
         <v>614</v>
       </c>
-      <c r="E15" s="107"/>
+      <c r="E15" s="108"/>
     </row>
     <row r="16" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="12" t="s">
         <v>210</v>
       </c>
       <c r="D16" s="4">
         <v>617</v>
       </c>
-      <c r="E16" s="107"/>
+      <c r="E16" s="108"/>
     </row>
     <row r="17" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="12" t="s">
         <v>211</v>
       </c>
       <c r="D17" s="4">
         <v>618</v>
       </c>
-      <c r="E17" s="107"/>
+      <c r="E17" s="108"/>
     </row>
     <row r="18" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="128"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D18" s="4">
         <v>619</v>
       </c>
-      <c r="E18" s="107"/>
+      <c r="E18" s="108"/>
     </row>
     <row r="19" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="128"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="12" t="s">
         <v>213</v>
       </c>
       <c r="D19" s="4">
         <v>620</v>
       </c>
-      <c r="E19" s="107"/>
+      <c r="E19" s="108"/>
     </row>
     <row r="20" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="128"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D20" s="4">
         <v>622</v>
       </c>
-      <c r="E20" s="107"/>
+      <c r="E20" s="108"/>
     </row>
     <row r="21" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="128"/>
+      <c r="B21" s="129"/>
       <c r="C21" s="12" t="s">
         <v>215</v>
       </c>
       <c r="D21" s="4">
         <v>623</v>
       </c>
-      <c r="E21" s="107"/>
+      <c r="E21" s="108"/>
     </row>
     <row r="22" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="128"/>
+      <c r="B22" s="129"/>
       <c r="C22" s="12" t="s">
         <v>216</v>
       </c>
       <c r="D22" s="4">
         <v>626</v>
       </c>
-      <c r="E22" s="107"/>
+      <c r="E22" s="108"/>
     </row>
     <row r="23" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="128"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="12" t="s">
         <v>247</v>
       </c>
       <c r="D23" s="4">
         <v>701</v>
       </c>
-      <c r="E23" s="107"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="54"/>
     </row>
     <row r="24" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
@@ -6967,56 +6997,56 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="128"/>
+      <c r="B24" s="129"/>
       <c r="C24" s="12" t="s">
         <v>217</v>
       </c>
       <c r="D24" s="4">
         <v>704</v>
       </c>
-      <c r="E24" s="107"/>
+      <c r="E24" s="108"/>
     </row>
     <row r="25" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="128"/>
+      <c r="B25" s="129"/>
       <c r="C25" s="12" t="s">
         <v>218</v>
       </c>
       <c r="D25" s="4">
         <v>705</v>
       </c>
-      <c r="E25" s="107"/>
+      <c r="E25" s="108"/>
     </row>
     <row r="26" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="128"/>
+      <c r="B26" s="129"/>
       <c r="C26" s="12" t="s">
         <v>219</v>
       </c>
       <c r="D26" s="4">
         <v>706</v>
       </c>
-      <c r="E26" s="107"/>
+      <c r="E26" s="108"/>
     </row>
     <row r="27" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="128"/>
+      <c r="B27" s="129"/>
       <c r="C27" s="11" t="s">
         <v>220</v>
       </c>
       <c r="D27" s="4">
         <v>707</v>
       </c>
-      <c r="E27" s="107"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="54" t="s">
         <v>248</v>
       </c>
@@ -7026,42 +7056,42 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="128"/>
+      <c r="B28" s="129"/>
       <c r="C28" s="12" t="s">
         <v>221</v>
       </c>
       <c r="D28" s="4">
         <v>709</v>
       </c>
-      <c r="E28" s="107"/>
+      <c r="E28" s="108"/>
     </row>
     <row r="29" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="128"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="12" t="s">
         <v>222</v>
       </c>
       <c r="D29" s="4">
         <v>710</v>
       </c>
-      <c r="E29" s="107"/>
+      <c r="E29" s="108"/>
     </row>
     <row r="30" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="128"/>
+      <c r="B30" s="129"/>
       <c r="C30" s="12" t="s">
         <v>223</v>
       </c>
       <c r="D30" s="4">
         <v>713</v>
       </c>
-      <c r="E30" s="107"/>
+      <c r="E30" s="108"/>
     </row>
     <row r="31" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
@@ -7100,7 +7130,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="112" t="s">
         <v>105</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -7109,7 +7139,7 @@
       <c r="D33" s="4">
         <v>1012</v>
       </c>
-      <c r="E33" s="106" t="s">
+      <c r="E33" s="107" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7118,28 +7148,28 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="128"/>
+      <c r="B34" s="129"/>
       <c r="C34" s="12" t="s">
         <v>225</v>
       </c>
       <c r="D34" s="4">
         <v>1013</v>
       </c>
-      <c r="E34" s="107"/>
+      <c r="E34" s="108"/>
     </row>
     <row r="35" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="128"/>
+      <c r="B35" s="129"/>
       <c r="C35" s="12" t="s">
         <v>246</v>
       </c>
       <c r="D35" s="4">
         <v>1014</v>
       </c>
-      <c r="E35" s="107"/>
+      <c r="E35" s="108"/>
       <c r="F35" s="54"/>
     </row>
     <row r="36" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
@@ -7147,165 +7177,165 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="128"/>
+      <c r="B36" s="129"/>
       <c r="C36" s="12" t="s">
         <v>226</v>
       </c>
       <c r="D36" s="4">
         <v>1015</v>
       </c>
-      <c r="E36" s="107"/>
+      <c r="E36" s="108"/>
     </row>
     <row r="37" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="128"/>
+      <c r="B37" s="129"/>
       <c r="C37" s="12" t="s">
         <v>227</v>
       </c>
       <c r="D37" s="4">
         <v>1017</v>
       </c>
-      <c r="E37" s="107"/>
+      <c r="E37" s="108"/>
     </row>
     <row r="38" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="128"/>
+      <c r="B38" s="129"/>
       <c r="C38" s="12" t="s">
         <v>228</v>
       </c>
       <c r="D38" s="4">
         <v>1018</v>
       </c>
-      <c r="E38" s="107"/>
+      <c r="E38" s="108"/>
     </row>
     <row r="39" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="128"/>
+      <c r="B39" s="129"/>
       <c r="C39" s="12" t="s">
         <v>229</v>
       </c>
       <c r="D39" s="4">
         <v>1019</v>
       </c>
-      <c r="E39" s="107"/>
+      <c r="E39" s="108"/>
     </row>
     <row r="40" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="128"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="12" t="s">
         <v>230</v>
       </c>
       <c r="D40" s="4">
         <v>1020</v>
       </c>
-      <c r="E40" s="107"/>
+      <c r="E40" s="108"/>
     </row>
     <row r="41" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="128"/>
+      <c r="B41" s="129"/>
       <c r="C41" s="12" t="s">
         <v>231</v>
       </c>
       <c r="D41" s="4">
         <v>1021</v>
       </c>
-      <c r="E41" s="107"/>
+      <c r="E41" s="108"/>
     </row>
     <row r="42" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="128"/>
+      <c r="B42" s="129"/>
       <c r="C42" s="12" t="s">
         <v>232</v>
       </c>
       <c r="D42" s="4">
         <v>1022</v>
       </c>
-      <c r="E42" s="107"/>
+      <c r="E42" s="108"/>
     </row>
     <row r="43" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="128"/>
+      <c r="B43" s="129"/>
       <c r="C43" s="12" t="s">
         <v>233</v>
       </c>
       <c r="D43" s="4">
         <v>1023</v>
       </c>
-      <c r="E43" s="107"/>
+      <c r="E43" s="108"/>
     </row>
     <row r="44" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="128"/>
+      <c r="B44" s="129"/>
       <c r="C44" s="12" t="s">
         <v>234</v>
       </c>
       <c r="D44" s="4">
         <v>1024</v>
       </c>
-      <c r="E44" s="107"/>
+      <c r="E44" s="108"/>
     </row>
     <row r="45" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="112"/>
+      <c r="B45" s="113"/>
       <c r="C45" s="12" t="s">
         <v>235</v>
       </c>
       <c r="D45" s="4">
         <v>1025</v>
       </c>
-      <c r="E45" s="108"/>
+      <c r="E45" s="109"/>
     </row>
     <row r="46" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="75"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76" t="s">
+      <c r="B46" s="76"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="77"/>
+      <c r="E46" s="78"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="129"/>
-      <c r="B47" s="130"/>
-      <c r="C47" s="130"/>
-      <c r="D47" s="131"/>
-      <c r="E47" s="131"/>
+      <c r="A47" s="130"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
     </row>
     <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="123"/>
-      <c r="B48" s="124"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="125"/>
+      <c r="A48" s="124"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7328,11 +7358,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F85112-7CEF-4334-84B4-FD45E7083DEB}">
-  <dimension ref="A1:M47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3EF40F-950C-43E7-BD6F-B6DD42AFB0E0}">
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7344,13 +7374,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
@@ -7367,20 +7397,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A3" s="41">
-        <f t="shared" ref="A3:A44" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A45" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="53"/>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="133" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="4">
-        <v>705</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>252</v>
+        <v>704</v>
+      </c>
+      <c r="E3" s="107" t="s">
+        <v>294</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>59</v>
@@ -7392,15 +7422,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="53"/>
-      <c r="C4" s="133" t="s">
-        <v>28</v>
-      </c>
+      <c r="C4" s="134"/>
       <c r="D4" s="4">
-        <v>1102</v>
-      </c>
-      <c r="E4" s="107" t="s">
-        <v>253</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="E4" s="109"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -7411,614 +7437,633 @@
         <v>3</v>
       </c>
       <c r="B5" s="53"/>
-      <c r="C5" s="134"/>
+      <c r="C5" s="133" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" s="4">
-        <v>1103</v>
-      </c>
-      <c r="E5" s="108"/>
+        <v>1102</v>
+      </c>
+      <c r="E5" s="108" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A6" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="111" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1211</v>
-      </c>
-      <c r="E6" s="110" t="s">
-        <v>241</v>
-      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="4">
+        <v>1103</v>
+      </c>
+      <c r="E6" s="109"/>
     </row>
     <row r="7" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1207</v>
-      </c>
-      <c r="E7" s="110"/>
+      <c r="B7" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1211</v>
+      </c>
+      <c r="E7" s="111" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="12" t="s">
-        <v>254</v>
+      <c r="B8" s="129"/>
+      <c r="C8" s="42" t="s">
+        <v>128</v>
       </c>
       <c r="D8" s="4">
-        <v>601</v>
-      </c>
-      <c r="E8" s="110" t="s">
-        <v>255</v>
-      </c>
+        <v>1207</v>
+      </c>
+      <c r="E8" s="111"/>
     </row>
     <row r="9" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="128"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D9" s="4">
-        <v>606</v>
-      </c>
-      <c r="E9" s="110"/>
+        <v>601</v>
+      </c>
+      <c r="E9" s="111" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="45" t="s">
-        <v>257</v>
+      <c r="B10" s="129"/>
+      <c r="C10" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="D10" s="4">
-        <v>607</v>
-      </c>
-      <c r="E10" s="110"/>
+        <v>606</v>
+      </c>
+      <c r="E10" s="111"/>
     </row>
     <row r="11" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="5">
-        <v>609</v>
-      </c>
-      <c r="E11" s="110"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="4">
+        <v>607</v>
+      </c>
+      <c r="E11" s="111"/>
     </row>
     <row r="12" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="128"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="D12" s="4">
-        <v>610</v>
-      </c>
-      <c r="E12" s="110"/>
+        <v>257</v>
+      </c>
+      <c r="D12" s="5">
+        <v>609</v>
+      </c>
+      <c r="E12" s="111"/>
     </row>
     <row r="13" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="128"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D13" s="4">
-        <v>613</v>
-      </c>
-      <c r="E13" s="110"/>
+        <v>610</v>
+      </c>
+      <c r="E13" s="111"/>
     </row>
     <row r="14" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="128"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D14" s="4">
-        <v>614</v>
-      </c>
-      <c r="E14" s="110"/>
-      <c r="M14" s="12"/>
+        <v>613</v>
+      </c>
+      <c r="E14" s="111"/>
     </row>
     <row r="15" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="128"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="12" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="D15" s="4">
-        <v>617</v>
-      </c>
-      <c r="E15" s="110"/>
+        <v>614</v>
+      </c>
+      <c r="E15" s="111"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D16" s="4">
+        <v>617</v>
+      </c>
+      <c r="E16" s="111"/>
+    </row>
+    <row r="17" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A17" s="41">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="4">
         <v>618</v>
       </c>
-      <c r="E16" s="110"/>
-      <c r="M16" s="43"/>
-    </row>
-    <row r="17" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A17" s="41">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="11" t="s">
+      <c r="E17" s="111"/>
+      <c r="M17" s="43"/>
+    </row>
+    <row r="18" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A18" s="41">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="129"/>
+      <c r="C18" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="4">
+        <v>619</v>
+      </c>
+      <c r="E18" s="111"/>
+      <c r="F18" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D17" s="4">
-        <v>619</v>
-      </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="3" t="s">
+    </row>
+    <row r="19" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A19" s="41">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="113"/>
+      <c r="C19" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="4">
+        <v>620</v>
+      </c>
+      <c r="E19" s="111"/>
+    </row>
+    <row r="20" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A20" s="41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A18" s="41">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="12" t="s">
+      <c r="D20" s="4">
+        <v>909</v>
+      </c>
+      <c r="E20" s="111" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A21" s="41">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="129"/>
+      <c r="C21" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="D18" s="4">
-        <v>620</v>
-      </c>
-      <c r="E18" s="110"/>
-    </row>
-    <row r="19" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A19" s="41">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="111" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="D21" s="4">
+        <v>910</v>
+      </c>
+      <c r="E21" s="111"/>
+    </row>
+    <row r="22" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A22" s="41">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="129"/>
+      <c r="C22" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="D19" s="4">
-        <v>909</v>
-      </c>
-      <c r="E19" s="110" t="s">
+      <c r="D22" s="4">
+        <v>911</v>
+      </c>
+      <c r="E22" s="111"/>
+    </row>
+    <row r="23" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A23" s="41">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="129"/>
+      <c r="C23" s="12" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A20" s="41">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="128"/>
-      <c r="C20" s="12" t="s">
+      <c r="D23" s="4">
+        <v>912</v>
+      </c>
+      <c r="E23" s="111"/>
+    </row>
+    <row r="24" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="41">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="129"/>
+      <c r="C24" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="D20" s="4">
-        <v>910</v>
-      </c>
-      <c r="E20" s="110"/>
-    </row>
-    <row r="21" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A21" s="41">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="128"/>
-      <c r="C21" s="12" t="s">
+      <c r="D24" s="4">
+        <v>913</v>
+      </c>
+      <c r="E24" s="111"/>
+    </row>
+    <row r="25" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A25" s="41">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="129"/>
+      <c r="C25" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="4">
-        <v>911</v>
-      </c>
-      <c r="E21" s="110"/>
-    </row>
-    <row r="22" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A22" s="41">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="128"/>
-      <c r="C22" s="12" t="s">
+      <c r="D25" s="4">
+        <v>914</v>
+      </c>
+      <c r="E25" s="111"/>
+    </row>
+    <row r="26" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A26" s="41">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="129"/>
+      <c r="C26" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" s="4">
+        <v>915</v>
+      </c>
+      <c r="E26" s="111"/>
+    </row>
+    <row r="27" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A27" s="41">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="129"/>
+      <c r="C27" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D22" s="4">
-        <v>912</v>
-      </c>
-      <c r="E22" s="110"/>
-    </row>
-    <row r="23" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A23" s="41">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="128"/>
-      <c r="C23" s="12" t="s">
+      <c r="D27" s="4">
+        <v>917</v>
+      </c>
+      <c r="E27" s="111"/>
+    </row>
+    <row r="28" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A28" s="41">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="129"/>
+      <c r="C28" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D23" s="4">
-        <v>913</v>
-      </c>
-      <c r="E23" s="110"/>
-    </row>
-    <row r="24" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A24" s="41">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="128"/>
-      <c r="C24" s="12" t="s">
+      <c r="D28" s="4">
+        <v>919</v>
+      </c>
+      <c r="E28" s="111"/>
+    </row>
+    <row r="29" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A29" s="41">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="129"/>
+      <c r="C29" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D29" s="4">
+        <v>920</v>
+      </c>
+      <c r="E29" s="111"/>
+    </row>
+    <row r="30" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A30" s="41">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="129"/>
+      <c r="C30" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D24" s="4">
-        <v>914</v>
-      </c>
-      <c r="E24" s="110"/>
-    </row>
-    <row r="25" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A25" s="41">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="128"/>
-      <c r="C25" s="12" t="s">
+      <c r="D30" s="4">
+        <v>922</v>
+      </c>
+      <c r="E30" s="111"/>
+    </row>
+    <row r="31" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A31" s="41">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="129"/>
+      <c r="C31" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="4">
-        <v>915</v>
-      </c>
-      <c r="E25" s="110"/>
-    </row>
-    <row r="26" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A26" s="41">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="128"/>
-      <c r="C26" s="12" t="s">
+      <c r="D31" s="4">
+        <v>923</v>
+      </c>
+      <c r="E31" s="111"/>
+    </row>
+    <row r="32" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A32" s="41">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="129"/>
+      <c r="C32" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D26" s="4">
-        <v>917</v>
-      </c>
-      <c r="E26" s="110"/>
-    </row>
-    <row r="27" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A27" s="41">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="128"/>
-      <c r="C27" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D27" s="4">
-        <v>919</v>
-      </c>
-      <c r="E27" s="110"/>
-    </row>
-    <row r="28" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A28" s="41">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="128"/>
-      <c r="C28" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="D28" s="4">
-        <v>920</v>
-      </c>
-      <c r="E28" s="110"/>
-    </row>
-    <row r="29" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A29" s="41">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="128"/>
-      <c r="C29" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="D29" s="4">
-        <v>922</v>
-      </c>
-      <c r="E29" s="110"/>
-    </row>
-    <row r="30" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A30" s="41">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="128"/>
-      <c r="C30" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="D30" s="4">
-        <v>923</v>
-      </c>
-      <c r="E30" s="110"/>
-    </row>
-    <row r="31" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A31" s="41">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="128"/>
-      <c r="C31" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="D32" s="4">
         <v>926</v>
       </c>
-      <c r="E31" s="110"/>
-    </row>
-    <row r="32" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A32" s="41">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="128"/>
-      <c r="C32" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1013</v>
-      </c>
-      <c r="E32" s="110"/>
+      <c r="E32" s="111"/>
     </row>
     <row r="33" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="128"/>
+      <c r="B33" s="129"/>
       <c r="C33" s="12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D33" s="4">
-        <v>1014</v>
-      </c>
-      <c r="E33" s="110"/>
+        <v>1013</v>
+      </c>
+      <c r="E33" s="111"/>
     </row>
     <row r="34" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="128"/>
+      <c r="B34" s="129"/>
       <c r="C34" s="12" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D34" s="4">
-        <v>1015</v>
-      </c>
-      <c r="E34" s="110"/>
+        <v>1014</v>
+      </c>
+      <c r="E34" s="111"/>
     </row>
     <row r="35" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="128"/>
+      <c r="B35" s="129"/>
       <c r="C35" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D35" s="4">
-        <v>1017</v>
-      </c>
-      <c r="E35" s="110"/>
+        <v>1015</v>
+      </c>
+      <c r="E35" s="111"/>
     </row>
     <row r="36" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="128"/>
+      <c r="B36" s="129"/>
       <c r="C36" s="12" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D36" s="4">
-        <v>1018</v>
-      </c>
-      <c r="E36" s="110"/>
+        <v>1017</v>
+      </c>
+      <c r="E36" s="111"/>
     </row>
     <row r="37" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="128"/>
+      <c r="B37" s="129"/>
       <c r="C37" s="12" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D37" s="4">
-        <v>1019</v>
-      </c>
-      <c r="E37" s="110"/>
+        <v>1018</v>
+      </c>
+      <c r="E37" s="111"/>
     </row>
     <row r="38" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="128"/>
+      <c r="B38" s="129"/>
       <c r="C38" s="12" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D38" s="4">
-        <v>1020</v>
-      </c>
-      <c r="E38" s="110"/>
+        <v>1019</v>
+      </c>
+      <c r="E38" s="111"/>
     </row>
     <row r="39" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="128"/>
+      <c r="B39" s="129"/>
       <c r="C39" s="12" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D39" s="4">
-        <v>1021</v>
-      </c>
-      <c r="E39" s="110"/>
+        <v>1020</v>
+      </c>
+      <c r="E39" s="111"/>
     </row>
     <row r="40" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="128"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D40" s="4">
-        <v>1022</v>
-      </c>
-      <c r="E40" s="110"/>
+        <v>1021</v>
+      </c>
+      <c r="E40" s="111"/>
     </row>
     <row r="41" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="128"/>
+      <c r="B41" s="129"/>
       <c r="C41" s="12" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D41" s="4">
-        <v>1023</v>
-      </c>
-      <c r="E41" s="110"/>
+        <v>1022</v>
+      </c>
+      <c r="E41" s="111"/>
     </row>
     <row r="42" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="128"/>
+      <c r="B42" s="129"/>
       <c r="C42" s="12" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D42" s="4">
-        <v>1024</v>
-      </c>
-      <c r="E42" s="110"/>
+        <v>1023</v>
+      </c>
+      <c r="E42" s="111"/>
     </row>
     <row r="43" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="128"/>
+      <c r="B43" s="129"/>
       <c r="C43" s="12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D43" s="4">
-        <v>1025</v>
-      </c>
-      <c r="E43" s="110"/>
+        <v>1024</v>
+      </c>
+      <c r="E43" s="111"/>
     </row>
     <row r="44" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="112"/>
-      <c r="C44" s="11" t="s">
-        <v>293</v>
+      <c r="B44" s="129"/>
+      <c r="C44" s="12" t="s">
+        <v>287</v>
       </c>
       <c r="D44" s="4">
+        <v>1025</v>
+      </c>
+      <c r="E44" s="111"/>
+    </row>
+    <row r="45" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A45" s="41">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="113"/>
+      <c r="C45" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="4">
         <v>1026</v>
       </c>
-      <c r="E44" s="110"/>
-      <c r="F44" s="135" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="113" t="s">
+      <c r="E45" s="111"/>
+      <c r="F45" s="58" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A46" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="114"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115" t="s">
-        <v>295</v>
-      </c>
-      <c r="E45" s="117"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="118"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="120"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="122"/>
-    </row>
-    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="123"/>
-      <c r="B47" s="124"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="127"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116" t="s">
+        <v>254</v>
+      </c>
+      <c r="E46" s="118"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="119"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="123"/>
+    </row>
+    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="124"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="128"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B19:B44"/>
-    <mergeCell ref="E19:E44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A46:E47"/>
+  <mergeCells count="13">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A47:E48"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E18"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E19"/>
+    <mergeCell ref="E20:E45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B7:B19"/>
+    <mergeCell ref="B20:B45"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/rooming.xlsx
+++ b/data/rooming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC31986-0C2A-46FF-A660-47FA9629DB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BCBEE1-9D96-4843-8224-1BB1FE5FD35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1514,10 +1514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>허경미, 장유진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>황유진, 조은경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1577,10 +1573,6 @@
   </si>
   <si>
     <t>전미영, 이성희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서윤정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1692,6 +1684,12 @@
       <t>9/14~16(2박)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장유진</t>
+  </si>
+  <si>
+    <t>허경미, 서윤정</t>
   </si>
 </sst>
 </file>
@@ -7362,7 +7360,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7410,7 +7408,7 @@
         <v>704</v>
       </c>
       <c r="E3" s="107" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>59</v>
@@ -7444,7 +7442,7 @@
         <v>1102</v>
       </c>
       <c r="E5" s="108" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -7585,7 +7583,7 @@
       </c>
       <c r="B15" s="129"/>
       <c r="C15" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D15" s="4">
         <v>614</v>
@@ -7629,7 +7627,7 @@
       </c>
       <c r="B18" s="129"/>
       <c r="C18" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D18" s="4">
         <v>619</v>
@@ -7748,7 +7746,7 @@
       </c>
       <c r="B26" s="129"/>
       <c r="C26" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D26" s="4">
         <v>915</v>
@@ -7790,7 +7788,7 @@
       </c>
       <c r="B29" s="129"/>
       <c r="C29" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D29" s="4">
         <v>920</v>
@@ -7874,7 +7872,7 @@
       </c>
       <c r="B35" s="129"/>
       <c r="C35" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D35" s="4">
         <v>1015</v>
@@ -7887,13 +7885,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="129"/>
-      <c r="C36" s="12" t="s">
-        <v>278</v>
+      <c r="C36" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="D36" s="4">
         <v>1017</v>
       </c>
       <c r="E36" s="111"/>
+      <c r="F36" s="58" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
@@ -7902,7 +7903,7 @@
       </c>
       <c r="B37" s="129"/>
       <c r="C37" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D37" s="4">
         <v>1018</v>
@@ -7916,7 +7917,7 @@
       </c>
       <c r="B38" s="129"/>
       <c r="C38" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D38" s="4">
         <v>1019</v>
@@ -7930,7 +7931,7 @@
       </c>
       <c r="B39" s="129"/>
       <c r="C39" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D39" s="4">
         <v>1020</v>
@@ -7944,7 +7945,7 @@
       </c>
       <c r="B40" s="129"/>
       <c r="C40" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D40" s="4">
         <v>1021</v>
@@ -7958,7 +7959,7 @@
       </c>
       <c r="B41" s="129"/>
       <c r="C41" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D41" s="4">
         <v>1022</v>
@@ -7972,7 +7973,7 @@
       </c>
       <c r="B42" s="129"/>
       <c r="C42" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D42" s="4">
         <v>1023</v>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="B43" s="129"/>
       <c r="C43" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D43" s="4">
         <v>1024</v>
@@ -8000,7 +8001,7 @@
       </c>
       <c r="B44" s="129"/>
       <c r="C44" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D44" s="4">
         <v>1025</v>
@@ -8013,16 +8014,14 @@
         <v>43</v>
       </c>
       <c r="B45" s="113"/>
-      <c r="C45" s="11" t="s">
-        <v>288</v>
+      <c r="C45" s="45" t="s">
+        <v>294</v>
       </c>
       <c r="D45" s="4">
         <v>1026</v>
       </c>
       <c r="E45" s="111"/>
-      <c r="F45" s="58" t="s">
-        <v>289</v>
-      </c>
+      <c r="F45" s="58"/>
     </row>
     <row r="46" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A46" s="114" t="s">

--- a/data/rooming.xlsx
+++ b/data/rooming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BCBEE1-9D96-4843-8224-1BB1FE5FD35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD601FA-3EAF-49B1-9BCE-4FE7FE7A4638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1486,10 +1486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김선영, 박희정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이선아, 오정민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1690,6 +1686,10 @@
   </si>
   <si>
     <t>허경미, 서윤정</t>
+  </si>
+  <si>
+    <t>김선영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3281,64 +3281,64 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5843,8 +5843,8 @@
       <c r="B1" s="68"/>
       <c r="C1" s="69"/>
       <c r="D1" s="69"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
       <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="128" t="s">
         <v>240</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
-      <c r="G4" s="111"/>
+      <c r="G4" s="128"/>
       <c r="H4" s="14" t="s">
         <v>60</v>
       </c>
@@ -5913,7 +5913,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="125" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="128" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5933,7 +5933,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="113"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="43" t="s">
         <v>154</v>
       </c>
@@ -5942,14 +5942,14 @@
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
-      <c r="G6" s="111"/>
+      <c r="G6" s="128"/>
     </row>
     <row r="7" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="125" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
-      <c r="G7" s="111" t="s">
+      <c r="G7" s="128" t="s">
         <v>155</v>
       </c>
       <c r="H7" s="54" t="s">
@@ -5972,7 +5972,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="129"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="12" t="s">
         <v>162</v>
       </c>
@@ -5981,14 +5981,14 @@
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
-      <c r="G8" s="111"/>
+      <c r="G8" s="128"/>
     </row>
     <row r="9" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="129"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="12" t="s">
         <v>163</v>
       </c>
@@ -5997,14 +5997,14 @@
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
-      <c r="G9" s="111"/>
+      <c r="G9" s="128"/>
     </row>
     <row r="10" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="129"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="45" t="s">
         <v>164</v>
       </c>
@@ -6013,14 +6013,14 @@
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
-      <c r="G10" s="111"/>
+      <c r="G10" s="128"/>
     </row>
     <row r="11" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="129"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="12" t="s">
         <v>165</v>
       </c>
@@ -6029,14 +6029,14 @@
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
-      <c r="G11" s="111"/>
+      <c r="G11" s="128"/>
     </row>
     <row r="12" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="129"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="12" t="s">
         <v>166</v>
       </c>
@@ -6045,14 +6045,14 @@
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="56"/>
-      <c r="G12" s="111"/>
+      <c r="G12" s="128"/>
     </row>
     <row r="13" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="129"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="12" t="s">
         <v>167</v>
       </c>
@@ -6061,14 +6061,14 @@
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
-      <c r="G13" s="111"/>
+      <c r="G13" s="128"/>
     </row>
     <row r="14" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="129"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="12" t="s">
         <v>168</v>
       </c>
@@ -6077,14 +6077,14 @@
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
-      <c r="G14" s="111"/>
+      <c r="G14" s="128"/>
     </row>
     <row r="15" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="129"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="12" t="s">
         <v>169</v>
       </c>
@@ -6093,14 +6093,14 @@
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
-      <c r="G15" s="111"/>
+      <c r="G15" s="128"/>
     </row>
     <row r="16" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="12" t="s">
         <v>170</v>
       </c>
@@ -6109,14 +6109,14 @@
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
-      <c r="G16" s="111"/>
+      <c r="G16" s="128"/>
     </row>
     <row r="17" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="12" t="s">
         <v>171</v>
       </c>
@@ -6125,14 +6125,14 @@
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
-      <c r="G17" s="111"/>
+      <c r="G17" s="128"/>
     </row>
     <row r="18" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="11" t="s">
         <v>172</v>
       </c>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
-      <c r="G18" s="111"/>
+      <c r="G18" s="128"/>
       <c r="H18" s="54" t="s">
         <v>174</v>
       </c>
@@ -6151,7 +6151,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="12" t="s">
         <v>173</v>
       </c>
@@ -6160,14 +6160,14 @@
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
-      <c r="G19" s="111"/>
+      <c r="G19" s="128"/>
     </row>
     <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="112" t="s">
+      <c r="B20" s="125" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="111" t="s">
+      <c r="G20" s="128" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6187,7 +6187,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="129"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="12" t="s">
         <v>177</v>
       </c>
@@ -6196,14 +6196,14 @@
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
-      <c r="G21" s="111"/>
+      <c r="G21" s="128"/>
     </row>
     <row r="22" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="129"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="12" t="s">
         <v>245</v>
       </c>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="56"/>
-      <c r="G22" s="111"/>
+      <c r="G22" s="128"/>
       <c r="H22" s="54" t="s">
         <v>200</v>
       </c>
@@ -6222,7 +6222,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="129"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="12" t="s">
         <v>178</v>
       </c>
@@ -6231,14 +6231,14 @@
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
-      <c r="G23" s="111"/>
+      <c r="G23" s="128"/>
     </row>
     <row r="24" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="129"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="12" t="s">
         <v>179</v>
       </c>
@@ -6247,14 +6247,14 @@
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
-      <c r="G24" s="111"/>
+      <c r="G24" s="128"/>
     </row>
     <row r="25" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="129"/>
+      <c r="B25" s="126"/>
       <c r="C25" s="12" t="s">
         <v>180</v>
       </c>
@@ -6263,14 +6263,14 @@
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="56"/>
-      <c r="G25" s="111"/>
+      <c r="G25" s="128"/>
     </row>
     <row r="26" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="129"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="12" t="s">
         <v>181</v>
       </c>
@@ -6279,14 +6279,14 @@
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
-      <c r="G26" s="111"/>
+      <c r="G26" s="128"/>
     </row>
     <row r="27" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="129"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="12" t="s">
         <v>182</v>
       </c>
@@ -6295,14 +6295,14 @@
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
-      <c r="G27" s="111"/>
+      <c r="G27" s="128"/>
     </row>
     <row r="28" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="129"/>
+      <c r="B28" s="126"/>
       <c r="C28" s="12" t="s">
         <v>183</v>
       </c>
@@ -6311,14 +6311,14 @@
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
-      <c r="G28" s="111"/>
+      <c r="G28" s="128"/>
     </row>
     <row r="29" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="129"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="12" t="s">
         <v>184</v>
       </c>
@@ -6327,14 +6327,14 @@
       </c>
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
-      <c r="G29" s="111"/>
+      <c r="G29" s="128"/>
     </row>
     <row r="30" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="129"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="12" t="s">
         <v>185</v>
       </c>
@@ -6343,14 +6343,14 @@
       </c>
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
-      <c r="G30" s="111"/>
+      <c r="G30" s="128"/>
     </row>
     <row r="31" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="129"/>
+      <c r="B31" s="126"/>
       <c r="C31" s="12" t="s">
         <v>186</v>
       </c>
@@ -6359,14 +6359,14 @@
       </c>
       <c r="E31" s="56"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="111"/>
+      <c r="G31" s="128"/>
     </row>
     <row r="32" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="129"/>
+      <c r="B32" s="126"/>
       <c r="C32" s="12" t="s">
         <v>187</v>
       </c>
@@ -6375,14 +6375,14 @@
       </c>
       <c r="E32" s="56"/>
       <c r="F32" s="56"/>
-      <c r="G32" s="111"/>
+      <c r="G32" s="128"/>
     </row>
     <row r="33" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="129"/>
+      <c r="B33" s="126"/>
       <c r="C33" s="12" t="s">
         <v>188</v>
       </c>
@@ -6391,14 +6391,14 @@
       </c>
       <c r="E33" s="56"/>
       <c r="F33" s="56"/>
-      <c r="G33" s="111"/>
+      <c r="G33" s="128"/>
     </row>
     <row r="34" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="129"/>
+      <c r="B34" s="126"/>
       <c r="C34" s="12" t="s">
         <v>189</v>
       </c>
@@ -6407,14 +6407,14 @@
       </c>
       <c r="E34" s="56"/>
       <c r="F34" s="56"/>
-      <c r="G34" s="111"/>
+      <c r="G34" s="128"/>
     </row>
     <row r="35" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="129"/>
+      <c r="B35" s="126"/>
       <c r="C35" s="12" t="s">
         <v>190</v>
       </c>
@@ -6423,14 +6423,14 @@
       </c>
       <c r="E35" s="56"/>
       <c r="F35" s="56"/>
-      <c r="G35" s="111"/>
+      <c r="G35" s="128"/>
     </row>
     <row r="36" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="129"/>
+      <c r="B36" s="126"/>
       <c r="C36" s="12" t="s">
         <v>191</v>
       </c>
@@ -6439,14 +6439,14 @@
       </c>
       <c r="E36" s="56"/>
       <c r="F36" s="56"/>
-      <c r="G36" s="111"/>
+      <c r="G36" s="128"/>
     </row>
     <row r="37" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="129"/>
+      <c r="B37" s="126"/>
       <c r="C37" s="12" t="s">
         <v>192</v>
       </c>
@@ -6455,14 +6455,14 @@
       </c>
       <c r="E37" s="56"/>
       <c r="F37" s="56"/>
-      <c r="G37" s="111"/>
+      <c r="G37" s="128"/>
     </row>
     <row r="38" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="129"/>
+      <c r="B38" s="126"/>
       <c r="C38" s="12" t="s">
         <v>193</v>
       </c>
@@ -6471,14 +6471,14 @@
       </c>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
-      <c r="G38" s="111"/>
+      <c r="G38" s="128"/>
     </row>
     <row r="39" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="129"/>
+      <c r="B39" s="126"/>
       <c r="C39" s="12" t="s">
         <v>194</v>
       </c>
@@ -6487,14 +6487,14 @@
       </c>
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
-      <c r="G39" s="111"/>
+      <c r="G39" s="128"/>
     </row>
     <row r="40" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="129"/>
+      <c r="B40" s="126"/>
       <c r="C40" s="12" t="s">
         <v>195</v>
       </c>
@@ -6503,14 +6503,14 @@
       </c>
       <c r="E40" s="56"/>
       <c r="F40" s="56"/>
-      <c r="G40" s="111"/>
+      <c r="G40" s="128"/>
     </row>
     <row r="41" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="129"/>
+      <c r="B41" s="126"/>
       <c r="C41" s="12" t="s">
         <v>196</v>
       </c>
@@ -6519,14 +6519,14 @@
       </c>
       <c r="E41" s="56"/>
       <c r="F41" s="56"/>
-      <c r="G41" s="111"/>
+      <c r="G41" s="128"/>
     </row>
     <row r="42" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="129"/>
+      <c r="B42" s="126"/>
       <c r="C42" s="12" t="s">
         <v>197</v>
       </c>
@@ -6535,14 +6535,14 @@
       </c>
       <c r="E42" s="56"/>
       <c r="F42" s="56"/>
-      <c r="G42" s="111"/>
+      <c r="G42" s="128"/>
     </row>
     <row r="43" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="129"/>
+      <c r="B43" s="126"/>
       <c r="C43" s="12" t="s">
         <v>198</v>
       </c>
@@ -6551,14 +6551,14 @@
       </c>
       <c r="E43" s="56"/>
       <c r="F43" s="56"/>
-      <c r="G43" s="111"/>
+      <c r="G43" s="128"/>
     </row>
     <row r="44" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="113"/>
+      <c r="B44" s="127"/>
       <c r="C44" s="12" t="s">
         <v>199</v>
       </c>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="E44" s="56"/>
       <c r="F44" s="56"/>
-      <c r="G44" s="111"/>
+      <c r="G44" s="128"/>
     </row>
     <row r="45" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
@@ -6588,50 +6588,50 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="114" t="s">
+      <c r="A46" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="115"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116" t="str">
+      <c r="B46" s="111"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112" t="str">
         <f>COUNT(D3:D45)&amp;"객실"</f>
         <v>43객실</v>
       </c>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="118"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="114"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="119"/>
-      <c r="B47" s="120"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="122"/>
-      <c r="F47" s="122"/>
-      <c r="G47" s="123"/>
+      <c r="A47" s="115"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="119"/>
     </row>
     <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="124"/>
-      <c r="B48" s="125"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
-      <c r="G48" s="128"/>
+      <c r="A48" s="120"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="123"/>
+      <c r="G48" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="D46:G46"/>
     <mergeCell ref="A47:G48"/>
     <mergeCell ref="B20:B44"/>
     <mergeCell ref="B7:B19"/>
     <mergeCell ref="G20:G44"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6720,7 +6720,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="125" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -6738,7 +6738,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="113"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="42" t="s">
         <v>154</v>
       </c>
@@ -6752,7 +6752,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="125" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -6770,7 +6770,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="129"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="12" t="s">
         <v>203</v>
       </c>
@@ -6784,7 +6784,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="129"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="12" t="s">
         <v>201</v>
       </c>
@@ -6798,7 +6798,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="129"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="12" t="s">
         <v>204</v>
       </c>
@@ -6812,7 +6812,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="129"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="45" t="s">
         <v>205</v>
       </c>
@@ -6826,7 +6826,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="129"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="12" t="s">
         <v>206</v>
       </c>
@@ -6840,7 +6840,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="129"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="12" t="s">
         <v>207</v>
       </c>
@@ -6854,7 +6854,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="129"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="12" t="s">
         <v>208</v>
       </c>
@@ -6868,7 +6868,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="129"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="12" t="s">
         <v>209</v>
       </c>
@@ -6882,7 +6882,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="12" t="s">
         <v>210</v>
       </c>
@@ -6896,7 +6896,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="12" t="s">
         <v>211</v>
       </c>
@@ -6910,7 +6910,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="12" t="s">
         <v>212</v>
       </c>
@@ -6924,7 +6924,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="129"/>
+      <c r="B19" s="126"/>
       <c r="C19" s="12" t="s">
         <v>213</v>
       </c>
@@ -6938,7 +6938,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="129"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="12" t="s">
         <v>214</v>
       </c>
@@ -6952,7 +6952,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="129"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="12" t="s">
         <v>215</v>
       </c>
@@ -6966,7 +6966,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="129"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="12" t="s">
         <v>216</v>
       </c>
@@ -6980,7 +6980,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="129"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="12" t="s">
         <v>247</v>
       </c>
@@ -6995,7 +6995,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="129"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="12" t="s">
         <v>217</v>
       </c>
@@ -7009,7 +7009,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="129"/>
+      <c r="B25" s="126"/>
       <c r="C25" s="12" t="s">
         <v>218</v>
       </c>
@@ -7023,7 +7023,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="129"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="12" t="s">
         <v>219</v>
       </c>
@@ -7037,7 +7037,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="129"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="11" t="s">
         <v>220</v>
       </c>
@@ -7054,7 +7054,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="129"/>
+      <c r="B28" s="126"/>
       <c r="C28" s="12" t="s">
         <v>221</v>
       </c>
@@ -7068,7 +7068,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="129"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="12" t="s">
         <v>222</v>
       </c>
@@ -7082,7 +7082,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="129"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="12" t="s">
         <v>223</v>
       </c>
@@ -7128,7 +7128,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="112" t="s">
+      <c r="B33" s="125" t="s">
         <v>105</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -7146,7 +7146,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="129"/>
+      <c r="B34" s="126"/>
       <c r="C34" s="12" t="s">
         <v>225</v>
       </c>
@@ -7160,7 +7160,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="129"/>
+      <c r="B35" s="126"/>
       <c r="C35" s="12" t="s">
         <v>246</v>
       </c>
@@ -7175,7 +7175,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="129"/>
+      <c r="B36" s="126"/>
       <c r="C36" s="12" t="s">
         <v>226</v>
       </c>
@@ -7189,7 +7189,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="129"/>
+      <c r="B37" s="126"/>
       <c r="C37" s="12" t="s">
         <v>227</v>
       </c>
@@ -7203,7 +7203,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="129"/>
+      <c r="B38" s="126"/>
       <c r="C38" s="12" t="s">
         <v>228</v>
       </c>
@@ -7217,7 +7217,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="129"/>
+      <c r="B39" s="126"/>
       <c r="C39" s="12" t="s">
         <v>229</v>
       </c>
@@ -7231,7 +7231,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="129"/>
+      <c r="B40" s="126"/>
       <c r="C40" s="12" t="s">
         <v>230</v>
       </c>
@@ -7245,7 +7245,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="129"/>
+      <c r="B41" s="126"/>
       <c r="C41" s="12" t="s">
         <v>231</v>
       </c>
@@ -7259,7 +7259,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="129"/>
+      <c r="B42" s="126"/>
       <c r="C42" s="12" t="s">
         <v>232</v>
       </c>
@@ -7273,7 +7273,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="129"/>
+      <c r="B43" s="126"/>
       <c r="C43" s="12" t="s">
         <v>233</v>
       </c>
@@ -7287,7 +7287,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="129"/>
+      <c r="B44" s="126"/>
       <c r="C44" s="12" t="s">
         <v>234</v>
       </c>
@@ -7301,7 +7301,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="113"/>
+      <c r="B45" s="127"/>
       <c r="C45" s="12" t="s">
         <v>235</v>
       </c>
@@ -7329,11 +7329,11 @@
       <c r="E47" s="132"/>
     </row>
     <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="124"/>
-      <c r="B48" s="125"/>
-      <c r="C48" s="125"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
+      <c r="A48" s="120"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7359,8 +7359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3EF40F-950C-43E7-BD6F-B6DD42AFB0E0}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7408,7 +7408,7 @@
         <v>704</v>
       </c>
       <c r="E3" s="107" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>59</v>
@@ -7442,7 +7442,7 @@
         <v>1102</v>
       </c>
       <c r="E5" s="108" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -7463,7 +7463,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="125" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -7472,7 +7472,7 @@
       <c r="D7" s="5">
         <v>1211</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="128" t="s">
         <v>241</v>
       </c>
     </row>
@@ -7481,28 +7481,28 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="129"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="42" t="s">
         <v>128</v>
       </c>
       <c r="D8" s="4">
         <v>1207</v>
       </c>
-      <c r="E8" s="111"/>
+      <c r="E8" s="128"/>
     </row>
     <row r="9" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="129"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="12" t="s">
         <v>255</v>
       </c>
       <c r="D9" s="4">
         <v>601</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="128" t="s">
         <v>252</v>
       </c>
     </row>
@@ -7511,84 +7511,84 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="129"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="12" t="s">
         <v>256</v>
       </c>
       <c r="D10" s="4">
         <v>606</v>
       </c>
-      <c r="E10" s="111"/>
+      <c r="E10" s="128"/>
     </row>
     <row r="11" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="129"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="45" t="s">
         <v>263</v>
       </c>
       <c r="D11" s="4">
         <v>607</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="128"/>
     </row>
     <row r="12" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="129"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="12" t="s">
         <v>257</v>
       </c>
       <c r="D12" s="5">
         <v>609</v>
       </c>
-      <c r="E12" s="111"/>
+      <c r="E12" s="128"/>
     </row>
     <row r="13" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="129"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="12" t="s">
         <v>258</v>
       </c>
       <c r="D13" s="4">
         <v>610</v>
       </c>
-      <c r="E13" s="111"/>
+      <c r="E13" s="128"/>
     </row>
     <row r="14" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="129"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="12" t="s">
         <v>259</v>
       </c>
       <c r="D14" s="4">
         <v>613</v>
       </c>
-      <c r="E14" s="111"/>
+      <c r="E14" s="128"/>
     </row>
     <row r="15" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="129"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D15" s="4">
         <v>614</v>
       </c>
-      <c r="E15" s="111"/>
+      <c r="E15" s="128"/>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
@@ -7596,28 +7596,28 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="12" t="s">
         <v>261</v>
       </c>
       <c r="D16" s="4">
         <v>617</v>
       </c>
-      <c r="E16" s="111"/>
+      <c r="E16" s="128"/>
     </row>
     <row r="17" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="12" t="s">
         <v>260</v>
       </c>
       <c r="D17" s="4">
         <v>618</v>
       </c>
-      <c r="E17" s="111"/>
+      <c r="E17" s="128"/>
       <c r="M17" s="43"/>
     </row>
     <row r="18" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
@@ -7625,14 +7625,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D18" s="4">
         <v>619</v>
       </c>
-      <c r="E18" s="111"/>
+      <c r="E18" s="128"/>
       <c r="F18" s="3" t="s">
         <v>264</v>
       </c>
@@ -7642,21 +7642,21 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="12" t="s">
         <v>262</v>
       </c>
       <c r="D19" s="4">
         <v>620</v>
       </c>
-      <c r="E19" s="111"/>
+      <c r="E19" s="128"/>
     </row>
     <row r="20" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="112" t="s">
+      <c r="B20" s="125" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -7665,7 +7665,7 @@
       <c r="D20" s="4">
         <v>909</v>
       </c>
-      <c r="E20" s="111" t="s">
+      <c r="E20" s="128" t="s">
         <v>253</v>
       </c>
     </row>
@@ -7674,226 +7674,226 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="129"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="12" t="s">
         <v>266</v>
       </c>
       <c r="D21" s="4">
         <v>910</v>
       </c>
-      <c r="E21" s="111"/>
+      <c r="E21" s="128"/>
     </row>
     <row r="22" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="129"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="12" t="s">
         <v>267</v>
       </c>
       <c r="D22" s="4">
         <v>911</v>
       </c>
-      <c r="E22" s="111"/>
+      <c r="E22" s="128"/>
     </row>
     <row r="23" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="129"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="12" t="s">
         <v>268</v>
       </c>
       <c r="D23" s="4">
         <v>912</v>
       </c>
-      <c r="E23" s="111"/>
+      <c r="E23" s="128"/>
     </row>
     <row r="24" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="129"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="12" t="s">
         <v>269</v>
       </c>
       <c r="D24" s="4">
         <v>913</v>
       </c>
-      <c r="E24" s="111"/>
+      <c r="E24" s="128"/>
     </row>
     <row r="25" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="129"/>
+      <c r="B25" s="126"/>
       <c r="C25" s="12" t="s">
         <v>270</v>
       </c>
       <c r="D25" s="4">
         <v>914</v>
       </c>
-      <c r="E25" s="111"/>
+      <c r="E25" s="128"/>
     </row>
     <row r="26" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="129"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D26" s="4">
         <v>915</v>
       </c>
-      <c r="E26" s="111"/>
+      <c r="E26" s="128"/>
     </row>
     <row r="27" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="129"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="12" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="D27" s="4">
         <v>917</v>
       </c>
-      <c r="E27" s="111"/>
+      <c r="E27" s="128"/>
     </row>
     <row r="28" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="129"/>
+      <c r="B28" s="126"/>
       <c r="C28" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D28" s="4">
         <v>919</v>
       </c>
-      <c r="E28" s="111"/>
+      <c r="E28" s="128"/>
     </row>
     <row r="29" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="129"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D29" s="4">
         <v>920</v>
       </c>
-      <c r="E29" s="111"/>
+      <c r="E29" s="128"/>
     </row>
     <row r="30" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="129"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D30" s="4">
         <v>922</v>
       </c>
-      <c r="E30" s="111"/>
+      <c r="E30" s="128"/>
     </row>
     <row r="31" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="129"/>
+      <c r="B31" s="126"/>
       <c r="C31" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D31" s="4">
         <v>923</v>
       </c>
-      <c r="E31" s="111"/>
+      <c r="E31" s="128"/>
     </row>
     <row r="32" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="129"/>
+      <c r="B32" s="126"/>
       <c r="C32" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D32" s="4">
         <v>926</v>
       </c>
-      <c r="E32" s="111"/>
+      <c r="E32" s="128"/>
     </row>
     <row r="33" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="129"/>
+      <c r="B33" s="126"/>
       <c r="C33" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D33" s="4">
         <v>1013</v>
       </c>
-      <c r="E33" s="111"/>
+      <c r="E33" s="128"/>
     </row>
     <row r="34" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="129"/>
+      <c r="B34" s="126"/>
       <c r="C34" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D34" s="4">
         <v>1014</v>
       </c>
-      <c r="E34" s="111"/>
+      <c r="E34" s="128"/>
     </row>
     <row r="35" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="129"/>
+      <c r="B35" s="126"/>
       <c r="C35" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D35" s="4">
         <v>1015</v>
       </c>
-      <c r="E35" s="111"/>
+      <c r="E35" s="128"/>
     </row>
     <row r="36" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="129"/>
+      <c r="B36" s="126"/>
       <c r="C36" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D36" s="4">
         <v>1017</v>
       </c>
-      <c r="E36" s="111"/>
+      <c r="E36" s="128"/>
       <c r="F36" s="58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
@@ -7901,152 +7901,152 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="129"/>
+      <c r="B37" s="126"/>
       <c r="C37" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D37" s="4">
         <v>1018</v>
       </c>
-      <c r="E37" s="111"/>
+      <c r="E37" s="128"/>
     </row>
     <row r="38" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="129"/>
+      <c r="B38" s="126"/>
       <c r="C38" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D38" s="4">
         <v>1019</v>
       </c>
-      <c r="E38" s="111"/>
+      <c r="E38" s="128"/>
     </row>
     <row r="39" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="129"/>
+      <c r="B39" s="126"/>
       <c r="C39" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D39" s="4">
         <v>1020</v>
       </c>
-      <c r="E39" s="111"/>
+      <c r="E39" s="128"/>
     </row>
     <row r="40" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="129"/>
+      <c r="B40" s="126"/>
       <c r="C40" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D40" s="4">
         <v>1021</v>
       </c>
-      <c r="E40" s="111"/>
+      <c r="E40" s="128"/>
     </row>
     <row r="41" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="129"/>
+      <c r="B41" s="126"/>
       <c r="C41" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D41" s="4">
         <v>1022</v>
       </c>
-      <c r="E41" s="111"/>
+      <c r="E41" s="128"/>
     </row>
     <row r="42" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="129"/>
+      <c r="B42" s="126"/>
       <c r="C42" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D42" s="4">
         <v>1023</v>
       </c>
-      <c r="E42" s="111"/>
+      <c r="E42" s="128"/>
     </row>
     <row r="43" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="129"/>
+      <c r="B43" s="126"/>
       <c r="C43" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D43" s="4">
         <v>1024</v>
       </c>
-      <c r="E43" s="111"/>
+      <c r="E43" s="128"/>
     </row>
     <row r="44" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="129"/>
+      <c r="B44" s="126"/>
       <c r="C44" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D44" s="4">
         <v>1025</v>
       </c>
-      <c r="E44" s="111"/>
+      <c r="E44" s="128"/>
     </row>
     <row r="45" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="113"/>
+      <c r="B45" s="127"/>
       <c r="C45" s="45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D45" s="4">
         <v>1026</v>
       </c>
-      <c r="E45" s="111"/>
+      <c r="E45" s="128"/>
       <c r="F45" s="58"/>
     </row>
     <row r="46" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="114" t="s">
+      <c r="A46" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="115"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116" t="s">
+      <c r="B46" s="111"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112" t="s">
         <v>254</v>
       </c>
-      <c r="E46" s="118"/>
+      <c r="E46" s="114"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="119"/>
-      <c r="B47" s="120"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="123"/>
+      <c r="A47" s="115"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="119"/>
     </row>
     <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="124"/>
-      <c r="B48" s="125"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="128"/>
+      <c r="A48" s="120"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/data/rooming.xlsx
+++ b/data/rooming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD601FA-3EAF-49B1-9BCE-4FE7FE7A4638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27F99F81-0EAB-40C0-B285-B173E0E680F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10080" yWindow="108" windowWidth="11712" windowHeight="12240" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1차수" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="4차수" sheetId="10" r:id="rId4"/>
     <sheet name="5차수" sheetId="11" r:id="rId5"/>
     <sheet name="6차수" sheetId="12" r:id="rId6"/>
+    <sheet name="7차수" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1차수'!$A$1:$E$44</definedName>
@@ -231,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="344">
   <si>
     <t>Guest Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1419,10 +1420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>42객실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김준홍, 이재욱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1686,9 +1683,228 @@
   </si>
   <si>
     <t>허경미, 서윤정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데면세점 9/17~18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자 26객실
+더블 트윈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+디럭스 더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>디럭스 더블</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+9/16~18(2박)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2객실 트윈 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>9/16~18(2박)</t>
+    </r>
+  </si>
+  <si>
+    <t>김동진, 좌민철</t>
+  </si>
+  <si>
+    <t>김명준, 성봉영</t>
+  </si>
+  <si>
+    <t>김상봉, 박태준</t>
+  </si>
+  <si>
+    <t>이승희, 김제호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오필훈, 천대웅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김대웅, 홍종원</t>
+  </si>
+  <si>
+    <t>오현철, 설세문</t>
+  </si>
+  <si>
+    <t>최재현, 차경석</t>
+  </si>
+  <si>
+    <t>이상호, 허원영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정한길, 김진영</t>
+  </si>
+  <si>
+    <t>양영수, 김진수</t>
+  </si>
+  <si>
+    <t>김승구, 송태한</t>
+  </si>
+  <si>
+    <t>표현희, 김원태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">남자 13객실
+스탠다드 트윈
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45객실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권미정, 권소현</t>
+  </si>
+  <si>
+    <t>김윤경, 김선희</t>
+  </si>
+  <si>
+    <t>박선화, 김현순</t>
+  </si>
+  <si>
+    <t>오현주, 정성은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경민, 이상원</t>
+  </si>
+  <si>
+    <t>윤슬기, 진지현</t>
+  </si>
+  <si>
+    <t>고윤경, 김은아</t>
+  </si>
+  <si>
+    <t>심혜린, 이초록</t>
+  </si>
+  <si>
+    <t>정혜련, 김승연</t>
+  </si>
+  <si>
+    <t>최로운, 이은혜</t>
+  </si>
+  <si>
+    <t>장호영, 이채은</t>
+  </si>
+  <si>
+    <t>도미현, 이연희</t>
+  </si>
+  <si>
+    <t>신혜지, 강유나</t>
+  </si>
+  <si>
+    <t>이예지, 손예지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지영, 김애라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이채원, 박령이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고정선: 이채원,박령이 희망
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김희윤, 최서현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경리, 홍주연</t>
+  </si>
+  <si>
+    <t>강지선, 박주원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최은주, 함희경</t>
+  </si>
+  <si>
+    <t>이유진, 이정미</t>
+  </si>
+  <si>
+    <t>이수희, 박난희</t>
+  </si>
+  <si>
+    <t>박미숙, 홍윤미</t>
+  </si>
+  <si>
+    <t>박다정, 임가람</t>
+  </si>
+  <si>
+    <t>이문숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고정선</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 정진아</t>
+    </r>
+  </si>
+  <si>
+    <t>안영삼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>김선영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박희정 불참으로 독방</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1699,7 +1915,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2023,6 +2239,20 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -2242,7 +2472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -2765,6 +2995,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2903,7 +3142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3103,6 +3342,12 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3355,6 +3600,27 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -3722,13 +3988,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="25.2" x14ac:dyDescent="0.4">
@@ -3758,7 +4024,7 @@
       <c r="D3" s="4">
         <v>601</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="73" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -3776,7 +4042,7 @@
       <c r="D4" s="4">
         <v>604</v>
       </c>
-      <c r="E4" s="72"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -3800,7 +4066,7 @@
       <c r="D5" s="5">
         <v>605</v>
       </c>
-      <c r="E5" s="73"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="2" t="s">
         <v>50</v>
       </c>
@@ -3809,7 +4075,7 @@
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="81" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -3818,7 +4084,7 @@
       <c r="D6" s="4">
         <v>606</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="76" t="s">
         <v>109</v>
       </c>
       <c r="F6" s="2"/>
@@ -3827,14 +4093,14 @@
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="4">
         <v>607</v>
       </c>
-      <c r="E7" s="74"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="2"/>
       <c r="J7" s="31"/>
     </row>
@@ -3842,42 +4108,42 @@
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="4">
         <v>609</v>
       </c>
-      <c r="E8" s="74"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="80"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="4">
         <v>610</v>
       </c>
-      <c r="E9" s="74"/>
+      <c r="E9" s="76"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="80"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="5">
         <v>613</v>
       </c>
-      <c r="E10" s="74"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="2"/>
       <c r="I10" t="s">
         <v>6</v>
@@ -3887,70 +4153,70 @@
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="80"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="4">
         <v>614</v>
       </c>
-      <c r="E11" s="74"/>
+      <c r="E11" s="76"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="80"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="4">
         <v>617</v>
       </c>
-      <c r="E12" s="74"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="80"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="4">
         <v>618</v>
       </c>
-      <c r="E13" s="74"/>
+      <c r="E13" s="76"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="80"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="4">
         <v>619</v>
       </c>
-      <c r="E14" s="74"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="80"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="4">
         <v>620</v>
       </c>
-      <c r="E15" s="74"/>
+      <c r="E15" s="76"/>
       <c r="F15" s="2" t="s">
         <v>48</v>
       </c>
@@ -3959,7 +4225,7 @@
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="80"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="12" t="s">
         <v>29</v>
       </c>
@@ -3975,14 +4241,14 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="80"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="4">
         <v>915</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="73" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="2"/>
@@ -3991,35 +4257,35 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="4">
         <v>923</v>
       </c>
-      <c r="E18" s="72"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="81"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D19" s="4">
         <v>926</v>
       </c>
-      <c r="E19" s="72"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="81" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -4028,175 +4294,175 @@
       <c r="D20" s="4">
         <v>1001</v>
       </c>
-      <c r="E20" s="72"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="80"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="4">
         <v>1002</v>
       </c>
-      <c r="E21" s="72"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="80"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="4">
         <v>1003</v>
       </c>
-      <c r="E22" s="72"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="80"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="4">
         <v>1004</v>
       </c>
-      <c r="E23" s="72"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="80"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="4">
         <v>1005</v>
       </c>
-      <c r="E24" s="72"/>
+      <c r="E24" s="74"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="80"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="4">
         <v>1006</v>
       </c>
-      <c r="E25" s="72"/>
+      <c r="E25" s="74"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="80"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="4">
         <v>1007</v>
       </c>
-      <c r="E26" s="72"/>
+      <c r="E26" s="74"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="80"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="4">
         <v>1008</v>
       </c>
-      <c r="E27" s="72"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="80"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="4">
         <v>1009</v>
       </c>
-      <c r="E28" s="72"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="80"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="4">
         <v>1010</v>
       </c>
-      <c r="E29" s="72"/>
+      <c r="E29" s="74"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="80"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="4">
         <v>1011</v>
       </c>
-      <c r="E30" s="72"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="80"/>
+      <c r="B31" s="82"/>
       <c r="C31" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="4">
         <v>1012</v>
       </c>
-      <c r="E31" s="72"/>
+      <c r="E31" s="74"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="80"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D32" s="4">
         <v>1013</v>
       </c>
-      <c r="E32" s="72"/>
+      <c r="E32" s="74"/>
       <c r="F32" s="2" t="s">
         <v>54</v>
       </c>
@@ -4205,126 +4471,126 @@
       <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="80"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="12" t="s">
         <v>101</v>
       </c>
       <c r="D33" s="4">
         <v>1014</v>
       </c>
-      <c r="E33" s="72"/>
+      <c r="E33" s="74"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="80"/>
+      <c r="B34" s="82"/>
       <c r="C34" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="4">
         <v>1015</v>
       </c>
-      <c r="E34" s="72"/>
+      <c r="E34" s="74"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="80"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="4">
         <v>1017</v>
       </c>
-      <c r="E35" s="72"/>
+      <c r="E35" s="74"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="80"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="4">
         <v>1018</v>
       </c>
-      <c r="E36" s="72"/>
+      <c r="E36" s="74"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="80"/>
+      <c r="B37" s="82"/>
       <c r="C37" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="4">
         <v>1019</v>
       </c>
-      <c r="E37" s="72"/>
+      <c r="E37" s="74"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="80"/>
+      <c r="B38" s="82"/>
       <c r="C38" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="4">
         <v>1020</v>
       </c>
-      <c r="E38" s="72"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>37</v>
       </c>
-      <c r="B39" s="80"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="4">
         <v>1021</v>
       </c>
-      <c r="E39" s="72"/>
+      <c r="E39" s="74"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="80"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="4">
         <v>1022</v>
       </c>
-      <c r="E40" s="72"/>
+      <c r="E40" s="74"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>39</v>
       </c>
-      <c r="B41" s="80"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="4">
         <v>1023</v>
       </c>
-      <c r="E41" s="72"/>
+      <c r="E41" s="74"/>
       <c r="F41" s="2" t="s">
         <v>58</v>
       </c>
@@ -4333,58 +4599,58 @@
       <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="80"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="4">
         <v>1024</v>
       </c>
-      <c r="E42" s="72"/>
+      <c r="E42" s="74"/>
     </row>
     <row r="43" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="B43" s="81"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D43" s="4">
         <v>1025</v>
       </c>
-      <c r="E43" s="73"/>
+      <c r="E43" s="75"/>
       <c r="F43" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="75" t="s">
+      <c r="A44" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="76"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77" t="str">
+      <c r="B44" s="78"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79" t="str">
         <f>COUNT(D3:D43)&amp;"객실"</f>
         <v>41객실</v>
       </c>
-      <c r="E44" s="78"/>
+      <c r="E44" s="80"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="62"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="64"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="63"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="66"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="68"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
@@ -4432,13 +4698,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="93"/>
       <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="25.2" x14ac:dyDescent="0.4">
@@ -4468,7 +4734,7 @@
       <c r="D3" s="22">
         <v>601</v>
       </c>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="101" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="23" t="s">
@@ -4486,7 +4752,7 @@
       <c r="D4" s="22">
         <v>604</v>
       </c>
-      <c r="E4" s="100"/>
+      <c r="E4" s="102"/>
       <c r="F4" s="24" t="s">
         <v>60</v>
       </c>
@@ -4502,14 +4768,14 @@
       <c r="D5" s="25">
         <v>605</v>
       </c>
-      <c r="E5" s="101"/>
+      <c r="E5" s="103"/>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="104" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -4518,7 +4784,7 @@
       <c r="D6" s="22">
         <v>606</v>
       </c>
-      <c r="E6" s="97" t="s">
+      <c r="E6" s="99" t="s">
         <v>108</v>
       </c>
       <c r="F6" s="16"/>
@@ -4527,28 +4793,28 @@
       <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="103"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="30" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="22">
         <v>607</v>
       </c>
-      <c r="E7" s="98"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="103"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="22">
         <v>609</v>
       </c>
-      <c r="E8" s="98"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="16"/>
       <c r="K8" s="32"/>
     </row>
@@ -4556,42 +4822,42 @@
       <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B9" s="103"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="30" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="22">
         <v>610</v>
       </c>
-      <c r="E9" s="98"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="103"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="30" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="25">
         <v>613</v>
       </c>
-      <c r="E10" s="98"/>
+      <c r="E10" s="100"/>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="30" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="22">
         <v>614</v>
       </c>
-      <c r="E11" s="98"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="16"/>
       <c r="I11" t="s">
         <v>6</v>
@@ -4601,42 +4867,42 @@
       <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="103"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="30" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="22">
         <v>617</v>
       </c>
-      <c r="E12" s="98"/>
+      <c r="E12" s="100"/>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="103"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="30" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="22">
         <v>618</v>
       </c>
-      <c r="E13" s="98"/>
+      <c r="E13" s="100"/>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="103"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="22">
         <v>619</v>
       </c>
-      <c r="E14" s="98"/>
+      <c r="E14" s="100"/>
       <c r="F14" s="16" t="s">
         <v>71</v>
       </c>
@@ -4645,56 +4911,56 @@
       <c r="A15" s="20">
         <v>13</v>
       </c>
-      <c r="B15" s="103"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="30" t="s">
         <v>72</v>
       </c>
       <c r="D15" s="22">
         <v>620</v>
       </c>
-      <c r="E15" s="98"/>
+      <c r="E15" s="100"/>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="103"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="22">
         <v>622</v>
       </c>
-      <c r="E16" s="98"/>
+      <c r="E16" s="100"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20">
         <v>15</v>
       </c>
-      <c r="B17" s="103"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="22">
         <v>623</v>
       </c>
-      <c r="E17" s="98"/>
+      <c r="E17" s="100"/>
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="103"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="30" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="22">
         <v>626</v>
       </c>
-      <c r="E18" s="98"/>
+      <c r="E18" s="100"/>
       <c r="F18" s="16" t="s">
         <v>76</v>
       </c>
@@ -4703,7 +4969,7 @@
       <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="104" t="s">
         <v>106</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -4712,21 +4978,21 @@
       <c r="D19" s="22">
         <v>704</v>
       </c>
-      <c r="E19" s="98"/>
+      <c r="E19" s="100"/>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="20">
         <v>18</v>
       </c>
-      <c r="B20" s="104"/>
+      <c r="B20" s="106"/>
       <c r="C20" s="26" t="s">
         <v>102</v>
       </c>
       <c r="D20" s="22">
         <v>705</v>
       </c>
-      <c r="E20" s="98"/>
+      <c r="E20" s="100"/>
       <c r="F20" s="16" t="s">
         <v>103</v>
       </c>
@@ -4735,7 +5001,7 @@
       <c r="A21" s="20">
         <v>19</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="105" t="s">
         <v>105</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -4751,7 +5017,7 @@
       <c r="A22" s="20">
         <v>20</v>
       </c>
-      <c r="B22" s="104"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="21" t="s">
         <v>61</v>
       </c>
@@ -4769,10 +5035,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="39"/>
-      <c r="C23" s="105" t="s">
+      <c r="C23" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="106"/>
+      <c r="D23" s="108"/>
       <c r="E23" s="38"/>
       <c r="F23" s="16"/>
       <c r="K23" s="32"/>
@@ -4781,7 +5047,7 @@
       <c r="A24" s="20">
         <v>22</v>
       </c>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="104" t="s">
         <v>106</v>
       </c>
       <c r="C24" s="30" t="s">
@@ -4790,7 +5056,7 @@
       <c r="D24" s="22">
         <v>1001</v>
       </c>
-      <c r="E24" s="99" t="s">
+      <c r="E24" s="101" t="s">
         <v>110</v>
       </c>
       <c r="F24" s="16"/>
@@ -4799,252 +5065,252 @@
       <c r="A25" s="20">
         <v>23</v>
       </c>
-      <c r="B25" s="103"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="30" t="s">
         <v>99</v>
       </c>
       <c r="D25" s="22">
         <v>1002</v>
       </c>
-      <c r="E25" s="100"/>
+      <c r="E25" s="102"/>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20">
         <v>24</v>
       </c>
-      <c r="B26" s="103"/>
+      <c r="B26" s="105"/>
       <c r="C26" s="30" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="22">
         <v>1003</v>
       </c>
-      <c r="E26" s="100"/>
+      <c r="E26" s="102"/>
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20">
         <v>25</v>
       </c>
-      <c r="B27" s="103"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="30" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="22">
         <v>1004</v>
       </c>
-      <c r="E27" s="100"/>
+      <c r="E27" s="102"/>
       <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20">
         <v>26</v>
       </c>
-      <c r="B28" s="103"/>
+      <c r="B28" s="105"/>
       <c r="C28" s="30" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="22">
         <v>1005</v>
       </c>
-      <c r="E28" s="100"/>
+      <c r="E28" s="102"/>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20">
         <v>27</v>
       </c>
-      <c r="B29" s="103"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="30" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="22">
         <v>1006</v>
       </c>
-      <c r="E29" s="100"/>
+      <c r="E29" s="102"/>
       <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="20">
         <v>28</v>
       </c>
-      <c r="B30" s="103"/>
+      <c r="B30" s="105"/>
       <c r="C30" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D30" s="22">
         <v>1007</v>
       </c>
-      <c r="E30" s="100"/>
+      <c r="E30" s="102"/>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20">
         <v>29</v>
       </c>
-      <c r="B31" s="103"/>
+      <c r="B31" s="105"/>
       <c r="C31" s="30" t="s">
         <v>83</v>
       </c>
       <c r="D31" s="22">
         <v>1008</v>
       </c>
-      <c r="E31" s="100"/>
+      <c r="E31" s="102"/>
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="20">
         <v>30</v>
       </c>
-      <c r="B32" s="103"/>
+      <c r="B32" s="105"/>
       <c r="C32" s="30" t="s">
         <v>84</v>
       </c>
       <c r="D32" s="22">
         <v>1009</v>
       </c>
-      <c r="E32" s="100"/>
+      <c r="E32" s="102"/>
       <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20">
         <v>31</v>
       </c>
-      <c r="B33" s="103"/>
+      <c r="B33" s="105"/>
       <c r="C33" s="30" t="s">
         <v>86</v>
       </c>
       <c r="D33" s="22">
         <v>1010</v>
       </c>
-      <c r="E33" s="100"/>
+      <c r="E33" s="102"/>
       <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="20">
         <v>32</v>
       </c>
-      <c r="B34" s="103"/>
+      <c r="B34" s="105"/>
       <c r="C34" s="30" t="s">
         <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>1011</v>
       </c>
-      <c r="E34" s="100"/>
+      <c r="E34" s="102"/>
       <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20">
         <v>33</v>
       </c>
-      <c r="B35" s="103"/>
+      <c r="B35" s="105"/>
       <c r="C35" s="30" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="22">
         <v>1012</v>
       </c>
-      <c r="E35" s="100"/>
+      <c r="E35" s="102"/>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="20">
         <v>34</v>
       </c>
-      <c r="B36" s="103"/>
+      <c r="B36" s="105"/>
       <c r="C36" s="30" t="s">
         <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>1013</v>
       </c>
-      <c r="E36" s="100"/>
+      <c r="E36" s="102"/>
       <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20">
         <v>35</v>
       </c>
-      <c r="B37" s="103"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="30" t="s">
         <v>89</v>
       </c>
       <c r="D37" s="22">
         <v>1014</v>
       </c>
-      <c r="E37" s="100"/>
+      <c r="E37" s="102"/>
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="20">
         <v>36</v>
       </c>
-      <c r="B38" s="103"/>
+      <c r="B38" s="105"/>
       <c r="C38" s="30" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="22">
         <v>1015</v>
       </c>
-      <c r="E38" s="100"/>
+      <c r="E38" s="102"/>
       <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="20">
         <v>37</v>
       </c>
-      <c r="B39" s="103"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="30" t="s">
         <v>91</v>
       </c>
       <c r="D39" s="22">
         <v>1017</v>
       </c>
-      <c r="E39" s="100"/>
+      <c r="E39" s="102"/>
       <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="20">
         <v>38</v>
       </c>
-      <c r="B40" s="103"/>
+      <c r="B40" s="105"/>
       <c r="C40" s="30" t="s">
         <v>92</v>
       </c>
       <c r="D40" s="22">
         <v>1018</v>
       </c>
-      <c r="E40" s="100"/>
+      <c r="E40" s="102"/>
       <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="20">
         <v>39</v>
       </c>
-      <c r="B41" s="103"/>
+      <c r="B41" s="105"/>
       <c r="C41" s="30" t="s">
         <v>93</v>
       </c>
       <c r="D41" s="22">
         <v>1019</v>
       </c>
-      <c r="E41" s="100"/>
+      <c r="E41" s="102"/>
       <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="20">
         <v>40</v>
       </c>
-      <c r="B42" s="103"/>
+      <c r="B42" s="105"/>
       <c r="C42" s="26" t="s">
         <v>94</v>
       </c>
       <c r="D42" s="22">
         <v>1020</v>
       </c>
-      <c r="E42" s="100"/>
+      <c r="E42" s="102"/>
       <c r="F42" s="16" t="s">
         <v>95</v>
       </c>
@@ -5053,84 +5319,84 @@
       <c r="A43" s="20">
         <v>41</v>
       </c>
-      <c r="B43" s="103"/>
+      <c r="B43" s="105"/>
       <c r="C43" s="30" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="22">
         <v>1021</v>
       </c>
-      <c r="E43" s="100"/>
+      <c r="E43" s="102"/>
       <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="20">
         <v>42</v>
       </c>
-      <c r="B44" s="103"/>
+      <c r="B44" s="105"/>
       <c r="C44" s="30" t="s">
         <v>104</v>
       </c>
       <c r="D44" s="22">
         <v>1022</v>
       </c>
-      <c r="E44" s="100"/>
+      <c r="E44" s="102"/>
       <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="20">
         <v>43</v>
       </c>
-      <c r="B45" s="103"/>
+      <c r="B45" s="105"/>
       <c r="C45" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="22">
         <v>1023</v>
       </c>
-      <c r="E45" s="100"/>
+      <c r="E45" s="102"/>
       <c r="F45" s="28"/>
     </row>
     <row r="46" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A46" s="20">
         <v>44</v>
       </c>
-      <c r="B46" s="104"/>
+      <c r="B46" s="106"/>
       <c r="C46" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="22">
         <v>1024</v>
       </c>
-      <c r="E46" s="101"/>
+      <c r="E46" s="103"/>
       <c r="F46" s="28"/>
     </row>
     <row r="47" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="95"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="92" t="s">
+      <c r="B47" s="97"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="93"/>
+      <c r="E47" s="95"/>
       <c r="F47" s="28"/>
     </row>
     <row r="48" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="82"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="84"/>
+      <c r="A48" s="84"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="86"/>
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="85"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="87"/>
+      <c r="A49" s="87"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="89"/>
       <c r="F49" s="29"/>
     </row>
   </sheetData>
@@ -5159,8 +5425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C9648B-A392-41F5-A8B4-06A1D4DE9CD0}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F4"/>
+    <sheetView topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5172,13 +5438,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="25.2" x14ac:dyDescent="0.4">
@@ -5208,7 +5474,7 @@
       <c r="D3" s="4">
         <v>707</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="109" t="s">
         <v>113</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -5226,7 +5492,7 @@
       <c r="D4" s="4">
         <v>1101</v>
       </c>
-      <c r="E4" s="108"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -5242,14 +5508,14 @@
       <c r="D5" s="5">
         <v>1104</v>
       </c>
-      <c r="E5" s="109"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="104" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -5258,7 +5524,7 @@
       <c r="D6" s="4">
         <v>601</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="109" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="2"/>
@@ -5267,154 +5533,154 @@
       <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="103"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="12" t="s">
         <v>117</v>
       </c>
       <c r="D7" s="4">
         <v>604</v>
       </c>
-      <c r="E7" s="108"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="103"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="12" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="4">
         <v>605</v>
       </c>
-      <c r="E8" s="108"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="103"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D9" s="4">
         <v>606</v>
       </c>
-      <c r="E9" s="108"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="103"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="45" t="s">
         <v>120</v>
       </c>
       <c r="D10" s="5">
         <v>607</v>
       </c>
-      <c r="E10" s="108"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <v>9</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="4">
         <v>609</v>
       </c>
-      <c r="E11" s="108"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <v>10</v>
       </c>
-      <c r="B12" s="103"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D12" s="4">
         <v>610</v>
       </c>
-      <c r="E12" s="108"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <v>11</v>
       </c>
-      <c r="B13" s="103"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D13" s="4">
         <v>613</v>
       </c>
-      <c r="E13" s="108"/>
+      <c r="E13" s="110"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>12</v>
       </c>
-      <c r="B14" s="103"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D14" s="4">
         <v>614</v>
       </c>
-      <c r="E14" s="108"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <v>13</v>
       </c>
-      <c r="B15" s="103"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="12" t="s">
         <v>125</v>
       </c>
       <c r="D15" s="4">
         <v>617</v>
       </c>
-      <c r="E15" s="108"/>
+      <c r="E15" s="110"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <v>14</v>
       </c>
-      <c r="B16" s="103"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="12" t="s">
         <v>126</v>
       </c>
       <c r="D16" s="4">
         <v>618</v>
       </c>
-      <c r="E16" s="108"/>
+      <c r="E16" s="110"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <v>15</v>
       </c>
-      <c r="B17" s="103"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="42" t="s">
         <v>127</v>
       </c>
       <c r="D17" s="4">
         <v>619</v>
       </c>
-      <c r="E17" s="108"/>
+      <c r="E17" s="110"/>
       <c r="F17" s="2" t="s">
         <v>76</v>
       </c>
@@ -5423,14 +5689,14 @@
       <c r="A18" s="41">
         <v>16</v>
       </c>
-      <c r="B18" s="103"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="42" t="s">
         <v>100</v>
       </c>
       <c r="D18" s="4">
         <v>620</v>
       </c>
-      <c r="E18" s="108"/>
+      <c r="E18" s="110"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -5455,14 +5721,14 @@
       <c r="A20" s="41">
         <v>18</v>
       </c>
-      <c r="B20" s="102"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D20" s="4">
         <v>1001</v>
       </c>
-      <c r="E20" s="107" t="s">
+      <c r="E20" s="109" t="s">
         <v>115</v>
       </c>
       <c r="F20" s="2"/>
@@ -5471,168 +5737,168 @@
       <c r="A21" s="41">
         <v>19</v>
       </c>
-      <c r="B21" s="103"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="12" t="s">
         <v>130</v>
       </c>
       <c r="D21" s="4">
         <v>1002</v>
       </c>
-      <c r="E21" s="108"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <v>20</v>
       </c>
-      <c r="B22" s="103"/>
+      <c r="B22" s="105"/>
       <c r="C22" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D22" s="4">
         <v>1003</v>
       </c>
-      <c r="E22" s="108"/>
+      <c r="E22" s="110"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <v>21</v>
       </c>
-      <c r="B23" s="103"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="12" t="s">
         <v>132</v>
       </c>
       <c r="D23" s="4">
         <v>1004</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <v>22</v>
       </c>
-      <c r="B24" s="103"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D24" s="4">
         <v>1005</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="110"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <v>23</v>
       </c>
-      <c r="B25" s="103"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="12" t="s">
         <v>134</v>
       </c>
       <c r="D25" s="4">
         <v>1006</v>
       </c>
-      <c r="E25" s="108"/>
+      <c r="E25" s="110"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <v>24</v>
       </c>
-      <c r="B26" s="103"/>
+      <c r="B26" s="105"/>
       <c r="C26" s="12" t="s">
         <v>135</v>
       </c>
       <c r="D26" s="4">
         <v>1007</v>
       </c>
-      <c r="E26" s="108"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <v>25</v>
       </c>
-      <c r="B27" s="103"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="12" t="s">
         <v>136</v>
       </c>
       <c r="D27" s="4">
         <v>1008</v>
       </c>
-      <c r="E27" s="108"/>
+      <c r="E27" s="110"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <v>26</v>
       </c>
-      <c r="B28" s="103"/>
+      <c r="B28" s="105"/>
       <c r="C28" s="12" t="s">
         <v>137</v>
       </c>
       <c r="D28" s="4">
         <v>1009</v>
       </c>
-      <c r="E28" s="108"/>
+      <c r="E28" s="110"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <v>27</v>
       </c>
-      <c r="B29" s="103"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="12" t="s">
         <v>138</v>
       </c>
       <c r="D29" s="4">
         <v>1010</v>
       </c>
-      <c r="E29" s="108"/>
+      <c r="E29" s="110"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <v>28</v>
       </c>
-      <c r="B30" s="103"/>
+      <c r="B30" s="105"/>
       <c r="C30" s="12" t="s">
         <v>139</v>
       </c>
       <c r="D30" s="4">
         <v>1011</v>
       </c>
-      <c r="E30" s="108"/>
+      <c r="E30" s="110"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <v>29</v>
       </c>
-      <c r="B31" s="103"/>
+      <c r="B31" s="105"/>
       <c r="C31" s="45" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="4">
         <v>1012</v>
       </c>
-      <c r="E31" s="108"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <v>30</v>
       </c>
-      <c r="B32" s="103"/>
+      <c r="B32" s="105"/>
       <c r="C32" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D32" s="4">
         <v>1013</v>
       </c>
-      <c r="E32" s="108"/>
+      <c r="E32" s="110"/>
       <c r="F32" s="2" t="s">
         <v>142</v>
       </c>
@@ -5641,167 +5907,167 @@
       <c r="A33" s="41">
         <v>31</v>
       </c>
-      <c r="B33" s="103"/>
+      <c r="B33" s="105"/>
       <c r="C33" s="12" t="s">
         <v>143</v>
       </c>
       <c r="D33" s="4">
         <v>1014</v>
       </c>
-      <c r="E33" s="108"/>
+      <c r="E33" s="110"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <v>32</v>
       </c>
-      <c r="B34" s="103"/>
+      <c r="B34" s="105"/>
       <c r="C34" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D34" s="4">
         <v>1015</v>
       </c>
-      <c r="E34" s="108"/>
+      <c r="E34" s="110"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <v>33</v>
       </c>
-      <c r="B35" s="103"/>
+      <c r="B35" s="105"/>
       <c r="C35" s="12" t="s">
         <v>145</v>
       </c>
       <c r="D35" s="4">
         <v>1017</v>
       </c>
-      <c r="E35" s="108"/>
+      <c r="E35" s="110"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <v>34</v>
       </c>
-      <c r="B36" s="103"/>
+      <c r="B36" s="105"/>
       <c r="C36" s="12" t="s">
         <v>146</v>
       </c>
       <c r="D36" s="4">
         <v>1018</v>
       </c>
-      <c r="E36" s="108"/>
+      <c r="E36" s="110"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <v>35</v>
       </c>
-      <c r="B37" s="103"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="12" t="s">
         <v>147</v>
       </c>
       <c r="D37" s="4">
         <v>1019</v>
       </c>
-      <c r="E37" s="108"/>
+      <c r="E37" s="110"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <v>36</v>
       </c>
-      <c r="B38" s="103"/>
+      <c r="B38" s="105"/>
       <c r="C38" s="12" t="s">
         <v>148</v>
       </c>
       <c r="D38" s="4">
         <v>1020</v>
       </c>
-      <c r="E38" s="108"/>
+      <c r="E38" s="110"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <v>37</v>
       </c>
-      <c r="B39" s="103"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="12" t="s">
         <v>149</v>
       </c>
       <c r="D39" s="4">
         <v>1021</v>
       </c>
-      <c r="E39" s="108"/>
+      <c r="E39" s="110"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <v>38</v>
       </c>
-      <c r="B40" s="103"/>
+      <c r="B40" s="105"/>
       <c r="C40" s="12" t="s">
         <v>150</v>
       </c>
       <c r="D40" s="4">
         <v>1022</v>
       </c>
-      <c r="E40" s="108"/>
+      <c r="E40" s="110"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <v>39</v>
       </c>
-      <c r="B41" s="103"/>
+      <c r="B41" s="105"/>
       <c r="C41" s="12" t="s">
         <v>151</v>
       </c>
       <c r="D41" s="4">
         <v>1023</v>
       </c>
-      <c r="E41" s="108"/>
+      <c r="E41" s="110"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <v>40</v>
       </c>
-      <c r="B42" s="104"/>
+      <c r="B42" s="106"/>
       <c r="C42" s="42" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="4">
         <v>1024</v>
       </c>
-      <c r="E42" s="108"/>
+      <c r="E42" s="110"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="76"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77" t="s">
+      <c r="B43" s="78"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="E43" s="78"/>
+      <c r="E43" s="80"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="59"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="62"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="64"/>
     </row>
     <row r="45" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="63"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5837,15 +6103,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
@@ -5882,7 +6148,7 @@
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="128" t="s">
+      <c r="G3" s="130" t="s">
         <v>240</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -5903,7 +6169,7 @@
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
-      <c r="G4" s="128"/>
+      <c r="G4" s="130"/>
       <c r="H4" s="14" t="s">
         <v>60</v>
       </c>
@@ -5913,7 +6179,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="127" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -5924,7 +6190,7 @@
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
-      <c r="G5" s="128" t="s">
+      <c r="G5" s="130" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5933,7 +6199,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="127"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="43" t="s">
         <v>154</v>
       </c>
@@ -5942,14 +6208,14 @@
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
-      <c r="G6" s="128"/>
+      <c r="G6" s="130"/>
     </row>
     <row r="7" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="127" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -5960,7 +6226,7 @@
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
-      <c r="G7" s="128" t="s">
+      <c r="G7" s="130" t="s">
         <v>155</v>
       </c>
       <c r="H7" s="54" t="s">
@@ -5972,7 +6238,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="126"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="12" t="s">
         <v>162</v>
       </c>
@@ -5981,14 +6247,14 @@
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
-      <c r="G8" s="128"/>
+      <c r="G8" s="130"/>
     </row>
     <row r="9" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="126"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="12" t="s">
         <v>163</v>
       </c>
@@ -5997,14 +6263,14 @@
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
-      <c r="G9" s="128"/>
+      <c r="G9" s="130"/>
     </row>
     <row r="10" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="126"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="45" t="s">
         <v>164</v>
       </c>
@@ -6013,14 +6279,14 @@
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
-      <c r="G10" s="128"/>
+      <c r="G10" s="130"/>
     </row>
     <row r="11" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="126"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="12" t="s">
         <v>165</v>
       </c>
@@ -6029,14 +6295,14 @@
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
-      <c r="G11" s="128"/>
+      <c r="G11" s="130"/>
     </row>
     <row r="12" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="126"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="12" t="s">
         <v>166</v>
       </c>
@@ -6045,14 +6311,14 @@
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="56"/>
-      <c r="G12" s="128"/>
+      <c r="G12" s="130"/>
     </row>
     <row r="13" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="126"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="12" t="s">
         <v>167</v>
       </c>
@@ -6061,14 +6327,14 @@
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
-      <c r="G13" s="128"/>
+      <c r="G13" s="130"/>
     </row>
     <row r="14" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="126"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="12" t="s">
         <v>168</v>
       </c>
@@ -6077,14 +6343,14 @@
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
-      <c r="G14" s="128"/>
+      <c r="G14" s="130"/>
     </row>
     <row r="15" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="126"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="12" t="s">
         <v>169</v>
       </c>
@@ -6093,14 +6359,14 @@
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
-      <c r="G15" s="128"/>
+      <c r="G15" s="130"/>
     </row>
     <row r="16" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="126"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="12" t="s">
         <v>170</v>
       </c>
@@ -6109,14 +6375,14 @@
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
-      <c r="G16" s="128"/>
+      <c r="G16" s="130"/>
     </row>
     <row r="17" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="126"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="12" t="s">
         <v>171</v>
       </c>
@@ -6125,14 +6391,14 @@
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
-      <c r="G17" s="128"/>
+      <c r="G17" s="130"/>
     </row>
     <row r="18" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="126"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="11" t="s">
         <v>172</v>
       </c>
@@ -6141,7 +6407,7 @@
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
-      <c r="G18" s="128"/>
+      <c r="G18" s="130"/>
       <c r="H18" s="54" t="s">
         <v>174</v>
       </c>
@@ -6151,7 +6417,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="127"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="12" t="s">
         <v>173</v>
       </c>
@@ -6160,14 +6426,14 @@
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
-      <c r="G19" s="128"/>
+      <c r="G19" s="130"/>
     </row>
     <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="127" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -6178,7 +6444,7 @@
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="128" t="s">
+      <c r="G20" s="130" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6187,7 +6453,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="126"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="12" t="s">
         <v>177</v>
       </c>
@@ -6196,14 +6462,14 @@
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
-      <c r="G21" s="128"/>
+      <c r="G21" s="130"/>
     </row>
     <row r="22" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="126"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="12" t="s">
         <v>245</v>
       </c>
@@ -6212,7 +6478,7 @@
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="56"/>
-      <c r="G22" s="128"/>
+      <c r="G22" s="130"/>
       <c r="H22" s="54" t="s">
         <v>200</v>
       </c>
@@ -6222,7 +6488,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="126"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="12" t="s">
         <v>178</v>
       </c>
@@ -6231,14 +6497,14 @@
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
-      <c r="G23" s="128"/>
+      <c r="G23" s="130"/>
     </row>
     <row r="24" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="126"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="12" t="s">
         <v>179</v>
       </c>
@@ -6247,14 +6513,14 @@
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
-      <c r="G24" s="128"/>
+      <c r="G24" s="130"/>
     </row>
     <row r="25" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="126"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="12" t="s">
         <v>180</v>
       </c>
@@ -6263,14 +6529,14 @@
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="56"/>
-      <c r="G25" s="128"/>
+      <c r="G25" s="130"/>
     </row>
     <row r="26" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="126"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="12" t="s">
         <v>181</v>
       </c>
@@ -6279,14 +6545,14 @@
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
-      <c r="G26" s="128"/>
+      <c r="G26" s="130"/>
     </row>
     <row r="27" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="126"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="12" t="s">
         <v>182</v>
       </c>
@@ -6295,14 +6561,14 @@
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
-      <c r="G27" s="128"/>
+      <c r="G27" s="130"/>
     </row>
     <row r="28" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="126"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="12" t="s">
         <v>183</v>
       </c>
@@ -6311,14 +6577,14 @@
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
-      <c r="G28" s="128"/>
+      <c r="G28" s="130"/>
     </row>
     <row r="29" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="126"/>
+      <c r="B29" s="128"/>
       <c r="C29" s="12" t="s">
         <v>184</v>
       </c>
@@ -6327,14 +6593,14 @@
       </c>
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
-      <c r="G29" s="128"/>
+      <c r="G29" s="130"/>
     </row>
     <row r="30" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="126"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="12" t="s">
         <v>185</v>
       </c>
@@ -6343,14 +6609,14 @@
       </c>
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
-      <c r="G30" s="128"/>
+      <c r="G30" s="130"/>
     </row>
     <row r="31" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="126"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="12" t="s">
         <v>186</v>
       </c>
@@ -6359,14 +6625,14 @@
       </c>
       <c r="E31" s="56"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="128"/>
+      <c r="G31" s="130"/>
     </row>
     <row r="32" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="126"/>
+      <c r="B32" s="128"/>
       <c r="C32" s="12" t="s">
         <v>187</v>
       </c>
@@ -6375,14 +6641,14 @@
       </c>
       <c r="E32" s="56"/>
       <c r="F32" s="56"/>
-      <c r="G32" s="128"/>
+      <c r="G32" s="130"/>
     </row>
     <row r="33" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="126"/>
+      <c r="B33" s="128"/>
       <c r="C33" s="12" t="s">
         <v>188</v>
       </c>
@@ -6391,14 +6657,14 @@
       </c>
       <c r="E33" s="56"/>
       <c r="F33" s="56"/>
-      <c r="G33" s="128"/>
+      <c r="G33" s="130"/>
     </row>
     <row r="34" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="126"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="12" t="s">
         <v>189</v>
       </c>
@@ -6407,14 +6673,14 @@
       </c>
       <c r="E34" s="56"/>
       <c r="F34" s="56"/>
-      <c r="G34" s="128"/>
+      <c r="G34" s="130"/>
     </row>
     <row r="35" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="126"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="12" t="s">
         <v>190</v>
       </c>
@@ -6423,14 +6689,14 @@
       </c>
       <c r="E35" s="56"/>
       <c r="F35" s="56"/>
-      <c r="G35" s="128"/>
+      <c r="G35" s="130"/>
     </row>
     <row r="36" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="126"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="12" t="s">
         <v>191</v>
       </c>
@@ -6439,14 +6705,14 @@
       </c>
       <c r="E36" s="56"/>
       <c r="F36" s="56"/>
-      <c r="G36" s="128"/>
+      <c r="G36" s="130"/>
     </row>
     <row r="37" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="126"/>
+      <c r="B37" s="128"/>
       <c r="C37" s="12" t="s">
         <v>192</v>
       </c>
@@ -6455,14 +6721,14 @@
       </c>
       <c r="E37" s="56"/>
       <c r="F37" s="56"/>
-      <c r="G37" s="128"/>
+      <c r="G37" s="130"/>
     </row>
     <row r="38" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="126"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="12" t="s">
         <v>193</v>
       </c>
@@ -6471,14 +6737,14 @@
       </c>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
-      <c r="G38" s="128"/>
+      <c r="G38" s="130"/>
     </row>
     <row r="39" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="126"/>
+      <c r="B39" s="128"/>
       <c r="C39" s="12" t="s">
         <v>194</v>
       </c>
@@ -6487,14 +6753,14 @@
       </c>
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
-      <c r="G39" s="128"/>
+      <c r="G39" s="130"/>
     </row>
     <row r="40" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="126"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="12" t="s">
         <v>195</v>
       </c>
@@ -6503,14 +6769,14 @@
       </c>
       <c r="E40" s="56"/>
       <c r="F40" s="56"/>
-      <c r="G40" s="128"/>
+      <c r="G40" s="130"/>
     </row>
     <row r="41" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="126"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="12" t="s">
         <v>196</v>
       </c>
@@ -6519,14 +6785,14 @@
       </c>
       <c r="E41" s="56"/>
       <c r="F41" s="56"/>
-      <c r="G41" s="128"/>
+      <c r="G41" s="130"/>
     </row>
     <row r="42" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="126"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="12" t="s">
         <v>197</v>
       </c>
@@ -6535,14 +6801,14 @@
       </c>
       <c r="E42" s="56"/>
       <c r="F42" s="56"/>
-      <c r="G42" s="128"/>
+      <c r="G42" s="130"/>
     </row>
     <row r="43" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="126"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="12" t="s">
         <v>198</v>
       </c>
@@ -6551,14 +6817,14 @@
       </c>
       <c r="E43" s="56"/>
       <c r="F43" s="56"/>
-      <c r="G43" s="128"/>
+      <c r="G43" s="130"/>
     </row>
     <row r="44" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="127"/>
+      <c r="B44" s="129"/>
       <c r="C44" s="12" t="s">
         <v>199</v>
       </c>
@@ -6567,7 +6833,7 @@
       </c>
       <c r="E44" s="56"/>
       <c r="F44" s="56"/>
-      <c r="G44" s="128"/>
+      <c r="G44" s="130"/>
     </row>
     <row r="45" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
@@ -6588,36 +6854,36 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="110" t="s">
+      <c r="A46" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="111"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112" t="str">
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114" t="str">
         <f>COUNT(D3:D45)&amp;"객실"</f>
         <v>43객실</v>
       </c>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="114"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="116"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="115"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="119"/>
+      <c r="A47" s="117"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="121"/>
     </row>
     <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="120"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="122"/>
-      <c r="D48" s="122"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
-      <c r="G48" s="124"/>
+      <c r="A48" s="122"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6643,8 +6909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1C208C-2BF7-424A-9DD3-974103DD6970}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6656,13 +6922,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
@@ -6691,7 +6957,7 @@
       <c r="D3" s="4">
         <v>1107</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="109" t="s">
         <v>238</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -6710,7 +6976,7 @@
       <c r="D4" s="4">
         <v>1109</v>
       </c>
-      <c r="E4" s="109"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -6720,7 +6986,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="127" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -6729,7 +6995,7 @@
       <c r="D5" s="5">
         <v>1114</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="110" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6738,21 +7004,21 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="127"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="42" t="s">
         <v>154</v>
       </c>
       <c r="D6" s="4">
         <v>1122</v>
       </c>
-      <c r="E6" s="109"/>
+      <c r="E6" s="111"/>
     </row>
     <row r="7" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="127" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -6761,7 +7027,7 @@
       <c r="D7" s="4">
         <v>601</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="109" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6770,224 +7036,224 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="126"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="12" t="s">
         <v>203</v>
       </c>
       <c r="D8" s="4">
         <v>604</v>
       </c>
-      <c r="E8" s="108"/>
+      <c r="E8" s="110"/>
     </row>
     <row r="9" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="126"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="12" t="s">
         <v>201</v>
       </c>
       <c r="D9" s="4">
         <v>605</v>
       </c>
-      <c r="E9" s="108"/>
+      <c r="E9" s="110"/>
     </row>
     <row r="10" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="126"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="12" t="s">
         <v>204</v>
       </c>
       <c r="D10" s="4">
         <v>606</v>
       </c>
-      <c r="E10" s="108"/>
+      <c r="E10" s="110"/>
     </row>
     <row r="11" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="126"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="45" t="s">
         <v>205</v>
       </c>
       <c r="D11" s="5">
         <v>607</v>
       </c>
-      <c r="E11" s="108"/>
+      <c r="E11" s="110"/>
     </row>
     <row r="12" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="126"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="12" t="s">
         <v>206</v>
       </c>
       <c r="D12" s="4">
         <v>609</v>
       </c>
-      <c r="E12" s="108"/>
+      <c r="E12" s="110"/>
     </row>
     <row r="13" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="126"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D13" s="4">
         <v>610</v>
       </c>
-      <c r="E13" s="108"/>
+      <c r="E13" s="110"/>
     </row>
     <row r="14" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="126"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="12" t="s">
         <v>208</v>
       </c>
       <c r="D14" s="4">
         <v>613</v>
       </c>
-      <c r="E14" s="108"/>
+      <c r="E14" s="110"/>
     </row>
     <row r="15" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="126"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="12" t="s">
         <v>209</v>
       </c>
       <c r="D15" s="4">
         <v>614</v>
       </c>
-      <c r="E15" s="108"/>
+      <c r="E15" s="110"/>
     </row>
     <row r="16" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="126"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="12" t="s">
         <v>210</v>
       </c>
       <c r="D16" s="4">
         <v>617</v>
       </c>
-      <c r="E16" s="108"/>
+      <c r="E16" s="110"/>
     </row>
     <row r="17" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="126"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="12" t="s">
         <v>211</v>
       </c>
       <c r="D17" s="4">
         <v>618</v>
       </c>
-      <c r="E17" s="108"/>
+      <c r="E17" s="110"/>
     </row>
     <row r="18" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="126"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D18" s="4">
         <v>619</v>
       </c>
-      <c r="E18" s="108"/>
+      <c r="E18" s="110"/>
     </row>
     <row r="19" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="126"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="12" t="s">
         <v>213</v>
       </c>
       <c r="D19" s="4">
         <v>620</v>
       </c>
-      <c r="E19" s="108"/>
+      <c r="E19" s="110"/>
     </row>
     <row r="20" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="126"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D20" s="4">
         <v>622</v>
       </c>
-      <c r="E20" s="108"/>
+      <c r="E20" s="110"/>
     </row>
     <row r="21" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="126"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="12" t="s">
         <v>215</v>
       </c>
       <c r="D21" s="4">
         <v>623</v>
       </c>
-      <c r="E21" s="108"/>
+      <c r="E21" s="110"/>
     </row>
     <row r="22" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="126"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="12" t="s">
         <v>216</v>
       </c>
       <c r="D22" s="4">
         <v>626</v>
       </c>
-      <c r="E22" s="108"/>
+      <c r="E22" s="110"/>
     </row>
     <row r="23" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="126"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="12" t="s">
         <v>247</v>
       </c>
       <c r="D23" s="4">
         <v>701</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="54"/>
     </row>
     <row r="24" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
@@ -6995,56 +7261,56 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="126"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="12" t="s">
         <v>217</v>
       </c>
       <c r="D24" s="4">
         <v>704</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="110"/>
     </row>
     <row r="25" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="126"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="12" t="s">
         <v>218</v>
       </c>
       <c r="D25" s="4">
         <v>705</v>
       </c>
-      <c r="E25" s="108"/>
+      <c r="E25" s="110"/>
     </row>
     <row r="26" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="126"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="12" t="s">
         <v>219</v>
       </c>
       <c r="D26" s="4">
         <v>706</v>
       </c>
-      <c r="E26" s="108"/>
+      <c r="E26" s="110"/>
     </row>
     <row r="27" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="126"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="11" t="s">
         <v>220</v>
       </c>
       <c r="D27" s="4">
         <v>707</v>
       </c>
-      <c r="E27" s="108"/>
+      <c r="E27" s="110"/>
       <c r="F27" s="54" t="s">
         <v>248</v>
       </c>
@@ -7054,42 +7320,42 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="126"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="12" t="s">
         <v>221</v>
       </c>
       <c r="D28" s="4">
         <v>709</v>
       </c>
-      <c r="E28" s="108"/>
+      <c r="E28" s="110"/>
     </row>
     <row r="29" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="126"/>
+      <c r="B29" s="128"/>
       <c r="C29" s="12" t="s">
         <v>222</v>
       </c>
       <c r="D29" s="4">
         <v>710</v>
       </c>
-      <c r="E29" s="108"/>
+      <c r="E29" s="110"/>
     </row>
     <row r="30" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="126"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="12" t="s">
         <v>223</v>
       </c>
       <c r="D30" s="4">
         <v>713</v>
       </c>
-      <c r="E30" s="108"/>
+      <c r="E30" s="110"/>
     </row>
     <row r="31" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
@@ -7128,7 +7394,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="125" t="s">
+      <c r="B33" s="127" t="s">
         <v>105</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -7137,7 +7403,7 @@
       <c r="D33" s="4">
         <v>1012</v>
       </c>
-      <c r="E33" s="107" t="s">
+      <c r="E33" s="109" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7146,28 +7412,28 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="126"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="12" t="s">
         <v>225</v>
       </c>
       <c r="D34" s="4">
         <v>1013</v>
       </c>
-      <c r="E34" s="108"/>
+      <c r="E34" s="110"/>
     </row>
     <row r="35" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="126"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="12" t="s">
         <v>246</v>
       </c>
       <c r="D35" s="4">
         <v>1014</v>
       </c>
-      <c r="E35" s="108"/>
+      <c r="E35" s="110"/>
       <c r="F35" s="54"/>
     </row>
     <row r="36" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
@@ -7175,165 +7441,165 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="126"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="12" t="s">
         <v>226</v>
       </c>
       <c r="D36" s="4">
         <v>1015</v>
       </c>
-      <c r="E36" s="108"/>
+      <c r="E36" s="110"/>
     </row>
     <row r="37" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="126"/>
+      <c r="B37" s="128"/>
       <c r="C37" s="12" t="s">
         <v>227</v>
       </c>
       <c r="D37" s="4">
         <v>1017</v>
       </c>
-      <c r="E37" s="108"/>
+      <c r="E37" s="110"/>
     </row>
     <row r="38" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="126"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="12" t="s">
         <v>228</v>
       </c>
       <c r="D38" s="4">
         <v>1018</v>
       </c>
-      <c r="E38" s="108"/>
+      <c r="E38" s="110"/>
     </row>
     <row r="39" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="126"/>
+      <c r="B39" s="128"/>
       <c r="C39" s="12" t="s">
         <v>229</v>
       </c>
       <c r="D39" s="4">
         <v>1019</v>
       </c>
-      <c r="E39" s="108"/>
+      <c r="E39" s="110"/>
     </row>
     <row r="40" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="126"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="12" t="s">
         <v>230</v>
       </c>
       <c r="D40" s="4">
         <v>1020</v>
       </c>
-      <c r="E40" s="108"/>
+      <c r="E40" s="110"/>
     </row>
     <row r="41" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="126"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="12" t="s">
         <v>231</v>
       </c>
       <c r="D41" s="4">
         <v>1021</v>
       </c>
-      <c r="E41" s="108"/>
+      <c r="E41" s="110"/>
     </row>
     <row r="42" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="126"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="12" t="s">
         <v>232</v>
       </c>
       <c r="D42" s="4">
         <v>1022</v>
       </c>
-      <c r="E42" s="108"/>
+      <c r="E42" s="110"/>
     </row>
     <row r="43" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="126"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="12" t="s">
         <v>233</v>
       </c>
       <c r="D43" s="4">
         <v>1023</v>
       </c>
-      <c r="E43" s="108"/>
+      <c r="E43" s="110"/>
     </row>
     <row r="44" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="126"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="12" t="s">
         <v>234</v>
       </c>
       <c r="D44" s="4">
         <v>1024</v>
       </c>
-      <c r="E44" s="108"/>
+      <c r="E44" s="110"/>
     </row>
     <row r="45" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="127"/>
+      <c r="B45" s="129"/>
       <c r="C45" s="12" t="s">
         <v>235</v>
       </c>
       <c r="D45" s="4">
         <v>1025</v>
       </c>
-      <c r="E45" s="109"/>
+      <c r="E45" s="111"/>
     </row>
     <row r="46" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="75" t="s">
+      <c r="A46" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="76"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77" t="s">
+      <c r="B46" s="78"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="78"/>
+      <c r="E46" s="80"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="130"/>
-      <c r="B47" s="131"/>
-      <c r="C47" s="131"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="132"/>
+      <c r="A47" s="132"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="134"/>
     </row>
     <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="120"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="122"/>
-      <c r="E48" s="122"/>
+      <c r="A48" s="122"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7357,30 +7623,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3EF40F-950C-43E7-BD6F-B6DD42AFB0E0}">
-  <dimension ref="A1:M48"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="B1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="11.296875" customWidth="1"/>
     <col min="3" max="3" width="32.796875" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="4" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:15" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="70"/>
-    </row>
-    <row r="2" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="72"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
@@ -7391,79 +7662,93 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A3" s="41">
         <f t="shared" ref="A3:A45" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="53"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="4">
         <v>704</v>
       </c>
-      <c r="E3" s="107" t="s">
-        <v>291</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="53"/>
-      <c r="C4" s="134"/>
+      <c r="C4" s="136"/>
       <c r="D4" s="4">
         <v>705</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="53"/>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="135" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="4">
         <v>1102</v>
       </c>
-      <c r="E5" s="108" t="s">
-        <v>292</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="110" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A6" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="134"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="4">
         <v>1103</v>
       </c>
-      <c r="E6" s="109"/>
-    </row>
-    <row r="7" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="111"/>
+    </row>
+    <row r="7" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="127" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -7472,599 +7757,1525 @@
       <c r="D7" s="5">
         <v>1211</v>
       </c>
-      <c r="E7" s="128" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="130" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="126"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="42" t="s">
         <v>128</v>
       </c>
       <c r="D8" s="4">
         <v>1207</v>
       </c>
-      <c r="E8" s="128"/>
-    </row>
-    <row r="9" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="130"/>
+    </row>
+    <row r="9" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="126"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D9" s="4">
         <v>601</v>
       </c>
-      <c r="E9" s="128" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="130" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="126"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D10" s="4">
         <v>606</v>
       </c>
-      <c r="E10" s="128"/>
-    </row>
-    <row r="11" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="130"/>
+    </row>
+    <row r="11" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="126"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D11" s="4">
         <v>607</v>
       </c>
-      <c r="E11" s="128"/>
-    </row>
-    <row r="12" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="130"/>
+    </row>
+    <row r="12" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="126"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D12" s="5">
         <v>609</v>
       </c>
-      <c r="E12" s="128"/>
-    </row>
-    <row r="13" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="130"/>
+    </row>
+    <row r="13" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="126"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D13" s="4">
         <v>610</v>
       </c>
-      <c r="E13" s="128"/>
-    </row>
-    <row r="14" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="130"/>
+    </row>
+    <row r="14" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="126"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D14" s="4">
         <v>613</v>
       </c>
-      <c r="E14" s="128"/>
-    </row>
-    <row r="15" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="130"/>
+    </row>
+    <row r="15" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="126"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D15" s="4">
         <v>614</v>
       </c>
-      <c r="E15" s="128"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="130"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="126"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D16" s="4">
         <v>617</v>
       </c>
-      <c r="E16" s="128"/>
-    </row>
-    <row r="17" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="130"/>
+    </row>
+    <row r="17" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="126"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D17" s="4">
         <v>618</v>
       </c>
-      <c r="E17" s="128"/>
-      <c r="M17" s="43"/>
-    </row>
-    <row r="18" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="130"/>
+      <c r="O17" s="43"/>
+    </row>
+    <row r="18" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="126"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D18" s="4">
         <v>619</v>
       </c>
-      <c r="E18" s="128"/>
-      <c r="F18" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="127"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D19" s="4">
         <v>620</v>
       </c>
-      <c r="E19" s="128"/>
-    </row>
-    <row r="20" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="130"/>
+    </row>
+    <row r="20" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="127" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" s="4">
+        <v>807</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="130" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A21" s="41">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="128"/>
+      <c r="C21" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="D20" s="4">
-        <v>909</v>
-      </c>
-      <c r="E20" s="128" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A21" s="41">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="126"/>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="4">
+        <v>809</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="130"/>
+    </row>
+    <row r="22" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A22" s="41">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="128"/>
+      <c r="C22" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="4">
-        <v>910</v>
-      </c>
-      <c r="E21" s="128"/>
-    </row>
-    <row r="22" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A22" s="41">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="126"/>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="4">
+        <v>810</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="130"/>
+    </row>
+    <row r="23" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A23" s="41">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="128"/>
+      <c r="C23" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="D22" s="4">
-        <v>911</v>
-      </c>
-      <c r="E22" s="128"/>
-    </row>
-    <row r="23" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A23" s="41">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="126"/>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="4">
+        <v>1001</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="130"/>
+    </row>
+    <row r="24" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="41">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="128"/>
+      <c r="C24" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="4">
-        <v>912</v>
-      </c>
-      <c r="E23" s="128"/>
-    </row>
-    <row r="24" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A24" s="41">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="126"/>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="4">
+        <v>1002</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="130"/>
+    </row>
+    <row r="25" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A25" s="41">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="128"/>
+      <c r="C25" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="D24" s="4">
-        <v>913</v>
-      </c>
-      <c r="E24" s="128"/>
-    </row>
-    <row r="25" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A25" s="41">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="126"/>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="4">
+        <v>1004</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="130"/>
+    </row>
+    <row r="26" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A26" s="41">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="128"/>
+      <c r="C26" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1005</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="130"/>
+    </row>
+    <row r="27" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A27" s="41">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="128"/>
+      <c r="C27" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1006</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="143" t="s">
+        <v>343</v>
+      </c>
+      <c r="I27" s="142"/>
+    </row>
+    <row r="28" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A28" s="41">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="128"/>
+      <c r="C28" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="4">
-        <v>914</v>
-      </c>
-      <c r="E25" s="128"/>
-    </row>
-    <row r="26" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A26" s="41">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D26" s="4">
-        <v>915</v>
-      </c>
-      <c r="E26" s="128"/>
-    </row>
-    <row r="27" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A27" s="41">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="126"/>
-      <c r="C27" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="D27" s="4">
-        <v>917</v>
-      </c>
-      <c r="E27" s="128"/>
-    </row>
-    <row r="28" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A28" s="41">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="126"/>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="4">
+        <v>1007</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="130"/>
+    </row>
+    <row r="29" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A29" s="41">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="128"/>
+      <c r="C29" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1008</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="130"/>
+    </row>
+    <row r="30" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A30" s="41">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="128"/>
+      <c r="C30" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D28" s="4">
-        <v>919</v>
-      </c>
-      <c r="E28" s="128"/>
-    </row>
-    <row r="29" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A29" s="41">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="126"/>
-      <c r="C29" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="D29" s="4">
-        <v>920</v>
-      </c>
-      <c r="E29" s="128"/>
-    </row>
-    <row r="30" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A30" s="41">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="126"/>
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="4">
+        <v>1009</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="130"/>
+    </row>
+    <row r="31" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A31" s="41">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="128"/>
+      <c r="C31" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D30" s="4">
-        <v>922</v>
-      </c>
-      <c r="E30" s="128"/>
-    </row>
-    <row r="31" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A31" s="41">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="126"/>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="4">
+        <v>1010</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="130"/>
+    </row>
+    <row r="32" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A32" s="41">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="128"/>
+      <c r="C32" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D31" s="4">
-        <v>923</v>
-      </c>
-      <c r="E31" s="128"/>
-    </row>
-    <row r="32" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A32" s="41">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="4">
+        <v>1011</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="130"/>
+    </row>
+    <row r="33" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A33" s="41">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="128"/>
+      <c r="C33" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="D32" s="4">
-        <v>926</v>
-      </c>
-      <c r="E32" s="128"/>
-    </row>
-    <row r="33" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A33" s="41">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="126"/>
-      <c r="C33" s="12" t="s">
-        <v>275</v>
       </c>
       <c r="D33" s="4">
         <v>1013</v>
       </c>
-      <c r="E33" s="128"/>
-    </row>
-    <row r="34" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="130"/>
+    </row>
+    <row r="34" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="126"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D34" s="4">
         <v>1014</v>
       </c>
-      <c r="E34" s="128"/>
-    </row>
-    <row r="35" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="130"/>
+    </row>
+    <row r="35" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="126"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D35" s="4">
         <v>1015</v>
       </c>
-      <c r="E35" s="128"/>
-    </row>
-    <row r="36" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="130"/>
+    </row>
+    <row r="36" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="126"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D36" s="4">
         <v>1017</v>
       </c>
-      <c r="E36" s="128"/>
-      <c r="F36" s="58" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="58" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="126"/>
+      <c r="B37" s="128"/>
       <c r="C37" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D37" s="4">
         <v>1018</v>
       </c>
-      <c r="E37" s="128"/>
-    </row>
-    <row r="38" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="130"/>
+    </row>
+    <row r="38" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="126"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D38" s="4">
         <v>1019</v>
       </c>
-      <c r="E38" s="128"/>
-    </row>
-    <row r="39" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="130"/>
+    </row>
+    <row r="39" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="126"/>
+      <c r="B39" s="128"/>
       <c r="C39" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D39" s="4">
         <v>1020</v>
       </c>
-      <c r="E39" s="128"/>
-    </row>
-    <row r="40" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="130"/>
+    </row>
+    <row r="40" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="126"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D40" s="4">
         <v>1021</v>
       </c>
-      <c r="E40" s="128"/>
-    </row>
-    <row r="41" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="130"/>
+    </row>
+    <row r="41" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="126"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D41" s="4">
         <v>1022</v>
       </c>
-      <c r="E41" s="128"/>
-    </row>
-    <row r="42" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="130"/>
+    </row>
+    <row r="42" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="126"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D42" s="4">
         <v>1023</v>
       </c>
-      <c r="E42" s="128"/>
-    </row>
-    <row r="43" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="130"/>
+    </row>
+    <row r="43" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="126"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D43" s="4">
         <v>1024</v>
       </c>
-      <c r="E43" s="128"/>
-    </row>
-    <row r="44" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="130"/>
+    </row>
+    <row r="44" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="126"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D44" s="4">
         <v>1025</v>
       </c>
-      <c r="E44" s="128"/>
-    </row>
-    <row r="45" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="130"/>
+    </row>
+    <row r="45" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="127"/>
+      <c r="B45" s="129"/>
       <c r="C45" s="45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D45" s="4">
         <v>1026</v>
       </c>
-      <c r="E45" s="128"/>
-      <c r="F45" s="58"/>
-    </row>
-    <row r="46" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="110" t="s">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="58"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A46" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="111"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112" t="s">
-        <v>254</v>
-      </c>
-      <c r="E46" s="114"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="115"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="119"/>
-    </row>
-    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="120"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="122"/>
-      <c r="D48" s="122"/>
-      <c r="E48" s="124"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="116"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" s="117"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="121"/>
+    </row>
+    <row r="48" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="122"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="126"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A47:E48"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E19"/>
-    <mergeCell ref="E20:E45"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A47:G48"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G19"/>
+    <mergeCell ref="G20:G45"/>
     <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D46:G46"/>
     <mergeCell ref="B7:B19"/>
     <mergeCell ref="B20:B45"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="33" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CFB63B-1BC6-4EC0-B925-FC199E48A998}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="28.8984375" customWidth="1"/>
+    <col min="4" max="6" width="21.3984375" customWidth="1"/>
+    <col min="7" max="7" width="18.8984375" customWidth="1"/>
+    <col min="8" max="8" width="26.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="69" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="72"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A3" s="41">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4">
+        <v>704</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="137" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="4">
+        <v>705</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="138"/>
+    </row>
+    <row r="5" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A5" s="41">
+        <f t="shared" ref="A5:A8" si="0">ROW()-2</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1102</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="109" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A6" s="41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="4">
+        <v>1103</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="111"/>
+    </row>
+    <row r="7" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="41">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="127" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1110</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="109" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A8" s="41">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="128"/>
+      <c r="C8" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1117</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="110"/>
+    </row>
+    <row r="9" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A9" s="41">
+        <f t="shared" ref="A9:A47" si="1">ROW()-2</f>
+        <v>7</v>
+      </c>
+      <c r="B9" s="128"/>
+      <c r="C9" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="5">
+        <v>601</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="109" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A10" s="41">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="128"/>
+      <c r="C10" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" s="4">
+        <v>604</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="110"/>
+    </row>
+    <row r="11" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A11" s="41">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="128"/>
+      <c r="C11" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="4">
+        <v>605</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="110"/>
+    </row>
+    <row r="12" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A12" s="41">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="128"/>
+      <c r="C12" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" s="4">
+        <v>606</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="110"/>
+    </row>
+    <row r="13" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A13" s="41">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="128"/>
+      <c r="C13" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" s="4">
+        <v>607</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="110"/>
+    </row>
+    <row r="14" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A14" s="41">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="128"/>
+      <c r="C14" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="5">
+        <v>609</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="110"/>
+    </row>
+    <row r="15" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A15" s="41">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="128"/>
+      <c r="C15" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="4">
+        <v>610</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="110"/>
+    </row>
+    <row r="16" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A16" s="41">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="128"/>
+      <c r="C16" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" s="4">
+        <v>613</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="110"/>
+    </row>
+    <row r="17" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A17" s="41">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="128"/>
+      <c r="C17" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" s="4">
+        <v>614</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="110"/>
+    </row>
+    <row r="18" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A18" s="41">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="128"/>
+      <c r="C18" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D18" s="4">
+        <v>617</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="110"/>
+    </row>
+    <row r="19" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A19" s="41">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="128"/>
+      <c r="C19" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D19" s="4">
+        <v>618</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="110"/>
+    </row>
+    <row r="20" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A20" s="41">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="128"/>
+      <c r="C20" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" s="4">
+        <v>619</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="110"/>
+    </row>
+    <row r="21" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A21" s="41">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="128"/>
+      <c r="C21" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D21" s="4">
+        <v>620</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="110"/>
+    </row>
+    <row r="22" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A22" s="41">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="4">
+        <v>805</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="139" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A23" s="41">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="128"/>
+      <c r="C23" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D23" s="4">
+        <v>806</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="140"/>
+    </row>
+    <row r="24" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="41">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="128"/>
+      <c r="C24" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" s="4">
+        <v>807</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="140"/>
+    </row>
+    <row r="25" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A25" s="41">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="128"/>
+      <c r="C25" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D25" s="4">
+        <v>809</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="140"/>
+    </row>
+    <row r="26" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A26" s="41">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="128"/>
+      <c r="C26" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26" s="4">
+        <v>810</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="140"/>
+    </row>
+    <row r="27" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A27" s="41">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="128"/>
+      <c r="C27" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D27" s="4">
+        <v>813</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="140"/>
+    </row>
+    <row r="28" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A28" s="41">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="128"/>
+      <c r="C28" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1006</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="140"/>
+    </row>
+    <row r="29" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A29" s="41">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="128"/>
+      <c r="C29" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1007</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="140"/>
+    </row>
+    <row r="30" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A30" s="41">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="128"/>
+      <c r="C30" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1008</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="140"/>
+    </row>
+    <row r="31" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A31" s="41">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="128"/>
+      <c r="C31" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1009</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="140"/>
+    </row>
+    <row r="32" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A32" s="41">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="128"/>
+      <c r="C32" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1010</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="140"/>
+    </row>
+    <row r="33" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A33" s="41">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="128"/>
+      <c r="C33" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1011</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="140"/>
+    </row>
+    <row r="34" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A34" s="41">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="128"/>
+      <c r="C34" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1012</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="140"/>
+    </row>
+    <row r="35" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A35" s="41">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="128"/>
+      <c r="C35" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1013</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="140"/>
+    </row>
+    <row r="36" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A36" s="41">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="128"/>
+      <c r="C36" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1014</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="140"/>
+    </row>
+    <row r="37" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A37" s="41">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="128"/>
+      <c r="C37" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1015</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="140"/>
+    </row>
+    <row r="38" spans="1:8" ht="63" x14ac:dyDescent="0.4">
+      <c r="A38" s="41">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="128"/>
+      <c r="C38" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1017</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="60" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A39" s="41">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="128"/>
+      <c r="C39" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1018</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="140"/>
+    </row>
+    <row r="40" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A40" s="41">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="128"/>
+      <c r="C40" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1019</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="140"/>
+    </row>
+    <row r="41" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A41" s="41">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="128"/>
+      <c r="C41" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1020</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="140"/>
+    </row>
+    <row r="42" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A42" s="41">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="128"/>
+      <c r="C42" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1021</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="140"/>
+    </row>
+    <row r="43" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A43" s="41">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="128"/>
+      <c r="C43" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1022</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="140"/>
+    </row>
+    <row r="44" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A44" s="41">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="128"/>
+      <c r="C44" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1023</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="140"/>
+    </row>
+    <row r="45" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A45" s="41">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="128"/>
+      <c r="C45" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1024</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="140"/>
+    </row>
+    <row r="46" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A46" s="41">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="128"/>
+      <c r="C46" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1025</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="140"/>
+    </row>
+    <row r="47" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A47" s="41">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="129"/>
+      <c r="C47" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1026</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="141"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A48" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="113"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114" t="s">
+        <v>313</v>
+      </c>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="116"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" s="117"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="121"/>
+    </row>
+    <row r="50" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="122"/>
+      <c r="B50" s="123"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="126"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="A49:G50"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B22:B47"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G9:G21"/>
+    <mergeCell ref="G22:G47"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B7:B21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/rooming.xlsx
+++ b/data/rooming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27F99F81-0EAB-40C0-B285-B173E0E680F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F1EB033-4405-4D62-A9B9-5B44CDEC81A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="108" windowWidth="11712" windowHeight="12240" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="720" windowWidth="11712" windowHeight="12240" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1차수" sheetId="6" r:id="rId1"/>
@@ -3526,6 +3526,18 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3571,21 +3583,9 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3595,6 +3595,12 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3614,12 +3620,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6109,8 +6109,8 @@
       <c r="B1" s="70"/>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
       <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="130" t="s">
+      <c r="G3" s="113" t="s">
         <v>240</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
-      <c r="G4" s="130"/>
+      <c r="G4" s="113"/>
       <c r="H4" s="14" t="s">
         <v>60</v>
       </c>
@@ -6179,7 +6179,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="114" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
-      <c r="G5" s="130" t="s">
+      <c r="G5" s="113" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6199,7 +6199,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="129"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="43" t="s">
         <v>154</v>
       </c>
@@ -6208,14 +6208,14 @@
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
-      <c r="G6" s="130"/>
+      <c r="G6" s="113"/>
     </row>
     <row r="7" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="114" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
-      <c r="G7" s="130" t="s">
+      <c r="G7" s="113" t="s">
         <v>155</v>
       </c>
       <c r="H7" s="54" t="s">
@@ -6238,7 +6238,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="128"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="12" t="s">
         <v>162</v>
       </c>
@@ -6247,14 +6247,14 @@
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
-      <c r="G8" s="130"/>
+      <c r="G8" s="113"/>
     </row>
     <row r="9" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="128"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="12" t="s">
         <v>163</v>
       </c>
@@ -6263,14 +6263,14 @@
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
-      <c r="G9" s="130"/>
+      <c r="G9" s="113"/>
     </row>
     <row r="10" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="45" t="s">
         <v>164</v>
       </c>
@@ -6279,14 +6279,14 @@
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
-      <c r="G10" s="130"/>
+      <c r="G10" s="113"/>
     </row>
     <row r="11" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="12" t="s">
         <v>165</v>
       </c>
@@ -6295,14 +6295,14 @@
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
-      <c r="G11" s="130"/>
+      <c r="G11" s="113"/>
     </row>
     <row r="12" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="128"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="12" t="s">
         <v>166</v>
       </c>
@@ -6311,14 +6311,14 @@
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="56"/>
-      <c r="G12" s="130"/>
+      <c r="G12" s="113"/>
     </row>
     <row r="13" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="128"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="12" t="s">
         <v>167</v>
       </c>
@@ -6327,14 +6327,14 @@
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
-      <c r="G13" s="130"/>
+      <c r="G13" s="113"/>
     </row>
     <row r="14" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="128"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="12" t="s">
         <v>168</v>
       </c>
@@ -6343,14 +6343,14 @@
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
-      <c r="G14" s="130"/>
+      <c r="G14" s="113"/>
     </row>
     <row r="15" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="128"/>
+      <c r="B15" s="131"/>
       <c r="C15" s="12" t="s">
         <v>169</v>
       </c>
@@ -6359,14 +6359,14 @@
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
-      <c r="G15" s="130"/>
+      <c r="G15" s="113"/>
     </row>
     <row r="16" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="12" t="s">
         <v>170</v>
       </c>
@@ -6375,14 +6375,14 @@
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
-      <c r="G16" s="130"/>
+      <c r="G16" s="113"/>
     </row>
     <row r="17" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="12" t="s">
         <v>171</v>
       </c>
@@ -6391,14 +6391,14 @@
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
-      <c r="G17" s="130"/>
+      <c r="G17" s="113"/>
     </row>
     <row r="18" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="128"/>
+      <c r="B18" s="131"/>
       <c r="C18" s="11" t="s">
         <v>172</v>
       </c>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
-      <c r="G18" s="130"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="54" t="s">
         <v>174</v>
       </c>
@@ -6417,7 +6417,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="129"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="12" t="s">
         <v>173</v>
       </c>
@@ -6426,14 +6426,14 @@
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
-      <c r="G19" s="130"/>
+      <c r="G19" s="113"/>
     </row>
     <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="114" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="130" t="s">
+      <c r="G20" s="113" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="128"/>
+      <c r="B21" s="131"/>
       <c r="C21" s="12" t="s">
         <v>177</v>
       </c>
@@ -6462,14 +6462,14 @@
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
-      <c r="G21" s="130"/>
+      <c r="G21" s="113"/>
     </row>
     <row r="22" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="128"/>
+      <c r="B22" s="131"/>
       <c r="C22" s="12" t="s">
         <v>245</v>
       </c>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="56"/>
-      <c r="G22" s="130"/>
+      <c r="G22" s="113"/>
       <c r="H22" s="54" t="s">
         <v>200</v>
       </c>
@@ -6488,7 +6488,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="128"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="12" t="s">
         <v>178</v>
       </c>
@@ -6497,14 +6497,14 @@
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
-      <c r="G23" s="130"/>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="128"/>
+      <c r="B24" s="131"/>
       <c r="C24" s="12" t="s">
         <v>179</v>
       </c>
@@ -6513,14 +6513,14 @@
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
-      <c r="G24" s="130"/>
+      <c r="G24" s="113"/>
     </row>
     <row r="25" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="128"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="12" t="s">
         <v>180</v>
       </c>
@@ -6529,14 +6529,14 @@
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="56"/>
-      <c r="G25" s="130"/>
+      <c r="G25" s="113"/>
     </row>
     <row r="26" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="128"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="12" t="s">
         <v>181</v>
       </c>
@@ -6545,14 +6545,14 @@
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
-      <c r="G26" s="130"/>
+      <c r="G26" s="113"/>
     </row>
     <row r="27" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="128"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="12" t="s">
         <v>182</v>
       </c>
@@ -6561,14 +6561,14 @@
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
-      <c r="G27" s="130"/>
+      <c r="G27" s="113"/>
     </row>
     <row r="28" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="128"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="12" t="s">
         <v>183</v>
       </c>
@@ -6577,14 +6577,14 @@
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
-      <c r="G28" s="130"/>
+      <c r="G28" s="113"/>
     </row>
     <row r="29" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="128"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="12" t="s">
         <v>184</v>
       </c>
@@ -6593,14 +6593,14 @@
       </c>
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
-      <c r="G29" s="130"/>
+      <c r="G29" s="113"/>
     </row>
     <row r="30" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="128"/>
+      <c r="B30" s="131"/>
       <c r="C30" s="12" t="s">
         <v>185</v>
       </c>
@@ -6609,14 +6609,14 @@
       </c>
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
-      <c r="G30" s="130"/>
+      <c r="G30" s="113"/>
     </row>
     <row r="31" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="128"/>
+      <c r="B31" s="131"/>
       <c r="C31" s="12" t="s">
         <v>186</v>
       </c>
@@ -6625,14 +6625,14 @@
       </c>
       <c r="E31" s="56"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="130"/>
+      <c r="G31" s="113"/>
     </row>
     <row r="32" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="128"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="12" t="s">
         <v>187</v>
       </c>
@@ -6641,14 +6641,14 @@
       </c>
       <c r="E32" s="56"/>
       <c r="F32" s="56"/>
-      <c r="G32" s="130"/>
+      <c r="G32" s="113"/>
     </row>
     <row r="33" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="128"/>
+      <c r="B33" s="131"/>
       <c r="C33" s="12" t="s">
         <v>188</v>
       </c>
@@ -6657,14 +6657,14 @@
       </c>
       <c r="E33" s="56"/>
       <c r="F33" s="56"/>
-      <c r="G33" s="130"/>
+      <c r="G33" s="113"/>
     </row>
     <row r="34" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="128"/>
+      <c r="B34" s="131"/>
       <c r="C34" s="12" t="s">
         <v>189</v>
       </c>
@@ -6673,14 +6673,14 @@
       </c>
       <c r="E34" s="56"/>
       <c r="F34" s="56"/>
-      <c r="G34" s="130"/>
+      <c r="G34" s="113"/>
     </row>
     <row r="35" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="128"/>
+      <c r="B35" s="131"/>
       <c r="C35" s="12" t="s">
         <v>190</v>
       </c>
@@ -6689,14 +6689,14 @@
       </c>
       <c r="E35" s="56"/>
       <c r="F35" s="56"/>
-      <c r="G35" s="130"/>
+      <c r="G35" s="113"/>
     </row>
     <row r="36" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="128"/>
+      <c r="B36" s="131"/>
       <c r="C36" s="12" t="s">
         <v>191</v>
       </c>
@@ -6705,14 +6705,14 @@
       </c>
       <c r="E36" s="56"/>
       <c r="F36" s="56"/>
-      <c r="G36" s="130"/>
+      <c r="G36" s="113"/>
     </row>
     <row r="37" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="128"/>
+      <c r="B37" s="131"/>
       <c r="C37" s="12" t="s">
         <v>192</v>
       </c>
@@ -6721,14 +6721,14 @@
       </c>
       <c r="E37" s="56"/>
       <c r="F37" s="56"/>
-      <c r="G37" s="130"/>
+      <c r="G37" s="113"/>
     </row>
     <row r="38" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="128"/>
+      <c r="B38" s="131"/>
       <c r="C38" s="12" t="s">
         <v>193</v>
       </c>
@@ -6737,14 +6737,14 @@
       </c>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
-      <c r="G38" s="130"/>
+      <c r="G38" s="113"/>
     </row>
     <row r="39" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="128"/>
+      <c r="B39" s="131"/>
       <c r="C39" s="12" t="s">
         <v>194</v>
       </c>
@@ -6753,14 +6753,14 @@
       </c>
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
-      <c r="G39" s="130"/>
+      <c r="G39" s="113"/>
     </row>
     <row r="40" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="128"/>
+      <c r="B40" s="131"/>
       <c r="C40" s="12" t="s">
         <v>195</v>
       </c>
@@ -6769,14 +6769,14 @@
       </c>
       <c r="E40" s="56"/>
       <c r="F40" s="56"/>
-      <c r="G40" s="130"/>
+      <c r="G40" s="113"/>
     </row>
     <row r="41" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="128"/>
+      <c r="B41" s="131"/>
       <c r="C41" s="12" t="s">
         <v>196</v>
       </c>
@@ -6785,14 +6785,14 @@
       </c>
       <c r="E41" s="56"/>
       <c r="F41" s="56"/>
-      <c r="G41" s="130"/>
+      <c r="G41" s="113"/>
     </row>
     <row r="42" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="128"/>
+      <c r="B42" s="131"/>
       <c r="C42" s="12" t="s">
         <v>197</v>
       </c>
@@ -6801,14 +6801,14 @@
       </c>
       <c r="E42" s="56"/>
       <c r="F42" s="56"/>
-      <c r="G42" s="130"/>
+      <c r="G42" s="113"/>
     </row>
     <row r="43" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="128"/>
+      <c r="B43" s="131"/>
       <c r="C43" s="12" t="s">
         <v>198</v>
       </c>
@@ -6817,14 +6817,14 @@
       </c>
       <c r="E43" s="56"/>
       <c r="F43" s="56"/>
-      <c r="G43" s="130"/>
+      <c r="G43" s="113"/>
     </row>
     <row r="44" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="129"/>
+      <c r="B44" s="115"/>
       <c r="C44" s="12" t="s">
         <v>199</v>
       </c>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="E44" s="56"/>
       <c r="F44" s="56"/>
-      <c r="G44" s="130"/>
+      <c r="G44" s="113"/>
     </row>
     <row r="45" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
@@ -6854,50 +6854,50 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="112" t="s">
+      <c r="A46" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114" t="str">
+      <c r="B46" s="117"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118" t="str">
         <f>COUNT(D3:D45)&amp;"객실"</f>
         <v>43객실</v>
       </c>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="116"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="120"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="117"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="119"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="121"/>
+      <c r="A47" s="121"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="125"/>
     </row>
     <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="122"/>
-      <c r="B48" s="123"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="126"/>
+      <c r="A48" s="126"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="D46:G46"/>
     <mergeCell ref="A47:G48"/>
     <mergeCell ref="B20:B44"/>
     <mergeCell ref="B7:B19"/>
     <mergeCell ref="G20:G44"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6986,7 +6986,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="114" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -7004,7 +7004,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="129"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="42" t="s">
         <v>154</v>
       </c>
@@ -7018,7 +7018,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="114" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -7036,7 +7036,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="128"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="12" t="s">
         <v>203</v>
       </c>
@@ -7050,7 +7050,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="128"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="12" t="s">
         <v>201</v>
       </c>
@@ -7064,7 +7064,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="12" t="s">
         <v>204</v>
       </c>
@@ -7078,7 +7078,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="45" t="s">
         <v>205</v>
       </c>
@@ -7092,7 +7092,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="128"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="12" t="s">
         <v>206</v>
       </c>
@@ -7106,7 +7106,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="128"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="12" t="s">
         <v>207</v>
       </c>
@@ -7120,7 +7120,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="128"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="12" t="s">
         <v>208</v>
       </c>
@@ -7134,7 +7134,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="128"/>
+      <c r="B15" s="131"/>
       <c r="C15" s="12" t="s">
         <v>209</v>
       </c>
@@ -7148,7 +7148,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="12" t="s">
         <v>210</v>
       </c>
@@ -7162,7 +7162,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="12" t="s">
         <v>211</v>
       </c>
@@ -7176,7 +7176,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="128"/>
+      <c r="B18" s="131"/>
       <c r="C18" s="12" t="s">
         <v>212</v>
       </c>
@@ -7190,7 +7190,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="128"/>
+      <c r="B19" s="131"/>
       <c r="C19" s="12" t="s">
         <v>213</v>
       </c>
@@ -7204,7 +7204,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="128"/>
+      <c r="B20" s="131"/>
       <c r="C20" s="12" t="s">
         <v>214</v>
       </c>
@@ -7218,7 +7218,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="128"/>
+      <c r="B21" s="131"/>
       <c r="C21" s="12" t="s">
         <v>215</v>
       </c>
@@ -7232,7 +7232,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="128"/>
+      <c r="B22" s="131"/>
       <c r="C22" s="12" t="s">
         <v>216</v>
       </c>
@@ -7246,7 +7246,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="128"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="12" t="s">
         <v>247</v>
       </c>
@@ -7261,7 +7261,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="128"/>
+      <c r="B24" s="131"/>
       <c r="C24" s="12" t="s">
         <v>217</v>
       </c>
@@ -7275,7 +7275,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="128"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="12" t="s">
         <v>218</v>
       </c>
@@ -7289,7 +7289,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="128"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="12" t="s">
         <v>219</v>
       </c>
@@ -7303,7 +7303,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="128"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="11" t="s">
         <v>220</v>
       </c>
@@ -7320,7 +7320,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="128"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="12" t="s">
         <v>221</v>
       </c>
@@ -7334,7 +7334,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="128"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="12" t="s">
         <v>222</v>
       </c>
@@ -7348,7 +7348,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="128"/>
+      <c r="B30" s="131"/>
       <c r="C30" s="12" t="s">
         <v>223</v>
       </c>
@@ -7394,7 +7394,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="127" t="s">
+      <c r="B33" s="114" t="s">
         <v>105</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -7412,7 +7412,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="128"/>
+      <c r="B34" s="131"/>
       <c r="C34" s="12" t="s">
         <v>225</v>
       </c>
@@ -7426,7 +7426,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="128"/>
+      <c r="B35" s="131"/>
       <c r="C35" s="12" t="s">
         <v>246</v>
       </c>
@@ -7441,7 +7441,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="128"/>
+      <c r="B36" s="131"/>
       <c r="C36" s="12" t="s">
         <v>226</v>
       </c>
@@ -7455,7 +7455,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="128"/>
+      <c r="B37" s="131"/>
       <c r="C37" s="12" t="s">
         <v>227</v>
       </c>
@@ -7469,7 +7469,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="128"/>
+      <c r="B38" s="131"/>
       <c r="C38" s="12" t="s">
         <v>228</v>
       </c>
@@ -7483,7 +7483,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="128"/>
+      <c r="B39" s="131"/>
       <c r="C39" s="12" t="s">
         <v>229</v>
       </c>
@@ -7497,7 +7497,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="128"/>
+      <c r="B40" s="131"/>
       <c r="C40" s="12" t="s">
         <v>230</v>
       </c>
@@ -7511,7 +7511,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="128"/>
+      <c r="B41" s="131"/>
       <c r="C41" s="12" t="s">
         <v>231</v>
       </c>
@@ -7525,7 +7525,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="128"/>
+      <c r="B42" s="131"/>
       <c r="C42" s="12" t="s">
         <v>232</v>
       </c>
@@ -7539,7 +7539,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="128"/>
+      <c r="B43" s="131"/>
       <c r="C43" s="12" t="s">
         <v>233</v>
       </c>
@@ -7553,7 +7553,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="128"/>
+      <c r="B44" s="131"/>
       <c r="C44" s="12" t="s">
         <v>234</v>
       </c>
@@ -7567,7 +7567,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="129"/>
+      <c r="B45" s="115"/>
       <c r="C45" s="12" t="s">
         <v>235</v>
       </c>
@@ -7595,11 +7595,11 @@
       <c r="E47" s="134"/>
     </row>
     <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="122"/>
-      <c r="B48" s="123"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
+      <c r="A48" s="126"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7628,8 +7628,8 @@
   </sheetPr>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7647,8 +7647,8 @@
       <c r="B1" s="70"/>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
       <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.4">
@@ -7678,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="53"/>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="137" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="4">
@@ -7699,7 +7699,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="53"/>
-      <c r="C4" s="136"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="4">
         <v>705</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="53"/>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="137" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="4">
@@ -7735,7 +7735,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="136"/>
+      <c r="C6" s="138"/>
       <c r="D6" s="4">
         <v>1103</v>
       </c>
@@ -7748,7 +7748,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="114" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -7759,7 +7759,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="130" t="s">
+      <c r="G7" s="113" t="s">
         <v>241</v>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="128"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="42" t="s">
         <v>128</v>
       </c>
@@ -7777,14 +7777,14 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="130"/>
+      <c r="G8" s="113"/>
     </row>
     <row r="9" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="128"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="12" t="s">
         <v>254</v>
       </c>
@@ -7793,7 +7793,7 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="130" t="s">
+      <c r="G9" s="113" t="s">
         <v>252</v>
       </c>
     </row>
@@ -7802,7 +7802,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="12" t="s">
         <v>255</v>
       </c>
@@ -7811,30 +7811,30 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="130"/>
+      <c r="G10" s="113"/>
     </row>
     <row r="11" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="45" t="s">
         <v>262</v>
       </c>
       <c r="D11" s="4">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="130"/>
+      <c r="G11" s="113"/>
     </row>
     <row r="12" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="128"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="12" t="s">
         <v>256</v>
       </c>
@@ -7843,14 +7843,14 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="130"/>
+      <c r="G12" s="113"/>
     </row>
     <row r="13" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="128"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="12" t="s">
         <v>257</v>
       </c>
@@ -7859,14 +7859,14 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="130"/>
+      <c r="G13" s="113"/>
     </row>
     <row r="14" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="128"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="12" t="s">
         <v>258</v>
       </c>
@@ -7875,14 +7875,14 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="130"/>
+      <c r="G14" s="113"/>
     </row>
     <row r="15" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="128"/>
+      <c r="B15" s="131"/>
       <c r="C15" s="12" t="s">
         <v>286</v>
       </c>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="130"/>
+      <c r="G15" s="113"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
@@ -7899,7 +7899,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="12" t="s">
         <v>260</v>
       </c>
@@ -7908,14 +7908,14 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="130"/>
+      <c r="G16" s="113"/>
     </row>
     <row r="17" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="12" t="s">
         <v>259</v>
       </c>
@@ -7924,7 +7924,7 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="130"/>
+      <c r="G17" s="113"/>
       <c r="O17" s="43"/>
     </row>
     <row r="18" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
@@ -7932,7 +7932,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="128"/>
+      <c r="B18" s="131"/>
       <c r="C18" s="11" t="s">
         <v>287</v>
       </c>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="130"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="3" t="s">
         <v>263</v>
       </c>
@@ -7951,7 +7951,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="129"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="12" t="s">
         <v>261</v>
       </c>
@@ -7960,14 +7960,14 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="130"/>
+      <c r="G19" s="113"/>
     </row>
     <row r="20" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="114" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -7978,7 +7978,7 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="130" t="s">
+      <c r="G20" s="113" t="s">
         <v>253</v>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="128"/>
+      <c r="B21" s="131"/>
       <c r="C21" s="12" t="s">
         <v>265</v>
       </c>
@@ -7996,14 +7996,14 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="130"/>
+      <c r="G21" s="113"/>
     </row>
     <row r="22" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="128"/>
+      <c r="B22" s="131"/>
       <c r="C22" s="12" t="s">
         <v>266</v>
       </c>
@@ -8012,14 +8012,14 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="130"/>
+      <c r="G22" s="113"/>
     </row>
     <row r="23" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="128"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="12" t="s">
         <v>267</v>
       </c>
@@ -8028,14 +8028,14 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="130"/>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="128"/>
+      <c r="B24" s="131"/>
       <c r="C24" s="12" t="s">
         <v>268</v>
       </c>
@@ -8044,14 +8044,14 @@
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="130"/>
+      <c r="G24" s="113"/>
     </row>
     <row r="25" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="128"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="12" t="s">
         <v>269</v>
       </c>
@@ -8060,14 +8060,14 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="130"/>
+      <c r="G25" s="113"/>
     </row>
     <row r="26" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="128"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="12" t="s">
         <v>279</v>
       </c>
@@ -8076,14 +8076,14 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="130"/>
+      <c r="G26" s="113"/>
     </row>
     <row r="27" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="128"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="12" t="s">
         <v>342</v>
       </c>
@@ -8092,18 +8092,18 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="143" t="s">
+      <c r="G27" s="113"/>
+      <c r="H27" s="135" t="s">
         <v>343</v>
       </c>
-      <c r="I27" s="142"/>
+      <c r="I27" s="136"/>
     </row>
     <row r="28" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="128"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="12" t="s">
         <v>270</v>
       </c>
@@ -8112,14 +8112,14 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="130"/>
+      <c r="G28" s="113"/>
     </row>
     <row r="29" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="128"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="12" t="s">
         <v>289</v>
       </c>
@@ -8128,14 +8128,14 @@
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="130"/>
+      <c r="G29" s="113"/>
     </row>
     <row r="30" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="128"/>
+      <c r="B30" s="131"/>
       <c r="C30" s="12" t="s">
         <v>271</v>
       </c>
@@ -8144,14 +8144,14 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="130"/>
+      <c r="G30" s="113"/>
     </row>
     <row r="31" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="128"/>
+      <c r="B31" s="131"/>
       <c r="C31" s="12" t="s">
         <v>272</v>
       </c>
@@ -8160,14 +8160,14 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="130"/>
+      <c r="G31" s="113"/>
     </row>
     <row r="32" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="128"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="12" t="s">
         <v>273</v>
       </c>
@@ -8176,14 +8176,14 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="130"/>
+      <c r="G32" s="113"/>
     </row>
     <row r="33" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="128"/>
+      <c r="B33" s="131"/>
       <c r="C33" s="12" t="s">
         <v>274</v>
       </c>
@@ -8192,14 +8192,14 @@
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="130"/>
+      <c r="G33" s="113"/>
     </row>
     <row r="34" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="128"/>
+      <c r="B34" s="131"/>
       <c r="C34" s="12" t="s">
         <v>275</v>
       </c>
@@ -8208,14 +8208,14 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="130"/>
+      <c r="G34" s="113"/>
     </row>
     <row r="35" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="128"/>
+      <c r="B35" s="131"/>
       <c r="C35" s="12" t="s">
         <v>277</v>
       </c>
@@ -8224,14 +8224,14 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="130"/>
+      <c r="G35" s="113"/>
     </row>
     <row r="36" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="128"/>
+      <c r="B36" s="131"/>
       <c r="C36" s="11" t="s">
         <v>293</v>
       </c>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="130"/>
+      <c r="G36" s="113"/>
       <c r="H36" s="58" t="s">
         <v>285</v>
       </c>
@@ -8250,7 +8250,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="128"/>
+      <c r="B37" s="131"/>
       <c r="C37" s="12" t="s">
         <v>276</v>
       </c>
@@ -8259,14 +8259,14 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="130"/>
+      <c r="G37" s="113"/>
     </row>
     <row r="38" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="128"/>
+      <c r="B38" s="131"/>
       <c r="C38" s="12" t="s">
         <v>278</v>
       </c>
@@ -8275,14 +8275,14 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="130"/>
+      <c r="G38" s="113"/>
     </row>
     <row r="39" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="128"/>
+      <c r="B39" s="131"/>
       <c r="C39" s="12" t="s">
         <v>280</v>
       </c>
@@ -8291,14 +8291,14 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="130"/>
+      <c r="G39" s="113"/>
     </row>
     <row r="40" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="128"/>
+      <c r="B40" s="131"/>
       <c r="C40" s="12" t="s">
         <v>288</v>
       </c>
@@ -8307,14 +8307,14 @@
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="130"/>
+      <c r="G40" s="113"/>
     </row>
     <row r="41" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="128"/>
+      <c r="B41" s="131"/>
       <c r="C41" s="12" t="s">
         <v>281</v>
       </c>
@@ -8323,14 +8323,14 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="130"/>
+      <c r="G41" s="113"/>
     </row>
     <row r="42" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="128"/>
+      <c r="B42" s="131"/>
       <c r="C42" s="12" t="s">
         <v>282</v>
       </c>
@@ -8339,14 +8339,14 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="130"/>
+      <c r="G42" s="113"/>
     </row>
     <row r="43" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="128"/>
+      <c r="B43" s="131"/>
       <c r="C43" s="12" t="s">
         <v>283</v>
       </c>
@@ -8355,14 +8355,14 @@
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="130"/>
+      <c r="G43" s="113"/>
     </row>
     <row r="44" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="128"/>
+      <c r="B44" s="131"/>
       <c r="C44" s="12" t="s">
         <v>284</v>
       </c>
@@ -8371,14 +8371,14 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="130"/>
+      <c r="G44" s="113"/>
     </row>
     <row r="45" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="129"/>
+      <c r="B45" s="115"/>
       <c r="C45" s="45" t="s">
         <v>292</v>
       </c>
@@ -8387,39 +8387,39 @@
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="130"/>
+      <c r="G45" s="113"/>
       <c r="H45" s="58"/>
     </row>
     <row r="46" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="112" t="s">
+      <c r="A46" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114" t="s">
+      <c r="B46" s="117"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="116"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="120"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="117"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="119"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="121"/>
+      <c r="A47" s="121"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="125"/>
     </row>
     <row r="48" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="122"/>
-      <c r="B48" s="123"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="126"/>
+      <c r="A48" s="126"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -8451,7 +8451,7 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -8470,8 +8470,8 @@
       <c r="B1" s="70"/>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
       <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
@@ -8501,7 +8501,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="52"/>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="137" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="4">
@@ -8509,7 +8509,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="137" t="s">
+      <c r="G3" s="139" t="s">
         <v>298</v>
       </c>
     </row>
@@ -8518,13 +8518,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="53"/>
-      <c r="C4" s="136"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="4">
         <v>705</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="138"/>
+      <c r="G4" s="140"/>
     </row>
     <row r="5" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
@@ -8532,7 +8532,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="52"/>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="137" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="4">
@@ -8550,7 +8550,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="136"/>
+      <c r="C6" s="138"/>
       <c r="D6" s="4">
         <v>1103</v>
       </c>
@@ -8563,7 +8563,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="114" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="42" t="s">
@@ -8583,7 +8583,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="128"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="42" t="s">
         <v>154</v>
       </c>
@@ -8599,7 +8599,7 @@
         <f t="shared" ref="A9:A47" si="1">ROW()-2</f>
         <v>7</v>
       </c>
-      <c r="B9" s="128"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="45" t="s">
         <v>299</v>
       </c>
@@ -8617,7 +8617,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="12" t="s">
         <v>300</v>
       </c>
@@ -8633,7 +8633,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="12" t="s">
         <v>301</v>
       </c>
@@ -8649,7 +8649,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="128"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="12" t="s">
         <v>302</v>
       </c>
@@ -8665,7 +8665,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="128"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="12" t="s">
         <v>303</v>
       </c>
@@ -8681,7 +8681,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="128"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="45" t="s">
         <v>304</v>
       </c>
@@ -8697,7 +8697,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="128"/>
+      <c r="B15" s="131"/>
       <c r="C15" s="12" t="s">
         <v>305</v>
       </c>
@@ -8713,7 +8713,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="12" t="s">
         <v>306</v>
       </c>
@@ -8729,7 +8729,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="12" t="s">
         <v>307</v>
       </c>
@@ -8745,7 +8745,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="128"/>
+      <c r="B18" s="131"/>
       <c r="C18" s="12" t="s">
         <v>308</v>
       </c>
@@ -8761,7 +8761,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="128"/>
+      <c r="B19" s="131"/>
       <c r="C19" s="12" t="s">
         <v>309</v>
       </c>
@@ -8777,7 +8777,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="128"/>
+      <c r="B20" s="131"/>
       <c r="C20" s="12" t="s">
         <v>310</v>
       </c>
@@ -8793,7 +8793,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="128"/>
+      <c r="B21" s="131"/>
       <c r="C21" s="12" t="s">
         <v>311</v>
       </c>
@@ -8809,7 +8809,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="114" t="s">
         <v>106</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="139" t="s">
+      <c r="G22" s="141" t="s">
         <v>295</v>
       </c>
     </row>
@@ -8829,7 +8829,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="128"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="12" t="s">
         <v>315</v>
       </c>
@@ -8838,14 +8838,14 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="140"/>
+      <c r="G23" s="142"/>
     </row>
     <row r="24" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="128"/>
+      <c r="B24" s="131"/>
       <c r="C24" s="12" t="s">
         <v>316</v>
       </c>
@@ -8854,14 +8854,14 @@
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="140"/>
+      <c r="G24" s="142"/>
     </row>
     <row r="25" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="128"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="12" t="s">
         <v>317</v>
       </c>
@@ -8870,14 +8870,14 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="140"/>
+      <c r="G25" s="142"/>
     </row>
     <row r="26" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="128"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="12" t="s">
         <v>318</v>
       </c>
@@ -8886,14 +8886,14 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="140"/>
+      <c r="G26" s="142"/>
     </row>
     <row r="27" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="128"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="12" t="s">
         <v>319</v>
       </c>
@@ -8902,14 +8902,14 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="140"/>
+      <c r="G27" s="142"/>
     </row>
     <row r="28" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="128"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="12" t="s">
         <v>320</v>
       </c>
@@ -8918,14 +8918,14 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="140"/>
+      <c r="G28" s="142"/>
     </row>
     <row r="29" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="128"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="12" t="s">
         <v>321</v>
       </c>
@@ -8934,14 +8934,14 @@
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="140"/>
+      <c r="G29" s="142"/>
     </row>
     <row r="30" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="128"/>
+      <c r="B30" s="131"/>
       <c r="C30" s="12" t="s">
         <v>322</v>
       </c>
@@ -8950,14 +8950,14 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="140"/>
+      <c r="G30" s="142"/>
     </row>
     <row r="31" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="128"/>
+      <c r="B31" s="131"/>
       <c r="C31" s="12" t="s">
         <v>323</v>
       </c>
@@ -8966,14 +8966,14 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="140"/>
+      <c r="G31" s="142"/>
     </row>
     <row r="32" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="128"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="12" t="s">
         <v>324</v>
       </c>
@@ -8982,14 +8982,14 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="140"/>
+      <c r="G32" s="142"/>
     </row>
     <row r="33" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="128"/>
+      <c r="B33" s="131"/>
       <c r="C33" s="12" t="s">
         <v>325</v>
       </c>
@@ -8998,14 +8998,14 @@
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="140"/>
+      <c r="G33" s="142"/>
     </row>
     <row r="34" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="128"/>
+      <c r="B34" s="131"/>
       <c r="C34" s="12" t="s">
         <v>326</v>
       </c>
@@ -9014,14 +9014,14 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="140"/>
+      <c r="G34" s="142"/>
     </row>
     <row r="35" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="128"/>
+      <c r="B35" s="131"/>
       <c r="C35" s="12" t="s">
         <v>327</v>
       </c>
@@ -9030,14 +9030,14 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="140"/>
+      <c r="G35" s="142"/>
     </row>
     <row r="36" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="128"/>
+      <c r="B36" s="131"/>
       <c r="C36" s="12" t="s">
         <v>328</v>
       </c>
@@ -9046,14 +9046,14 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="140"/>
+      <c r="G36" s="142"/>
     </row>
     <row r="37" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="128"/>
+      <c r="B37" s="131"/>
       <c r="C37" s="12" t="s">
         <v>329</v>
       </c>
@@ -9062,14 +9062,14 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="140"/>
+      <c r="G37" s="142"/>
     </row>
     <row r="38" spans="1:8" ht="63" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="128"/>
+      <c r="B38" s="131"/>
       <c r="C38" s="59" t="s">
         <v>340</v>
       </c>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="140"/>
+      <c r="G38" s="142"/>
       <c r="H38" s="60" t="s">
         <v>330</v>
       </c>
@@ -9088,7 +9088,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="128"/>
+      <c r="B39" s="131"/>
       <c r="C39" s="12" t="s">
         <v>331</v>
       </c>
@@ -9097,14 +9097,14 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="140"/>
+      <c r="G39" s="142"/>
     </row>
     <row r="40" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="128"/>
+      <c r="B40" s="131"/>
       <c r="C40" s="12" t="s">
         <v>332</v>
       </c>
@@ -9113,14 +9113,14 @@
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="140"/>
+      <c r="G40" s="142"/>
     </row>
     <row r="41" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="128"/>
+      <c r="B41" s="131"/>
       <c r="C41" s="12" t="s">
         <v>339</v>
       </c>
@@ -9129,14 +9129,14 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="140"/>
+      <c r="G41" s="142"/>
     </row>
     <row r="42" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="128"/>
+      <c r="B42" s="131"/>
       <c r="C42" s="12" t="s">
         <v>333</v>
       </c>
@@ -9145,14 +9145,14 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="140"/>
+      <c r="G42" s="142"/>
     </row>
     <row r="43" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="128"/>
+      <c r="B43" s="131"/>
       <c r="C43" s="12" t="s">
         <v>334</v>
       </c>
@@ -9161,14 +9161,14 @@
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="140"/>
+      <c r="G43" s="142"/>
     </row>
     <row r="44" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="128"/>
+      <c r="B44" s="131"/>
       <c r="C44" s="12" t="s">
         <v>335</v>
       </c>
@@ -9177,14 +9177,14 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="140"/>
+      <c r="G44" s="142"/>
     </row>
     <row r="45" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="128"/>
+      <c r="B45" s="131"/>
       <c r="C45" s="12" t="s">
         <v>336</v>
       </c>
@@ -9193,14 +9193,14 @@
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="140"/>
+      <c r="G45" s="142"/>
     </row>
     <row r="46" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A46" s="41">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="128"/>
+      <c r="B46" s="131"/>
       <c r="C46" s="12" t="s">
         <v>337</v>
       </c>
@@ -9209,14 +9209,14 @@
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="140"/>
+      <c r="G46" s="142"/>
     </row>
     <row r="47" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A47" s="41">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="129"/>
+      <c r="B47" s="115"/>
       <c r="C47" s="12" t="s">
         <v>338</v>
       </c>
@@ -9225,47 +9225,41 @@
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="141"/>
+      <c r="G47" s="143"/>
     </row>
     <row r="48" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="113"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114" t="s">
+      <c r="B48" s="117"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118" t="s">
         <v>313</v>
       </c>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="116"/>
+      <c r="E48" s="119"/>
+      <c r="F48" s="119"/>
+      <c r="G48" s="120"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="117"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="119"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="121"/>
+      <c r="A49" s="121"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="125"/>
     </row>
     <row r="50" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="122"/>
-      <c r="B50" s="123"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="126"/>
+      <c r="A50" s="126"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
+      <c r="G50" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="A49:G50"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B22:B47"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="G3:G4"/>
@@ -9273,6 +9267,12 @@
     <mergeCell ref="G22:G47"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="B7:B21"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="A49:G50"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B22:B47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/rooming.xlsx
+++ b/data/rooming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F1EB033-4405-4D62-A9B9-5B44CDEC81A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6D94934-C6A0-4278-B7D1-2E635914B1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="720" windowWidth="11712" windowHeight="12240" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1차수" sheetId="6" r:id="rId1"/>
@@ -1764,9 +1764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정한길, 김진영</t>
-  </si>
-  <si>
     <t>양영수, 김진수</t>
   </si>
   <si>
@@ -1905,6 +1902,10 @@
   </si>
   <si>
     <t>박희정 불참으로 독방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김진영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3526,64 +3527,64 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6109,8 +6110,8 @@
       <c r="B1" s="70"/>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
       <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
@@ -6148,7 +6149,7 @@
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="113" t="s">
+      <c r="G3" s="130" t="s">
         <v>240</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -6169,7 +6170,7 @@
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
-      <c r="G4" s="113"/>
+      <c r="G4" s="130"/>
       <c r="H4" s="14" t="s">
         <v>60</v>
       </c>
@@ -6179,7 +6180,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="127" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -6190,7 +6191,7 @@
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="130" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6199,7 +6200,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="115"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="43" t="s">
         <v>154</v>
       </c>
@@ -6208,14 +6209,14 @@
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
-      <c r="G6" s="113"/>
+      <c r="G6" s="130"/>
     </row>
     <row r="7" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="127" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -6226,7 +6227,7 @@
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="130" t="s">
         <v>155</v>
       </c>
       <c r="H7" s="54" t="s">
@@ -6238,7 +6239,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="131"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="12" t="s">
         <v>162</v>
       </c>
@@ -6247,14 +6248,14 @@
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
-      <c r="G8" s="113"/>
+      <c r="G8" s="130"/>
     </row>
     <row r="9" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="131"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="12" t="s">
         <v>163</v>
       </c>
@@ -6263,14 +6264,14 @@
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
-      <c r="G9" s="113"/>
+      <c r="G9" s="130"/>
     </row>
     <row r="10" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="131"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="45" t="s">
         <v>164</v>
       </c>
@@ -6279,14 +6280,14 @@
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
-      <c r="G10" s="113"/>
+      <c r="G10" s="130"/>
     </row>
     <row r="11" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="131"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="12" t="s">
         <v>165</v>
       </c>
@@ -6295,14 +6296,14 @@
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
-      <c r="G11" s="113"/>
+      <c r="G11" s="130"/>
     </row>
     <row r="12" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="131"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="12" t="s">
         <v>166</v>
       </c>
@@ -6311,14 +6312,14 @@
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="56"/>
-      <c r="G12" s="113"/>
+      <c r="G12" s="130"/>
     </row>
     <row r="13" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="131"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="12" t="s">
         <v>167</v>
       </c>
@@ -6327,14 +6328,14 @@
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
-      <c r="G13" s="113"/>
+      <c r="G13" s="130"/>
     </row>
     <row r="14" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="131"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="12" t="s">
         <v>168</v>
       </c>
@@ -6343,14 +6344,14 @@
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
-      <c r="G14" s="113"/>
+      <c r="G14" s="130"/>
     </row>
     <row r="15" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="131"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="12" t="s">
         <v>169</v>
       </c>
@@ -6359,14 +6360,14 @@
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
-      <c r="G15" s="113"/>
+      <c r="G15" s="130"/>
     </row>
     <row r="16" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="131"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="12" t="s">
         <v>170</v>
       </c>
@@ -6375,14 +6376,14 @@
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
-      <c r="G16" s="113"/>
+      <c r="G16" s="130"/>
     </row>
     <row r="17" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="131"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="12" t="s">
         <v>171</v>
       </c>
@@ -6391,14 +6392,14 @@
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
-      <c r="G17" s="113"/>
+      <c r="G17" s="130"/>
     </row>
     <row r="18" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="131"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="11" t="s">
         <v>172</v>
       </c>
@@ -6407,7 +6408,7 @@
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
-      <c r="G18" s="113"/>
+      <c r="G18" s="130"/>
       <c r="H18" s="54" t="s">
         <v>174</v>
       </c>
@@ -6417,7 +6418,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="115"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="12" t="s">
         <v>173</v>
       </c>
@@ -6426,14 +6427,14 @@
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
-      <c r="G19" s="113"/>
+      <c r="G19" s="130"/>
     </row>
     <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="127" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -6444,7 +6445,7 @@
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="113" t="s">
+      <c r="G20" s="130" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6453,7 +6454,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="131"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="12" t="s">
         <v>177</v>
       </c>
@@ -6462,14 +6463,14 @@
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
-      <c r="G21" s="113"/>
+      <c r="G21" s="130"/>
     </row>
     <row r="22" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="131"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="12" t="s">
         <v>245</v>
       </c>
@@ -6478,7 +6479,7 @@
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="56"/>
-      <c r="G22" s="113"/>
+      <c r="G22" s="130"/>
       <c r="H22" s="54" t="s">
         <v>200</v>
       </c>
@@ -6488,7 +6489,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="131"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="12" t="s">
         <v>178</v>
       </c>
@@ -6497,14 +6498,14 @@
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
-      <c r="G23" s="113"/>
+      <c r="G23" s="130"/>
     </row>
     <row r="24" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="131"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="12" t="s">
         <v>179</v>
       </c>
@@ -6513,14 +6514,14 @@
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
-      <c r="G24" s="113"/>
+      <c r="G24" s="130"/>
     </row>
     <row r="25" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="131"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="12" t="s">
         <v>180</v>
       </c>
@@ -6529,14 +6530,14 @@
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="56"/>
-      <c r="G25" s="113"/>
+      <c r="G25" s="130"/>
     </row>
     <row r="26" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="131"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="12" t="s">
         <v>181</v>
       </c>
@@ -6545,14 +6546,14 @@
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
-      <c r="G26" s="113"/>
+      <c r="G26" s="130"/>
     </row>
     <row r="27" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="131"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="12" t="s">
         <v>182</v>
       </c>
@@ -6561,14 +6562,14 @@
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
-      <c r="G27" s="113"/>
+      <c r="G27" s="130"/>
     </row>
     <row r="28" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="131"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="12" t="s">
         <v>183</v>
       </c>
@@ -6577,14 +6578,14 @@
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
-      <c r="G28" s="113"/>
+      <c r="G28" s="130"/>
     </row>
     <row r="29" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="131"/>
+      <c r="B29" s="128"/>
       <c r="C29" s="12" t="s">
         <v>184</v>
       </c>
@@ -6593,14 +6594,14 @@
       </c>
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
-      <c r="G29" s="113"/>
+      <c r="G29" s="130"/>
     </row>
     <row r="30" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="131"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="12" t="s">
         <v>185</v>
       </c>
@@ -6609,14 +6610,14 @@
       </c>
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
-      <c r="G30" s="113"/>
+      <c r="G30" s="130"/>
     </row>
     <row r="31" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="131"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="12" t="s">
         <v>186</v>
       </c>
@@ -6625,14 +6626,14 @@
       </c>
       <c r="E31" s="56"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="113"/>
+      <c r="G31" s="130"/>
     </row>
     <row r="32" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="131"/>
+      <c r="B32" s="128"/>
       <c r="C32" s="12" t="s">
         <v>187</v>
       </c>
@@ -6641,14 +6642,14 @@
       </c>
       <c r="E32" s="56"/>
       <c r="F32" s="56"/>
-      <c r="G32" s="113"/>
+      <c r="G32" s="130"/>
     </row>
     <row r="33" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="131"/>
+      <c r="B33" s="128"/>
       <c r="C33" s="12" t="s">
         <v>188</v>
       </c>
@@ -6657,14 +6658,14 @@
       </c>
       <c r="E33" s="56"/>
       <c r="F33" s="56"/>
-      <c r="G33" s="113"/>
+      <c r="G33" s="130"/>
     </row>
     <row r="34" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="131"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="12" t="s">
         <v>189</v>
       </c>
@@ -6673,14 +6674,14 @@
       </c>
       <c r="E34" s="56"/>
       <c r="F34" s="56"/>
-      <c r="G34" s="113"/>
+      <c r="G34" s="130"/>
     </row>
     <row r="35" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="131"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="12" t="s">
         <v>190</v>
       </c>
@@ -6689,14 +6690,14 @@
       </c>
       <c r="E35" s="56"/>
       <c r="F35" s="56"/>
-      <c r="G35" s="113"/>
+      <c r="G35" s="130"/>
     </row>
     <row r="36" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="131"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="12" t="s">
         <v>191</v>
       </c>
@@ -6705,14 +6706,14 @@
       </c>
       <c r="E36" s="56"/>
       <c r="F36" s="56"/>
-      <c r="G36" s="113"/>
+      <c r="G36" s="130"/>
     </row>
     <row r="37" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="131"/>
+      <c r="B37" s="128"/>
       <c r="C37" s="12" t="s">
         <v>192</v>
       </c>
@@ -6721,14 +6722,14 @@
       </c>
       <c r="E37" s="56"/>
       <c r="F37" s="56"/>
-      <c r="G37" s="113"/>
+      <c r="G37" s="130"/>
     </row>
     <row r="38" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="131"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="12" t="s">
         <v>193</v>
       </c>
@@ -6737,14 +6738,14 @@
       </c>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
-      <c r="G38" s="113"/>
+      <c r="G38" s="130"/>
     </row>
     <row r="39" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="131"/>
+      <c r="B39" s="128"/>
       <c r="C39" s="12" t="s">
         <v>194</v>
       </c>
@@ -6753,14 +6754,14 @@
       </c>
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
-      <c r="G39" s="113"/>
+      <c r="G39" s="130"/>
     </row>
     <row r="40" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="131"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="12" t="s">
         <v>195</v>
       </c>
@@ -6769,14 +6770,14 @@
       </c>
       <c r="E40" s="56"/>
       <c r="F40" s="56"/>
-      <c r="G40" s="113"/>
+      <c r="G40" s="130"/>
     </row>
     <row r="41" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="131"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="12" t="s">
         <v>196</v>
       </c>
@@ -6785,14 +6786,14 @@
       </c>
       <c r="E41" s="56"/>
       <c r="F41" s="56"/>
-      <c r="G41" s="113"/>
+      <c r="G41" s="130"/>
     </row>
     <row r="42" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="131"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="12" t="s">
         <v>197</v>
       </c>
@@ -6801,14 +6802,14 @@
       </c>
       <c r="E42" s="56"/>
       <c r="F42" s="56"/>
-      <c r="G42" s="113"/>
+      <c r="G42" s="130"/>
     </row>
     <row r="43" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="131"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="12" t="s">
         <v>198</v>
       </c>
@@ -6817,14 +6818,14 @@
       </c>
       <c r="E43" s="56"/>
       <c r="F43" s="56"/>
-      <c r="G43" s="113"/>
+      <c r="G43" s="130"/>
     </row>
     <row r="44" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="115"/>
+      <c r="B44" s="129"/>
       <c r="C44" s="12" t="s">
         <v>199</v>
       </c>
@@ -6833,7 +6834,7 @@
       </c>
       <c r="E44" s="56"/>
       <c r="F44" s="56"/>
-      <c r="G44" s="113"/>
+      <c r="G44" s="130"/>
     </row>
     <row r="45" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
@@ -6854,50 +6855,50 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="116" t="s">
+      <c r="A46" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="117"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118" t="str">
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114" t="str">
         <f>COUNT(D3:D45)&amp;"객실"</f>
         <v>43객실</v>
       </c>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="120"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="116"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="121"/>
-      <c r="B47" s="122"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
-      <c r="G47" s="125"/>
+      <c r="A47" s="117"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="121"/>
     </row>
     <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="126"/>
-      <c r="B48" s="127"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="130"/>
+      <c r="A48" s="122"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="D46:G46"/>
     <mergeCell ref="A47:G48"/>
     <mergeCell ref="B20:B44"/>
     <mergeCell ref="B7:B19"/>
     <mergeCell ref="G20:G44"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6986,7 +6987,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="127" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -7004,7 +7005,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="115"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="42" t="s">
         <v>154</v>
       </c>
@@ -7018,7 +7019,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="127" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -7036,7 +7037,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="131"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="12" t="s">
         <v>203</v>
       </c>
@@ -7050,7 +7051,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="131"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="12" t="s">
         <v>201</v>
       </c>
@@ -7064,7 +7065,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="131"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="12" t="s">
         <v>204</v>
       </c>
@@ -7078,7 +7079,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="131"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="45" t="s">
         <v>205</v>
       </c>
@@ -7092,7 +7093,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="131"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="12" t="s">
         <v>206</v>
       </c>
@@ -7106,7 +7107,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="131"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="12" t="s">
         <v>207</v>
       </c>
@@ -7120,7 +7121,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="131"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="12" t="s">
         <v>208</v>
       </c>
@@ -7134,7 +7135,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="131"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="12" t="s">
         <v>209</v>
       </c>
@@ -7148,7 +7149,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="131"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="12" t="s">
         <v>210</v>
       </c>
@@ -7162,7 +7163,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="131"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="12" t="s">
         <v>211</v>
       </c>
@@ -7176,7 +7177,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="131"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="12" t="s">
         <v>212</v>
       </c>
@@ -7190,7 +7191,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="131"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="12" t="s">
         <v>213</v>
       </c>
@@ -7204,7 +7205,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="131"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="12" t="s">
         <v>214</v>
       </c>
@@ -7218,7 +7219,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="131"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="12" t="s">
         <v>215</v>
       </c>
@@ -7232,7 +7233,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="131"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="12" t="s">
         <v>216</v>
       </c>
@@ -7246,7 +7247,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="131"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="12" t="s">
         <v>247</v>
       </c>
@@ -7261,7 +7262,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="131"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="12" t="s">
         <v>217</v>
       </c>
@@ -7275,7 +7276,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="131"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="12" t="s">
         <v>218</v>
       </c>
@@ -7289,7 +7290,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="131"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="12" t="s">
         <v>219</v>
       </c>
@@ -7303,7 +7304,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="131"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="11" t="s">
         <v>220</v>
       </c>
@@ -7320,7 +7321,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="131"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="12" t="s">
         <v>221</v>
       </c>
@@ -7334,7 +7335,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="131"/>
+      <c r="B29" s="128"/>
       <c r="C29" s="12" t="s">
         <v>222</v>
       </c>
@@ -7348,7 +7349,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="131"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="12" t="s">
         <v>223</v>
       </c>
@@ -7394,7 +7395,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="127" t="s">
         <v>105</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -7412,7 +7413,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="131"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="12" t="s">
         <v>225</v>
       </c>
@@ -7426,7 +7427,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="131"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="12" t="s">
         <v>246</v>
       </c>
@@ -7441,7 +7442,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="131"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="12" t="s">
         <v>226</v>
       </c>
@@ -7455,7 +7456,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="131"/>
+      <c r="B37" s="128"/>
       <c r="C37" s="12" t="s">
         <v>227</v>
       </c>
@@ -7469,7 +7470,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="131"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="12" t="s">
         <v>228</v>
       </c>
@@ -7483,7 +7484,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="131"/>
+      <c r="B39" s="128"/>
       <c r="C39" s="12" t="s">
         <v>229</v>
       </c>
@@ -7497,7 +7498,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="131"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="12" t="s">
         <v>230</v>
       </c>
@@ -7511,7 +7512,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="131"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="12" t="s">
         <v>231</v>
       </c>
@@ -7525,7 +7526,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="131"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="12" t="s">
         <v>232</v>
       </c>
@@ -7539,7 +7540,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="131"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="12" t="s">
         <v>233</v>
       </c>
@@ -7553,7 +7554,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="131"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="12" t="s">
         <v>234</v>
       </c>
@@ -7567,7 +7568,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="115"/>
+      <c r="B45" s="129"/>
       <c r="C45" s="12" t="s">
         <v>235</v>
       </c>
@@ -7595,11 +7596,11 @@
       <c r="E47" s="134"/>
     </row>
     <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="126"/>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="128"/>
+      <c r="A48" s="122"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7628,7 +7629,7 @@
   </sheetPr>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView topLeftCell="B31" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -7647,8 +7648,8 @@
       <c r="B1" s="70"/>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
       <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.4">
@@ -7748,7 +7749,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="127" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -7759,7 +7760,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="130" t="s">
         <v>241</v>
       </c>
     </row>
@@ -7768,7 +7769,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="131"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="42" t="s">
         <v>128</v>
       </c>
@@ -7777,14 +7778,14 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="113"/>
+      <c r="G8" s="130"/>
     </row>
     <row r="9" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="131"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="12" t="s">
         <v>254</v>
       </c>
@@ -7793,7 +7794,7 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="113" t="s">
+      <c r="G9" s="130" t="s">
         <v>252</v>
       </c>
     </row>
@@ -7802,7 +7803,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="131"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="12" t="s">
         <v>255</v>
       </c>
@@ -7811,14 +7812,14 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="113"/>
+      <c r="G10" s="130"/>
     </row>
     <row r="11" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="131"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="45" t="s">
         <v>262</v>
       </c>
@@ -7827,14 +7828,14 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="113"/>
+      <c r="G11" s="130"/>
     </row>
     <row r="12" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="131"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="12" t="s">
         <v>256</v>
       </c>
@@ -7843,14 +7844,14 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="113"/>
+      <c r="G12" s="130"/>
     </row>
     <row r="13" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="131"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="12" t="s">
         <v>257</v>
       </c>
@@ -7859,14 +7860,14 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="113"/>
+      <c r="G13" s="130"/>
     </row>
     <row r="14" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="131"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="12" t="s">
         <v>258</v>
       </c>
@@ -7875,14 +7876,14 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="113"/>
+      <c r="G14" s="130"/>
     </row>
     <row r="15" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="131"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="12" t="s">
         <v>286</v>
       </c>
@@ -7891,7 +7892,7 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="113"/>
+      <c r="G15" s="130"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
@@ -7899,7 +7900,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="131"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="12" t="s">
         <v>260</v>
       </c>
@@ -7908,14 +7909,14 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="113"/>
+      <c r="G16" s="130"/>
     </row>
     <row r="17" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="131"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="12" t="s">
         <v>259</v>
       </c>
@@ -7924,7 +7925,7 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="113"/>
+      <c r="G17" s="130"/>
       <c r="O17" s="43"/>
     </row>
     <row r="18" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
@@ -7932,7 +7933,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="131"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="11" t="s">
         <v>287</v>
       </c>
@@ -7941,7 +7942,7 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="113"/>
+      <c r="G18" s="130"/>
       <c r="H18" s="3" t="s">
         <v>263</v>
       </c>
@@ -7951,7 +7952,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="115"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="12" t="s">
         <v>261</v>
       </c>
@@ -7960,14 +7961,14 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="113"/>
+      <c r="G19" s="130"/>
     </row>
     <row r="20" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="127" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -7978,7 +7979,7 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="113" t="s">
+      <c r="G20" s="130" t="s">
         <v>253</v>
       </c>
     </row>
@@ -7987,7 +7988,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="131"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="12" t="s">
         <v>265</v>
       </c>
@@ -7996,14 +7997,14 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="113"/>
+      <c r="G21" s="130"/>
     </row>
     <row r="22" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="131"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="12" t="s">
         <v>266</v>
       </c>
@@ -8012,14 +8013,14 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="113"/>
+      <c r="G22" s="130"/>
     </row>
     <row r="23" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="131"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="12" t="s">
         <v>267</v>
       </c>
@@ -8028,14 +8029,14 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="113"/>
+      <c r="G23" s="130"/>
     </row>
     <row r="24" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="131"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="12" t="s">
         <v>268</v>
       </c>
@@ -8044,14 +8045,14 @@
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="113"/>
+      <c r="G24" s="130"/>
     </row>
     <row r="25" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="131"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="12" t="s">
         <v>269</v>
       </c>
@@ -8060,14 +8061,14 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="113"/>
+      <c r="G25" s="130"/>
     </row>
     <row r="26" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="131"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="12" t="s">
         <v>279</v>
       </c>
@@ -8076,25 +8077,25 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="113"/>
+      <c r="G26" s="130"/>
     </row>
     <row r="27" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="131"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D27" s="4">
         <v>1006</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="113"/>
+      <c r="G27" s="130"/>
       <c r="H27" s="135" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I27" s="136"/>
     </row>
@@ -8103,7 +8104,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="131"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="12" t="s">
         <v>270</v>
       </c>
@@ -8112,14 +8113,14 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="113"/>
+      <c r="G28" s="130"/>
     </row>
     <row r="29" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="131"/>
+      <c r="B29" s="128"/>
       <c r="C29" s="12" t="s">
         <v>289</v>
       </c>
@@ -8128,14 +8129,14 @@
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="113"/>
+      <c r="G29" s="130"/>
     </row>
     <row r="30" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="131"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="12" t="s">
         <v>271</v>
       </c>
@@ -8144,14 +8145,14 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="113"/>
+      <c r="G30" s="130"/>
     </row>
     <row r="31" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="131"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="12" t="s">
         <v>272</v>
       </c>
@@ -8160,14 +8161,14 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="113"/>
+      <c r="G31" s="130"/>
     </row>
     <row r="32" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="131"/>
+      <c r="B32" s="128"/>
       <c r="C32" s="12" t="s">
         <v>273</v>
       </c>
@@ -8176,14 +8177,14 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="113"/>
+      <c r="G32" s="130"/>
     </row>
     <row r="33" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="131"/>
+      <c r="B33" s="128"/>
       <c r="C33" s="12" t="s">
         <v>274</v>
       </c>
@@ -8192,14 +8193,14 @@
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="113"/>
+      <c r="G33" s="130"/>
     </row>
     <row r="34" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="131"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="12" t="s">
         <v>275</v>
       </c>
@@ -8208,14 +8209,14 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="113"/>
+      <c r="G34" s="130"/>
     </row>
     <row r="35" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="131"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="12" t="s">
         <v>277</v>
       </c>
@@ -8224,14 +8225,14 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="113"/>
+      <c r="G35" s="130"/>
     </row>
     <row r="36" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="131"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="11" t="s">
         <v>293</v>
       </c>
@@ -8240,7 +8241,7 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="113"/>
+      <c r="G36" s="130"/>
       <c r="H36" s="58" t="s">
         <v>285</v>
       </c>
@@ -8250,7 +8251,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="131"/>
+      <c r="B37" s="128"/>
       <c r="C37" s="12" t="s">
         <v>276</v>
       </c>
@@ -8259,14 +8260,14 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="113"/>
+      <c r="G37" s="130"/>
     </row>
     <row r="38" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="131"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="12" t="s">
         <v>278</v>
       </c>
@@ -8275,14 +8276,14 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="113"/>
+      <c r="G38" s="130"/>
     </row>
     <row r="39" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="131"/>
+      <c r="B39" s="128"/>
       <c r="C39" s="12" t="s">
         <v>280</v>
       </c>
@@ -8291,14 +8292,14 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="113"/>
+      <c r="G39" s="130"/>
     </row>
     <row r="40" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="131"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="12" t="s">
         <v>288</v>
       </c>
@@ -8307,14 +8308,14 @@
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="113"/>
+      <c r="G40" s="130"/>
     </row>
     <row r="41" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="131"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="12" t="s">
         <v>281</v>
       </c>
@@ -8323,14 +8324,14 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="113"/>
+      <c r="G41" s="130"/>
     </row>
     <row r="42" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="131"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="12" t="s">
         <v>282</v>
       </c>
@@ -8339,14 +8340,14 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="113"/>
+      <c r="G42" s="130"/>
     </row>
     <row r="43" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="131"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="12" t="s">
         <v>283</v>
       </c>
@@ -8355,14 +8356,14 @@
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="113"/>
+      <c r="G43" s="130"/>
     </row>
     <row r="44" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="131"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="12" t="s">
         <v>284</v>
       </c>
@@ -8371,14 +8372,14 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="113"/>
+      <c r="G44" s="130"/>
     </row>
     <row r="45" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="115"/>
+      <c r="B45" s="129"/>
       <c r="C45" s="45" t="s">
         <v>292</v>
       </c>
@@ -8387,39 +8388,39 @@
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="113"/>
+      <c r="G45" s="130"/>
       <c r="H45" s="58"/>
     </row>
     <row r="46" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="116" t="s">
+      <c r="A46" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="117"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118" t="s">
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="120"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="116"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="121"/>
-      <c r="B47" s="122"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
-      <c r="G47" s="125"/>
+      <c r="A47" s="117"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="121"/>
     </row>
     <row r="48" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="126"/>
-      <c r="B48" s="127"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="130"/>
+      <c r="A48" s="122"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -8451,8 +8452,8 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8470,8 +8471,8 @@
       <c r="B1" s="70"/>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
       <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
@@ -8563,11 +8564,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="127" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D7" s="4">
         <v>1110</v>
@@ -8583,7 +8584,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="131"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="42" t="s">
         <v>154</v>
       </c>
@@ -8599,7 +8600,7 @@
         <f t="shared" ref="A9:A47" si="1">ROW()-2</f>
         <v>7</v>
       </c>
-      <c r="B9" s="131"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="45" t="s">
         <v>299</v>
       </c>
@@ -8609,7 +8610,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="109" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
@@ -8617,7 +8618,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="131"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="12" t="s">
         <v>300</v>
       </c>
@@ -8633,7 +8634,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="131"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="12" t="s">
         <v>301</v>
       </c>
@@ -8649,7 +8650,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="131"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="12" t="s">
         <v>302</v>
       </c>
@@ -8665,7 +8666,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="131"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="12" t="s">
         <v>303</v>
       </c>
@@ -8681,7 +8682,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="131"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="45" t="s">
         <v>304</v>
       </c>
@@ -8697,7 +8698,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="131"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="12" t="s">
         <v>305</v>
       </c>
@@ -8713,7 +8714,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="131"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="12" t="s">
         <v>306</v>
       </c>
@@ -8729,7 +8730,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="131"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="12" t="s">
         <v>307</v>
       </c>
@@ -8745,9 +8746,9 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="131"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="12" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="D18" s="4">
         <v>617</v>
@@ -8761,9 +8762,9 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="131"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D19" s="4">
         <v>618</v>
@@ -8777,9 +8778,9 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="131"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D20" s="4">
         <v>619</v>
@@ -8793,9 +8794,9 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="131"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D21" s="4">
         <v>620</v>
@@ -8809,11 +8810,11 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="127" t="s">
         <v>106</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D22" s="4">
         <v>805</v>
@@ -8829,9 +8830,9 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="131"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D23" s="4">
         <v>806</v>
@@ -8845,9 +8846,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="131"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D24" s="4">
         <v>807</v>
@@ -8861,9 +8862,9 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="131"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D25" s="4">
         <v>809</v>
@@ -8877,9 +8878,9 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="131"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D26" s="4">
         <v>810</v>
@@ -8893,9 +8894,9 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="131"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D27" s="4">
         <v>813</v>
@@ -8909,9 +8910,9 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="131"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D28" s="4">
         <v>1006</v>
@@ -8925,9 +8926,9 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="131"/>
+      <c r="B29" s="128"/>
       <c r="C29" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D29" s="4">
         <v>1007</v>
@@ -8941,9 +8942,9 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="131"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D30" s="4">
         <v>1008</v>
@@ -8957,9 +8958,9 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="131"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D31" s="4">
         <v>1009</v>
@@ -8973,9 +8974,9 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="131"/>
+      <c r="B32" s="128"/>
       <c r="C32" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D32" s="4">
         <v>1010</v>
@@ -8989,9 +8990,9 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="131"/>
+      <c r="B33" s="128"/>
       <c r="C33" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D33" s="4">
         <v>1011</v>
@@ -9005,9 +9006,9 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="131"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D34" s="4">
         <v>1012</v>
@@ -9021,9 +9022,9 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="131"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D35" s="4">
         <v>1013</v>
@@ -9037,9 +9038,9 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="131"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D36" s="4">
         <v>1014</v>
@@ -9053,9 +9054,9 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="131"/>
+      <c r="B37" s="128"/>
       <c r="C37" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D37" s="4">
         <v>1015</v>
@@ -9069,9 +9070,9 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="131"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D38" s="4">
         <v>1017</v>
@@ -9080,7 +9081,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="142"/>
       <c r="H38" s="60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
@@ -9088,9 +9089,9 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="131"/>
+      <c r="B39" s="128"/>
       <c r="C39" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D39" s="4">
         <v>1018</v>
@@ -9104,9 +9105,9 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="131"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D40" s="4">
         <v>1019</v>
@@ -9120,9 +9121,9 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="131"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D41" s="4">
         <v>1020</v>
@@ -9136,9 +9137,9 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="131"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D42" s="4">
         <v>1021</v>
@@ -9152,9 +9153,9 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="131"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D43" s="4">
         <v>1022</v>
@@ -9168,9 +9169,9 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="131"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D44" s="4">
         <v>1023</v>
@@ -9184,9 +9185,9 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="131"/>
+      <c r="B45" s="128"/>
       <c r="C45" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D45" s="4">
         <v>1024</v>
@@ -9200,9 +9201,9 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="131"/>
+      <c r="B46" s="128"/>
       <c r="C46" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D46" s="4">
         <v>1025</v>
@@ -9216,9 +9217,9 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="115"/>
+      <c r="B47" s="129"/>
       <c r="C47" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D47" s="4">
         <v>1026</v>
@@ -9228,38 +9229,44 @@
       <c r="G47" s="143"/>
     </row>
     <row r="48" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="116" t="s">
+      <c r="A48" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="117"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118" t="s">
-        <v>313</v>
-      </c>
-      <c r="E48" s="119"/>
-      <c r="F48" s="119"/>
-      <c r="G48" s="120"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114" t="s">
+        <v>312</v>
+      </c>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="116"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="121"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="125"/>
+      <c r="A49" s="117"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="121"/>
     </row>
     <row r="50" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="126"/>
-      <c r="B50" s="127"/>
-      <c r="C50" s="128"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="129"/>
-      <c r="G50" s="130"/>
+      <c r="A50" s="122"/>
+      <c r="B50" s="123"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="A49:G50"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B22:B47"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="G3:G4"/>
@@ -9267,12 +9274,6 @@
     <mergeCell ref="G22:G47"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="B7:B21"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="A49:G50"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B22:B47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/rooming.xlsx
+++ b/data/rooming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6D94934-C6A0-4278-B7D1-2E635914B1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96C94084-08B7-4014-87E3-55545B4FAF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="5차수" sheetId="11" r:id="rId5"/>
     <sheet name="6차수" sheetId="12" r:id="rId6"/>
     <sheet name="7차수" sheetId="13" r:id="rId7"/>
+    <sheet name="8차수" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1차수'!$A$1:$E$44</definedName>
@@ -232,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="393">
   <si>
     <t>Guest Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1760,10 +1761,6 @@
     <t>최재현, 차경석</t>
   </si>
   <si>
-    <t>이상호, 허원영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>양영수, 김진수</t>
   </si>
   <si>
@@ -1908,6 +1905,239 @@
     <t>김진영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>롯데면세점 9/21~23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">롯데(교육생,남)
+13객실
+스탠다드 트윈
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심재우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">안석만, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>김동욱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안석만: 김한빈 희망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경환, 박근식</t>
+  </si>
+  <si>
+    <t>김정우, 정재승</t>
+  </si>
+  <si>
+    <t>안창현, 김대범</t>
+  </si>
+  <si>
+    <t>구본석, 최재원</t>
+  </si>
+  <si>
+    <t>오준석, 최준영</t>
+  </si>
+  <si>
+    <t>이병관, 허태호</t>
+  </si>
+  <si>
+    <t>김홍희, 박동혁</t>
+  </si>
+  <si>
+    <t>양승환, 김한빈</t>
+  </si>
+  <si>
+    <t>권승우, 이동근</t>
+  </si>
+  <si>
+    <t>조태훈, 오세인</t>
+  </si>
+  <si>
+    <t>조현재, 천경수</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>임태호,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 이준홍</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이준홍: 차수 변경함 채희민 희망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박경숙</t>
+  </si>
+  <si>
+    <t>송순옥, 한현경</t>
+  </si>
+  <si>
+    <t>김영미, 김정은</t>
+  </si>
+  <si>
+    <t>이혜진, 이화연</t>
+  </si>
+  <si>
+    <t>최혜린, 공화숙</t>
+  </si>
+  <si>
+    <t>이은혜, 조슬기</t>
+  </si>
+  <si>
+    <t>이리나, 석지영</t>
+  </si>
+  <si>
+    <t>노소희, 최난영</t>
+  </si>
+  <si>
+    <t>탁희연, 이효영</t>
+  </si>
+  <si>
+    <t>김명연, 유수진</t>
+  </si>
+  <si>
+    <t>박정선, 김효정</t>
+  </si>
+  <si>
+    <t>강희영, 박근혜</t>
+  </si>
+  <si>
+    <t>박경아, 황인미</t>
+  </si>
+  <si>
+    <t>박미경, 박남정</t>
+  </si>
+  <si>
+    <t>김나영, 이금석</t>
+  </si>
+  <si>
+    <t>오지혜, 신혜라</t>
+  </si>
+  <si>
+    <t>주선희, 고수빈</t>
+  </si>
+  <si>
+    <t>최주희, 이미영</t>
+  </si>
+  <si>
+    <t>신에스더, 최윤희</t>
+  </si>
+  <si>
+    <t>유지영, 장별</t>
+  </si>
+  <si>
+    <t>이은희, 김서하</t>
+  </si>
+  <si>
+    <t>송순명, 박은애</t>
+  </si>
+  <si>
+    <t>유인경, 김명인</t>
+  </si>
+  <si>
+    <t>이선영, 권숙아</t>
+  </si>
+  <si>
+    <t>전미옥, 변미나</t>
+  </si>
+  <si>
+    <t>이애숙, 신선아</t>
+  </si>
+  <si>
+    <t>2객실
+더블 트윈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2객실
+디럭스 더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">2객실 디럭스 더블
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>9/21~23(2박</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>허원영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상호님 7차 &gt; 9차 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정한길님 불참</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1916,7 +2146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2250,6 +2480,29 @@
     <font>
       <b/>
       <sz val="16"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
       <name val="HY견고딕"/>
       <family val="1"/>
       <charset val="129"/>
@@ -8086,7 +8339,7 @@
       </c>
       <c r="B27" s="128"/>
       <c r="C27" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D27" s="4">
         <v>1006</v>
@@ -8095,7 +8348,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="130"/>
       <c r="H27" s="135" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I27" s="136"/>
     </row>
@@ -8453,7 +8706,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8568,7 +8821,7 @@
         <v>105</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D7" s="4">
         <v>1110</v>
@@ -8610,7 +8863,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="109" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
@@ -8725,14 +8978,14 @@
       <c r="F16" s="4"/>
       <c r="G16" s="110"/>
     </row>
-    <row r="17" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="128"/>
       <c r="C17" s="12" t="s">
-        <v>307</v>
+        <v>390</v>
       </c>
       <c r="D17" s="4">
         <v>614</v>
@@ -8740,15 +8993,18 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="110"/>
-    </row>
-    <row r="18" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="H17" s="54" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="128"/>
       <c r="C18" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D18" s="4">
         <v>617</v>
@@ -8756,15 +9012,18 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="110"/>
-    </row>
-    <row r="19" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="H18" s="54" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A19" s="41">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="128"/>
       <c r="C19" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D19" s="4">
         <v>618</v>
@@ -8773,14 +9032,14 @@
       <c r="F19" s="4"/>
       <c r="G19" s="110"/>
     </row>
-    <row r="20" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="128"/>
       <c r="C20" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D20" s="4">
         <v>619</v>
@@ -8789,14 +9048,14 @@
       <c r="F20" s="4"/>
       <c r="G20" s="110"/>
     </row>
-    <row r="21" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="128"/>
       <c r="C21" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D21" s="4">
         <v>620</v>
@@ -8805,7 +9064,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="110"/>
     </row>
-    <row r="22" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -8814,7 +9073,7 @@
         <v>106</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D22" s="4">
         <v>805</v>
@@ -8825,14 +9084,14 @@
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="128"/>
       <c r="C23" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D23" s="4">
         <v>806</v>
@@ -8841,14 +9100,14 @@
       <c r="F23" s="4"/>
       <c r="G23" s="142"/>
     </row>
-    <row r="24" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="128"/>
       <c r="C24" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D24" s="4">
         <v>807</v>
@@ -8857,14 +9116,14 @@
       <c r="F24" s="4"/>
       <c r="G24" s="142"/>
     </row>
-    <row r="25" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="128"/>
       <c r="C25" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D25" s="4">
         <v>809</v>
@@ -8873,14 +9132,14 @@
       <c r="F25" s="4"/>
       <c r="G25" s="142"/>
     </row>
-    <row r="26" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="128"/>
       <c r="C26" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D26" s="4">
         <v>810</v>
@@ -8889,14 +9148,14 @@
       <c r="F26" s="4"/>
       <c r="G26" s="142"/>
     </row>
-    <row r="27" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="128"/>
       <c r="C27" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D27" s="4">
         <v>813</v>
@@ -8905,14 +9164,14 @@
       <c r="F27" s="4"/>
       <c r="G27" s="142"/>
     </row>
-    <row r="28" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="128"/>
       <c r="C28" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D28" s="4">
         <v>1006</v>
@@ -8921,14 +9180,14 @@
       <c r="F28" s="4"/>
       <c r="G28" s="142"/>
     </row>
-    <row r="29" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="128"/>
       <c r="C29" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D29" s="4">
         <v>1007</v>
@@ -8937,14 +9196,14 @@
       <c r="F29" s="4"/>
       <c r="G29" s="142"/>
     </row>
-    <row r="30" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="128"/>
       <c r="C30" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D30" s="4">
         <v>1008</v>
@@ -8953,14 +9212,14 @@
       <c r="F30" s="4"/>
       <c r="G30" s="142"/>
     </row>
-    <row r="31" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="128"/>
       <c r="C31" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D31" s="4">
         <v>1009</v>
@@ -8969,14 +9228,14 @@
       <c r="F31" s="4"/>
       <c r="G31" s="142"/>
     </row>
-    <row r="32" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="128"/>
       <c r="C32" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D32" s="4">
         <v>1010</v>
@@ -8992,7 +9251,7 @@
       </c>
       <c r="B33" s="128"/>
       <c r="C33" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D33" s="4">
         <v>1011</v>
@@ -9008,7 +9267,7 @@
       </c>
       <c r="B34" s="128"/>
       <c r="C34" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D34" s="4">
         <v>1012</v>
@@ -9024,7 +9283,7 @@
       </c>
       <c r="B35" s="128"/>
       <c r="C35" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D35" s="4">
         <v>1013</v>
@@ -9040,7 +9299,7 @@
       </c>
       <c r="B36" s="128"/>
       <c r="C36" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D36" s="4">
         <v>1014</v>
@@ -9056,7 +9315,7 @@
       </c>
       <c r="B37" s="128"/>
       <c r="C37" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D37" s="4">
         <v>1015</v>
@@ -9072,7 +9331,7 @@
       </c>
       <c r="B38" s="128"/>
       <c r="C38" s="59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D38" s="4">
         <v>1017</v>
@@ -9081,7 +9340,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="142"/>
       <c r="H38" s="60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
@@ -9091,7 +9350,7 @@
       </c>
       <c r="B39" s="128"/>
       <c r="C39" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D39" s="4">
         <v>1018</v>
@@ -9107,7 +9366,7 @@
       </c>
       <c r="B40" s="128"/>
       <c r="C40" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D40" s="4">
         <v>1019</v>
@@ -9123,7 +9382,7 @@
       </c>
       <c r="B41" s="128"/>
       <c r="C41" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D41" s="4">
         <v>1020</v>
@@ -9139,7 +9398,7 @@
       </c>
       <c r="B42" s="128"/>
       <c r="C42" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D42" s="4">
         <v>1021</v>
@@ -9155,7 +9414,7 @@
       </c>
       <c r="B43" s="128"/>
       <c r="C43" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D43" s="4">
         <v>1022</v>
@@ -9171,7 +9430,7 @@
       </c>
       <c r="B44" s="128"/>
       <c r="C44" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D44" s="4">
         <v>1023</v>
@@ -9187,7 +9446,7 @@
       </c>
       <c r="B45" s="128"/>
       <c r="C45" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D45" s="4">
         <v>1024</v>
@@ -9203,7 +9462,7 @@
       </c>
       <c r="B46" s="128"/>
       <c r="C46" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D46" s="4">
         <v>1025</v>
@@ -9219,7 +9478,7 @@
       </c>
       <c r="B47" s="129"/>
       <c r="C47" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D47" s="4">
         <v>1026</v>
@@ -9235,7 +9494,7 @@
       <c r="B48" s="113"/>
       <c r="C48" s="114"/>
       <c r="D48" s="114" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E48" s="115"/>
       <c r="F48" s="115"/>
@@ -9279,4 +9538,845 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BAB369-4702-4A5E-88C7-BCD0FD2F0087}">
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="4" max="4" width="24.09765625" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" customWidth="1"/>
+    <col min="7" max="7" width="21.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="69" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="72"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="41">
+        <f t="shared" ref="A3:A47" si="0">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4">
+        <v>917</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="109" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="4">
+        <v>918</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="111"/>
+    </row>
+    <row r="5" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="127" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1114</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="109" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A6" s="41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="129"/>
+      <c r="C6" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1216</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="111"/>
+    </row>
+    <row r="7" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A7" s="41">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1207</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="139" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A8" s="41">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="4">
+        <v>1208</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="140"/>
+    </row>
+    <row r="9" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A9" s="41">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="127" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="5">
+        <v>601</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="109" t="s">
+        <v>344</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A10" s="41">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="128"/>
+      <c r="C10" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" s="4">
+        <v>604</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="110"/>
+    </row>
+    <row r="11" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A11" s="41">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="128"/>
+      <c r="C11" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D11" s="4">
+        <v>605</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="110"/>
+    </row>
+    <row r="12" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A12" s="41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="128"/>
+      <c r="C12" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" s="4">
+        <v>606</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="110"/>
+    </row>
+    <row r="13" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A13" s="41">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="128"/>
+      <c r="C13" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" s="4">
+        <v>607</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="110"/>
+    </row>
+    <row r="14" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A14" s="41">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="128"/>
+      <c r="C14" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="D14" s="5">
+        <v>609</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="110"/>
+    </row>
+    <row r="15" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A15" s="41">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="128"/>
+      <c r="C15" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D15" s="4">
+        <v>610</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="110"/>
+    </row>
+    <row r="16" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A16" s="41">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="128"/>
+      <c r="C16" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" s="4">
+        <v>613</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="110"/>
+    </row>
+    <row r="17" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A17" s="41">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="128"/>
+      <c r="C17" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D17" s="4">
+        <v>614</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="110"/>
+    </row>
+    <row r="18" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A18" s="41">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="128"/>
+      <c r="C18" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D18" s="4">
+        <v>617</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="54" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A19" s="41">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="128"/>
+      <c r="C19" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" s="4">
+        <v>618</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="110"/>
+    </row>
+    <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A20" s="41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="128"/>
+      <c r="C20" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" s="4">
+        <v>619</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="110"/>
+    </row>
+    <row r="21" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A21" s="41">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="129"/>
+      <c r="C21" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D21" s="4">
+        <v>620</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="110"/>
+    </row>
+    <row r="22" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A22" s="41">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D22" s="4">
+        <v>926</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="141" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A23" s="41">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="128"/>
+      <c r="C23" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1001</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="142"/>
+    </row>
+    <row r="24" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="41">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="128"/>
+      <c r="C24" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1002</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="142"/>
+    </row>
+    <row r="25" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A25" s="41">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="128"/>
+      <c r="C25" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1003</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="142"/>
+    </row>
+    <row r="26" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A26" s="41">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="128"/>
+      <c r="C26" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1004</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="142"/>
+    </row>
+    <row r="27" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A27" s="41">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="128"/>
+      <c r="C27" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1005</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="142"/>
+    </row>
+    <row r="28" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A28" s="41">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="128"/>
+      <c r="C28" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1006</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="142"/>
+    </row>
+    <row r="29" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A29" s="41">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="128"/>
+      <c r="C29" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1007</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="142"/>
+    </row>
+    <row r="30" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A30" s="41">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="128"/>
+      <c r="C30" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1008</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="142"/>
+    </row>
+    <row r="31" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A31" s="41">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="128"/>
+      <c r="C31" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1009</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="142"/>
+    </row>
+    <row r="32" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A32" s="41">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="128"/>
+      <c r="C32" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1010</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="142"/>
+    </row>
+    <row r="33" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A33" s="41">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="128"/>
+      <c r="C33" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1011</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="142"/>
+    </row>
+    <row r="34" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A34" s="41">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="128"/>
+      <c r="C34" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1012</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="142"/>
+    </row>
+    <row r="35" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A35" s="41">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="128"/>
+      <c r="C35" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1013</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="142"/>
+    </row>
+    <row r="36" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A36" s="41">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="128"/>
+      <c r="C36" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1014</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="142"/>
+    </row>
+    <row r="37" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A37" s="41">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="128"/>
+      <c r="C37" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1015</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="142"/>
+    </row>
+    <row r="38" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A38" s="41">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="128"/>
+      <c r="C38" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1017</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="142"/>
+    </row>
+    <row r="39" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A39" s="41">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="128"/>
+      <c r="C39" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1018</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="142"/>
+    </row>
+    <row r="40" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A40" s="41">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="128"/>
+      <c r="C40" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1019</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="142"/>
+    </row>
+    <row r="41" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A41" s="41">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="128"/>
+      <c r="C41" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1020</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="142"/>
+    </row>
+    <row r="42" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A42" s="41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="128"/>
+      <c r="C42" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1021</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="142"/>
+    </row>
+    <row r="43" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A43" s="41">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="128"/>
+      <c r="C43" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1022</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="142"/>
+    </row>
+    <row r="44" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A44" s="41">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="128"/>
+      <c r="C44" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1023</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="142"/>
+    </row>
+    <row r="45" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A45" s="41">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="128"/>
+      <c r="C45" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1024</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="142"/>
+    </row>
+    <row r="46" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A46" s="41">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="128"/>
+      <c r="C46" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1025</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="142"/>
+    </row>
+    <row r="47" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A47" s="41">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="129"/>
+      <c r="C47" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1026</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="143"/>
+    </row>
+    <row r="48" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A48" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="113"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114" t="str">
+        <f>COUNT(D3:D47)&amp;"객실"</f>
+        <v>45객실</v>
+      </c>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="116"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" s="117"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="121"/>
+    </row>
+    <row r="50" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="122"/>
+      <c r="B50" s="123"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="126"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="A49:G50"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="B22:B47"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G21"/>
+    <mergeCell ref="G22:G47"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/rooming.xlsx
+++ b/data/rooming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96C94084-08B7-4014-87E3-55545B4FAF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C785B93A-8181-43FF-9A44-C55D91C62F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="0" windowWidth="11712" windowHeight="12240" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1차수" sheetId="6" r:id="rId1"/>
@@ -2083,12 +2083,38 @@
   </si>
   <si>
     <t>2객실
-더블 트윈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2객실
 디럭스 더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허원영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상호님 7차 &gt; 9차 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정한길님 불참</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2객실
+더블 트윈
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>9/21~23(2박)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2112,30 +2138,8 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>9/21~23(2박</t>
+      <t/>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HY견고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>허원영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상호님 7차 &gt; 9차 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정한길님 불참</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2146,7 +2150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2480,14 +2484,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="HY견고딕"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="HY견고딕"/>
       <family val="1"/>
       <charset val="129"/>
@@ -3396,7 +3392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3780,6 +3776,18 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3825,21 +3833,9 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3875,6 +3871,9 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -6363,8 +6362,8 @@
       <c r="B1" s="70"/>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
       <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
@@ -6402,7 +6401,7 @@
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="130" t="s">
+      <c r="G3" s="113" t="s">
         <v>240</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -6423,7 +6422,7 @@
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
-      <c r="G4" s="130"/>
+      <c r="G4" s="113"/>
       <c r="H4" s="14" t="s">
         <v>60</v>
       </c>
@@ -6433,7 +6432,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="114" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -6444,7 +6443,7 @@
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
-      <c r="G5" s="130" t="s">
+      <c r="G5" s="113" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6453,7 +6452,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="129"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="43" t="s">
         <v>154</v>
       </c>
@@ -6462,14 +6461,14 @@
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
-      <c r="G6" s="130"/>
+      <c r="G6" s="113"/>
     </row>
     <row r="7" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="114" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -6480,7 +6479,7 @@
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
-      <c r="G7" s="130" t="s">
+      <c r="G7" s="113" t="s">
         <v>155</v>
       </c>
       <c r="H7" s="54" t="s">
@@ -6492,7 +6491,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="128"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="12" t="s">
         <v>162</v>
       </c>
@@ -6501,14 +6500,14 @@
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
-      <c r="G8" s="130"/>
+      <c r="G8" s="113"/>
     </row>
     <row r="9" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="128"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="12" t="s">
         <v>163</v>
       </c>
@@ -6517,14 +6516,14 @@
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
-      <c r="G9" s="130"/>
+      <c r="G9" s="113"/>
     </row>
     <row r="10" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="45" t="s">
         <v>164</v>
       </c>
@@ -6533,14 +6532,14 @@
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
-      <c r="G10" s="130"/>
+      <c r="G10" s="113"/>
     </row>
     <row r="11" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="12" t="s">
         <v>165</v>
       </c>
@@ -6549,14 +6548,14 @@
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
-      <c r="G11" s="130"/>
+      <c r="G11" s="113"/>
     </row>
     <row r="12" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="128"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="12" t="s">
         <v>166</v>
       </c>
@@ -6565,14 +6564,14 @@
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="56"/>
-      <c r="G12" s="130"/>
+      <c r="G12" s="113"/>
     </row>
     <row r="13" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="128"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="12" t="s">
         <v>167</v>
       </c>
@@ -6581,14 +6580,14 @@
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
-      <c r="G13" s="130"/>
+      <c r="G13" s="113"/>
     </row>
     <row r="14" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="128"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="12" t="s">
         <v>168</v>
       </c>
@@ -6597,14 +6596,14 @@
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
-      <c r="G14" s="130"/>
+      <c r="G14" s="113"/>
     </row>
     <row r="15" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="128"/>
+      <c r="B15" s="131"/>
       <c r="C15" s="12" t="s">
         <v>169</v>
       </c>
@@ -6613,14 +6612,14 @@
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
-      <c r="G15" s="130"/>
+      <c r="G15" s="113"/>
     </row>
     <row r="16" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="12" t="s">
         <v>170</v>
       </c>
@@ -6629,14 +6628,14 @@
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
-      <c r="G16" s="130"/>
+      <c r="G16" s="113"/>
     </row>
     <row r="17" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="12" t="s">
         <v>171</v>
       </c>
@@ -6645,14 +6644,14 @@
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
-      <c r="G17" s="130"/>
+      <c r="G17" s="113"/>
     </row>
     <row r="18" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="128"/>
+      <c r="B18" s="131"/>
       <c r="C18" s="11" t="s">
         <v>172</v>
       </c>
@@ -6661,7 +6660,7 @@
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
-      <c r="G18" s="130"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="54" t="s">
         <v>174</v>
       </c>
@@ -6671,7 +6670,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="129"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="12" t="s">
         <v>173</v>
       </c>
@@ -6680,14 +6679,14 @@
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
-      <c r="G19" s="130"/>
+      <c r="G19" s="113"/>
     </row>
     <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="114" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -6698,7 +6697,7 @@
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="130" t="s">
+      <c r="G20" s="113" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6707,7 +6706,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="128"/>
+      <c r="B21" s="131"/>
       <c r="C21" s="12" t="s">
         <v>177</v>
       </c>
@@ -6716,14 +6715,14 @@
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
-      <c r="G21" s="130"/>
+      <c r="G21" s="113"/>
     </row>
     <row r="22" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="128"/>
+      <c r="B22" s="131"/>
       <c r="C22" s="12" t="s">
         <v>245</v>
       </c>
@@ -6732,7 +6731,7 @@
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="56"/>
-      <c r="G22" s="130"/>
+      <c r="G22" s="113"/>
       <c r="H22" s="54" t="s">
         <v>200</v>
       </c>
@@ -6742,7 +6741,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="128"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="12" t="s">
         <v>178</v>
       </c>
@@ -6751,14 +6750,14 @@
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
-      <c r="G23" s="130"/>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="128"/>
+      <c r="B24" s="131"/>
       <c r="C24" s="12" t="s">
         <v>179</v>
       </c>
@@ -6767,14 +6766,14 @@
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
-      <c r="G24" s="130"/>
+      <c r="G24" s="113"/>
     </row>
     <row r="25" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="128"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="12" t="s">
         <v>180</v>
       </c>
@@ -6783,14 +6782,14 @@
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="56"/>
-      <c r="G25" s="130"/>
+      <c r="G25" s="113"/>
     </row>
     <row r="26" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="128"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="12" t="s">
         <v>181</v>
       </c>
@@ -6799,14 +6798,14 @@
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
-      <c r="G26" s="130"/>
+      <c r="G26" s="113"/>
     </row>
     <row r="27" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="128"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="12" t="s">
         <v>182</v>
       </c>
@@ -6815,14 +6814,14 @@
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
-      <c r="G27" s="130"/>
+      <c r="G27" s="113"/>
     </row>
     <row r="28" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="128"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="12" t="s">
         <v>183</v>
       </c>
@@ -6831,14 +6830,14 @@
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
-      <c r="G28" s="130"/>
+      <c r="G28" s="113"/>
     </row>
     <row r="29" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="128"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="12" t="s">
         <v>184</v>
       </c>
@@ -6847,14 +6846,14 @@
       </c>
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
-      <c r="G29" s="130"/>
+      <c r="G29" s="113"/>
     </row>
     <row r="30" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="128"/>
+      <c r="B30" s="131"/>
       <c r="C30" s="12" t="s">
         <v>185</v>
       </c>
@@ -6863,14 +6862,14 @@
       </c>
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
-      <c r="G30" s="130"/>
+      <c r="G30" s="113"/>
     </row>
     <row r="31" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="128"/>
+      <c r="B31" s="131"/>
       <c r="C31" s="12" t="s">
         <v>186</v>
       </c>
@@ -6879,14 +6878,14 @@
       </c>
       <c r="E31" s="56"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="130"/>
+      <c r="G31" s="113"/>
     </row>
     <row r="32" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="128"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="12" t="s">
         <v>187</v>
       </c>
@@ -6895,14 +6894,14 @@
       </c>
       <c r="E32" s="56"/>
       <c r="F32" s="56"/>
-      <c r="G32" s="130"/>
+      <c r="G32" s="113"/>
     </row>
     <row r="33" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="128"/>
+      <c r="B33" s="131"/>
       <c r="C33" s="12" t="s">
         <v>188</v>
       </c>
@@ -6911,14 +6910,14 @@
       </c>
       <c r="E33" s="56"/>
       <c r="F33" s="56"/>
-      <c r="G33" s="130"/>
+      <c r="G33" s="113"/>
     </row>
     <row r="34" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="128"/>
+      <c r="B34" s="131"/>
       <c r="C34" s="12" t="s">
         <v>189</v>
       </c>
@@ -6927,14 +6926,14 @@
       </c>
       <c r="E34" s="56"/>
       <c r="F34" s="56"/>
-      <c r="G34" s="130"/>
+      <c r="G34" s="113"/>
     </row>
     <row r="35" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="128"/>
+      <c r="B35" s="131"/>
       <c r="C35" s="12" t="s">
         <v>190</v>
       </c>
@@ -6943,14 +6942,14 @@
       </c>
       <c r="E35" s="56"/>
       <c r="F35" s="56"/>
-      <c r="G35" s="130"/>
+      <c r="G35" s="113"/>
     </row>
     <row r="36" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="128"/>
+      <c r="B36" s="131"/>
       <c r="C36" s="12" t="s">
         <v>191</v>
       </c>
@@ -6959,14 +6958,14 @@
       </c>
       <c r="E36" s="56"/>
       <c r="F36" s="56"/>
-      <c r="G36" s="130"/>
+      <c r="G36" s="113"/>
     </row>
     <row r="37" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="128"/>
+      <c r="B37" s="131"/>
       <c r="C37" s="12" t="s">
         <v>192</v>
       </c>
@@ -6975,14 +6974,14 @@
       </c>
       <c r="E37" s="56"/>
       <c r="F37" s="56"/>
-      <c r="G37" s="130"/>
+      <c r="G37" s="113"/>
     </row>
     <row r="38" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="128"/>
+      <c r="B38" s="131"/>
       <c r="C38" s="12" t="s">
         <v>193</v>
       </c>
@@ -6991,14 +6990,14 @@
       </c>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
-      <c r="G38" s="130"/>
+      <c r="G38" s="113"/>
     </row>
     <row r="39" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="128"/>
+      <c r="B39" s="131"/>
       <c r="C39" s="12" t="s">
         <v>194</v>
       </c>
@@ -7007,14 +7006,14 @@
       </c>
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
-      <c r="G39" s="130"/>
+      <c r="G39" s="113"/>
     </row>
     <row r="40" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="128"/>
+      <c r="B40" s="131"/>
       <c r="C40" s="12" t="s">
         <v>195</v>
       </c>
@@ -7023,14 +7022,14 @@
       </c>
       <c r="E40" s="56"/>
       <c r="F40" s="56"/>
-      <c r="G40" s="130"/>
+      <c r="G40" s="113"/>
     </row>
     <row r="41" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="128"/>
+      <c r="B41" s="131"/>
       <c r="C41" s="12" t="s">
         <v>196</v>
       </c>
@@ -7039,14 +7038,14 @@
       </c>
       <c r="E41" s="56"/>
       <c r="F41" s="56"/>
-      <c r="G41" s="130"/>
+      <c r="G41" s="113"/>
     </row>
     <row r="42" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="128"/>
+      <c r="B42" s="131"/>
       <c r="C42" s="12" t="s">
         <v>197</v>
       </c>
@@ -7055,14 +7054,14 @@
       </c>
       <c r="E42" s="56"/>
       <c r="F42" s="56"/>
-      <c r="G42" s="130"/>
+      <c r="G42" s="113"/>
     </row>
     <row r="43" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="128"/>
+      <c r="B43" s="131"/>
       <c r="C43" s="12" t="s">
         <v>198</v>
       </c>
@@ -7071,14 +7070,14 @@
       </c>
       <c r="E43" s="56"/>
       <c r="F43" s="56"/>
-      <c r="G43" s="130"/>
+      <c r="G43" s="113"/>
     </row>
     <row r="44" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="129"/>
+      <c r="B44" s="115"/>
       <c r="C44" s="12" t="s">
         <v>199</v>
       </c>
@@ -7087,7 +7086,7 @@
       </c>
       <c r="E44" s="56"/>
       <c r="F44" s="56"/>
-      <c r="G44" s="130"/>
+      <c r="G44" s="113"/>
     </row>
     <row r="45" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
@@ -7108,50 +7107,50 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="112" t="s">
+      <c r="A46" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114" t="str">
+      <c r="B46" s="117"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118" t="str">
         <f>COUNT(D3:D45)&amp;"객실"</f>
         <v>43객실</v>
       </c>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="116"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="120"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="117"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="119"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="121"/>
+      <c r="A47" s="121"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="125"/>
     </row>
     <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="122"/>
-      <c r="B48" s="123"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="126"/>
+      <c r="A48" s="126"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="D46:G46"/>
     <mergeCell ref="A47:G48"/>
     <mergeCell ref="B20:B44"/>
     <mergeCell ref="B7:B19"/>
     <mergeCell ref="G20:G44"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7240,7 +7239,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="114" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -7258,7 +7257,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="129"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="42" t="s">
         <v>154</v>
       </c>
@@ -7272,7 +7271,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="114" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -7290,7 +7289,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="128"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="12" t="s">
         <v>203</v>
       </c>
@@ -7304,7 +7303,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="128"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="12" t="s">
         <v>201</v>
       </c>
@@ -7318,7 +7317,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="12" t="s">
         <v>204</v>
       </c>
@@ -7332,7 +7331,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="45" t="s">
         <v>205</v>
       </c>
@@ -7346,7 +7345,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="128"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="12" t="s">
         <v>206</v>
       </c>
@@ -7360,7 +7359,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="128"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="12" t="s">
         <v>207</v>
       </c>
@@ -7374,7 +7373,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="128"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="12" t="s">
         <v>208</v>
       </c>
@@ -7388,7 +7387,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="128"/>
+      <c r="B15" s="131"/>
       <c r="C15" s="12" t="s">
         <v>209</v>
       </c>
@@ -7402,7 +7401,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="12" t="s">
         <v>210</v>
       </c>
@@ -7416,7 +7415,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="12" t="s">
         <v>211</v>
       </c>
@@ -7430,7 +7429,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="128"/>
+      <c r="B18" s="131"/>
       <c r="C18" s="12" t="s">
         <v>212</v>
       </c>
@@ -7444,7 +7443,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="128"/>
+      <c r="B19" s="131"/>
       <c r="C19" s="12" t="s">
         <v>213</v>
       </c>
@@ -7458,7 +7457,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="128"/>
+      <c r="B20" s="131"/>
       <c r="C20" s="12" t="s">
         <v>214</v>
       </c>
@@ -7472,7 +7471,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="128"/>
+      <c r="B21" s="131"/>
       <c r="C21" s="12" t="s">
         <v>215</v>
       </c>
@@ -7486,7 +7485,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="128"/>
+      <c r="B22" s="131"/>
       <c r="C22" s="12" t="s">
         <v>216</v>
       </c>
@@ -7500,7 +7499,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="128"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="12" t="s">
         <v>247</v>
       </c>
@@ -7515,7 +7514,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="128"/>
+      <c r="B24" s="131"/>
       <c r="C24" s="12" t="s">
         <v>217</v>
       </c>
@@ -7529,7 +7528,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="128"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="12" t="s">
         <v>218</v>
       </c>
@@ -7543,7 +7542,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="128"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="12" t="s">
         <v>219</v>
       </c>
@@ -7557,7 +7556,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="128"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="11" t="s">
         <v>220</v>
       </c>
@@ -7574,7 +7573,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="128"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="12" t="s">
         <v>221</v>
       </c>
@@ -7588,7 +7587,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="128"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="12" t="s">
         <v>222</v>
       </c>
@@ -7602,7 +7601,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="128"/>
+      <c r="B30" s="131"/>
       <c r="C30" s="12" t="s">
         <v>223</v>
       </c>
@@ -7648,7 +7647,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="127" t="s">
+      <c r="B33" s="114" t="s">
         <v>105</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -7666,7 +7665,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="128"/>
+      <c r="B34" s="131"/>
       <c r="C34" s="12" t="s">
         <v>225</v>
       </c>
@@ -7680,7 +7679,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="128"/>
+      <c r="B35" s="131"/>
       <c r="C35" s="12" t="s">
         <v>246</v>
       </c>
@@ -7695,7 +7694,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="128"/>
+      <c r="B36" s="131"/>
       <c r="C36" s="12" t="s">
         <v>226</v>
       </c>
@@ -7709,7 +7708,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="128"/>
+      <c r="B37" s="131"/>
       <c r="C37" s="12" t="s">
         <v>227</v>
       </c>
@@ -7723,7 +7722,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="128"/>
+      <c r="B38" s="131"/>
       <c r="C38" s="12" t="s">
         <v>228</v>
       </c>
@@ -7737,7 +7736,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="128"/>
+      <c r="B39" s="131"/>
       <c r="C39" s="12" t="s">
         <v>229</v>
       </c>
@@ -7751,7 +7750,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="128"/>
+      <c r="B40" s="131"/>
       <c r="C40" s="12" t="s">
         <v>230</v>
       </c>
@@ -7765,7 +7764,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="128"/>
+      <c r="B41" s="131"/>
       <c r="C41" s="12" t="s">
         <v>231</v>
       </c>
@@ -7779,7 +7778,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="128"/>
+      <c r="B42" s="131"/>
       <c r="C42" s="12" t="s">
         <v>232</v>
       </c>
@@ -7793,7 +7792,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="128"/>
+      <c r="B43" s="131"/>
       <c r="C43" s="12" t="s">
         <v>233</v>
       </c>
@@ -7807,7 +7806,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="128"/>
+      <c r="B44" s="131"/>
       <c r="C44" s="12" t="s">
         <v>234</v>
       </c>
@@ -7821,7 +7820,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="129"/>
+      <c r="B45" s="115"/>
       <c r="C45" s="12" t="s">
         <v>235</v>
       </c>
@@ -7849,11 +7848,11 @@
       <c r="E47" s="134"/>
     </row>
     <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="122"/>
-      <c r="B48" s="123"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
+      <c r="A48" s="126"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7901,8 +7900,8 @@
       <c r="B1" s="70"/>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
       <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.4">
@@ -8002,7 +8001,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="114" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -8013,7 +8012,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="130" t="s">
+      <c r="G7" s="113" t="s">
         <v>241</v>
       </c>
     </row>
@@ -8022,7 +8021,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="128"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="42" t="s">
         <v>128</v>
       </c>
@@ -8031,14 +8030,14 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="130"/>
+      <c r="G8" s="113"/>
     </row>
     <row r="9" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="128"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="12" t="s">
         <v>254</v>
       </c>
@@ -8047,7 +8046,7 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="130" t="s">
+      <c r="G9" s="113" t="s">
         <v>252</v>
       </c>
     </row>
@@ -8056,7 +8055,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="12" t="s">
         <v>255</v>
       </c>
@@ -8065,14 +8064,14 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="130"/>
+      <c r="G10" s="113"/>
     </row>
     <row r="11" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="45" t="s">
         <v>262</v>
       </c>
@@ -8081,14 +8080,14 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="130"/>
+      <c r="G11" s="113"/>
     </row>
     <row r="12" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="128"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="12" t="s">
         <v>256</v>
       </c>
@@ -8097,14 +8096,14 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="130"/>
+      <c r="G12" s="113"/>
     </row>
     <row r="13" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="128"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="12" t="s">
         <v>257</v>
       </c>
@@ -8113,14 +8112,14 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="130"/>
+      <c r="G13" s="113"/>
     </row>
     <row r="14" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="128"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="12" t="s">
         <v>258</v>
       </c>
@@ -8129,14 +8128,14 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="130"/>
+      <c r="G14" s="113"/>
     </row>
     <row r="15" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="128"/>
+      <c r="B15" s="131"/>
       <c r="C15" s="12" t="s">
         <v>286</v>
       </c>
@@ -8145,7 +8144,7 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="130"/>
+      <c r="G15" s="113"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
@@ -8153,7 +8152,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="12" t="s">
         <v>260</v>
       </c>
@@ -8162,14 +8161,14 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="130"/>
+      <c r="G16" s="113"/>
     </row>
     <row r="17" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="12" t="s">
         <v>259</v>
       </c>
@@ -8178,7 +8177,7 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="130"/>
+      <c r="G17" s="113"/>
       <c r="O17" s="43"/>
     </row>
     <row r="18" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
@@ -8186,7 +8185,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="128"/>
+      <c r="B18" s="131"/>
       <c r="C18" s="11" t="s">
         <v>287</v>
       </c>
@@ -8195,7 +8194,7 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="130"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="3" t="s">
         <v>263</v>
       </c>
@@ -8205,7 +8204,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="129"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="12" t="s">
         <v>261</v>
       </c>
@@ -8214,14 +8213,14 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="130"/>
+      <c r="G19" s="113"/>
     </row>
     <row r="20" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="114" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -8232,7 +8231,7 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="130" t="s">
+      <c r="G20" s="113" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8241,7 +8240,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="128"/>
+      <c r="B21" s="131"/>
       <c r="C21" s="12" t="s">
         <v>265</v>
       </c>
@@ -8250,14 +8249,14 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="130"/>
+      <c r="G21" s="113"/>
     </row>
     <row r="22" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="128"/>
+      <c r="B22" s="131"/>
       <c r="C22" s="12" t="s">
         <v>266</v>
       </c>
@@ -8266,14 +8265,14 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="130"/>
+      <c r="G22" s="113"/>
     </row>
     <row r="23" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="128"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="12" t="s">
         <v>267</v>
       </c>
@@ -8282,14 +8281,14 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="130"/>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="128"/>
+      <c r="B24" s="131"/>
       <c r="C24" s="12" t="s">
         <v>268</v>
       </c>
@@ -8298,14 +8297,14 @@
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="130"/>
+      <c r="G24" s="113"/>
     </row>
     <row r="25" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="128"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="12" t="s">
         <v>269</v>
       </c>
@@ -8314,14 +8313,14 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="130"/>
+      <c r="G25" s="113"/>
     </row>
     <row r="26" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="128"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="12" t="s">
         <v>279</v>
       </c>
@@ -8330,14 +8329,14 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="130"/>
+      <c r="G26" s="113"/>
     </row>
     <row r="27" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="128"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="12" t="s">
         <v>340</v>
       </c>
@@ -8346,7 +8345,7 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="130"/>
+      <c r="G27" s="113"/>
       <c r="H27" s="135" t="s">
         <v>341</v>
       </c>
@@ -8357,7 +8356,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="128"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="12" t="s">
         <v>270</v>
       </c>
@@ -8366,14 +8365,14 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="130"/>
+      <c r="G28" s="113"/>
     </row>
     <row r="29" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="128"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="12" t="s">
         <v>289</v>
       </c>
@@ -8382,14 +8381,14 @@
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="130"/>
+      <c r="G29" s="113"/>
     </row>
     <row r="30" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="128"/>
+      <c r="B30" s="131"/>
       <c r="C30" s="12" t="s">
         <v>271</v>
       </c>
@@ -8398,14 +8397,14 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="130"/>
+      <c r="G30" s="113"/>
     </row>
     <row r="31" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="128"/>
+      <c r="B31" s="131"/>
       <c r="C31" s="12" t="s">
         <v>272</v>
       </c>
@@ -8414,14 +8413,14 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="130"/>
+      <c r="G31" s="113"/>
     </row>
     <row r="32" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="128"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="12" t="s">
         <v>273</v>
       </c>
@@ -8430,14 +8429,14 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="130"/>
+      <c r="G32" s="113"/>
     </row>
     <row r="33" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="128"/>
+      <c r="B33" s="131"/>
       <c r="C33" s="12" t="s">
         <v>274</v>
       </c>
@@ -8446,14 +8445,14 @@
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="130"/>
+      <c r="G33" s="113"/>
     </row>
     <row r="34" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="128"/>
+      <c r="B34" s="131"/>
       <c r="C34" s="12" t="s">
         <v>275</v>
       </c>
@@ -8462,14 +8461,14 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="130"/>
+      <c r="G34" s="113"/>
     </row>
     <row r="35" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="128"/>
+      <c r="B35" s="131"/>
       <c r="C35" s="12" t="s">
         <v>277</v>
       </c>
@@ -8478,14 +8477,14 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="130"/>
+      <c r="G35" s="113"/>
     </row>
     <row r="36" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="128"/>
+      <c r="B36" s="131"/>
       <c r="C36" s="11" t="s">
         <v>293</v>
       </c>
@@ -8494,7 +8493,7 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="130"/>
+      <c r="G36" s="113"/>
       <c r="H36" s="58" t="s">
         <v>285</v>
       </c>
@@ -8504,7 +8503,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="128"/>
+      <c r="B37" s="131"/>
       <c r="C37" s="12" t="s">
         <v>276</v>
       </c>
@@ -8513,14 +8512,14 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="130"/>
+      <c r="G37" s="113"/>
     </row>
     <row r="38" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="128"/>
+      <c r="B38" s="131"/>
       <c r="C38" s="12" t="s">
         <v>278</v>
       </c>
@@ -8529,14 +8528,14 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="130"/>
+      <c r="G38" s="113"/>
     </row>
     <row r="39" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="128"/>
+      <c r="B39" s="131"/>
       <c r="C39" s="12" t="s">
         <v>280</v>
       </c>
@@ -8545,14 +8544,14 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="130"/>
+      <c r="G39" s="113"/>
     </row>
     <row r="40" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="128"/>
+      <c r="B40" s="131"/>
       <c r="C40" s="12" t="s">
         <v>288</v>
       </c>
@@ -8561,14 +8560,14 @@
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="130"/>
+      <c r="G40" s="113"/>
     </row>
     <row r="41" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="128"/>
+      <c r="B41" s="131"/>
       <c r="C41" s="12" t="s">
         <v>281</v>
       </c>
@@ -8577,14 +8576,14 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="130"/>
+      <c r="G41" s="113"/>
     </row>
     <row r="42" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="128"/>
+      <c r="B42" s="131"/>
       <c r="C42" s="12" t="s">
         <v>282</v>
       </c>
@@ -8593,14 +8592,14 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="130"/>
+      <c r="G42" s="113"/>
     </row>
     <row r="43" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="128"/>
+      <c r="B43" s="131"/>
       <c r="C43" s="12" t="s">
         <v>283</v>
       </c>
@@ -8609,14 +8608,14 @@
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="130"/>
+      <c r="G43" s="113"/>
     </row>
     <row r="44" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="128"/>
+      <c r="B44" s="131"/>
       <c r="C44" s="12" t="s">
         <v>284</v>
       </c>
@@ -8625,14 +8624,14 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="130"/>
+      <c r="G44" s="113"/>
     </row>
     <row r="45" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="129"/>
+      <c r="B45" s="115"/>
       <c r="C45" s="45" t="s">
         <v>292</v>
       </c>
@@ -8641,39 +8640,39 @@
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="130"/>
+      <c r="G45" s="113"/>
       <c r="H45" s="58"/>
     </row>
     <row r="46" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="112" t="s">
+      <c r="A46" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114" t="s">
+      <c r="B46" s="117"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="116"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="120"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="117"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="119"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="121"/>
+      <c r="A47" s="121"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="125"/>
     </row>
     <row r="48" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="122"/>
-      <c r="B48" s="123"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="126"/>
+      <c r="A48" s="126"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -8705,8 +8704,8 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8724,8 +8723,8 @@
       <c r="B1" s="70"/>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
       <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
@@ -8817,7 +8816,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="114" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="42" t="s">
@@ -8837,7 +8836,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="128"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="42" t="s">
         <v>154</v>
       </c>
@@ -8853,7 +8852,7 @@
         <f t="shared" ref="A9:A47" si="1">ROW()-2</f>
         <v>7</v>
       </c>
-      <c r="B9" s="128"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="45" t="s">
         <v>299</v>
       </c>
@@ -8871,7 +8870,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="12" t="s">
         <v>300</v>
       </c>
@@ -8887,7 +8886,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="12" t="s">
         <v>301</v>
       </c>
@@ -8903,7 +8902,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="128"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="12" t="s">
         <v>302</v>
       </c>
@@ -8919,12 +8918,12 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="128"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="12" t="s">
         <v>303</v>
       </c>
       <c r="D13" s="4">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -8935,7 +8934,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="128"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="45" t="s">
         <v>304</v>
       </c>
@@ -8951,7 +8950,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="128"/>
+      <c r="B15" s="131"/>
       <c r="C15" s="12" t="s">
         <v>305</v>
       </c>
@@ -8967,7 +8966,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="12" t="s">
         <v>306</v>
       </c>
@@ -8983,9 +8982,9 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D17" s="4">
         <v>614</v>
@@ -8994,7 +8993,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="110"/>
       <c r="H17" s="54" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
@@ -9002,7 +9001,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="128"/>
+      <c r="B18" s="131"/>
       <c r="C18" s="12" t="s">
         <v>342</v>
       </c>
@@ -9013,7 +9012,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="110"/>
       <c r="H18" s="54" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
@@ -9021,7 +9020,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="128"/>
+      <c r="B19" s="131"/>
       <c r="C19" s="12" t="s">
         <v>307</v>
       </c>
@@ -9037,7 +9036,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="128"/>
+      <c r="B20" s="131"/>
       <c r="C20" s="12" t="s">
         <v>308</v>
       </c>
@@ -9053,7 +9052,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="128"/>
+      <c r="B21" s="131"/>
       <c r="C21" s="12" t="s">
         <v>309</v>
       </c>
@@ -9069,7 +9068,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="114" t="s">
         <v>106</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -9089,7 +9088,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="128"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="12" t="s">
         <v>313</v>
       </c>
@@ -9105,7 +9104,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="128"/>
+      <c r="B24" s="131"/>
       <c r="C24" s="12" t="s">
         <v>314</v>
       </c>
@@ -9121,7 +9120,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="128"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="12" t="s">
         <v>315</v>
       </c>
@@ -9137,7 +9136,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="128"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="12" t="s">
         <v>316</v>
       </c>
@@ -9153,7 +9152,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="128"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="12" t="s">
         <v>317</v>
       </c>
@@ -9169,7 +9168,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="128"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="12" t="s">
         <v>318</v>
       </c>
@@ -9185,7 +9184,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="128"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="12" t="s">
         <v>319</v>
       </c>
@@ -9201,7 +9200,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="128"/>
+      <c r="B30" s="131"/>
       <c r="C30" s="12" t="s">
         <v>320</v>
       </c>
@@ -9217,7 +9216,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="128"/>
+      <c r="B31" s="131"/>
       <c r="C31" s="12" t="s">
         <v>321</v>
       </c>
@@ -9233,7 +9232,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="128"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="12" t="s">
         <v>322</v>
       </c>
@@ -9249,7 +9248,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="128"/>
+      <c r="B33" s="131"/>
       <c r="C33" s="12" t="s">
         <v>323</v>
       </c>
@@ -9265,7 +9264,7 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="128"/>
+      <c r="B34" s="131"/>
       <c r="C34" s="12" t="s">
         <v>324</v>
       </c>
@@ -9281,7 +9280,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="128"/>
+      <c r="B35" s="131"/>
       <c r="C35" s="12" t="s">
         <v>325</v>
       </c>
@@ -9297,7 +9296,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="128"/>
+      <c r="B36" s="131"/>
       <c r="C36" s="12" t="s">
         <v>326</v>
       </c>
@@ -9313,7 +9312,7 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="128"/>
+      <c r="B37" s="131"/>
       <c r="C37" s="12" t="s">
         <v>327</v>
       </c>
@@ -9329,7 +9328,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="128"/>
+      <c r="B38" s="131"/>
       <c r="C38" s="59" t="s">
         <v>338</v>
       </c>
@@ -9348,7 +9347,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="128"/>
+      <c r="B39" s="131"/>
       <c r="C39" s="12" t="s">
         <v>329</v>
       </c>
@@ -9364,7 +9363,7 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="128"/>
+      <c r="B40" s="131"/>
       <c r="C40" s="12" t="s">
         <v>330</v>
       </c>
@@ -9380,7 +9379,7 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="128"/>
+      <c r="B41" s="131"/>
       <c r="C41" s="12" t="s">
         <v>337</v>
       </c>
@@ -9396,7 +9395,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="128"/>
+      <c r="B42" s="131"/>
       <c r="C42" s="12" t="s">
         <v>331</v>
       </c>
@@ -9412,7 +9411,7 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="128"/>
+      <c r="B43" s="131"/>
       <c r="C43" s="12" t="s">
         <v>332</v>
       </c>
@@ -9428,7 +9427,7 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="128"/>
+      <c r="B44" s="131"/>
       <c r="C44" s="12" t="s">
         <v>333</v>
       </c>
@@ -9444,7 +9443,7 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="128"/>
+      <c r="B45" s="131"/>
       <c r="C45" s="12" t="s">
         <v>334</v>
       </c>
@@ -9460,7 +9459,7 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="128"/>
+      <c r="B46" s="131"/>
       <c r="C46" s="12" t="s">
         <v>335</v>
       </c>
@@ -9476,7 +9475,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="129"/>
+      <c r="B47" s="115"/>
       <c r="C47" s="12" t="s">
         <v>336</v>
       </c>
@@ -9488,44 +9487,38 @@
       <c r="G47" s="143"/>
     </row>
     <row r="48" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="113"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114" t="s">
+      <c r="B48" s="117"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118" t="s">
         <v>311</v>
       </c>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="116"/>
+      <c r="E48" s="119"/>
+      <c r="F48" s="119"/>
+      <c r="G48" s="120"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="117"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="119"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="121"/>
+      <c r="A49" s="121"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="125"/>
     </row>
     <row r="50" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="122"/>
-      <c r="B50" s="123"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="126"/>
+      <c r="A50" s="126"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
+      <c r="G50" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="A49:G50"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B22:B47"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="G3:G4"/>
@@ -9533,6 +9526,12 @@
     <mergeCell ref="G22:G47"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="B7:B21"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="A49:G50"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B22:B47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9542,10 +9541,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BAB369-4702-4A5E-88C7-BCD0FD2F0087}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9557,18 +9556,18 @@
     <col min="7" max="7" width="21.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="28.2" x14ac:dyDescent="0.4">
       <c r="A1" s="69" t="s">
         <v>343</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
       <c r="G1" s="72"/>
     </row>
-    <row r="2" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
@@ -9589,14 +9588,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="41">
         <f t="shared" ref="A3:A47" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="52"/>
       <c r="C3" s="137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4">
         <v>917</v>
@@ -9604,10 +9603,11 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="109" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+        <v>391</v>
+      </c>
+      <c r="M3" s="137"/>
+    </row>
+    <row r="4" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -9620,13 +9620,14 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="111"/>
-    </row>
-    <row r="5" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M4" s="138"/>
+    </row>
+    <row r="5" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="114" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -9638,15 +9639,15 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="109" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A6" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="129"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="42" t="s">
         <v>154</v>
       </c>
@@ -9657,25 +9658,25 @@
       <c r="F6" s="4"/>
       <c r="G6" s="111"/>
     </row>
-    <row r="7" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="52"/>
       <c r="C7" s="137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4">
         <v>1207</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="139" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="G7" s="144" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -9689,12 +9690,12 @@
       <c r="F8" s="4"/>
       <c r="G8" s="140"/>
     </row>
-    <row r="9" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="114" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -9712,12 +9713,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="12" t="s">
         <v>348</v>
       </c>
@@ -9728,12 +9729,12 @@
       <c r="F10" s="4"/>
       <c r="G10" s="110"/>
     </row>
-    <row r="11" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="12" t="s">
         <v>349</v>
       </c>
@@ -9744,12 +9745,12 @@
       <c r="F11" s="4"/>
       <c r="G11" s="110"/>
     </row>
-    <row r="12" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="128"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="12" t="s">
         <v>350</v>
       </c>
@@ -9760,28 +9761,28 @@
       <c r="F12" s="4"/>
       <c r="G12" s="110"/>
     </row>
-    <row r="13" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="128"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="12" t="s">
         <v>351</v>
       </c>
       <c r="D13" s="4">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="110"/>
     </row>
-    <row r="14" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="128"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="45" t="s">
         <v>352</v>
       </c>
@@ -9792,12 +9793,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="110"/>
     </row>
-    <row r="15" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="128"/>
+      <c r="B15" s="131"/>
       <c r="C15" s="12" t="s">
         <v>353</v>
       </c>
@@ -9808,12 +9809,12 @@
       <c r="F15" s="4"/>
       <c r="G15" s="110"/>
     </row>
-    <row r="16" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="12" t="s">
         <v>354</v>
       </c>
@@ -9829,7 +9830,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="12" t="s">
         <v>355</v>
       </c>
@@ -9845,7 +9846,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="128"/>
+      <c r="B18" s="131"/>
       <c r="C18" s="11" t="s">
         <v>359</v>
       </c>
@@ -9864,7 +9865,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="128"/>
+      <c r="B19" s="131"/>
       <c r="C19" s="12" t="s">
         <v>356</v>
       </c>
@@ -9880,7 +9881,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="128"/>
+      <c r="B20" s="131"/>
       <c r="C20" s="12" t="s">
         <v>357</v>
       </c>
@@ -9896,7 +9897,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="129"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="12" t="s">
         <v>358</v>
       </c>
@@ -9912,7 +9913,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="114" t="s">
         <v>106</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -9932,7 +9933,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="128"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="12" t="s">
         <v>362</v>
       </c>
@@ -9948,7 +9949,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="128"/>
+      <c r="B24" s="131"/>
       <c r="C24" s="12" t="s">
         <v>363</v>
       </c>
@@ -9964,7 +9965,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="128"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="12" t="s">
         <v>364</v>
       </c>
@@ -9980,7 +9981,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="128"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="12" t="s">
         <v>365</v>
       </c>
@@ -9996,7 +9997,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="128"/>
+      <c r="B27" s="131"/>
       <c r="C27" s="12" t="s">
         <v>366</v>
       </c>
@@ -10012,7 +10013,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="128"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="12" t="s">
         <v>367</v>
       </c>
@@ -10028,7 +10029,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="128"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="12" t="s">
         <v>368</v>
       </c>
@@ -10044,7 +10045,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="128"/>
+      <c r="B30" s="131"/>
       <c r="C30" s="12" t="s">
         <v>369</v>
       </c>
@@ -10060,7 +10061,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="128"/>
+      <c r="B31" s="131"/>
       <c r="C31" s="12" t="s">
         <v>370</v>
       </c>
@@ -10076,7 +10077,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="128"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="12" t="s">
         <v>371</v>
       </c>
@@ -10092,7 +10093,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="128"/>
+      <c r="B33" s="131"/>
       <c r="C33" s="12" t="s">
         <v>372</v>
       </c>
@@ -10108,7 +10109,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="128"/>
+      <c r="B34" s="131"/>
       <c r="C34" s="12" t="s">
         <v>373</v>
       </c>
@@ -10124,7 +10125,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="128"/>
+      <c r="B35" s="131"/>
       <c r="C35" s="12" t="s">
         <v>374</v>
       </c>
@@ -10140,7 +10141,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="128"/>
+      <c r="B36" s="131"/>
       <c r="C36" s="12" t="s">
         <v>375</v>
       </c>
@@ -10156,7 +10157,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="128"/>
+      <c r="B37" s="131"/>
       <c r="C37" s="12" t="s">
         <v>376</v>
       </c>
@@ -10172,7 +10173,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="128"/>
+      <c r="B38" s="131"/>
       <c r="C38" s="12" t="s">
         <v>377</v>
       </c>
@@ -10188,7 +10189,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="128"/>
+      <c r="B39" s="131"/>
       <c r="C39" s="12" t="s">
         <v>378</v>
       </c>
@@ -10204,7 +10205,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="128"/>
+      <c r="B40" s="131"/>
       <c r="C40" s="12" t="s">
         <v>379</v>
       </c>
@@ -10220,7 +10221,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="128"/>
+      <c r="B41" s="131"/>
       <c r="C41" s="12" t="s">
         <v>380</v>
       </c>
@@ -10236,7 +10237,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="128"/>
+      <c r="B42" s="131"/>
       <c r="C42" s="12" t="s">
         <v>381</v>
       </c>
@@ -10252,7 +10253,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="128"/>
+      <c r="B43" s="131"/>
       <c r="C43" s="12" t="s">
         <v>382</v>
       </c>
@@ -10268,7 +10269,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="128"/>
+      <c r="B44" s="131"/>
       <c r="C44" s="12" t="s">
         <v>383</v>
       </c>
@@ -10284,7 +10285,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="128"/>
+      <c r="B45" s="131"/>
       <c r="C45" s="12" t="s">
         <v>384</v>
       </c>
@@ -10300,7 +10301,7 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="128"/>
+      <c r="B46" s="131"/>
       <c r="C46" s="12" t="s">
         <v>385</v>
       </c>
@@ -10316,7 +10317,7 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="129"/>
+      <c r="B47" s="115"/>
       <c r="C47" s="12" t="s">
         <v>386</v>
       </c>
@@ -10328,45 +10329,40 @@
       <c r="G47" s="143"/>
     </row>
     <row r="48" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="113"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114" t="str">
+      <c r="B48" s="117"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118" t="str">
         <f>COUNT(D3:D47)&amp;"객실"</f>
         <v>45객실</v>
       </c>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="116"/>
+      <c r="E48" s="119"/>
+      <c r="F48" s="119"/>
+      <c r="G48" s="120"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="117"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="119"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="121"/>
+      <c r="A49" s="121"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="125"/>
     </row>
     <row r="50" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="122"/>
-      <c r="B50" s="123"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="126"/>
+      <c r="A50" s="126"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
+      <c r="G50" s="130"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:G48"/>
+  <mergeCells count="15">
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="A49:G50"/>
     <mergeCell ref="B9:B21"/>
     <mergeCell ref="B22:B47"/>
@@ -10375,8 +10371,15 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G9:G21"/>
     <mergeCell ref="G22:G47"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:G48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/rooming.xlsx
+++ b/data/rooming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C785B93A-8181-43FF-9A44-C55D91C62F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E97AF79-BD8A-4BFA-98DE-61245B42A706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="0" windowWidth="11712" windowHeight="12240" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1차수" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="6차수" sheetId="12" r:id="rId6"/>
     <sheet name="7차수" sheetId="13" r:id="rId7"/>
     <sheet name="8차수" sheetId="14" r:id="rId8"/>
+    <sheet name="9차수" sheetId="15" r:id="rId9"/>
+    <sheet name="10차수" sheetId="16" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1차수'!$A$1:$E$44</definedName>
@@ -233,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="483">
   <si>
     <t>Guest Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2142,6 +2144,365 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>롯데면세점 9/29~30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2객실
+스탠다드 트윈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데 면세점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">롯데 (남)
+스탠다드 트윈
+12객실 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오동규, 박영빈</t>
+  </si>
+  <si>
+    <t>강민호, 최홍식</t>
+  </si>
+  <si>
+    <t>김대일, 신정호</t>
+  </si>
+  <si>
+    <t>변승찬, 문승연</t>
+  </si>
+  <si>
+    <t>박동혁, 김경민</t>
+  </si>
+  <si>
+    <t>최진수, 박건희</t>
+  </si>
+  <si>
+    <t>이상윤, 최종남</t>
+  </si>
+  <si>
+    <t>박주은, 김성종</t>
+  </si>
+  <si>
+    <t>김수아, 최찬숙</t>
+  </si>
+  <si>
+    <t>박은지, 박기남</t>
+  </si>
+  <si>
+    <t>최미화, 엄윤정</t>
+  </si>
+  <si>
+    <t>강가영, 김상희</t>
+  </si>
+  <si>
+    <t>권소망, 이효경</t>
+  </si>
+  <si>
+    <t>김선희, 최영순</t>
+  </si>
+  <si>
+    <t>김윤경, 조유리</t>
+  </si>
+  <si>
+    <t>김정임, 김소윤</t>
+  </si>
+  <si>
+    <t>김태경, 김순옥</t>
+  </si>
+  <si>
+    <t>문향숙, 진지은</t>
+  </si>
+  <si>
+    <t>장수정, 채아름</t>
+  </si>
+  <si>
+    <t>신진솔, 장미림</t>
+  </si>
+  <si>
+    <t>임혜숙, 김영라</t>
+  </si>
+  <si>
+    <t>김현정, 곽은초</t>
+  </si>
+  <si>
+    <t>홍은영, 김정희</t>
+  </si>
+  <si>
+    <t>김새미, 유은경</t>
+  </si>
+  <si>
+    <t>신은경, 강은진</t>
+  </si>
+  <si>
+    <t>김이화, 손희영</t>
+  </si>
+  <si>
+    <t>강윤경, 황보숙희</t>
+  </si>
+  <si>
+    <t>임진영, 전지연</t>
+  </si>
+  <si>
+    <t>김빛나, 안상희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주여진, 김연표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강성희, 이지은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안대현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김미진, 윤희정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김미진: 박은지 희망 / 윤희정: 임다현 희망(불참)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3객실
+디럭스 더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2객실
+더블 트윈
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>9/28~30(2박)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최희란: 김주희 불참</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박준규: 이준식 불참</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박준규, 김희민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김신, 이상호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 민영미, 최희란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44객실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">롯데 (여)
+더블 트윈
+25객실 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">롯데 (남)
+스탠다드 트윈
+14객실 
+</t>
+  </si>
+  <si>
+    <t>여</t>
+  </si>
+  <si>
+    <t xml:space="preserve">롯데 (여)
+더블 트윈
+21객실 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42객실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김무철, 정수환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김종은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강형규, 김진욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성호, 김민혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임길환, 정동화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성문근, 임정우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상철, 김지명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신정선, 김태옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재현, 이형국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민수, 김우현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박주안, 이호용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신재영, 이재도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동우, 손종혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양지웅, 이선우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준구, 정성우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최면웅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강예리나, 황진솔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김지아, 김수지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노유미, 이혜선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박무늬, 안현선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이은숙, 김정애</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양수정, 백은주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유정은, 박정자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김명선, 임수빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박은미, 이단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정태용, 손영순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고지연, 최혜정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김혜련, 우연희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조은영, 손오영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국선순, 김선영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정현, 심효연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고연수, 조윤민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김윤숙, 박경연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박나라, 심지영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김수민, 박선영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최수민, 김보미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우지민, 함수연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양희상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데면세점 10/01~02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2150,7 +2511,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2503,6 +2864,29 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -2722,7 +3106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -3254,6 +3638,224 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3392,7 +3994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3598,6 +4200,99 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="34" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3873,6 +4568,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4241,13 +5020,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="103"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="25.2" x14ac:dyDescent="0.4">
@@ -4277,7 +5056,7 @@
       <c r="D3" s="4">
         <v>601</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="104" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -4295,7 +5074,7 @@
       <c r="D4" s="4">
         <v>604</v>
       </c>
-      <c r="E4" s="74"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -4319,7 +5098,7 @@
       <c r="D5" s="5">
         <v>605</v>
       </c>
-      <c r="E5" s="75"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="2" t="s">
         <v>50</v>
       </c>
@@ -4328,7 +5107,7 @@
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="112" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -4337,7 +5116,7 @@
       <c r="D6" s="4">
         <v>606</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="107" t="s">
         <v>109</v>
       </c>
       <c r="F6" s="2"/>
@@ -4346,14 +5125,14 @@
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="82"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="4">
         <v>607</v>
       </c>
-      <c r="E7" s="76"/>
+      <c r="E7" s="107"/>
       <c r="F7" s="2"/>
       <c r="J7" s="31"/>
     </row>
@@ -4361,42 +5140,42 @@
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="82"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="4">
         <v>609</v>
       </c>
-      <c r="E8" s="76"/>
+      <c r="E8" s="107"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="82"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="4">
         <v>610</v>
       </c>
-      <c r="E9" s="76"/>
+      <c r="E9" s="107"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="82"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="5">
         <v>613</v>
       </c>
-      <c r="E10" s="76"/>
+      <c r="E10" s="107"/>
       <c r="F10" s="2"/>
       <c r="I10" t="s">
         <v>6</v>
@@ -4406,70 +5185,70 @@
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="82"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="4">
         <v>614</v>
       </c>
-      <c r="E11" s="76"/>
+      <c r="E11" s="107"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="82"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="4">
         <v>617</v>
       </c>
-      <c r="E12" s="76"/>
+      <c r="E12" s="107"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="82"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="4">
         <v>618</v>
       </c>
-      <c r="E13" s="76"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="82"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="4">
         <v>619</v>
       </c>
-      <c r="E14" s="76"/>
+      <c r="E14" s="107"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="82"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="4">
         <v>620</v>
       </c>
-      <c r="E15" s="76"/>
+      <c r="E15" s="107"/>
       <c r="F15" s="2" t="s">
         <v>48</v>
       </c>
@@ -4478,7 +5257,7 @@
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="82"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="12" t="s">
         <v>29</v>
       </c>
@@ -4494,14 +5273,14 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="82"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="4">
         <v>915</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="104" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="2"/>
@@ -4510,35 +5289,35 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="82"/>
+      <c r="B18" s="113"/>
       <c r="C18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="4">
         <v>923</v>
       </c>
-      <c r="E18" s="74"/>
+      <c r="E18" s="105"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="83"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D19" s="4">
         <v>926</v>
       </c>
-      <c r="E19" s="74"/>
+      <c r="E19" s="105"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="112" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -4547,175 +5326,175 @@
       <c r="D20" s="4">
         <v>1001</v>
       </c>
-      <c r="E20" s="74"/>
+      <c r="E20" s="105"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="82"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="4">
         <v>1002</v>
       </c>
-      <c r="E21" s="74"/>
+      <c r="E21" s="105"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="82"/>
+      <c r="B22" s="113"/>
       <c r="C22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="4">
         <v>1003</v>
       </c>
-      <c r="E22" s="74"/>
+      <c r="E22" s="105"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="82"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="4">
         <v>1004</v>
       </c>
-      <c r="E23" s="74"/>
+      <c r="E23" s="105"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="82"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="4">
         <v>1005</v>
       </c>
-      <c r="E24" s="74"/>
+      <c r="E24" s="105"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="82"/>
+      <c r="B25" s="113"/>
       <c r="C25" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="4">
         <v>1006</v>
       </c>
-      <c r="E25" s="74"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="82"/>
+      <c r="B26" s="113"/>
       <c r="C26" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="4">
         <v>1007</v>
       </c>
-      <c r="E26" s="74"/>
+      <c r="E26" s="105"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="82"/>
+      <c r="B27" s="113"/>
       <c r="C27" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="4">
         <v>1008</v>
       </c>
-      <c r="E27" s="74"/>
+      <c r="E27" s="105"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="82"/>
+      <c r="B28" s="113"/>
       <c r="C28" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="4">
         <v>1009</v>
       </c>
-      <c r="E28" s="74"/>
+      <c r="E28" s="105"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="82"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="4">
         <v>1010</v>
       </c>
-      <c r="E29" s="74"/>
+      <c r="E29" s="105"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="82"/>
+      <c r="B30" s="113"/>
       <c r="C30" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="4">
         <v>1011</v>
       </c>
-      <c r="E30" s="74"/>
+      <c r="E30" s="105"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="82"/>
+      <c r="B31" s="113"/>
       <c r="C31" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="4">
         <v>1012</v>
       </c>
-      <c r="E31" s="74"/>
+      <c r="E31" s="105"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="82"/>
+      <c r="B32" s="113"/>
       <c r="C32" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D32" s="4">
         <v>1013</v>
       </c>
-      <c r="E32" s="74"/>
+      <c r="E32" s="105"/>
       <c r="F32" s="2" t="s">
         <v>54</v>
       </c>
@@ -4724,126 +5503,126 @@
       <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="82"/>
+      <c r="B33" s="113"/>
       <c r="C33" s="12" t="s">
         <v>101</v>
       </c>
       <c r="D33" s="4">
         <v>1014</v>
       </c>
-      <c r="E33" s="74"/>
+      <c r="E33" s="105"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="82"/>
+      <c r="B34" s="113"/>
       <c r="C34" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="4">
         <v>1015</v>
       </c>
-      <c r="E34" s="74"/>
+      <c r="E34" s="105"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="82"/>
+      <c r="B35" s="113"/>
       <c r="C35" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="4">
         <v>1017</v>
       </c>
-      <c r="E35" s="74"/>
+      <c r="E35" s="105"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="82"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="4">
         <v>1018</v>
       </c>
-      <c r="E36" s="74"/>
+      <c r="E36" s="105"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="82"/>
+      <c r="B37" s="113"/>
       <c r="C37" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="4">
         <v>1019</v>
       </c>
-      <c r="E37" s="74"/>
+      <c r="E37" s="105"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="82"/>
+      <c r="B38" s="113"/>
       <c r="C38" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="4">
         <v>1020</v>
       </c>
-      <c r="E38" s="74"/>
+      <c r="E38" s="105"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>37</v>
       </c>
-      <c r="B39" s="82"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="4">
         <v>1021</v>
       </c>
-      <c r="E39" s="74"/>
+      <c r="E39" s="105"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="82"/>
+      <c r="B40" s="113"/>
       <c r="C40" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="4">
         <v>1022</v>
       </c>
-      <c r="E40" s="74"/>
+      <c r="E40" s="105"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>39</v>
       </c>
-      <c r="B41" s="82"/>
+      <c r="B41" s="113"/>
       <c r="C41" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="4">
         <v>1023</v>
       </c>
-      <c r="E41" s="74"/>
+      <c r="E41" s="105"/>
       <c r="F41" s="2" t="s">
         <v>58</v>
       </c>
@@ -4852,58 +5631,58 @@
       <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="82"/>
+      <c r="B42" s="113"/>
       <c r="C42" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="4">
         <v>1024</v>
       </c>
-      <c r="E42" s="74"/>
+      <c r="E42" s="105"/>
     </row>
     <row r="43" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="B43" s="83"/>
+      <c r="B43" s="114"/>
       <c r="C43" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D43" s="4">
         <v>1025</v>
       </c>
-      <c r="E43" s="75"/>
+      <c r="E43" s="106"/>
       <c r="F43" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="78"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79" t="str">
+      <c r="B44" s="109"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110" t="str">
         <f>COUNT(D3:D43)&amp;"객실"</f>
         <v>41객실</v>
       </c>
-      <c r="E44" s="80"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A45" s="61"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="64"/>
+      <c r="A45" s="92"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="95"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="65"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="68"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="99"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
@@ -4928,6 +5707,792 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C66E6-1A4E-48CD-A544-340952140C81}">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="25.69921875" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" customWidth="1"/>
+    <col min="7" max="7" width="22.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="100" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="103"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A3" s="63">
+        <f t="shared" ref="A3:A44" si="0">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="176" t="s">
+        <v>395</v>
+      </c>
+      <c r="D3" s="76">
+        <v>801</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="189" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="63">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="77">
+        <v>804</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="179"/>
+    </row>
+    <row r="5" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A5" s="63">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="68"/>
+      <c r="C5" s="196" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="81">
+        <v>714</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="190" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="63">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="82">
+        <v>718</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="191"/>
+    </row>
+    <row r="7" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A7" s="63">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="184" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="78">
+        <v>1107</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="186" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="63">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="185"/>
+      <c r="C8" s="61" t="s">
+        <v>481</v>
+      </c>
+      <c r="D8" s="79">
+        <v>1113</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="187"/>
+    </row>
+    <row r="9" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="63">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="185"/>
+      <c r="C9" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="80">
+        <v>1202</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="188"/>
+    </row>
+    <row r="10" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="63">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>446</v>
+      </c>
+      <c r="D10" s="81">
+        <v>601</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="186" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A11" s="63">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="162"/>
+      <c r="C11" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D11" s="4">
+        <v>604</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="187"/>
+    </row>
+    <row r="12" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A12" s="63">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="162"/>
+      <c r="C12" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="D12" s="4">
+        <v>605</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="187"/>
+    </row>
+    <row r="13" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A13" s="63">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="162"/>
+      <c r="C13" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="D13" s="4">
+        <v>606</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="187"/>
+    </row>
+    <row r="14" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A14" s="63">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="162"/>
+      <c r="C14" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D14" s="5">
+        <v>607</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="187"/>
+    </row>
+    <row r="15" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A15" s="63">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="162"/>
+      <c r="C15" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="D15" s="4">
+        <v>609</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="187"/>
+    </row>
+    <row r="16" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A16" s="63">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="162"/>
+      <c r="C16" s="45" t="s">
+        <v>452</v>
+      </c>
+      <c r="D16" s="4">
+        <v>610</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="187"/>
+    </row>
+    <row r="17" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A17" s="63">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="162"/>
+      <c r="C17" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="D17" s="4">
+        <v>613</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="187"/>
+    </row>
+    <row r="18" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A18" s="63">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="162"/>
+      <c r="C18" s="45" t="s">
+        <v>454</v>
+      </c>
+      <c r="D18" s="4">
+        <v>614</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="187"/>
+    </row>
+    <row r="19" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A19" s="63">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="162"/>
+      <c r="C19" s="45" t="s">
+        <v>459</v>
+      </c>
+      <c r="D19" s="4">
+        <v>617</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="187"/>
+    </row>
+    <row r="20" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A20" s="63">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="162"/>
+      <c r="C20" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="D20" s="4">
+        <v>618</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="187"/>
+    </row>
+    <row r="21" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="63">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="162"/>
+      <c r="C21" s="88" t="s">
+        <v>458</v>
+      </c>
+      <c r="D21" s="83">
+        <v>619</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="187"/>
+    </row>
+    <row r="22" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="63">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="162"/>
+      <c r="C22" s="89" t="s">
+        <v>456</v>
+      </c>
+      <c r="D22" s="4">
+        <v>620</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="187"/>
+    </row>
+    <row r="23" spans="1:7" s="87" customFormat="1" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="86">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="162"/>
+      <c r="C23" s="90" t="s">
+        <v>457</v>
+      </c>
+      <c r="D23" s="65">
+        <v>622</v>
+      </c>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="200"/>
+    </row>
+    <row r="24" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="84">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="162" t="s">
+        <v>441</v>
+      </c>
+      <c r="C24" s="91" t="s">
+        <v>460</v>
+      </c>
+      <c r="D24" s="85">
+        <v>901</v>
+      </c>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="201" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A25" s="63">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="162"/>
+      <c r="C25" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="D25" s="4">
+        <v>902</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="202"/>
+    </row>
+    <row r="26" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A26" s="63">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="162"/>
+      <c r="C26" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="D26" s="4">
+        <v>903</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="202"/>
+    </row>
+    <row r="27" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A27" s="63">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="162"/>
+      <c r="C27" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="D27" s="4">
+        <v>904</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="202"/>
+    </row>
+    <row r="28" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A28" s="63">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="162"/>
+      <c r="C28" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="D28" s="4">
+        <v>905</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="202"/>
+    </row>
+    <row r="29" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A29" s="63">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="162"/>
+      <c r="C29" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D29" s="4">
+        <v>906</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="202"/>
+    </row>
+    <row r="30" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A30" s="63">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="162"/>
+      <c r="C30" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="D30" s="4">
+        <v>907</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="202"/>
+    </row>
+    <row r="31" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A31" s="63">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="162"/>
+      <c r="C31" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D31" s="4">
+        <v>908</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="202"/>
+    </row>
+    <row r="32" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A32" s="63">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="162"/>
+      <c r="C32" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="D32" s="4">
+        <v>909</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="202"/>
+    </row>
+    <row r="33" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A33" s="63">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="162"/>
+      <c r="C33" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D33" s="4">
+        <v>910</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="202"/>
+    </row>
+    <row r="34" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A34" s="63">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="162"/>
+      <c r="C34" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="D34" s="4">
+        <v>911</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="202"/>
+    </row>
+    <row r="35" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A35" s="63">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="162"/>
+      <c r="C35" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="D35" s="4">
+        <v>912</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="202"/>
+    </row>
+    <row r="36" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A36" s="63">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="162"/>
+      <c r="C36" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="D36" s="4">
+        <v>913</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="202"/>
+    </row>
+    <row r="37" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A37" s="63">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="162"/>
+      <c r="C37" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="D37" s="4">
+        <v>914</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="202"/>
+    </row>
+    <row r="38" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A38" s="63">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="162"/>
+      <c r="C38" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="D38" s="4">
+        <v>915</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="202"/>
+    </row>
+    <row r="39" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A39" s="63">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="162"/>
+      <c r="C39" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="D39" s="4">
+        <v>917</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="202"/>
+    </row>
+    <row r="40" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A40" s="63">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="162"/>
+      <c r="C40" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="D40" s="4">
+        <v>918</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="202"/>
+    </row>
+    <row r="41" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A41" s="63">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="162"/>
+      <c r="C41" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="D41" s="4">
+        <v>919</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="202"/>
+    </row>
+    <row r="42" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A42" s="63">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="162"/>
+      <c r="C42" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="D42" s="4">
+        <v>920</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="202"/>
+    </row>
+    <row r="43" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A43" s="63">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="162"/>
+      <c r="C43" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="D43" s="4">
+        <v>922</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="202"/>
+    </row>
+    <row r="44" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A44" s="63">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="162"/>
+      <c r="C44" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D44" s="4">
+        <v>923</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="203"/>
+    </row>
+    <row r="45" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A45" s="180" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="181"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="E45" s="182"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="183"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="152"/>
+      <c r="B46" s="153"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="154"/>
+      <c r="E46" s="155"/>
+      <c r="F46" s="155"/>
+      <c r="G46" s="156"/>
+    </row>
+    <row r="47" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="157"/>
+      <c r="B47" s="158"/>
+      <c r="C47" s="159"/>
+      <c r="D47" s="159"/>
+      <c r="E47" s="160"/>
+      <c r="F47" s="160"/>
+      <c r="G47" s="161"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A46:G47"/>
+    <mergeCell ref="G10:G23"/>
+    <mergeCell ref="B24:B44"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="G24:G44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:G45"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4951,13 +6516,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="124"/>
       <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="25.2" x14ac:dyDescent="0.4">
@@ -4987,7 +6552,7 @@
       <c r="D3" s="22">
         <v>601</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="132" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="23" t="s">
@@ -5005,7 +6570,7 @@
       <c r="D4" s="22">
         <v>604</v>
       </c>
-      <c r="E4" s="102"/>
+      <c r="E4" s="133"/>
       <c r="F4" s="24" t="s">
         <v>60</v>
       </c>
@@ -5021,14 +6586,14 @@
       <c r="D5" s="25">
         <v>605</v>
       </c>
-      <c r="E5" s="103"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="135" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -5037,7 +6602,7 @@
       <c r="D6" s="22">
         <v>606</v>
       </c>
-      <c r="E6" s="99" t="s">
+      <c r="E6" s="130" t="s">
         <v>108</v>
       </c>
       <c r="F6" s="16"/>
@@ -5046,28 +6611,28 @@
       <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="30" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="22">
         <v>607</v>
       </c>
-      <c r="E7" s="100"/>
+      <c r="E7" s="131"/>
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="105"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="22">
         <v>609</v>
       </c>
-      <c r="E8" s="100"/>
+      <c r="E8" s="131"/>
       <c r="F8" s="16"/>
       <c r="K8" s="32"/>
     </row>
@@ -5075,42 +6640,42 @@
       <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B9" s="105"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="30" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="22">
         <v>610</v>
       </c>
-      <c r="E9" s="100"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="105"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="30" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="25">
         <v>613</v>
       </c>
-      <c r="E10" s="100"/>
+      <c r="E10" s="131"/>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="105"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="30" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="22">
         <v>614</v>
       </c>
-      <c r="E11" s="100"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="16"/>
       <c r="I11" t="s">
         <v>6</v>
@@ -5120,42 +6685,42 @@
       <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="105"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="30" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="22">
         <v>617</v>
       </c>
-      <c r="E12" s="100"/>
+      <c r="E12" s="131"/>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="105"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="30" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="22">
         <v>618</v>
       </c>
-      <c r="E13" s="100"/>
+      <c r="E13" s="131"/>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="105"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="22">
         <v>619</v>
       </c>
-      <c r="E14" s="100"/>
+      <c r="E14" s="131"/>
       <c r="F14" s="16" t="s">
         <v>71</v>
       </c>
@@ -5164,56 +6729,56 @@
       <c r="A15" s="20">
         <v>13</v>
       </c>
-      <c r="B15" s="105"/>
+      <c r="B15" s="136"/>
       <c r="C15" s="30" t="s">
         <v>72</v>
       </c>
       <c r="D15" s="22">
         <v>620</v>
       </c>
-      <c r="E15" s="100"/>
+      <c r="E15" s="131"/>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="136"/>
       <c r="C16" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="22">
         <v>622</v>
       </c>
-      <c r="E16" s="100"/>
+      <c r="E16" s="131"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20">
         <v>15</v>
       </c>
-      <c r="B17" s="105"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="22">
         <v>623</v>
       </c>
-      <c r="E17" s="100"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="105"/>
+      <c r="B18" s="136"/>
       <c r="C18" s="30" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="22">
         <v>626</v>
       </c>
-      <c r="E18" s="100"/>
+      <c r="E18" s="131"/>
       <c r="F18" s="16" t="s">
         <v>76</v>
       </c>
@@ -5222,7 +6787,7 @@
       <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="135" t="s">
         <v>106</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -5231,21 +6796,21 @@
       <c r="D19" s="22">
         <v>704</v>
       </c>
-      <c r="E19" s="100"/>
+      <c r="E19" s="131"/>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="20">
         <v>18</v>
       </c>
-      <c r="B20" s="106"/>
+      <c r="B20" s="137"/>
       <c r="C20" s="26" t="s">
         <v>102</v>
       </c>
       <c r="D20" s="22">
         <v>705</v>
       </c>
-      <c r="E20" s="100"/>
+      <c r="E20" s="131"/>
       <c r="F20" s="16" t="s">
         <v>103</v>
       </c>
@@ -5254,7 +6819,7 @@
       <c r="A21" s="20">
         <v>19</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="136" t="s">
         <v>105</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -5270,7 +6835,7 @@
       <c r="A22" s="20">
         <v>20</v>
       </c>
-      <c r="B22" s="106"/>
+      <c r="B22" s="137"/>
       <c r="C22" s="21" t="s">
         <v>61</v>
       </c>
@@ -5288,10 +6853,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="39"/>
-      <c r="C23" s="107" t="s">
+      <c r="C23" s="138" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="108"/>
+      <c r="D23" s="139"/>
       <c r="E23" s="38"/>
       <c r="F23" s="16"/>
       <c r="K23" s="32"/>
@@ -5300,7 +6865,7 @@
       <c r="A24" s="20">
         <v>22</v>
       </c>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="135" t="s">
         <v>106</v>
       </c>
       <c r="C24" s="30" t="s">
@@ -5309,7 +6874,7 @@
       <c r="D24" s="22">
         <v>1001</v>
       </c>
-      <c r="E24" s="101" t="s">
+      <c r="E24" s="132" t="s">
         <v>110</v>
       </c>
       <c r="F24" s="16"/>
@@ -5318,252 +6883,252 @@
       <c r="A25" s="20">
         <v>23</v>
       </c>
-      <c r="B25" s="105"/>
+      <c r="B25" s="136"/>
       <c r="C25" s="30" t="s">
         <v>99</v>
       </c>
       <c r="D25" s="22">
         <v>1002</v>
       </c>
-      <c r="E25" s="102"/>
+      <c r="E25" s="133"/>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20">
         <v>24</v>
       </c>
-      <c r="B26" s="105"/>
+      <c r="B26" s="136"/>
       <c r="C26" s="30" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="22">
         <v>1003</v>
       </c>
-      <c r="E26" s="102"/>
+      <c r="E26" s="133"/>
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20">
         <v>25</v>
       </c>
-      <c r="B27" s="105"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="30" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="22">
         <v>1004</v>
       </c>
-      <c r="E27" s="102"/>
+      <c r="E27" s="133"/>
       <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20">
         <v>26</v>
       </c>
-      <c r="B28" s="105"/>
+      <c r="B28" s="136"/>
       <c r="C28" s="30" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="22">
         <v>1005</v>
       </c>
-      <c r="E28" s="102"/>
+      <c r="E28" s="133"/>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20">
         <v>27</v>
       </c>
-      <c r="B29" s="105"/>
+      <c r="B29" s="136"/>
       <c r="C29" s="30" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="22">
         <v>1006</v>
       </c>
-      <c r="E29" s="102"/>
+      <c r="E29" s="133"/>
       <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="20">
         <v>28</v>
       </c>
-      <c r="B30" s="105"/>
+      <c r="B30" s="136"/>
       <c r="C30" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D30" s="22">
         <v>1007</v>
       </c>
-      <c r="E30" s="102"/>
+      <c r="E30" s="133"/>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20">
         <v>29</v>
       </c>
-      <c r="B31" s="105"/>
+      <c r="B31" s="136"/>
       <c r="C31" s="30" t="s">
         <v>83</v>
       </c>
       <c r="D31" s="22">
         <v>1008</v>
       </c>
-      <c r="E31" s="102"/>
+      <c r="E31" s="133"/>
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="20">
         <v>30</v>
       </c>
-      <c r="B32" s="105"/>
+      <c r="B32" s="136"/>
       <c r="C32" s="30" t="s">
         <v>84</v>
       </c>
       <c r="D32" s="22">
         <v>1009</v>
       </c>
-      <c r="E32" s="102"/>
+      <c r="E32" s="133"/>
       <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20">
         <v>31</v>
       </c>
-      <c r="B33" s="105"/>
+      <c r="B33" s="136"/>
       <c r="C33" s="30" t="s">
         <v>86</v>
       </c>
       <c r="D33" s="22">
         <v>1010</v>
       </c>
-      <c r="E33" s="102"/>
+      <c r="E33" s="133"/>
       <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="20">
         <v>32</v>
       </c>
-      <c r="B34" s="105"/>
+      <c r="B34" s="136"/>
       <c r="C34" s="30" t="s">
         <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>1011</v>
       </c>
-      <c r="E34" s="102"/>
+      <c r="E34" s="133"/>
       <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20">
         <v>33</v>
       </c>
-      <c r="B35" s="105"/>
+      <c r="B35" s="136"/>
       <c r="C35" s="30" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="22">
         <v>1012</v>
       </c>
-      <c r="E35" s="102"/>
+      <c r="E35" s="133"/>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="20">
         <v>34</v>
       </c>
-      <c r="B36" s="105"/>
+      <c r="B36" s="136"/>
       <c r="C36" s="30" t="s">
         <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>1013</v>
       </c>
-      <c r="E36" s="102"/>
+      <c r="E36" s="133"/>
       <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20">
         <v>35</v>
       </c>
-      <c r="B37" s="105"/>
+      <c r="B37" s="136"/>
       <c r="C37" s="30" t="s">
         <v>89</v>
       </c>
       <c r="D37" s="22">
         <v>1014</v>
       </c>
-      <c r="E37" s="102"/>
+      <c r="E37" s="133"/>
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="20">
         <v>36</v>
       </c>
-      <c r="B38" s="105"/>
+      <c r="B38" s="136"/>
       <c r="C38" s="30" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="22">
         <v>1015</v>
       </c>
-      <c r="E38" s="102"/>
+      <c r="E38" s="133"/>
       <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="20">
         <v>37</v>
       </c>
-      <c r="B39" s="105"/>
+      <c r="B39" s="136"/>
       <c r="C39" s="30" t="s">
         <v>91</v>
       </c>
       <c r="D39" s="22">
         <v>1017</v>
       </c>
-      <c r="E39" s="102"/>
+      <c r="E39" s="133"/>
       <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="20">
         <v>38</v>
       </c>
-      <c r="B40" s="105"/>
+      <c r="B40" s="136"/>
       <c r="C40" s="30" t="s">
         <v>92</v>
       </c>
       <c r="D40" s="22">
         <v>1018</v>
       </c>
-      <c r="E40" s="102"/>
+      <c r="E40" s="133"/>
       <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="20">
         <v>39</v>
       </c>
-      <c r="B41" s="105"/>
+      <c r="B41" s="136"/>
       <c r="C41" s="30" t="s">
         <v>93</v>
       </c>
       <c r="D41" s="22">
         <v>1019</v>
       </c>
-      <c r="E41" s="102"/>
+      <c r="E41" s="133"/>
       <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="20">
         <v>40</v>
       </c>
-      <c r="B42" s="105"/>
+      <c r="B42" s="136"/>
       <c r="C42" s="26" t="s">
         <v>94</v>
       </c>
       <c r="D42" s="22">
         <v>1020</v>
       </c>
-      <c r="E42" s="102"/>
+      <c r="E42" s="133"/>
       <c r="F42" s="16" t="s">
         <v>95</v>
       </c>
@@ -5572,84 +7137,84 @@
       <c r="A43" s="20">
         <v>41</v>
       </c>
-      <c r="B43" s="105"/>
+      <c r="B43" s="136"/>
       <c r="C43" s="30" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="22">
         <v>1021</v>
       </c>
-      <c r="E43" s="102"/>
+      <c r="E43" s="133"/>
       <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="20">
         <v>42</v>
       </c>
-      <c r="B44" s="105"/>
+      <c r="B44" s="136"/>
       <c r="C44" s="30" t="s">
         <v>104</v>
       </c>
       <c r="D44" s="22">
         <v>1022</v>
       </c>
-      <c r="E44" s="102"/>
+      <c r="E44" s="133"/>
       <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="20">
         <v>43</v>
       </c>
-      <c r="B45" s="105"/>
+      <c r="B45" s="136"/>
       <c r="C45" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="22">
         <v>1023</v>
       </c>
-      <c r="E45" s="102"/>
+      <c r="E45" s="133"/>
       <c r="F45" s="28"/>
     </row>
     <row r="46" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A46" s="20">
         <v>44</v>
       </c>
-      <c r="B46" s="106"/>
+      <c r="B46" s="137"/>
       <c r="C46" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="22">
         <v>1024</v>
       </c>
-      <c r="E46" s="103"/>
+      <c r="E46" s="134"/>
       <c r="F46" s="28"/>
     </row>
     <row r="47" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="96" t="s">
+      <c r="A47" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="97"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="94" t="s">
+      <c r="B47" s="128"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="95"/>
+      <c r="E47" s="126"/>
       <c r="F47" s="28"/>
     </row>
     <row r="48" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="84"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="86"/>
+      <c r="A48" s="115"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="117"/>
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="87"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="89"/>
+      <c r="A49" s="118"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="120"/>
       <c r="F49" s="29"/>
     </row>
   </sheetData>
@@ -5691,13 +7256,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="103"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="25.2" x14ac:dyDescent="0.4">
@@ -5727,7 +7292,7 @@
       <c r="D3" s="4">
         <v>707</v>
       </c>
-      <c r="E3" s="109" t="s">
+      <c r="E3" s="140" t="s">
         <v>113</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -5745,7 +7310,7 @@
       <c r="D4" s="4">
         <v>1101</v>
       </c>
-      <c r="E4" s="110"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -5761,14 +7326,14 @@
       <c r="D5" s="5">
         <v>1104</v>
       </c>
-      <c r="E5" s="111"/>
+      <c r="E5" s="142"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="135" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -5777,7 +7342,7 @@
       <c r="D6" s="4">
         <v>601</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="140" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="2"/>
@@ -5786,154 +7351,154 @@
       <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="12" t="s">
         <v>117</v>
       </c>
       <c r="D7" s="4">
         <v>604</v>
       </c>
-      <c r="E7" s="110"/>
+      <c r="E7" s="141"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="105"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="12" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="4">
         <v>605</v>
       </c>
-      <c r="E8" s="110"/>
+      <c r="E8" s="141"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="105"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D9" s="4">
         <v>606</v>
       </c>
-      <c r="E9" s="110"/>
+      <c r="E9" s="141"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="105"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="45" t="s">
         <v>120</v>
       </c>
       <c r="D10" s="5">
         <v>607</v>
       </c>
-      <c r="E10" s="110"/>
+      <c r="E10" s="141"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <v>9</v>
       </c>
-      <c r="B11" s="105"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="4">
         <v>609</v>
       </c>
-      <c r="E11" s="110"/>
+      <c r="E11" s="141"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <v>10</v>
       </c>
-      <c r="B12" s="105"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D12" s="4">
         <v>610</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="141"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <v>11</v>
       </c>
-      <c r="B13" s="105"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D13" s="4">
         <v>613</v>
       </c>
-      <c r="E13" s="110"/>
+      <c r="E13" s="141"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>12</v>
       </c>
-      <c r="B14" s="105"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D14" s="4">
         <v>614</v>
       </c>
-      <c r="E14" s="110"/>
+      <c r="E14" s="141"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <v>13</v>
       </c>
-      <c r="B15" s="105"/>
+      <c r="B15" s="136"/>
       <c r="C15" s="12" t="s">
         <v>125</v>
       </c>
       <c r="D15" s="4">
         <v>617</v>
       </c>
-      <c r="E15" s="110"/>
+      <c r="E15" s="141"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <v>14</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="136"/>
       <c r="C16" s="12" t="s">
         <v>126</v>
       </c>
       <c r="D16" s="4">
         <v>618</v>
       </c>
-      <c r="E16" s="110"/>
+      <c r="E16" s="141"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <v>15</v>
       </c>
-      <c r="B17" s="105"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="42" t="s">
         <v>127</v>
       </c>
       <c r="D17" s="4">
         <v>619</v>
       </c>
-      <c r="E17" s="110"/>
+      <c r="E17" s="141"/>
       <c r="F17" s="2" t="s">
         <v>76</v>
       </c>
@@ -5942,14 +7507,14 @@
       <c r="A18" s="41">
         <v>16</v>
       </c>
-      <c r="B18" s="105"/>
+      <c r="B18" s="136"/>
       <c r="C18" s="42" t="s">
         <v>100</v>
       </c>
       <c r="D18" s="4">
         <v>620</v>
       </c>
-      <c r="E18" s="110"/>
+      <c r="E18" s="141"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -5974,14 +7539,14 @@
       <c r="A20" s="41">
         <v>18</v>
       </c>
-      <c r="B20" s="104"/>
+      <c r="B20" s="135"/>
       <c r="C20" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D20" s="4">
         <v>1001</v>
       </c>
-      <c r="E20" s="109" t="s">
+      <c r="E20" s="140" t="s">
         <v>115</v>
       </c>
       <c r="F20" s="2"/>
@@ -5990,168 +7555,168 @@
       <c r="A21" s="41">
         <v>19</v>
       </c>
-      <c r="B21" s="105"/>
+      <c r="B21" s="136"/>
       <c r="C21" s="12" t="s">
         <v>130</v>
       </c>
       <c r="D21" s="4">
         <v>1002</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="141"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <v>20</v>
       </c>
-      <c r="B22" s="105"/>
+      <c r="B22" s="136"/>
       <c r="C22" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D22" s="4">
         <v>1003</v>
       </c>
-      <c r="E22" s="110"/>
+      <c r="E22" s="141"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <v>21</v>
       </c>
-      <c r="B23" s="105"/>
+      <c r="B23" s="136"/>
       <c r="C23" s="12" t="s">
         <v>132</v>
       </c>
       <c r="D23" s="4">
         <v>1004</v>
       </c>
-      <c r="E23" s="110"/>
+      <c r="E23" s="141"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <v>22</v>
       </c>
-      <c r="B24" s="105"/>
+      <c r="B24" s="136"/>
       <c r="C24" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D24" s="4">
         <v>1005</v>
       </c>
-      <c r="E24" s="110"/>
+      <c r="E24" s="141"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <v>23</v>
       </c>
-      <c r="B25" s="105"/>
+      <c r="B25" s="136"/>
       <c r="C25" s="12" t="s">
         <v>134</v>
       </c>
       <c r="D25" s="4">
         <v>1006</v>
       </c>
-      <c r="E25" s="110"/>
+      <c r="E25" s="141"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <v>24</v>
       </c>
-      <c r="B26" s="105"/>
+      <c r="B26" s="136"/>
       <c r="C26" s="12" t="s">
         <v>135</v>
       </c>
       <c r="D26" s="4">
         <v>1007</v>
       </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="141"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <v>25</v>
       </c>
-      <c r="B27" s="105"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="12" t="s">
         <v>136</v>
       </c>
       <c r="D27" s="4">
         <v>1008</v>
       </c>
-      <c r="E27" s="110"/>
+      <c r="E27" s="141"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <v>26</v>
       </c>
-      <c r="B28" s="105"/>
+      <c r="B28" s="136"/>
       <c r="C28" s="12" t="s">
         <v>137</v>
       </c>
       <c r="D28" s="4">
         <v>1009</v>
       </c>
-      <c r="E28" s="110"/>
+      <c r="E28" s="141"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <v>27</v>
       </c>
-      <c r="B29" s="105"/>
+      <c r="B29" s="136"/>
       <c r="C29" s="12" t="s">
         <v>138</v>
       </c>
       <c r="D29" s="4">
         <v>1010</v>
       </c>
-      <c r="E29" s="110"/>
+      <c r="E29" s="141"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <v>28</v>
       </c>
-      <c r="B30" s="105"/>
+      <c r="B30" s="136"/>
       <c r="C30" s="12" t="s">
         <v>139</v>
       </c>
       <c r="D30" s="4">
         <v>1011</v>
       </c>
-      <c r="E30" s="110"/>
+      <c r="E30" s="141"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <v>29</v>
       </c>
-      <c r="B31" s="105"/>
+      <c r="B31" s="136"/>
       <c r="C31" s="45" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="4">
         <v>1012</v>
       </c>
-      <c r="E31" s="110"/>
+      <c r="E31" s="141"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <v>30</v>
       </c>
-      <c r="B32" s="105"/>
+      <c r="B32" s="136"/>
       <c r="C32" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D32" s="4">
         <v>1013</v>
       </c>
-      <c r="E32" s="110"/>
+      <c r="E32" s="141"/>
       <c r="F32" s="2" t="s">
         <v>142</v>
       </c>
@@ -6160,167 +7725,167 @@
       <c r="A33" s="41">
         <v>31</v>
       </c>
-      <c r="B33" s="105"/>
+      <c r="B33" s="136"/>
       <c r="C33" s="12" t="s">
         <v>143</v>
       </c>
       <c r="D33" s="4">
         <v>1014</v>
       </c>
-      <c r="E33" s="110"/>
+      <c r="E33" s="141"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <v>32</v>
       </c>
-      <c r="B34" s="105"/>
+      <c r="B34" s="136"/>
       <c r="C34" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D34" s="4">
         <v>1015</v>
       </c>
-      <c r="E34" s="110"/>
+      <c r="E34" s="141"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <v>33</v>
       </c>
-      <c r="B35" s="105"/>
+      <c r="B35" s="136"/>
       <c r="C35" s="12" t="s">
         <v>145</v>
       </c>
       <c r="D35" s="4">
         <v>1017</v>
       </c>
-      <c r="E35" s="110"/>
+      <c r="E35" s="141"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <v>34</v>
       </c>
-      <c r="B36" s="105"/>
+      <c r="B36" s="136"/>
       <c r="C36" s="12" t="s">
         <v>146</v>
       </c>
       <c r="D36" s="4">
         <v>1018</v>
       </c>
-      <c r="E36" s="110"/>
+      <c r="E36" s="141"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <v>35</v>
       </c>
-      <c r="B37" s="105"/>
+      <c r="B37" s="136"/>
       <c r="C37" s="12" t="s">
         <v>147</v>
       </c>
       <c r="D37" s="4">
         <v>1019</v>
       </c>
-      <c r="E37" s="110"/>
+      <c r="E37" s="141"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <v>36</v>
       </c>
-      <c r="B38" s="105"/>
+      <c r="B38" s="136"/>
       <c r="C38" s="12" t="s">
         <v>148</v>
       </c>
       <c r="D38" s="4">
         <v>1020</v>
       </c>
-      <c r="E38" s="110"/>
+      <c r="E38" s="141"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <v>37</v>
       </c>
-      <c r="B39" s="105"/>
+      <c r="B39" s="136"/>
       <c r="C39" s="12" t="s">
         <v>149</v>
       </c>
       <c r="D39" s="4">
         <v>1021</v>
       </c>
-      <c r="E39" s="110"/>
+      <c r="E39" s="141"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <v>38</v>
       </c>
-      <c r="B40" s="105"/>
+      <c r="B40" s="136"/>
       <c r="C40" s="12" t="s">
         <v>150</v>
       </c>
       <c r="D40" s="4">
         <v>1022</v>
       </c>
-      <c r="E40" s="110"/>
+      <c r="E40" s="141"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <v>39</v>
       </c>
-      <c r="B41" s="105"/>
+      <c r="B41" s="136"/>
       <c r="C41" s="12" t="s">
         <v>151</v>
       </c>
       <c r="D41" s="4">
         <v>1023</v>
       </c>
-      <c r="E41" s="110"/>
+      <c r="E41" s="141"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <v>40</v>
       </c>
-      <c r="B42" s="106"/>
+      <c r="B42" s="137"/>
       <c r="C42" s="42" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="4">
         <v>1024</v>
       </c>
-      <c r="E42" s="110"/>
+      <c r="E42" s="141"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="78"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79" t="s">
+      <c r="B43" s="109"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="E43" s="80"/>
+      <c r="E43" s="111"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="61"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="64"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="95"/>
     </row>
     <row r="45" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="65"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="68"/>
+      <c r="A45" s="96"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6356,15 +7921,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="103"/>
     </row>
     <row r="2" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
@@ -6401,7 +7966,7 @@
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="113" t="s">
+      <c r="G3" s="144" t="s">
         <v>240</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -6422,7 +7987,7 @@
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
-      <c r="G4" s="113"/>
+      <c r="G4" s="144"/>
       <c r="H4" s="14" t="s">
         <v>60</v>
       </c>
@@ -6432,7 +7997,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="145" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -6443,7 +8008,7 @@
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="144" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6452,7 +8017,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="115"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="43" t="s">
         <v>154</v>
       </c>
@@ -6461,14 +8026,14 @@
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
-      <c r="G6" s="113"/>
+      <c r="G6" s="144"/>
     </row>
     <row r="7" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="145" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -6479,7 +8044,7 @@
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="144" t="s">
         <v>155</v>
       </c>
       <c r="H7" s="54" t="s">
@@ -6491,7 +8056,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="131"/>
+      <c r="B8" s="162"/>
       <c r="C8" s="12" t="s">
         <v>162</v>
       </c>
@@ -6500,14 +8065,14 @@
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
-      <c r="G8" s="113"/>
+      <c r="G8" s="144"/>
     </row>
     <row r="9" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="131"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="12" t="s">
         <v>163</v>
       </c>
@@ -6516,14 +8081,14 @@
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
-      <c r="G9" s="113"/>
+      <c r="G9" s="144"/>
     </row>
     <row r="10" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="131"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="45" t="s">
         <v>164</v>
       </c>
@@ -6532,14 +8097,14 @@
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
-      <c r="G10" s="113"/>
+      <c r="G10" s="144"/>
     </row>
     <row r="11" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="131"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="12" t="s">
         <v>165</v>
       </c>
@@ -6548,14 +8113,14 @@
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
-      <c r="G11" s="113"/>
+      <c r="G11" s="144"/>
     </row>
     <row r="12" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="131"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="12" t="s">
         <v>166</v>
       </c>
@@ -6564,14 +8129,14 @@
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="56"/>
-      <c r="G12" s="113"/>
+      <c r="G12" s="144"/>
     </row>
     <row r="13" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="131"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="12" t="s">
         <v>167</v>
       </c>
@@ -6580,14 +8145,14 @@
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
-      <c r="G13" s="113"/>
+      <c r="G13" s="144"/>
     </row>
     <row r="14" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="131"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="12" t="s">
         <v>168</v>
       </c>
@@ -6596,14 +8161,14 @@
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
-      <c r="G14" s="113"/>
+      <c r="G14" s="144"/>
     </row>
     <row r="15" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="131"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="12" t="s">
         <v>169</v>
       </c>
@@ -6612,14 +8177,14 @@
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
-      <c r="G15" s="113"/>
+      <c r="G15" s="144"/>
     </row>
     <row r="16" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="131"/>
+      <c r="B16" s="162"/>
       <c r="C16" s="12" t="s">
         <v>170</v>
       </c>
@@ -6628,14 +8193,14 @@
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
-      <c r="G16" s="113"/>
+      <c r="G16" s="144"/>
     </row>
     <row r="17" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="131"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="12" t="s">
         <v>171</v>
       </c>
@@ -6644,14 +8209,14 @@
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
-      <c r="G17" s="113"/>
+      <c r="G17" s="144"/>
     </row>
     <row r="18" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="131"/>
+      <c r="B18" s="162"/>
       <c r="C18" s="11" t="s">
         <v>172</v>
       </c>
@@ -6660,7 +8225,7 @@
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
-      <c r="G18" s="113"/>
+      <c r="G18" s="144"/>
       <c r="H18" s="54" t="s">
         <v>174</v>
       </c>
@@ -6670,7 +8235,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="115"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="12" t="s">
         <v>173</v>
       </c>
@@ -6679,14 +8244,14 @@
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
-      <c r="G19" s="113"/>
+      <c r="G19" s="144"/>
     </row>
     <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="145" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -6697,7 +8262,7 @@
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="113" t="s">
+      <c r="G20" s="144" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6706,7 +8271,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="131"/>
+      <c r="B21" s="162"/>
       <c r="C21" s="12" t="s">
         <v>177</v>
       </c>
@@ -6715,14 +8280,14 @@
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
-      <c r="G21" s="113"/>
+      <c r="G21" s="144"/>
     </row>
     <row r="22" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="131"/>
+      <c r="B22" s="162"/>
       <c r="C22" s="12" t="s">
         <v>245</v>
       </c>
@@ -6731,7 +8296,7 @@
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="56"/>
-      <c r="G22" s="113"/>
+      <c r="G22" s="144"/>
       <c r="H22" s="54" t="s">
         <v>200</v>
       </c>
@@ -6741,7 +8306,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="131"/>
+      <c r="B23" s="162"/>
       <c r="C23" s="12" t="s">
         <v>178</v>
       </c>
@@ -6750,14 +8315,14 @@
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
-      <c r="G23" s="113"/>
+      <c r="G23" s="144"/>
     </row>
     <row r="24" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="131"/>
+      <c r="B24" s="162"/>
       <c r="C24" s="12" t="s">
         <v>179</v>
       </c>
@@ -6766,14 +8331,14 @@
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
-      <c r="G24" s="113"/>
+      <c r="G24" s="144"/>
     </row>
     <row r="25" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="131"/>
+      <c r="B25" s="162"/>
       <c r="C25" s="12" t="s">
         <v>180</v>
       </c>
@@ -6782,14 +8347,14 @@
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="56"/>
-      <c r="G25" s="113"/>
+      <c r="G25" s="144"/>
     </row>
     <row r="26" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="131"/>
+      <c r="B26" s="162"/>
       <c r="C26" s="12" t="s">
         <v>181</v>
       </c>
@@ -6798,14 +8363,14 @@
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
-      <c r="G26" s="113"/>
+      <c r="G26" s="144"/>
     </row>
     <row r="27" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="131"/>
+      <c r="B27" s="162"/>
       <c r="C27" s="12" t="s">
         <v>182</v>
       </c>
@@ -6814,14 +8379,14 @@
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
-      <c r="G27" s="113"/>
+      <c r="G27" s="144"/>
     </row>
     <row r="28" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="131"/>
+      <c r="B28" s="162"/>
       <c r="C28" s="12" t="s">
         <v>183</v>
       </c>
@@ -6830,14 +8395,14 @@
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
-      <c r="G28" s="113"/>
+      <c r="G28" s="144"/>
     </row>
     <row r="29" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="131"/>
+      <c r="B29" s="162"/>
       <c r="C29" s="12" t="s">
         <v>184</v>
       </c>
@@ -6846,14 +8411,14 @@
       </c>
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
-      <c r="G29" s="113"/>
+      <c r="G29" s="144"/>
     </row>
     <row r="30" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="131"/>
+      <c r="B30" s="162"/>
       <c r="C30" s="12" t="s">
         <v>185</v>
       </c>
@@ -6862,14 +8427,14 @@
       </c>
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
-      <c r="G30" s="113"/>
+      <c r="G30" s="144"/>
     </row>
     <row r="31" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="131"/>
+      <c r="B31" s="162"/>
       <c r="C31" s="12" t="s">
         <v>186</v>
       </c>
@@ -6878,14 +8443,14 @@
       </c>
       <c r="E31" s="56"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="113"/>
+      <c r="G31" s="144"/>
     </row>
     <row r="32" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="131"/>
+      <c r="B32" s="162"/>
       <c r="C32" s="12" t="s">
         <v>187</v>
       </c>
@@ -6894,14 +8459,14 @@
       </c>
       <c r="E32" s="56"/>
       <c r="F32" s="56"/>
-      <c r="G32" s="113"/>
+      <c r="G32" s="144"/>
     </row>
     <row r="33" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="131"/>
+      <c r="B33" s="162"/>
       <c r="C33" s="12" t="s">
         <v>188</v>
       </c>
@@ -6910,14 +8475,14 @@
       </c>
       <c r="E33" s="56"/>
       <c r="F33" s="56"/>
-      <c r="G33" s="113"/>
+      <c r="G33" s="144"/>
     </row>
     <row r="34" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="131"/>
+      <c r="B34" s="162"/>
       <c r="C34" s="12" t="s">
         <v>189</v>
       </c>
@@ -6926,14 +8491,14 @@
       </c>
       <c r="E34" s="56"/>
       <c r="F34" s="56"/>
-      <c r="G34" s="113"/>
+      <c r="G34" s="144"/>
     </row>
     <row r="35" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="131"/>
+      <c r="B35" s="162"/>
       <c r="C35" s="12" t="s">
         <v>190</v>
       </c>
@@ -6942,14 +8507,14 @@
       </c>
       <c r="E35" s="56"/>
       <c r="F35" s="56"/>
-      <c r="G35" s="113"/>
+      <c r="G35" s="144"/>
     </row>
     <row r="36" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="131"/>
+      <c r="B36" s="162"/>
       <c r="C36" s="12" t="s">
         <v>191</v>
       </c>
@@ -6958,14 +8523,14 @@
       </c>
       <c r="E36" s="56"/>
       <c r="F36" s="56"/>
-      <c r="G36" s="113"/>
+      <c r="G36" s="144"/>
     </row>
     <row r="37" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="131"/>
+      <c r="B37" s="162"/>
       <c r="C37" s="12" t="s">
         <v>192</v>
       </c>
@@ -6974,14 +8539,14 @@
       </c>
       <c r="E37" s="56"/>
       <c r="F37" s="56"/>
-      <c r="G37" s="113"/>
+      <c r="G37" s="144"/>
     </row>
     <row r="38" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="131"/>
+      <c r="B38" s="162"/>
       <c r="C38" s="12" t="s">
         <v>193</v>
       </c>
@@ -6990,14 +8555,14 @@
       </c>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
-      <c r="G38" s="113"/>
+      <c r="G38" s="144"/>
     </row>
     <row r="39" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="131"/>
+      <c r="B39" s="162"/>
       <c r="C39" s="12" t="s">
         <v>194</v>
       </c>
@@ -7006,14 +8571,14 @@
       </c>
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
-      <c r="G39" s="113"/>
+      <c r="G39" s="144"/>
     </row>
     <row r="40" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="131"/>
+      <c r="B40" s="162"/>
       <c r="C40" s="12" t="s">
         <v>195</v>
       </c>
@@ -7022,14 +8587,14 @@
       </c>
       <c r="E40" s="56"/>
       <c r="F40" s="56"/>
-      <c r="G40" s="113"/>
+      <c r="G40" s="144"/>
     </row>
     <row r="41" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="131"/>
+      <c r="B41" s="162"/>
       <c r="C41" s="12" t="s">
         <v>196</v>
       </c>
@@ -7038,14 +8603,14 @@
       </c>
       <c r="E41" s="56"/>
       <c r="F41" s="56"/>
-      <c r="G41" s="113"/>
+      <c r="G41" s="144"/>
     </row>
     <row r="42" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="131"/>
+      <c r="B42" s="162"/>
       <c r="C42" s="12" t="s">
         <v>197</v>
       </c>
@@ -7054,14 +8619,14 @@
       </c>
       <c r="E42" s="56"/>
       <c r="F42" s="56"/>
-      <c r="G42" s="113"/>
+      <c r="G42" s="144"/>
     </row>
     <row r="43" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="131"/>
+      <c r="B43" s="162"/>
       <c r="C43" s="12" t="s">
         <v>198</v>
       </c>
@@ -7070,14 +8635,14 @@
       </c>
       <c r="E43" s="56"/>
       <c r="F43" s="56"/>
-      <c r="G43" s="113"/>
+      <c r="G43" s="144"/>
     </row>
     <row r="44" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="115"/>
+      <c r="B44" s="146"/>
       <c r="C44" s="12" t="s">
         <v>199</v>
       </c>
@@ -7086,7 +8651,7 @@
       </c>
       <c r="E44" s="56"/>
       <c r="F44" s="56"/>
-      <c r="G44" s="113"/>
+      <c r="G44" s="144"/>
     </row>
     <row r="45" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
@@ -7107,36 +8672,36 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="116" t="s">
+      <c r="A46" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="117"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118" t="str">
+      <c r="B46" s="148"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="149" t="str">
         <f>COUNT(D3:D45)&amp;"객실"</f>
         <v>43객실</v>
       </c>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="120"/>
+      <c r="E46" s="150"/>
+      <c r="F46" s="150"/>
+      <c r="G46" s="151"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="121"/>
-      <c r="B47" s="122"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
-      <c r="G47" s="125"/>
+      <c r="A47" s="152"/>
+      <c r="B47" s="153"/>
+      <c r="C47" s="154"/>
+      <c r="D47" s="154"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="155"/>
+      <c r="G47" s="156"/>
     </row>
     <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="126"/>
-      <c r="B48" s="127"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="130"/>
+      <c r="A48" s="157"/>
+      <c r="B48" s="158"/>
+      <c r="C48" s="159"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7162,7 +8727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1C208C-2BF7-424A-9DD3-974103DD6970}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D46" sqref="D46:E46"/>
     </sheetView>
   </sheetViews>
@@ -7175,13 +8740,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
     </row>
     <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
@@ -7210,7 +8775,7 @@
       <c r="D3" s="4">
         <v>1107</v>
       </c>
-      <c r="E3" s="109" t="s">
+      <c r="E3" s="140" t="s">
         <v>238</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -7229,7 +8794,7 @@
       <c r="D4" s="4">
         <v>1109</v>
       </c>
-      <c r="E4" s="111"/>
+      <c r="E4" s="142"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -7239,7 +8804,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="145" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -7248,7 +8813,7 @@
       <c r="D5" s="5">
         <v>1114</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="141" t="s">
         <v>239</v>
       </c>
     </row>
@@ -7257,21 +8822,21 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="115"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="42" t="s">
         <v>154</v>
       </c>
       <c r="D6" s="4">
         <v>1122</v>
       </c>
-      <c r="E6" s="111"/>
+      <c r="E6" s="142"/>
     </row>
     <row r="7" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="145" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -7280,7 +8845,7 @@
       <c r="D7" s="4">
         <v>601</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="140" t="s">
         <v>158</v>
       </c>
     </row>
@@ -7289,224 +8854,224 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="131"/>
+      <c r="B8" s="162"/>
       <c r="C8" s="12" t="s">
         <v>203</v>
       </c>
       <c r="D8" s="4">
         <v>604</v>
       </c>
-      <c r="E8" s="110"/>
+      <c r="E8" s="141"/>
     </row>
     <row r="9" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="131"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="12" t="s">
         <v>201</v>
       </c>
       <c r="D9" s="4">
         <v>605</v>
       </c>
-      <c r="E9" s="110"/>
+      <c r="E9" s="141"/>
     </row>
     <row r="10" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="131"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="12" t="s">
         <v>204</v>
       </c>
       <c r="D10" s="4">
         <v>606</v>
       </c>
-      <c r="E10" s="110"/>
+      <c r="E10" s="141"/>
     </row>
     <row r="11" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="131"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="45" t="s">
         <v>205</v>
       </c>
       <c r="D11" s="5">
         <v>607</v>
       </c>
-      <c r="E11" s="110"/>
+      <c r="E11" s="141"/>
     </row>
     <row r="12" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="131"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="12" t="s">
         <v>206</v>
       </c>
       <c r="D12" s="4">
         <v>609</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="141"/>
     </row>
     <row r="13" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="131"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D13" s="4">
         <v>610</v>
       </c>
-      <c r="E13" s="110"/>
+      <c r="E13" s="141"/>
     </row>
     <row r="14" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="131"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="12" t="s">
         <v>208</v>
       </c>
       <c r="D14" s="4">
         <v>613</v>
       </c>
-      <c r="E14" s="110"/>
+      <c r="E14" s="141"/>
     </row>
     <row r="15" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="131"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="12" t="s">
         <v>209</v>
       </c>
       <c r="D15" s="4">
         <v>614</v>
       </c>
-      <c r="E15" s="110"/>
+      <c r="E15" s="141"/>
     </row>
     <row r="16" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="131"/>
+      <c r="B16" s="162"/>
       <c r="C16" s="12" t="s">
         <v>210</v>
       </c>
       <c r="D16" s="4">
         <v>617</v>
       </c>
-      <c r="E16" s="110"/>
+      <c r="E16" s="141"/>
     </row>
     <row r="17" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="131"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="12" t="s">
         <v>211</v>
       </c>
       <c r="D17" s="4">
         <v>618</v>
       </c>
-      <c r="E17" s="110"/>
+      <c r="E17" s="141"/>
     </row>
     <row r="18" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="131"/>
+      <c r="B18" s="162"/>
       <c r="C18" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D18" s="4">
         <v>619</v>
       </c>
-      <c r="E18" s="110"/>
+      <c r="E18" s="141"/>
     </row>
     <row r="19" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="131"/>
+      <c r="B19" s="162"/>
       <c r="C19" s="12" t="s">
         <v>213</v>
       </c>
       <c r="D19" s="4">
         <v>620</v>
       </c>
-      <c r="E19" s="110"/>
+      <c r="E19" s="141"/>
     </row>
     <row r="20" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="131"/>
+      <c r="B20" s="162"/>
       <c r="C20" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D20" s="4">
         <v>622</v>
       </c>
-      <c r="E20" s="110"/>
+      <c r="E20" s="141"/>
     </row>
     <row r="21" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="131"/>
+      <c r="B21" s="162"/>
       <c r="C21" s="12" t="s">
         <v>215</v>
       </c>
       <c r="D21" s="4">
         <v>623</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="141"/>
     </row>
     <row r="22" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="131"/>
+      <c r="B22" s="162"/>
       <c r="C22" s="12" t="s">
         <v>216</v>
       </c>
       <c r="D22" s="4">
         <v>626</v>
       </c>
-      <c r="E22" s="110"/>
+      <c r="E22" s="141"/>
     </row>
     <row r="23" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="131"/>
+      <c r="B23" s="162"/>
       <c r="C23" s="12" t="s">
         <v>247</v>
       </c>
       <c r="D23" s="4">
         <v>701</v>
       </c>
-      <c r="E23" s="110"/>
+      <c r="E23" s="141"/>
       <c r="F23" s="54"/>
     </row>
     <row r="24" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
@@ -7514,56 +9079,56 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="131"/>
+      <c r="B24" s="162"/>
       <c r="C24" s="12" t="s">
         <v>217</v>
       </c>
       <c r="D24" s="4">
         <v>704</v>
       </c>
-      <c r="E24" s="110"/>
+      <c r="E24" s="141"/>
     </row>
     <row r="25" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="131"/>
+      <c r="B25" s="162"/>
       <c r="C25" s="12" t="s">
         <v>218</v>
       </c>
       <c r="D25" s="4">
         <v>705</v>
       </c>
-      <c r="E25" s="110"/>
+      <c r="E25" s="141"/>
     </row>
     <row r="26" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="131"/>
+      <c r="B26" s="162"/>
       <c r="C26" s="12" t="s">
         <v>219</v>
       </c>
       <c r="D26" s="4">
         <v>706</v>
       </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="141"/>
     </row>
     <row r="27" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="131"/>
+      <c r="B27" s="162"/>
       <c r="C27" s="11" t="s">
         <v>220</v>
       </c>
       <c r="D27" s="4">
         <v>707</v>
       </c>
-      <c r="E27" s="110"/>
+      <c r="E27" s="141"/>
       <c r="F27" s="54" t="s">
         <v>248</v>
       </c>
@@ -7573,42 +9138,42 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="131"/>
+      <c r="B28" s="162"/>
       <c r="C28" s="12" t="s">
         <v>221</v>
       </c>
       <c r="D28" s="4">
         <v>709</v>
       </c>
-      <c r="E28" s="110"/>
+      <c r="E28" s="141"/>
     </row>
     <row r="29" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="131"/>
+      <c r="B29" s="162"/>
       <c r="C29" s="12" t="s">
         <v>222</v>
       </c>
       <c r="D29" s="4">
         <v>710</v>
       </c>
-      <c r="E29" s="110"/>
+      <c r="E29" s="141"/>
     </row>
     <row r="30" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="131"/>
+      <c r="B30" s="162"/>
       <c r="C30" s="12" t="s">
         <v>223</v>
       </c>
       <c r="D30" s="4">
         <v>713</v>
       </c>
-      <c r="E30" s="110"/>
+      <c r="E30" s="141"/>
     </row>
     <row r="31" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
@@ -7647,7 +9212,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="145" t="s">
         <v>105</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -7656,7 +9221,7 @@
       <c r="D33" s="4">
         <v>1012</v>
       </c>
-      <c r="E33" s="109" t="s">
+      <c r="E33" s="140" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7665,28 +9230,28 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="131"/>
+      <c r="B34" s="162"/>
       <c r="C34" s="12" t="s">
         <v>225</v>
       </c>
       <c r="D34" s="4">
         <v>1013</v>
       </c>
-      <c r="E34" s="110"/>
+      <c r="E34" s="141"/>
     </row>
     <row r="35" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="131"/>
+      <c r="B35" s="162"/>
       <c r="C35" s="12" t="s">
         <v>246</v>
       </c>
       <c r="D35" s="4">
         <v>1014</v>
       </c>
-      <c r="E35" s="110"/>
+      <c r="E35" s="141"/>
       <c r="F35" s="54"/>
     </row>
     <row r="36" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
@@ -7694,165 +9259,165 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="131"/>
+      <c r="B36" s="162"/>
       <c r="C36" s="12" t="s">
         <v>226</v>
       </c>
       <c r="D36" s="4">
         <v>1015</v>
       </c>
-      <c r="E36" s="110"/>
+      <c r="E36" s="141"/>
     </row>
     <row r="37" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="131"/>
+      <c r="B37" s="162"/>
       <c r="C37" s="12" t="s">
         <v>227</v>
       </c>
       <c r="D37" s="4">
         <v>1017</v>
       </c>
-      <c r="E37" s="110"/>
+      <c r="E37" s="141"/>
     </row>
     <row r="38" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="131"/>
+      <c r="B38" s="162"/>
       <c r="C38" s="12" t="s">
         <v>228</v>
       </c>
       <c r="D38" s="4">
         <v>1018</v>
       </c>
-      <c r="E38" s="110"/>
+      <c r="E38" s="141"/>
     </row>
     <row r="39" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="131"/>
+      <c r="B39" s="162"/>
       <c r="C39" s="12" t="s">
         <v>229</v>
       </c>
       <c r="D39" s="4">
         <v>1019</v>
       </c>
-      <c r="E39" s="110"/>
+      <c r="E39" s="141"/>
     </row>
     <row r="40" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="131"/>
+      <c r="B40" s="162"/>
       <c r="C40" s="12" t="s">
         <v>230</v>
       </c>
       <c r="D40" s="4">
         <v>1020</v>
       </c>
-      <c r="E40" s="110"/>
+      <c r="E40" s="141"/>
     </row>
     <row r="41" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="131"/>
+      <c r="B41" s="162"/>
       <c r="C41" s="12" t="s">
         <v>231</v>
       </c>
       <c r="D41" s="4">
         <v>1021</v>
       </c>
-      <c r="E41" s="110"/>
+      <c r="E41" s="141"/>
     </row>
     <row r="42" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="131"/>
+      <c r="B42" s="162"/>
       <c r="C42" s="12" t="s">
         <v>232</v>
       </c>
       <c r="D42" s="4">
         <v>1022</v>
       </c>
-      <c r="E42" s="110"/>
+      <c r="E42" s="141"/>
     </row>
     <row r="43" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="131"/>
+      <c r="B43" s="162"/>
       <c r="C43" s="12" t="s">
         <v>233</v>
       </c>
       <c r="D43" s="4">
         <v>1023</v>
       </c>
-      <c r="E43" s="110"/>
+      <c r="E43" s="141"/>
     </row>
     <row r="44" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="131"/>
+      <c r="B44" s="162"/>
       <c r="C44" s="12" t="s">
         <v>234</v>
       </c>
       <c r="D44" s="4">
         <v>1024</v>
       </c>
-      <c r="E44" s="110"/>
+      <c r="E44" s="141"/>
     </row>
     <row r="45" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="115"/>
+      <c r="B45" s="146"/>
       <c r="C45" s="12" t="s">
         <v>235</v>
       </c>
       <c r="D45" s="4">
         <v>1025</v>
       </c>
-      <c r="E45" s="111"/>
+      <c r="E45" s="142"/>
     </row>
     <row r="46" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="77" t="s">
+      <c r="A46" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="78"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79" t="s">
+      <c r="B46" s="109"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="80"/>
+      <c r="E46" s="111"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="132"/>
-      <c r="B47" s="133"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
+      <c r="A47" s="163"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="165"/>
     </row>
     <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="126"/>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="128"/>
+      <c r="A48" s="157"/>
+      <c r="B48" s="158"/>
+      <c r="C48" s="158"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7881,7 +9446,7 @@
   </sheetPr>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView topLeftCell="B22" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -7894,15 +9459,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="100" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="103"/>
     </row>
     <row r="2" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
@@ -7931,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="53"/>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="168" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="4">
@@ -7939,7 +9504,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="140" t="s">
         <v>290</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -7952,13 +9517,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="53"/>
-      <c r="C4" s="138"/>
+      <c r="C4" s="169"/>
       <c r="D4" s="4">
         <v>705</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="111"/>
+      <c r="G4" s="142"/>
       <c r="H4" s="14" t="s">
         <v>60</v>
       </c>
@@ -7969,7 +9534,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="53"/>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="168" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="4">
@@ -7977,7 +9542,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="141" t="s">
         <v>291</v>
       </c>
       <c r="H5" s="2"/>
@@ -7988,20 +9553,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="138"/>
+      <c r="C6" s="169"/>
       <c r="D6" s="4">
         <v>1103</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="111"/>
+      <c r="G6" s="142"/>
     </row>
     <row r="7" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="145" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -8012,7 +9577,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="144" t="s">
         <v>241</v>
       </c>
     </row>
@@ -8021,7 +9586,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="131"/>
+      <c r="B8" s="162"/>
       <c r="C8" s="42" t="s">
         <v>128</v>
       </c>
@@ -8030,14 +9595,14 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="113"/>
+      <c r="G8" s="144"/>
     </row>
     <row r="9" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="131"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="12" t="s">
         <v>254</v>
       </c>
@@ -8046,7 +9611,7 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="113" t="s">
+      <c r="G9" s="144" t="s">
         <v>252</v>
       </c>
     </row>
@@ -8055,7 +9620,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="131"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="12" t="s">
         <v>255</v>
       </c>
@@ -8064,14 +9629,14 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="113"/>
+      <c r="G10" s="144"/>
     </row>
     <row r="11" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="131"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="45" t="s">
         <v>262</v>
       </c>
@@ -8080,14 +9645,14 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="113"/>
+      <c r="G11" s="144"/>
     </row>
     <row r="12" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="131"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="12" t="s">
         <v>256</v>
       </c>
@@ -8096,14 +9661,14 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="113"/>
+      <c r="G12" s="144"/>
     </row>
     <row r="13" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="131"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="12" t="s">
         <v>257</v>
       </c>
@@ -8112,14 +9677,14 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="113"/>
+      <c r="G13" s="144"/>
     </row>
     <row r="14" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="131"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="12" t="s">
         <v>258</v>
       </c>
@@ -8128,14 +9693,14 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="113"/>
+      <c r="G14" s="144"/>
     </row>
     <row r="15" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="131"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="12" t="s">
         <v>286</v>
       </c>
@@ -8144,7 +9709,7 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="113"/>
+      <c r="G15" s="144"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
@@ -8152,7 +9717,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="131"/>
+      <c r="B16" s="162"/>
       <c r="C16" s="12" t="s">
         <v>260</v>
       </c>
@@ -8161,14 +9726,14 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="113"/>
+      <c r="G16" s="144"/>
     </row>
     <row r="17" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="131"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="12" t="s">
         <v>259</v>
       </c>
@@ -8177,7 +9742,7 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="113"/>
+      <c r="G17" s="144"/>
       <c r="O17" s="43"/>
     </row>
     <row r="18" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
@@ -8185,7 +9750,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="131"/>
+      <c r="B18" s="162"/>
       <c r="C18" s="11" t="s">
         <v>287</v>
       </c>
@@ -8194,7 +9759,7 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="113"/>
+      <c r="G18" s="144"/>
       <c r="H18" s="3" t="s">
         <v>263</v>
       </c>
@@ -8204,7 +9769,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="115"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="12" t="s">
         <v>261</v>
       </c>
@@ -8213,14 +9778,14 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="113"/>
+      <c r="G19" s="144"/>
     </row>
     <row r="20" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="145" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -8231,7 +9796,7 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="113" t="s">
+      <c r="G20" s="144" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8240,7 +9805,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="131"/>
+      <c r="B21" s="162"/>
       <c r="C21" s="12" t="s">
         <v>265</v>
       </c>
@@ -8249,14 +9814,14 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="113"/>
+      <c r="G21" s="144"/>
     </row>
     <row r="22" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="131"/>
+      <c r="B22" s="162"/>
       <c r="C22" s="12" t="s">
         <v>266</v>
       </c>
@@ -8265,14 +9830,14 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="113"/>
+      <c r="G22" s="144"/>
     </row>
     <row r="23" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="131"/>
+      <c r="B23" s="162"/>
       <c r="C23" s="12" t="s">
         <v>267</v>
       </c>
@@ -8281,14 +9846,14 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="113"/>
+      <c r="G23" s="144"/>
     </row>
     <row r="24" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="131"/>
+      <c r="B24" s="162"/>
       <c r="C24" s="12" t="s">
         <v>268</v>
       </c>
@@ -8297,14 +9862,14 @@
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="113"/>
+      <c r="G24" s="144"/>
     </row>
     <row r="25" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="131"/>
+      <c r="B25" s="162"/>
       <c r="C25" s="12" t="s">
         <v>269</v>
       </c>
@@ -8313,14 +9878,14 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="113"/>
+      <c r="G25" s="144"/>
     </row>
     <row r="26" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="131"/>
+      <c r="B26" s="162"/>
       <c r="C26" s="12" t="s">
         <v>279</v>
       </c>
@@ -8329,14 +9894,14 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="113"/>
+      <c r="G26" s="144"/>
     </row>
     <row r="27" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="131"/>
+      <c r="B27" s="162"/>
       <c r="C27" s="12" t="s">
         <v>340</v>
       </c>
@@ -8345,18 +9910,18 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="135" t="s">
+      <c r="G27" s="144"/>
+      <c r="H27" s="166" t="s">
         <v>341</v>
       </c>
-      <c r="I27" s="136"/>
+      <c r="I27" s="167"/>
     </row>
     <row r="28" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="131"/>
+      <c r="B28" s="162"/>
       <c r="C28" s="12" t="s">
         <v>270</v>
       </c>
@@ -8365,14 +9930,14 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="113"/>
+      <c r="G28" s="144"/>
     </row>
     <row r="29" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="131"/>
+      <c r="B29" s="162"/>
       <c r="C29" s="12" t="s">
         <v>289</v>
       </c>
@@ -8381,14 +9946,14 @@
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="113"/>
+      <c r="G29" s="144"/>
     </row>
     <row r="30" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="131"/>
+      <c r="B30" s="162"/>
       <c r="C30" s="12" t="s">
         <v>271</v>
       </c>
@@ -8397,14 +9962,14 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="113"/>
+      <c r="G30" s="144"/>
     </row>
     <row r="31" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="131"/>
+      <c r="B31" s="162"/>
       <c r="C31" s="12" t="s">
         <v>272</v>
       </c>
@@ -8413,14 +9978,14 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="113"/>
+      <c r="G31" s="144"/>
     </row>
     <row r="32" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="131"/>
+      <c r="B32" s="162"/>
       <c r="C32" s="12" t="s">
         <v>273</v>
       </c>
@@ -8429,14 +9994,14 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="113"/>
+      <c r="G32" s="144"/>
     </row>
     <row r="33" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="131"/>
+      <c r="B33" s="162"/>
       <c r="C33" s="12" t="s">
         <v>274</v>
       </c>
@@ -8445,14 +10010,14 @@
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="113"/>
+      <c r="G33" s="144"/>
     </row>
     <row r="34" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="131"/>
+      <c r="B34" s="162"/>
       <c r="C34" s="12" t="s">
         <v>275</v>
       </c>
@@ -8461,14 +10026,14 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="113"/>
+      <c r="G34" s="144"/>
     </row>
     <row r="35" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="131"/>
+      <c r="B35" s="162"/>
       <c r="C35" s="12" t="s">
         <v>277</v>
       </c>
@@ -8477,14 +10042,14 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="113"/>
+      <c r="G35" s="144"/>
     </row>
     <row r="36" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="131"/>
+      <c r="B36" s="162"/>
       <c r="C36" s="11" t="s">
         <v>293</v>
       </c>
@@ -8493,7 +10058,7 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="113"/>
+      <c r="G36" s="144"/>
       <c r="H36" s="58" t="s">
         <v>285</v>
       </c>
@@ -8503,7 +10068,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="131"/>
+      <c r="B37" s="162"/>
       <c r="C37" s="12" t="s">
         <v>276</v>
       </c>
@@ -8512,14 +10077,14 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="113"/>
+      <c r="G37" s="144"/>
     </row>
     <row r="38" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="131"/>
+      <c r="B38" s="162"/>
       <c r="C38" s="12" t="s">
         <v>278</v>
       </c>
@@ -8528,14 +10093,14 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="113"/>
+      <c r="G38" s="144"/>
     </row>
     <row r="39" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="131"/>
+      <c r="B39" s="162"/>
       <c r="C39" s="12" t="s">
         <v>280</v>
       </c>
@@ -8544,14 +10109,14 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="113"/>
+      <c r="G39" s="144"/>
     </row>
     <row r="40" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="131"/>
+      <c r="B40" s="162"/>
       <c r="C40" s="12" t="s">
         <v>288</v>
       </c>
@@ -8560,14 +10125,14 @@
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="113"/>
+      <c r="G40" s="144"/>
     </row>
     <row r="41" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="131"/>
+      <c r="B41" s="162"/>
       <c r="C41" s="12" t="s">
         <v>281</v>
       </c>
@@ -8576,14 +10141,14 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="113"/>
+      <c r="G41" s="144"/>
     </row>
     <row r="42" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="131"/>
+      <c r="B42" s="162"/>
       <c r="C42" s="12" t="s">
         <v>282</v>
       </c>
@@ -8592,14 +10157,14 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="113"/>
+      <c r="G42" s="144"/>
     </row>
     <row r="43" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="131"/>
+      <c r="B43" s="162"/>
       <c r="C43" s="12" t="s">
         <v>283</v>
       </c>
@@ -8608,14 +10173,14 @@
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="113"/>
+      <c r="G43" s="144"/>
     </row>
     <row r="44" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="131"/>
+      <c r="B44" s="162"/>
       <c r="C44" s="12" t="s">
         <v>284</v>
       </c>
@@ -8624,14 +10189,14 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="113"/>
+      <c r="G44" s="144"/>
     </row>
     <row r="45" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="115"/>
+      <c r="B45" s="146"/>
       <c r="C45" s="45" t="s">
         <v>292</v>
       </c>
@@ -8640,39 +10205,39 @@
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="113"/>
+      <c r="G45" s="144"/>
       <c r="H45" s="58"/>
     </row>
     <row r="46" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="116" t="s">
+      <c r="A46" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="117"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118" t="s">
+      <c r="B46" s="148"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="149" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="120"/>
+      <c r="E46" s="150"/>
+      <c r="F46" s="150"/>
+      <c r="G46" s="151"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="121"/>
-      <c r="B47" s="122"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
-      <c r="G47" s="125"/>
+      <c r="A47" s="152"/>
+      <c r="B47" s="153"/>
+      <c r="C47" s="154"/>
+      <c r="D47" s="154"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="155"/>
+      <c r="G47" s="156"/>
     </row>
     <row r="48" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="126"/>
-      <c r="B48" s="127"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="130"/>
+      <c r="A48" s="157"/>
+      <c r="B48" s="158"/>
+      <c r="C48" s="159"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -8704,7 +10269,7 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -8717,15 +10282,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="100" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="103"/>
     </row>
     <row r="2" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
@@ -8754,7 +10319,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="52"/>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="168" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="4">
@@ -8762,7 +10327,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="170" t="s">
         <v>298</v>
       </c>
     </row>
@@ -8771,13 +10336,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="53"/>
-      <c r="C4" s="138"/>
+      <c r="C4" s="169"/>
       <c r="D4" s="4">
         <v>705</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="140"/>
+      <c r="G4" s="171"/>
     </row>
     <row r="5" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
@@ -8785,7 +10350,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="52"/>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="168" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="4">
@@ -8793,7 +10358,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="140" t="s">
         <v>297</v>
       </c>
     </row>
@@ -8803,20 +10368,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="138"/>
+      <c r="C6" s="169"/>
       <c r="D6" s="4">
         <v>1103</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="111"/>
+      <c r="G6" s="142"/>
     </row>
     <row r="7" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="145" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="42" t="s">
@@ -8827,7 +10392,7 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="140" t="s">
         <v>296</v>
       </c>
     </row>
@@ -8836,7 +10401,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="131"/>
+      <c r="B8" s="162"/>
       <c r="C8" s="42" t="s">
         <v>154</v>
       </c>
@@ -8845,14 +10410,14 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="110"/>
+      <c r="G8" s="141"/>
     </row>
     <row r="9" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" ref="A9:A47" si="1">ROW()-2</f>
         <v>7</v>
       </c>
-      <c r="B9" s="131"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="45" t="s">
         <v>299</v>
       </c>
@@ -8861,7 +10426,7 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="109" t="s">
+      <c r="G9" s="140" t="s">
         <v>310</v>
       </c>
     </row>
@@ -8870,7 +10435,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="131"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="12" t="s">
         <v>300</v>
       </c>
@@ -8879,14 +10444,14 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="110"/>
+      <c r="G10" s="141"/>
     </row>
     <row r="11" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="131"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="12" t="s">
         <v>301</v>
       </c>
@@ -8895,14 +10460,14 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="110"/>
+      <c r="G11" s="141"/>
     </row>
     <row r="12" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="131"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="12" t="s">
         <v>302</v>
       </c>
@@ -8911,14 +10476,14 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="110"/>
+      <c r="G12" s="141"/>
     </row>
     <row r="13" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="131"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="12" t="s">
         <v>303</v>
       </c>
@@ -8927,14 +10492,14 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="110"/>
+      <c r="G13" s="141"/>
     </row>
     <row r="14" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="131"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="45" t="s">
         <v>304</v>
       </c>
@@ -8943,14 +10508,14 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="110"/>
+      <c r="G14" s="141"/>
     </row>
     <row r="15" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="131"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="12" t="s">
         <v>305</v>
       </c>
@@ -8959,14 +10524,14 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="110"/>
+      <c r="G15" s="141"/>
     </row>
     <row r="16" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="131"/>
+      <c r="B16" s="162"/>
       <c r="C16" s="12" t="s">
         <v>306</v>
       </c>
@@ -8975,14 +10540,14 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="110"/>
+      <c r="G16" s="141"/>
     </row>
     <row r="17" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="131"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="12" t="s">
         <v>388</v>
       </c>
@@ -8991,7 +10556,7 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="110"/>
+      <c r="G17" s="141"/>
       <c r="H17" s="54" t="s">
         <v>389</v>
       </c>
@@ -9001,7 +10566,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="131"/>
+      <c r="B18" s="162"/>
       <c r="C18" s="12" t="s">
         <v>342</v>
       </c>
@@ -9010,7 +10575,7 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="110"/>
+      <c r="G18" s="141"/>
       <c r="H18" s="54" t="s">
         <v>390</v>
       </c>
@@ -9020,7 +10585,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="131"/>
+      <c r="B19" s="162"/>
       <c r="C19" s="12" t="s">
         <v>307</v>
       </c>
@@ -9029,14 +10594,14 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="110"/>
+      <c r="G19" s="141"/>
     </row>
     <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="131"/>
+      <c r="B20" s="162"/>
       <c r="C20" s="12" t="s">
         <v>308</v>
       </c>
@@ -9045,14 +10610,14 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="110"/>
+      <c r="G20" s="141"/>
     </row>
     <row r="21" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="131"/>
+      <c r="B21" s="162"/>
       <c r="C21" s="12" t="s">
         <v>309</v>
       </c>
@@ -9061,14 +10626,14 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="110"/>
+      <c r="G21" s="141"/>
     </row>
     <row r="22" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="145" t="s">
         <v>106</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -9079,7 +10644,7 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="141" t="s">
+      <c r="G22" s="172" t="s">
         <v>295</v>
       </c>
     </row>
@@ -9088,7 +10653,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="131"/>
+      <c r="B23" s="162"/>
       <c r="C23" s="12" t="s">
         <v>313</v>
       </c>
@@ -9097,14 +10662,14 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="142"/>
+      <c r="G23" s="173"/>
     </row>
     <row r="24" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="131"/>
+      <c r="B24" s="162"/>
       <c r="C24" s="12" t="s">
         <v>314</v>
       </c>
@@ -9113,14 +10678,14 @@
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="142"/>
+      <c r="G24" s="173"/>
     </row>
     <row r="25" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="131"/>
+      <c r="B25" s="162"/>
       <c r="C25" s="12" t="s">
         <v>315</v>
       </c>
@@ -9129,14 +10694,14 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="142"/>
+      <c r="G25" s="173"/>
     </row>
     <row r="26" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="131"/>
+      <c r="B26" s="162"/>
       <c r="C26" s="12" t="s">
         <v>316</v>
       </c>
@@ -9145,14 +10710,14 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="142"/>
+      <c r="G26" s="173"/>
     </row>
     <row r="27" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="131"/>
+      <c r="B27" s="162"/>
       <c r="C27" s="12" t="s">
         <v>317</v>
       </c>
@@ -9161,14 +10726,14 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="142"/>
+      <c r="G27" s="173"/>
     </row>
     <row r="28" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="131"/>
+      <c r="B28" s="162"/>
       <c r="C28" s="12" t="s">
         <v>318</v>
       </c>
@@ -9177,14 +10742,14 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="142"/>
+      <c r="G28" s="173"/>
     </row>
     <row r="29" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="131"/>
+      <c r="B29" s="162"/>
       <c r="C29" s="12" t="s">
         <v>319</v>
       </c>
@@ -9193,14 +10758,14 @@
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="142"/>
+      <c r="G29" s="173"/>
     </row>
     <row r="30" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="131"/>
+      <c r="B30" s="162"/>
       <c r="C30" s="12" t="s">
         <v>320</v>
       </c>
@@ -9209,14 +10774,14 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="142"/>
+      <c r="G30" s="173"/>
     </row>
     <row r="31" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="131"/>
+      <c r="B31" s="162"/>
       <c r="C31" s="12" t="s">
         <v>321</v>
       </c>
@@ -9225,14 +10790,14 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="142"/>
+      <c r="G31" s="173"/>
     </row>
     <row r="32" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="131"/>
+      <c r="B32" s="162"/>
       <c r="C32" s="12" t="s">
         <v>322</v>
       </c>
@@ -9241,14 +10806,14 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="142"/>
+      <c r="G32" s="173"/>
     </row>
     <row r="33" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="131"/>
+      <c r="B33" s="162"/>
       <c r="C33" s="12" t="s">
         <v>323</v>
       </c>
@@ -9257,14 +10822,14 @@
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="142"/>
+      <c r="G33" s="173"/>
     </row>
     <row r="34" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="131"/>
+      <c r="B34" s="162"/>
       <c r="C34" s="12" t="s">
         <v>324</v>
       </c>
@@ -9273,14 +10838,14 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="142"/>
+      <c r="G34" s="173"/>
     </row>
     <row r="35" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="131"/>
+      <c r="B35" s="162"/>
       <c r="C35" s="12" t="s">
         <v>325</v>
       </c>
@@ -9289,14 +10854,14 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="142"/>
+      <c r="G35" s="173"/>
     </row>
     <row r="36" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="131"/>
+      <c r="B36" s="162"/>
       <c r="C36" s="12" t="s">
         <v>326</v>
       </c>
@@ -9305,14 +10870,14 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="142"/>
+      <c r="G36" s="173"/>
     </row>
     <row r="37" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="131"/>
+      <c r="B37" s="162"/>
       <c r="C37" s="12" t="s">
         <v>327</v>
       </c>
@@ -9321,14 +10886,14 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="142"/>
+      <c r="G37" s="173"/>
     </row>
     <row r="38" spans="1:8" ht="63" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="131"/>
+      <c r="B38" s="162"/>
       <c r="C38" s="59" t="s">
         <v>338</v>
       </c>
@@ -9337,7 +10902,7 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="142"/>
+      <c r="G38" s="173"/>
       <c r="H38" s="60" t="s">
         <v>328</v>
       </c>
@@ -9347,7 +10912,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="131"/>
+      <c r="B39" s="162"/>
       <c r="C39" s="12" t="s">
         <v>329</v>
       </c>
@@ -9356,14 +10921,14 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="142"/>
+      <c r="G39" s="173"/>
     </row>
     <row r="40" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="131"/>
+      <c r="B40" s="162"/>
       <c r="C40" s="12" t="s">
         <v>330</v>
       </c>
@@ -9372,14 +10937,14 @@
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="142"/>
+      <c r="G40" s="173"/>
     </row>
     <row r="41" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="131"/>
+      <c r="B41" s="162"/>
       <c r="C41" s="12" t="s">
         <v>337</v>
       </c>
@@ -9388,14 +10953,14 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="142"/>
+      <c r="G41" s="173"/>
     </row>
     <row r="42" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="131"/>
+      <c r="B42" s="162"/>
       <c r="C42" s="12" t="s">
         <v>331</v>
       </c>
@@ -9404,14 +10969,14 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="142"/>
+      <c r="G42" s="173"/>
     </row>
     <row r="43" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="131"/>
+      <c r="B43" s="162"/>
       <c r="C43" s="12" t="s">
         <v>332</v>
       </c>
@@ -9420,14 +10985,14 @@
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="142"/>
+      <c r="G43" s="173"/>
     </row>
     <row r="44" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="131"/>
+      <c r="B44" s="162"/>
       <c r="C44" s="12" t="s">
         <v>333</v>
       </c>
@@ -9436,14 +11001,14 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="142"/>
+      <c r="G44" s="173"/>
     </row>
     <row r="45" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="131"/>
+      <c r="B45" s="162"/>
       <c r="C45" s="12" t="s">
         <v>334</v>
       </c>
@@ -9452,14 +11017,14 @@
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="142"/>
+      <c r="G45" s="173"/>
     </row>
     <row r="46" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A46" s="41">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="131"/>
+      <c r="B46" s="162"/>
       <c r="C46" s="12" t="s">
         <v>335</v>
       </c>
@@ -9468,14 +11033,14 @@
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="142"/>
+      <c r="G46" s="173"/>
     </row>
     <row r="47" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A47" s="41">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="115"/>
+      <c r="B47" s="146"/>
       <c r="C47" s="12" t="s">
         <v>336</v>
       </c>
@@ -9484,38 +11049,38 @@
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="143"/>
+      <c r="G47" s="174"/>
     </row>
     <row r="48" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="116" t="s">
+      <c r="A48" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="117"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118" t="s">
+      <c r="B48" s="148"/>
+      <c r="C48" s="149"/>
+      <c r="D48" s="149" t="s">
         <v>311</v>
       </c>
-      <c r="E48" s="119"/>
-      <c r="F48" s="119"/>
-      <c r="G48" s="120"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="151"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="121"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="125"/>
+      <c r="A49" s="152"/>
+      <c r="B49" s="153"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="154"/>
+      <c r="E49" s="155"/>
+      <c r="F49" s="155"/>
+      <c r="G49" s="156"/>
     </row>
     <row r="50" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="126"/>
-      <c r="B50" s="127"/>
-      <c r="C50" s="128"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="129"/>
-      <c r="G50" s="130"/>
+      <c r="A50" s="157"/>
+      <c r="B50" s="158"/>
+      <c r="C50" s="159"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="160"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -9543,7 +11108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BAB369-4702-4A5E-88C7-BCD0FD2F0087}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -9557,15 +11122,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="100" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="103"/>
     </row>
     <row r="2" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
@@ -9594,7 +11159,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="52"/>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="168" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="4">
@@ -9602,10 +11167,10 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="140" t="s">
         <v>391</v>
       </c>
-      <c r="M3" s="137"/>
+      <c r="M3" s="168"/>
     </row>
     <row r="4" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
@@ -9613,21 +11178,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="53"/>
-      <c r="C4" s="138"/>
+      <c r="C4" s="169"/>
       <c r="D4" s="4">
         <v>918</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="111"/>
-      <c r="M4" s="138"/>
+      <c r="G4" s="142"/>
+      <c r="M4" s="169"/>
     </row>
     <row r="5" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="145" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -9638,7 +11203,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="140" t="s">
         <v>387</v>
       </c>
     </row>
@@ -9647,7 +11212,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="115"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="42" t="s">
         <v>154</v>
       </c>
@@ -9656,7 +11221,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="111"/>
+      <c r="G6" s="142"/>
     </row>
     <row r="7" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
@@ -9664,7 +11229,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="168" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="4">
@@ -9672,7 +11237,7 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="144" t="s">
+      <c r="G7" s="175" t="s">
         <v>392</v>
       </c>
     </row>
@@ -9682,20 +11247,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="138"/>
+      <c r="C8" s="169"/>
       <c r="D8" s="4">
         <v>1208</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="140"/>
+      <c r="G8" s="171"/>
     </row>
     <row r="9" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="145" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -9706,7 +11271,7 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="109" t="s">
+      <c r="G9" s="140" t="s">
         <v>344</v>
       </c>
       <c r="H9" s="54" t="s">
@@ -9718,7 +11283,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="131"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="12" t="s">
         <v>348</v>
       </c>
@@ -9727,14 +11292,14 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="110"/>
+      <c r="G10" s="141"/>
     </row>
     <row r="11" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="131"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="12" t="s">
         <v>349</v>
       </c>
@@ -9743,14 +11308,14 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="110"/>
+      <c r="G11" s="141"/>
     </row>
     <row r="12" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="131"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="12" t="s">
         <v>350</v>
       </c>
@@ -9759,14 +11324,14 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="110"/>
+      <c r="G12" s="141"/>
     </row>
     <row r="13" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="131"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="12" t="s">
         <v>351</v>
       </c>
@@ -9775,14 +11340,14 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="110"/>
+      <c r="G13" s="141"/>
     </row>
     <row r="14" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="131"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="45" t="s">
         <v>352</v>
       </c>
@@ -9791,14 +11356,14 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="110"/>
+      <c r="G14" s="141"/>
     </row>
     <row r="15" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="131"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="12" t="s">
         <v>353</v>
       </c>
@@ -9807,14 +11372,14 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="110"/>
+      <c r="G15" s="141"/>
     </row>
     <row r="16" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="131"/>
+      <c r="B16" s="162"/>
       <c r="C16" s="12" t="s">
         <v>354</v>
       </c>
@@ -9823,14 +11388,14 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="110"/>
+      <c r="G16" s="141"/>
     </row>
     <row r="17" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="131"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="12" t="s">
         <v>355</v>
       </c>
@@ -9839,14 +11404,14 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="110"/>
+      <c r="G17" s="141"/>
     </row>
     <row r="18" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="131"/>
+      <c r="B18" s="162"/>
       <c r="C18" s="11" t="s">
         <v>359</v>
       </c>
@@ -9855,7 +11420,7 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="110"/>
+      <c r="G18" s="141"/>
       <c r="H18" s="54" t="s">
         <v>360</v>
       </c>
@@ -9865,7 +11430,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="131"/>
+      <c r="B19" s="162"/>
       <c r="C19" s="12" t="s">
         <v>356</v>
       </c>
@@ -9874,14 +11439,14 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="110"/>
+      <c r="G19" s="141"/>
     </row>
     <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="131"/>
+      <c r="B20" s="162"/>
       <c r="C20" s="12" t="s">
         <v>357</v>
       </c>
@@ -9890,14 +11455,14 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="110"/>
+      <c r="G20" s="141"/>
     </row>
     <row r="21" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="115"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="12" t="s">
         <v>358</v>
       </c>
@@ -9906,14 +11471,14 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="110"/>
+      <c r="G21" s="141"/>
     </row>
     <row r="22" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="145" t="s">
         <v>106</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -9924,7 +11489,7 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="141" t="s">
+      <c r="G22" s="172" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9933,7 +11498,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="131"/>
+      <c r="B23" s="162"/>
       <c r="C23" s="12" t="s">
         <v>362</v>
       </c>
@@ -9942,14 +11507,14 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="142"/>
+      <c r="G23" s="173"/>
     </row>
     <row r="24" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="131"/>
+      <c r="B24" s="162"/>
       <c r="C24" s="12" t="s">
         <v>363</v>
       </c>
@@ -9958,14 +11523,14 @@
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="142"/>
+      <c r="G24" s="173"/>
     </row>
     <row r="25" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="131"/>
+      <c r="B25" s="162"/>
       <c r="C25" s="12" t="s">
         <v>364</v>
       </c>
@@ -9974,14 +11539,14 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="142"/>
+      <c r="G25" s="173"/>
     </row>
     <row r="26" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="131"/>
+      <c r="B26" s="162"/>
       <c r="C26" s="12" t="s">
         <v>365</v>
       </c>
@@ -9990,14 +11555,14 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="142"/>
+      <c r="G26" s="173"/>
     </row>
     <row r="27" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="131"/>
+      <c r="B27" s="162"/>
       <c r="C27" s="12" t="s">
         <v>366</v>
       </c>
@@ -10006,14 +11571,14 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="142"/>
+      <c r="G27" s="173"/>
     </row>
     <row r="28" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="131"/>
+      <c r="B28" s="162"/>
       <c r="C28" s="12" t="s">
         <v>367</v>
       </c>
@@ -10022,14 +11587,14 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="142"/>
+      <c r="G28" s="173"/>
     </row>
     <row r="29" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="131"/>
+      <c r="B29" s="162"/>
       <c r="C29" s="12" t="s">
         <v>368</v>
       </c>
@@ -10038,14 +11603,14 @@
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="142"/>
+      <c r="G29" s="173"/>
     </row>
     <row r="30" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="131"/>
+      <c r="B30" s="162"/>
       <c r="C30" s="12" t="s">
         <v>369</v>
       </c>
@@ -10054,14 +11619,14 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="142"/>
+      <c r="G30" s="173"/>
     </row>
     <row r="31" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="131"/>
+      <c r="B31" s="162"/>
       <c r="C31" s="12" t="s">
         <v>370</v>
       </c>
@@ -10070,14 +11635,14 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="142"/>
+      <c r="G31" s="173"/>
     </row>
     <row r="32" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="131"/>
+      <c r="B32" s="162"/>
       <c r="C32" s="12" t="s">
         <v>371</v>
       </c>
@@ -10086,14 +11651,14 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="142"/>
+      <c r="G32" s="173"/>
     </row>
     <row r="33" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="131"/>
+      <c r="B33" s="162"/>
       <c r="C33" s="12" t="s">
         <v>372</v>
       </c>
@@ -10102,14 +11667,14 @@
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="142"/>
+      <c r="G33" s="173"/>
     </row>
     <row r="34" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="131"/>
+      <c r="B34" s="162"/>
       <c r="C34" s="12" t="s">
         <v>373</v>
       </c>
@@ -10118,14 +11683,14 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="142"/>
+      <c r="G34" s="173"/>
     </row>
     <row r="35" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="131"/>
+      <c r="B35" s="162"/>
       <c r="C35" s="12" t="s">
         <v>374</v>
       </c>
@@ -10134,14 +11699,14 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="142"/>
+      <c r="G35" s="173"/>
     </row>
     <row r="36" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="131"/>
+      <c r="B36" s="162"/>
       <c r="C36" s="12" t="s">
         <v>375</v>
       </c>
@@ -10150,14 +11715,14 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="142"/>
+      <c r="G36" s="173"/>
     </row>
     <row r="37" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="131"/>
+      <c r="B37" s="162"/>
       <c r="C37" s="12" t="s">
         <v>376</v>
       </c>
@@ -10166,14 +11731,14 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="142"/>
+      <c r="G37" s="173"/>
     </row>
     <row r="38" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="131"/>
+      <c r="B38" s="162"/>
       <c r="C38" s="12" t="s">
         <v>377</v>
       </c>
@@ -10182,14 +11747,14 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="142"/>
+      <c r="G38" s="173"/>
     </row>
     <row r="39" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="131"/>
+      <c r="B39" s="162"/>
       <c r="C39" s="12" t="s">
         <v>378</v>
       </c>
@@ -10198,14 +11763,14 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="142"/>
+      <c r="G39" s="173"/>
     </row>
     <row r="40" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="131"/>
+      <c r="B40" s="162"/>
       <c r="C40" s="12" t="s">
         <v>379</v>
       </c>
@@ -10214,14 +11779,14 @@
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="142"/>
+      <c r="G40" s="173"/>
     </row>
     <row r="41" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="131"/>
+      <c r="B41" s="162"/>
       <c r="C41" s="12" t="s">
         <v>380</v>
       </c>
@@ -10230,14 +11795,14 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="142"/>
+      <c r="G41" s="173"/>
     </row>
     <row r="42" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="131"/>
+      <c r="B42" s="162"/>
       <c r="C42" s="12" t="s">
         <v>381</v>
       </c>
@@ -10246,14 +11811,14 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="142"/>
+      <c r="G42" s="173"/>
     </row>
     <row r="43" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="131"/>
+      <c r="B43" s="162"/>
       <c r="C43" s="12" t="s">
         <v>382</v>
       </c>
@@ -10262,14 +11827,14 @@
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="142"/>
+      <c r="G43" s="173"/>
     </row>
     <row r="44" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="131"/>
+      <c r="B44" s="162"/>
       <c r="C44" s="12" t="s">
         <v>383</v>
       </c>
@@ -10278,14 +11843,14 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="142"/>
+      <c r="G44" s="173"/>
     </row>
     <row r="45" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="131"/>
+      <c r="B45" s="162"/>
       <c r="C45" s="12" t="s">
         <v>384</v>
       </c>
@@ -10294,14 +11859,14 @@
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="142"/>
+      <c r="G45" s="173"/>
     </row>
     <row r="46" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A46" s="41">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="131"/>
+      <c r="B46" s="162"/>
       <c r="C46" s="12" t="s">
         <v>385</v>
       </c>
@@ -10310,14 +11875,14 @@
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="142"/>
+      <c r="G46" s="173"/>
     </row>
     <row r="47" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A47" s="41">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="115"/>
+      <c r="B47" s="146"/>
       <c r="C47" s="12" t="s">
         <v>386</v>
       </c>
@@ -10326,39 +11891,39 @@
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="143"/>
+      <c r="G47" s="174"/>
     </row>
     <row r="48" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="116" t="s">
+      <c r="A48" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="117"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118" t="str">
+      <c r="B48" s="148"/>
+      <c r="C48" s="149"/>
+      <c r="D48" s="149" t="str">
         <f>COUNT(D3:D47)&amp;"객실"</f>
         <v>45객실</v>
       </c>
-      <c r="E48" s="119"/>
-      <c r="F48" s="119"/>
-      <c r="G48" s="120"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="151"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="121"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="125"/>
+      <c r="A49" s="152"/>
+      <c r="B49" s="153"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="154"/>
+      <c r="E49" s="155"/>
+      <c r="F49" s="155"/>
+      <c r="G49" s="156"/>
     </row>
     <row r="50" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="126"/>
-      <c r="B50" s="127"/>
-      <c r="C50" s="128"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="129"/>
-      <c r="G50" s="130"/>
+      <c r="A50" s="157"/>
+      <c r="B50" s="158"/>
+      <c r="C50" s="159"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="160"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -10382,4 +11947,844 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737E0D4C-3811-4612-BA12-2FE91132D48C}">
+  <dimension ref="A1:M49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="25.296875" customWidth="1"/>
+    <col min="4" max="6" width="24.69921875" customWidth="1"/>
+    <col min="7" max="7" width="22.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="100" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="103"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="63">
+        <f t="shared" ref="A3:A46" si="0">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="176" t="s">
+        <v>395</v>
+      </c>
+      <c r="D3" s="76">
+        <v>801</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="189" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="63">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="77">
+        <v>804</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="179"/>
+    </row>
+    <row r="5" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="63">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="68"/>
+      <c r="C5" s="196" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="81">
+        <v>714</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="190" t="s">
+        <v>394</v>
+      </c>
+      <c r="J5" s="69"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="195"/>
+    </row>
+    <row r="6" spans="1:13" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="63">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="82">
+        <v>718</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="191"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="195"/>
+    </row>
+    <row r="7" spans="1:13" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="63">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="184" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="78">
+        <v>1107</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="186" t="s">
+        <v>431</v>
+      </c>
+      <c r="J7" s="69"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="75"/>
+    </row>
+    <row r="8" spans="1:13" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="63">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="185"/>
+      <c r="C8" s="61" t="s">
+        <v>428</v>
+      </c>
+      <c r="D8" s="79">
+        <v>1113</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="187"/>
+    </row>
+    <row r="9" spans="1:13" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="63">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="185"/>
+      <c r="C9" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="80">
+        <v>1202</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="188"/>
+    </row>
+    <row r="10" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A10" s="63">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>436</v>
+      </c>
+      <c r="D10" s="81">
+        <v>601</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="178" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A11" s="63">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="162"/>
+      <c r="C11" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D11" s="4">
+        <v>604</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="179"/>
+    </row>
+    <row r="12" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A12" s="63">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="162"/>
+      <c r="C12" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D12" s="4">
+        <v>605</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="179"/>
+    </row>
+    <row r="13" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A13" s="63">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="162"/>
+      <c r="C13" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="D13" s="4">
+        <v>606</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="179"/>
+    </row>
+    <row r="14" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A14" s="63">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="162"/>
+      <c r="C14" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D14" s="5">
+        <v>607</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="179"/>
+    </row>
+    <row r="15" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A15" s="63">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="162"/>
+      <c r="C15" s="59" t="s">
+        <v>435</v>
+      </c>
+      <c r="D15" s="4">
+        <v>609</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="58" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A16" s="63">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="162"/>
+      <c r="C16" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D16" s="4">
+        <v>610</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="179"/>
+    </row>
+    <row r="17" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A17" s="63">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="162"/>
+      <c r="C17" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D17" s="4">
+        <v>613</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="179"/>
+    </row>
+    <row r="18" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A18" s="63">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="162"/>
+      <c r="C18" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="D18" s="4">
+        <v>614</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="179"/>
+    </row>
+    <row r="19" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A19" s="63">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="162"/>
+      <c r="C19" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D19" s="4">
+        <v>617</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="179"/>
+    </row>
+    <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A20" s="63">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="162"/>
+      <c r="C20" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D20" s="4">
+        <v>618</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="179"/>
+    </row>
+    <row r="21" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="63">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="192"/>
+      <c r="C21" s="88" t="s">
+        <v>445</v>
+      </c>
+      <c r="D21" s="83">
+        <v>619</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="58"/>
+    </row>
+    <row r="22" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A22" s="63">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="193" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="D22" s="78">
+        <v>901</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="198" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A23" s="63">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="162"/>
+      <c r="C23" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="D23" s="4">
+        <v>902</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="199"/>
+    </row>
+    <row r="24" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="63">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="162"/>
+      <c r="C24" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="D24" s="4">
+        <v>903</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="199"/>
+    </row>
+    <row r="25" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A25" s="63">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="162"/>
+      <c r="C25" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="D25" s="4">
+        <v>904</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="199"/>
+    </row>
+    <row r="26" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A26" s="63">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="162"/>
+      <c r="C26" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="D26" s="4">
+        <v>905</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="199"/>
+    </row>
+    <row r="27" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A27" s="63">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="162"/>
+      <c r="C27" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="D27" s="4">
+        <v>906</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="199"/>
+    </row>
+    <row r="28" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A28" s="63">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="162"/>
+      <c r="C28" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="D28" s="4">
+        <v>907</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="199"/>
+    </row>
+    <row r="29" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A29" s="63">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="162"/>
+      <c r="C29" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="D29" s="4">
+        <v>908</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="199"/>
+    </row>
+    <row r="30" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A30" s="63">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="162"/>
+      <c r="C30" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="D30" s="4">
+        <v>909</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="199"/>
+    </row>
+    <row r="31" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A31" s="63">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="162"/>
+      <c r="C31" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="D31" s="4">
+        <v>910</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="199"/>
+    </row>
+    <row r="32" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A32" s="63">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="162"/>
+      <c r="C32" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="D32" s="4">
+        <v>911</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="199"/>
+    </row>
+    <row r="33" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A33" s="63">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="162"/>
+      <c r="C33" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="D33" s="4">
+        <v>912</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="199"/>
+    </row>
+    <row r="34" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A34" s="63">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="162"/>
+      <c r="C34" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="D34" s="4">
+        <v>913</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="199"/>
+    </row>
+    <row r="35" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A35" s="63">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="162"/>
+      <c r="C35" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="D35" s="4">
+        <v>914</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="199"/>
+    </row>
+    <row r="36" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A36" s="63">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="162"/>
+      <c r="C36" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="D36" s="4">
+        <v>915</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="199"/>
+    </row>
+    <row r="37" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A37" s="63">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="162"/>
+      <c r="C37" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="D37" s="4">
+        <v>917</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="199"/>
+    </row>
+    <row r="38" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A38" s="63">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="162"/>
+      <c r="C38" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="D38" s="4">
+        <v>918</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="199"/>
+    </row>
+    <row r="39" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A39" s="63">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="162"/>
+      <c r="C39" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="D39" s="4">
+        <v>919</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="199"/>
+    </row>
+    <row r="40" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A40" s="63">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="162"/>
+      <c r="C40" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1001</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="199"/>
+    </row>
+    <row r="41" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A41" s="63">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="162"/>
+      <c r="C41" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1002</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="199"/>
+      <c r="H41" s="58" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A42" s="63">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="162"/>
+      <c r="C42" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1003</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="199"/>
+    </row>
+    <row r="43" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A43" s="63">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="162"/>
+      <c r="C43" s="42" t="s">
+        <v>424</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1004</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="199"/>
+    </row>
+    <row r="44" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A44" s="63">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="162"/>
+      <c r="C44" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1005</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="199"/>
+    </row>
+    <row r="45" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A45" s="63">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="162"/>
+      <c r="C45" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1006</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="199"/>
+    </row>
+    <row r="46" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="63">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="162"/>
+      <c r="C46" s="72" t="s">
+        <v>429</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1007</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="199"/>
+      <c r="H46" s="58" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A47" s="180" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="181"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114" t="s">
+        <v>438</v>
+      </c>
+      <c r="E47" s="182"/>
+      <c r="F47" s="182"/>
+      <c r="G47" s="183"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="152"/>
+      <c r="B48" s="153"/>
+      <c r="C48" s="154"/>
+      <c r="D48" s="154"/>
+      <c r="E48" s="155"/>
+      <c r="F48" s="155"/>
+      <c r="G48" s="156"/>
+    </row>
+    <row r="49" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="157"/>
+      <c r="B49" s="158"/>
+      <c r="C49" s="159"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="160"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="161"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G22:G46"/>
+    <mergeCell ref="A48:G49"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="B22:B46"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G10:G21"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="G7:G9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/rooming.xlsx
+++ b/data/rooming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E97AF79-BD8A-4BFA-98DE-61245B42A706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C1F9B8B-C5FB-4BB9-A5F9-42C4A3B572A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1차수" sheetId="6" r:id="rId1"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="482">
   <si>
     <t>Guest Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2265,14 +2265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김미진, 윤희정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김미진: 박은지 희망 / 윤희정: 임다현 희망(불참)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3객실
 디럭스 더블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2297,10 +2289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최희란: 김주희 불참</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>박준규: 이준식 불참</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2310,10 +2298,6 @@
   </si>
   <si>
     <t>김신, 이상호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 민영미, 최희란</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2337,170 +2321,197 @@
     <t>여</t>
   </si>
   <si>
+    <t>김무철, 정수환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김종은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강형규, 김진욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성호, 김민혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임길환, 정동화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성문근, 임정우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상철, 김지명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신정선, 김태옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재현, 이형국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민수, 김우현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신재영, 이재도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동우, 손종혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양지웅, 이선우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준구, 정성우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강예리나, 황진솔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김지아, 김수지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노유미, 이혜선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박무늬, 안현선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이은숙, 김정애</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양수정, 백은주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유정은, 박정자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김명선, 임수빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박은미, 이단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정태용, 손영순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고지연, 최혜정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김혜련, 우연희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조은영, 손오영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국선순, 김선영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정현, 심효연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고연수, 조윤민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김윤숙, 박경연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박나라, 심지영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김수민, 박선영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최수민, 김보미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우지민, 함수연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양희상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데면세점 10/01~02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박주안, 최면웅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이호용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤희정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">롯데 (여)
 더블 트윈
-21객실 
+22객실 
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>42객실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김무철, 정수환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김종은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강형규, 김진욱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이성호, 김민혁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임길환, 정동화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성문근, 임정우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상철, 김지명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신정선, 김태옥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재현, 이형국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민수, 김우현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박주안, 이호용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신재영, 이재도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김동우, 손종혁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양지웅, 이선우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백준구, 정성우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최면웅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강예리나, 황진솔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김지아, 김수지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노유미, 이혜선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박무늬, 안현선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이은숙, 김정애</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양수정, 백은주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유정은, 박정자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김명선, 임수빈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박은미, 이단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정태용, 손영순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고지연, 최혜정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김혜련, 우연희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조은영, 손오영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국선순, 김선영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이정현, 심효연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고연수, 조윤민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김윤숙, 박경연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박나라, 심지영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김수민, 박선영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최수민, 김보미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우지민, 함수연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양희상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롯데면세점 10/01~02</t>
+    <r>
+      <t xml:space="preserve">2객실
+스탠다드 트윈
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>9/28~30(2박)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 민영미, 김미진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최희란</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3106,7 +3117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -3856,6 +3867,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3994,7 +4014,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4209,9 +4229,6 @@
     <xf numFmtId="176" fontId="25" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4233,9 +4250,6 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4291,6 +4305,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4471,66 +4494,66 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="34" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4570,6 +4593,54 @@
     <xf numFmtId="0" fontId="44" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4579,21 +4650,6 @@
     <xf numFmtId="0" fontId="46" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="25" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4608,39 +4664,6 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5020,13 +5043,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="103"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="104"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="25.2" x14ac:dyDescent="0.4">
@@ -5056,7 +5079,7 @@
       <c r="D3" s="4">
         <v>601</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="105" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -5074,7 +5097,7 @@
       <c r="D4" s="4">
         <v>604</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="106"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -5098,7 +5121,7 @@
       <c r="D5" s="5">
         <v>605</v>
       </c>
-      <c r="E5" s="106"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="2" t="s">
         <v>50</v>
       </c>
@@ -5107,7 +5130,7 @@
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="113" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -5116,7 +5139,7 @@
       <c r="D6" s="4">
         <v>606</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="108" t="s">
         <v>109</v>
       </c>
       <c r="F6" s="2"/>
@@ -5125,14 +5148,14 @@
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="113"/>
+      <c r="B7" s="114"/>
       <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="4">
         <v>607</v>
       </c>
-      <c r="E7" s="107"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="2"/>
       <c r="J7" s="31"/>
     </row>
@@ -5140,42 +5163,42 @@
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="113"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="4">
         <v>609</v>
       </c>
-      <c r="E8" s="107"/>
+      <c r="E8" s="108"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="113"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="4">
         <v>610</v>
       </c>
-      <c r="E9" s="107"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="113"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="5">
         <v>613</v>
       </c>
-      <c r="E10" s="107"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="2"/>
       <c r="I10" t="s">
         <v>6</v>
@@ -5185,70 +5208,70 @@
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="113"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="4">
         <v>614</v>
       </c>
-      <c r="E11" s="107"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="113"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="4">
         <v>617</v>
       </c>
-      <c r="E12" s="107"/>
+      <c r="E12" s="108"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="113"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="4">
         <v>618</v>
       </c>
-      <c r="E13" s="107"/>
+      <c r="E13" s="108"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="113"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="4">
         <v>619</v>
       </c>
-      <c r="E14" s="107"/>
+      <c r="E14" s="108"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="113"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="4">
         <v>620</v>
       </c>
-      <c r="E15" s="107"/>
+      <c r="E15" s="108"/>
       <c r="F15" s="2" t="s">
         <v>48</v>
       </c>
@@ -5257,7 +5280,7 @@
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="113"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="12" t="s">
         <v>29</v>
       </c>
@@ -5273,14 +5296,14 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="113"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="4">
         <v>915</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="E17" s="105" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="2"/>
@@ -5289,35 +5312,35 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="113"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="4">
         <v>923</v>
       </c>
-      <c r="E18" s="105"/>
+      <c r="E18" s="106"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="114"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D19" s="4">
         <v>926</v>
       </c>
-      <c r="E19" s="105"/>
+      <c r="E19" s="106"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="112" t="s">
+      <c r="B20" s="113" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -5326,175 +5349,175 @@
       <c r="D20" s="4">
         <v>1001</v>
       </c>
-      <c r="E20" s="105"/>
+      <c r="E20" s="106"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="113"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="4">
         <v>1002</v>
       </c>
-      <c r="E21" s="105"/>
+      <c r="E21" s="106"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="113"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="4">
         <v>1003</v>
       </c>
-      <c r="E22" s="105"/>
+      <c r="E22" s="106"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="113"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="4">
         <v>1004</v>
       </c>
-      <c r="E23" s="105"/>
+      <c r="E23" s="106"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="113"/>
+      <c r="B24" s="114"/>
       <c r="C24" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="4">
         <v>1005</v>
       </c>
-      <c r="E24" s="105"/>
+      <c r="E24" s="106"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="113"/>
+      <c r="B25" s="114"/>
       <c r="C25" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="4">
         <v>1006</v>
       </c>
-      <c r="E25" s="105"/>
+      <c r="E25" s="106"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="113"/>
+      <c r="B26" s="114"/>
       <c r="C26" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="4">
         <v>1007</v>
       </c>
-      <c r="E26" s="105"/>
+      <c r="E26" s="106"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="113"/>
+      <c r="B27" s="114"/>
       <c r="C27" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="4">
         <v>1008</v>
       </c>
-      <c r="E27" s="105"/>
+      <c r="E27" s="106"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="113"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="4">
         <v>1009</v>
       </c>
-      <c r="E28" s="105"/>
+      <c r="E28" s="106"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="113"/>
+      <c r="B29" s="114"/>
       <c r="C29" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="4">
         <v>1010</v>
       </c>
-      <c r="E29" s="105"/>
+      <c r="E29" s="106"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="113"/>
+      <c r="B30" s="114"/>
       <c r="C30" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="4">
         <v>1011</v>
       </c>
-      <c r="E30" s="105"/>
+      <c r="E30" s="106"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="113"/>
+      <c r="B31" s="114"/>
       <c r="C31" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="4">
         <v>1012</v>
       </c>
-      <c r="E31" s="105"/>
+      <c r="E31" s="106"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="113"/>
+      <c r="B32" s="114"/>
       <c r="C32" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D32" s="4">
         <v>1013</v>
       </c>
-      <c r="E32" s="105"/>
+      <c r="E32" s="106"/>
       <c r="F32" s="2" t="s">
         <v>54</v>
       </c>
@@ -5503,126 +5526,126 @@
       <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="113"/>
+      <c r="B33" s="114"/>
       <c r="C33" s="12" t="s">
         <v>101</v>
       </c>
       <c r="D33" s="4">
         <v>1014</v>
       </c>
-      <c r="E33" s="105"/>
+      <c r="E33" s="106"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="113"/>
+      <c r="B34" s="114"/>
       <c r="C34" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="4">
         <v>1015</v>
       </c>
-      <c r="E34" s="105"/>
+      <c r="E34" s="106"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="113"/>
+      <c r="B35" s="114"/>
       <c r="C35" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="4">
         <v>1017</v>
       </c>
-      <c r="E35" s="105"/>
+      <c r="E35" s="106"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="113"/>
+      <c r="B36" s="114"/>
       <c r="C36" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="4">
         <v>1018</v>
       </c>
-      <c r="E36" s="105"/>
+      <c r="E36" s="106"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="113"/>
+      <c r="B37" s="114"/>
       <c r="C37" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="4">
         <v>1019</v>
       </c>
-      <c r="E37" s="105"/>
+      <c r="E37" s="106"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="113"/>
+      <c r="B38" s="114"/>
       <c r="C38" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="4">
         <v>1020</v>
       </c>
-      <c r="E38" s="105"/>
+      <c r="E38" s="106"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>37</v>
       </c>
-      <c r="B39" s="113"/>
+      <c r="B39" s="114"/>
       <c r="C39" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="4">
         <v>1021</v>
       </c>
-      <c r="E39" s="105"/>
+      <c r="E39" s="106"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="113"/>
+      <c r="B40" s="114"/>
       <c r="C40" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="4">
         <v>1022</v>
       </c>
-      <c r="E40" s="105"/>
+      <c r="E40" s="106"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>39</v>
       </c>
-      <c r="B41" s="113"/>
+      <c r="B41" s="114"/>
       <c r="C41" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="4">
         <v>1023</v>
       </c>
-      <c r="E41" s="105"/>
+      <c r="E41" s="106"/>
       <c r="F41" s="2" t="s">
         <v>58</v>
       </c>
@@ -5631,58 +5654,58 @@
       <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="113"/>
+      <c r="B42" s="114"/>
       <c r="C42" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="4">
         <v>1024</v>
       </c>
-      <c r="E42" s="105"/>
+      <c r="E42" s="106"/>
     </row>
     <row r="43" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="B43" s="114"/>
+      <c r="B43" s="115"/>
       <c r="C43" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D43" s="4">
         <v>1025</v>
       </c>
-      <c r="E43" s="106"/>
+      <c r="E43" s="107"/>
       <c r="F43" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110" t="str">
+      <c r="B44" s="110"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111" t="str">
         <f>COUNT(D3:D43)&amp;"객실"</f>
         <v>41객실</v>
       </c>
-      <c r="E44" s="111"/>
+      <c r="E44" s="112"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A45" s="92"/>
-      <c r="B45" s="93"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="95"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="96"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="96"/>
-      <c r="B46" s="97"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="99"/>
+      <c r="A46" s="97"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="100"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
@@ -5712,10 +5735,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C66E6-1A4E-48CD-A544-340952140C81}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A34" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5728,31 +5751,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
-        <v>482</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="103"/>
+      <c r="A1" s="101" t="s">
+        <v>474</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="104"/>
     </row>
     <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="62" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="71" t="s">
         <v>250</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -5761,20 +5784,20 @@
     </row>
     <row r="3" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A3" s="63">
-        <f t="shared" ref="A3:A44" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A45" si="0">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="176" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="193" t="s">
         <v>395</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="74">
         <v>801</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="189" t="s">
-        <v>432</v>
+      <c r="G3" s="187" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -5782,31 +5805,31 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="77">
+      <c r="B4" s="66"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="75">
         <v>804</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="179"/>
+      <c r="G4" s="188"/>
     </row>
     <row r="5" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A5" s="63">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="196" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="81">
+      <c r="D5" s="79">
         <v>714</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="190" t="s">
-        <v>394</v>
+      <c r="G5" s="189" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -5814,33 +5837,33 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="197"/>
-      <c r="D6" s="82">
+      <c r="B6" s="66"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="80">
         <v>718</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="191"/>
+      <c r="G6" s="190"/>
     </row>
     <row r="7" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="63">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="184" t="s">
+      <c r="B7" s="196" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="78">
+      <c r="D7" s="76">
         <v>1107</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="186" t="s">
-        <v>431</v>
+      <c r="G7" s="198" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -5848,51 +5871,51 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="185"/>
+      <c r="B8" s="197"/>
       <c r="C8" s="61" t="s">
-        <v>481</v>
-      </c>
-      <c r="D8" s="79">
+        <v>473</v>
+      </c>
+      <c r="D8" s="77">
         <v>1113</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="187"/>
+      <c r="G8" s="199"/>
     </row>
     <row r="9" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="63">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="185"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="78">
         <v>1202</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="188"/>
+      <c r="G9" s="200"/>
     </row>
     <row r="10" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="63">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="160" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="D10" s="81">
+      <c r="C10" s="70" t="s">
+        <v>440</v>
+      </c>
+      <c r="D10" s="79">
         <v>601</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="186" t="s">
-        <v>440</v>
+      <c r="G10" s="198" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
@@ -5900,227 +5923,227 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="162"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="12" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D11" s="4">
         <v>604</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="187"/>
+      <c r="G11" s="199"/>
     </row>
     <row r="12" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="63">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="162"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="12" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D12" s="4">
         <v>605</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="187"/>
+      <c r="G12" s="199"/>
     </row>
     <row r="13" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="63">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="162"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="12" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D13" s="4">
         <v>606</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="187"/>
+      <c r="G13" s="199"/>
     </row>
     <row r="14" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="63">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="162"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D14" s="5">
         <v>607</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="187"/>
+      <c r="G14" s="199"/>
     </row>
     <row r="15" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="63">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="162"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="45" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D15" s="4">
         <v>609</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="187"/>
+      <c r="G15" s="199"/>
     </row>
     <row r="16" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="63">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="162"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="45" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D16" s="4">
         <v>610</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="187"/>
+      <c r="G16" s="199"/>
     </row>
     <row r="17" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="63">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="162"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="45" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D17" s="4">
         <v>613</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="187"/>
+      <c r="G17" s="199"/>
     </row>
     <row r="18" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="63">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="162"/>
+      <c r="B18" s="160"/>
       <c r="C18" s="45" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="D18" s="4">
         <v>614</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="187"/>
+      <c r="G18" s="199"/>
     </row>
     <row r="19" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A19" s="63">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="162"/>
+      <c r="B19" s="160"/>
       <c r="C19" s="45" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="D19" s="4">
         <v>617</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="187"/>
+      <c r="G19" s="199"/>
     </row>
     <row r="20" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="63">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="162"/>
+      <c r="B20" s="160"/>
       <c r="C20" s="45" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D20" s="4">
         <v>618</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="187"/>
+      <c r="G20" s="199"/>
     </row>
     <row r="21" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="63">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="162"/>
-      <c r="C21" s="88" t="s">
-        <v>458</v>
-      </c>
-      <c r="D21" s="83">
+      <c r="B21" s="160"/>
+      <c r="C21" s="86" t="s">
+        <v>451</v>
+      </c>
+      <c r="D21" s="81">
         <v>619</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="187"/>
+      <c r="G21" s="199"/>
     </row>
     <row r="22" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="63">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="162"/>
-      <c r="C22" s="89" t="s">
-        <v>456</v>
+      <c r="B22" s="160"/>
+      <c r="C22" s="87" t="s">
+        <v>449</v>
       </c>
       <c r="D22" s="4">
         <v>620</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="187"/>
-    </row>
-    <row r="23" spans="1:7" s="87" customFormat="1" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="86">
+      <c r="G22" s="199"/>
+    </row>
+    <row r="23" spans="1:7" s="85" customFormat="1" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="84">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="162"/>
-      <c r="C23" s="90" t="s">
-        <v>457</v>
-      </c>
-      <c r="D23" s="65">
+      <c r="B23" s="160"/>
+      <c r="C23" s="88" t="s">
+        <v>450</v>
+      </c>
+      <c r="D23" s="64">
         <v>622</v>
       </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="200"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="201"/>
     </row>
     <row r="24" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A24" s="84">
+      <c r="A24" s="82">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="162" t="s">
-        <v>441</v>
-      </c>
-      <c r="C24" s="91" t="s">
-        <v>460</v>
-      </c>
-      <c r="D24" s="85">
+      <c r="B24" s="160" t="s">
+        <v>437</v>
+      </c>
+      <c r="C24" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="D24" s="83">
         <v>901</v>
       </c>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="201" t="s">
-        <v>442</v>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="202" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
@@ -6128,354 +6151,377 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="162"/>
+      <c r="B25" s="160"/>
       <c r="C25" s="12" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D25" s="4">
         <v>902</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="202"/>
+      <c r="G25" s="203"/>
     </row>
     <row r="26" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="63">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="162"/>
+      <c r="B26" s="160"/>
       <c r="C26" s="12" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D26" s="4">
         <v>903</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="202"/>
+      <c r="G26" s="203"/>
     </row>
     <row r="27" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="63">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="162"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="12" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D27" s="4">
         <v>904</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="202"/>
+      <c r="G27" s="203"/>
     </row>
     <row r="28" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="63">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="162"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="12" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D28" s="4">
         <v>905</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="202"/>
+      <c r="G28" s="203"/>
     </row>
     <row r="29" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="63">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="162"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="12" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D29" s="4">
         <v>906</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="202"/>
+      <c r="G29" s="203"/>
     </row>
     <row r="30" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="63">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="162"/>
+      <c r="B30" s="160"/>
       <c r="C30" s="12" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D30" s="4">
         <v>907</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="202"/>
+      <c r="G30" s="203"/>
     </row>
     <row r="31" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="63">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="162"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="12" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D31" s="4">
         <v>908</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="202"/>
+      <c r="G31" s="203"/>
     </row>
     <row r="32" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="63">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="162"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="12" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D32" s="4">
         <v>909</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="202"/>
+      <c r="G32" s="203"/>
     </row>
     <row r="33" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="63">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="162"/>
+      <c r="B33" s="160"/>
       <c r="C33" s="12" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D33" s="4">
         <v>910</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="202"/>
+      <c r="G33" s="203"/>
     </row>
     <row r="34" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="63">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="162"/>
+      <c r="B34" s="160"/>
       <c r="C34" s="12" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D34" s="4">
         <v>911</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="202"/>
+      <c r="G34" s="203"/>
     </row>
     <row r="35" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="63">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="162"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="12" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D35" s="4">
         <v>912</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="202"/>
+      <c r="G35" s="203"/>
     </row>
     <row r="36" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="63">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="162"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="12" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D36" s="4">
         <v>913</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="202"/>
+      <c r="G36" s="203"/>
     </row>
     <row r="37" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="63">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="162"/>
+      <c r="B37" s="160"/>
       <c r="C37" s="12" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D37" s="4">
         <v>914</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="202"/>
+      <c r="G37" s="203"/>
     </row>
     <row r="38" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="63">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="162"/>
+      <c r="B38" s="160"/>
       <c r="C38" s="12" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D38" s="4">
         <v>915</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="202"/>
+      <c r="G38" s="203"/>
     </row>
     <row r="39" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="63">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="162"/>
+      <c r="B39" s="160"/>
       <c r="C39" s="12" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D39" s="4">
         <v>917</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="202"/>
+      <c r="G39" s="203"/>
     </row>
     <row r="40" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="63">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="162"/>
+      <c r="B40" s="160"/>
       <c r="C40" s="12" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D40" s="4">
         <v>918</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="202"/>
+      <c r="G40" s="203"/>
     </row>
     <row r="41" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="63">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="162"/>
+      <c r="B41" s="160"/>
       <c r="C41" s="12" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D41" s="4">
         <v>919</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="202"/>
+      <c r="G41" s="203"/>
     </row>
     <row r="42" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="63">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="162"/>
+      <c r="B42" s="160"/>
       <c r="C42" s="12" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D42" s="4">
         <v>920</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="202"/>
+      <c r="G42" s="203"/>
     </row>
     <row r="43" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="63">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="162"/>
+      <c r="B43" s="160"/>
       <c r="C43" s="12" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D43" s="4">
         <v>922</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="202"/>
+      <c r="G43" s="203"/>
     </row>
     <row r="44" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="63">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="162"/>
+      <c r="B44" s="160"/>
       <c r="C44" s="12" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D44" s="4">
         <v>923</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="203"/>
-    </row>
-    <row r="45" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="180" t="s">
+      <c r="G44" s="204"/>
+    </row>
+    <row r="45" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A45" s="63">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="91"/>
+      <c r="C45" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D45" s="4">
+        <v>926</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="90"/>
+    </row>
+    <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A46" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="181"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114" t="s">
-        <v>443</v>
-      </c>
-      <c r="E45" s="182"/>
-      <c r="F45" s="182"/>
-      <c r="G45" s="183"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="152"/>
-      <c r="B46" s="153"/>
-      <c r="C46" s="154"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="155"/>
-      <c r="F46" s="155"/>
-      <c r="G46" s="156"/>
-    </row>
-    <row r="47" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="157"/>
-      <c r="B47" s="158"/>
-      <c r="C47" s="159"/>
-      <c r="D47" s="159"/>
-      <c r="E47" s="160"/>
-      <c r="F47" s="160"/>
-      <c r="G47" s="161"/>
+      <c r="B46" s="184"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="185"/>
+      <c r="F46" s="185"/>
+      <c r="G46" s="186"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="149"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="152"/>
+      <c r="F47" s="152"/>
+      <c r="G47" s="153"/>
+    </row>
+    <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="154"/>
+      <c r="B48" s="155"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="156"/>
+      <c r="E48" s="157"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A47:G48"/>
+    <mergeCell ref="G10:G23"/>
+    <mergeCell ref="B24:B44"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="G24:G44"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:G46"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="A1:G1"/>
@@ -6483,13 +6529,6 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A46:G47"/>
-    <mergeCell ref="G10:G23"/>
-    <mergeCell ref="B24:B44"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="G24:G44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:G45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6516,13 +6555,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="124"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="125"/>
       <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="25.2" x14ac:dyDescent="0.4">
@@ -6552,7 +6591,7 @@
       <c r="D3" s="22">
         <v>601</v>
       </c>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="133" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="23" t="s">
@@ -6570,7 +6609,7 @@
       <c r="D4" s="22">
         <v>604</v>
       </c>
-      <c r="E4" s="133"/>
+      <c r="E4" s="134"/>
       <c r="F4" s="24" t="s">
         <v>60</v>
       </c>
@@ -6586,14 +6625,14 @@
       <c r="D5" s="25">
         <v>605</v>
       </c>
-      <c r="E5" s="134"/>
+      <c r="E5" s="135"/>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="136" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -6602,7 +6641,7 @@
       <c r="D6" s="22">
         <v>606</v>
       </c>
-      <c r="E6" s="130" t="s">
+      <c r="E6" s="131" t="s">
         <v>108</v>
       </c>
       <c r="F6" s="16"/>
@@ -6611,28 +6650,28 @@
       <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="136"/>
+      <c r="B7" s="137"/>
       <c r="C7" s="30" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="22">
         <v>607</v>
       </c>
-      <c r="E7" s="131"/>
+      <c r="E7" s="132"/>
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="136"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="22">
         <v>609</v>
       </c>
-      <c r="E8" s="131"/>
+      <c r="E8" s="132"/>
       <c r="F8" s="16"/>
       <c r="K8" s="32"/>
     </row>
@@ -6640,42 +6679,42 @@
       <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B9" s="136"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="30" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="22">
         <v>610</v>
       </c>
-      <c r="E9" s="131"/>
+      <c r="E9" s="132"/>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="136"/>
+      <c r="B10" s="137"/>
       <c r="C10" s="30" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="25">
         <v>613</v>
       </c>
-      <c r="E10" s="131"/>
+      <c r="E10" s="132"/>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="136"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="30" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="22">
         <v>614</v>
       </c>
-      <c r="E11" s="131"/>
+      <c r="E11" s="132"/>
       <c r="F11" s="16"/>
       <c r="I11" t="s">
         <v>6</v>
@@ -6685,42 +6724,42 @@
       <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="136"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="30" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="22">
         <v>617</v>
       </c>
-      <c r="E12" s="131"/>
+      <c r="E12" s="132"/>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="136"/>
+      <c r="B13" s="137"/>
       <c r="C13" s="30" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="22">
         <v>618</v>
       </c>
-      <c r="E13" s="131"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="136"/>
+      <c r="B14" s="137"/>
       <c r="C14" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="22">
         <v>619</v>
       </c>
-      <c r="E14" s="131"/>
+      <c r="E14" s="132"/>
       <c r="F14" s="16" t="s">
         <v>71</v>
       </c>
@@ -6729,56 +6768,56 @@
       <c r="A15" s="20">
         <v>13</v>
       </c>
-      <c r="B15" s="136"/>
+      <c r="B15" s="137"/>
       <c r="C15" s="30" t="s">
         <v>72</v>
       </c>
       <c r="D15" s="22">
         <v>620</v>
       </c>
-      <c r="E15" s="131"/>
+      <c r="E15" s="132"/>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="136"/>
+      <c r="B16" s="137"/>
       <c r="C16" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="22">
         <v>622</v>
       </c>
-      <c r="E16" s="131"/>
+      <c r="E16" s="132"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20">
         <v>15</v>
       </c>
-      <c r="B17" s="136"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="22">
         <v>623</v>
       </c>
-      <c r="E17" s="131"/>
+      <c r="E17" s="132"/>
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="136"/>
+      <c r="B18" s="137"/>
       <c r="C18" s="30" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="22">
         <v>626</v>
       </c>
-      <c r="E18" s="131"/>
+      <c r="E18" s="132"/>
       <c r="F18" s="16" t="s">
         <v>76</v>
       </c>
@@ -6787,7 +6826,7 @@
       <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="136" t="s">
         <v>106</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -6796,21 +6835,21 @@
       <c r="D19" s="22">
         <v>704</v>
       </c>
-      <c r="E19" s="131"/>
+      <c r="E19" s="132"/>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="20">
         <v>18</v>
       </c>
-      <c r="B20" s="137"/>
+      <c r="B20" s="138"/>
       <c r="C20" s="26" t="s">
         <v>102</v>
       </c>
       <c r="D20" s="22">
         <v>705</v>
       </c>
-      <c r="E20" s="131"/>
+      <c r="E20" s="132"/>
       <c r="F20" s="16" t="s">
         <v>103</v>
       </c>
@@ -6819,7 +6858,7 @@
       <c r="A21" s="20">
         <v>19</v>
       </c>
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="137" t="s">
         <v>105</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -6835,7 +6874,7 @@
       <c r="A22" s="20">
         <v>20</v>
       </c>
-      <c r="B22" s="137"/>
+      <c r="B22" s="138"/>
       <c r="C22" s="21" t="s">
         <v>61</v>
       </c>
@@ -6853,10 +6892,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="39"/>
-      <c r="C23" s="138" t="s">
+      <c r="C23" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="139"/>
+      <c r="D23" s="140"/>
       <c r="E23" s="38"/>
       <c r="F23" s="16"/>
       <c r="K23" s="32"/>
@@ -6865,7 +6904,7 @@
       <c r="A24" s="20">
         <v>22</v>
       </c>
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="136" t="s">
         <v>106</v>
       </c>
       <c r="C24" s="30" t="s">
@@ -6874,7 +6913,7 @@
       <c r="D24" s="22">
         <v>1001</v>
       </c>
-      <c r="E24" s="132" t="s">
+      <c r="E24" s="133" t="s">
         <v>110</v>
       </c>
       <c r="F24" s="16"/>
@@ -6883,252 +6922,252 @@
       <c r="A25" s="20">
         <v>23</v>
       </c>
-      <c r="B25" s="136"/>
+      <c r="B25" s="137"/>
       <c r="C25" s="30" t="s">
         <v>99</v>
       </c>
       <c r="D25" s="22">
         <v>1002</v>
       </c>
-      <c r="E25" s="133"/>
+      <c r="E25" s="134"/>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20">
         <v>24</v>
       </c>
-      <c r="B26" s="136"/>
+      <c r="B26" s="137"/>
       <c r="C26" s="30" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="22">
         <v>1003</v>
       </c>
-      <c r="E26" s="133"/>
+      <c r="E26" s="134"/>
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20">
         <v>25</v>
       </c>
-      <c r="B27" s="136"/>
+      <c r="B27" s="137"/>
       <c r="C27" s="30" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="22">
         <v>1004</v>
       </c>
-      <c r="E27" s="133"/>
+      <c r="E27" s="134"/>
       <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20">
         <v>26</v>
       </c>
-      <c r="B28" s="136"/>
+      <c r="B28" s="137"/>
       <c r="C28" s="30" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="22">
         <v>1005</v>
       </c>
-      <c r="E28" s="133"/>
+      <c r="E28" s="134"/>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20">
         <v>27</v>
       </c>
-      <c r="B29" s="136"/>
+      <c r="B29" s="137"/>
       <c r="C29" s="30" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="22">
         <v>1006</v>
       </c>
-      <c r="E29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="20">
         <v>28</v>
       </c>
-      <c r="B30" s="136"/>
+      <c r="B30" s="137"/>
       <c r="C30" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D30" s="22">
         <v>1007</v>
       </c>
-      <c r="E30" s="133"/>
+      <c r="E30" s="134"/>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20">
         <v>29</v>
       </c>
-      <c r="B31" s="136"/>
+      <c r="B31" s="137"/>
       <c r="C31" s="30" t="s">
         <v>83</v>
       </c>
       <c r="D31" s="22">
         <v>1008</v>
       </c>
-      <c r="E31" s="133"/>
+      <c r="E31" s="134"/>
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="20">
         <v>30</v>
       </c>
-      <c r="B32" s="136"/>
+      <c r="B32" s="137"/>
       <c r="C32" s="30" t="s">
         <v>84</v>
       </c>
       <c r="D32" s="22">
         <v>1009</v>
       </c>
-      <c r="E32" s="133"/>
+      <c r="E32" s="134"/>
       <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20">
         <v>31</v>
       </c>
-      <c r="B33" s="136"/>
+      <c r="B33" s="137"/>
       <c r="C33" s="30" t="s">
         <v>86</v>
       </c>
       <c r="D33" s="22">
         <v>1010</v>
       </c>
-      <c r="E33" s="133"/>
+      <c r="E33" s="134"/>
       <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="20">
         <v>32</v>
       </c>
-      <c r="B34" s="136"/>
+      <c r="B34" s="137"/>
       <c r="C34" s="30" t="s">
         <v>87</v>
       </c>
       <c r="D34" s="22">
         <v>1011</v>
       </c>
-      <c r="E34" s="133"/>
+      <c r="E34" s="134"/>
       <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20">
         <v>33</v>
       </c>
-      <c r="B35" s="136"/>
+      <c r="B35" s="137"/>
       <c r="C35" s="30" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="22">
         <v>1012</v>
       </c>
-      <c r="E35" s="133"/>
+      <c r="E35" s="134"/>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="20">
         <v>34</v>
       </c>
-      <c r="B36" s="136"/>
+      <c r="B36" s="137"/>
       <c r="C36" s="30" t="s">
         <v>88</v>
       </c>
       <c r="D36" s="22">
         <v>1013</v>
       </c>
-      <c r="E36" s="133"/>
+      <c r="E36" s="134"/>
       <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20">
         <v>35</v>
       </c>
-      <c r="B37" s="136"/>
+      <c r="B37" s="137"/>
       <c r="C37" s="30" t="s">
         <v>89</v>
       </c>
       <c r="D37" s="22">
         <v>1014</v>
       </c>
-      <c r="E37" s="133"/>
+      <c r="E37" s="134"/>
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="20">
         <v>36</v>
       </c>
-      <c r="B38" s="136"/>
+      <c r="B38" s="137"/>
       <c r="C38" s="30" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="22">
         <v>1015</v>
       </c>
-      <c r="E38" s="133"/>
+      <c r="E38" s="134"/>
       <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="20">
         <v>37</v>
       </c>
-      <c r="B39" s="136"/>
+      <c r="B39" s="137"/>
       <c r="C39" s="30" t="s">
         <v>91</v>
       </c>
       <c r="D39" s="22">
         <v>1017</v>
       </c>
-      <c r="E39" s="133"/>
+      <c r="E39" s="134"/>
       <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="20">
         <v>38</v>
       </c>
-      <c r="B40" s="136"/>
+      <c r="B40" s="137"/>
       <c r="C40" s="30" t="s">
         <v>92</v>
       </c>
       <c r="D40" s="22">
         <v>1018</v>
       </c>
-      <c r="E40" s="133"/>
+      <c r="E40" s="134"/>
       <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="20">
         <v>39</v>
       </c>
-      <c r="B41" s="136"/>
+      <c r="B41" s="137"/>
       <c r="C41" s="30" t="s">
         <v>93</v>
       </c>
       <c r="D41" s="22">
         <v>1019</v>
       </c>
-      <c r="E41" s="133"/>
+      <c r="E41" s="134"/>
       <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="20">
         <v>40</v>
       </c>
-      <c r="B42" s="136"/>
+      <c r="B42" s="137"/>
       <c r="C42" s="26" t="s">
         <v>94</v>
       </c>
       <c r="D42" s="22">
         <v>1020</v>
       </c>
-      <c r="E42" s="133"/>
+      <c r="E42" s="134"/>
       <c r="F42" s="16" t="s">
         <v>95</v>
       </c>
@@ -7137,84 +7176,84 @@
       <c r="A43" s="20">
         <v>41</v>
       </c>
-      <c r="B43" s="136"/>
+      <c r="B43" s="137"/>
       <c r="C43" s="30" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="22">
         <v>1021</v>
       </c>
-      <c r="E43" s="133"/>
+      <c r="E43" s="134"/>
       <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="20">
         <v>42</v>
       </c>
-      <c r="B44" s="136"/>
+      <c r="B44" s="137"/>
       <c r="C44" s="30" t="s">
         <v>104</v>
       </c>
       <c r="D44" s="22">
         <v>1022</v>
       </c>
-      <c r="E44" s="133"/>
+      <c r="E44" s="134"/>
       <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="20">
         <v>43</v>
       </c>
-      <c r="B45" s="136"/>
+      <c r="B45" s="137"/>
       <c r="C45" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="22">
         <v>1023</v>
       </c>
-      <c r="E45" s="133"/>
+      <c r="E45" s="134"/>
       <c r="F45" s="28"/>
     </row>
     <row r="46" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A46" s="20">
         <v>44</v>
       </c>
-      <c r="B46" s="137"/>
+      <c r="B46" s="138"/>
       <c r="C46" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="22">
         <v>1024</v>
       </c>
-      <c r="E46" s="134"/>
+      <c r="E46" s="135"/>
       <c r="F46" s="28"/>
     </row>
     <row r="47" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="127" t="s">
+      <c r="A47" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="128"/>
-      <c r="C47" s="129"/>
-      <c r="D47" s="125" t="s">
+      <c r="B47" s="129"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="126"/>
+      <c r="E47" s="127"/>
       <c r="F47" s="28"/>
     </row>
     <row r="48" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="115"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="117"/>
+      <c r="A48" s="116"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="118"/>
       <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="118"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="119"/>
-      <c r="E49" s="120"/>
+      <c r="A49" s="119"/>
+      <c r="B49" s="120"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="121"/>
       <c r="F49" s="29"/>
     </row>
   </sheetData>
@@ -7256,13 +7295,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="103"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="104"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="25.2" x14ac:dyDescent="0.4">
@@ -7292,7 +7331,7 @@
       <c r="D3" s="4">
         <v>707</v>
       </c>
-      <c r="E3" s="140" t="s">
+      <c r="E3" s="141" t="s">
         <v>113</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -7310,7 +7349,7 @@
       <c r="D4" s="4">
         <v>1101</v>
       </c>
-      <c r="E4" s="141"/>
+      <c r="E4" s="142"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -7326,14 +7365,14 @@
       <c r="D5" s="5">
         <v>1104</v>
       </c>
-      <c r="E5" s="142"/>
+      <c r="E5" s="143"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="136" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -7342,7 +7381,7 @@
       <c r="D6" s="4">
         <v>601</v>
       </c>
-      <c r="E6" s="140" t="s">
+      <c r="E6" s="141" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="2"/>
@@ -7351,154 +7390,154 @@
       <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="136"/>
+      <c r="B7" s="137"/>
       <c r="C7" s="12" t="s">
         <v>117</v>
       </c>
       <c r="D7" s="4">
         <v>604</v>
       </c>
-      <c r="E7" s="141"/>
+      <c r="E7" s="142"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="136"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="12" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="4">
         <v>605</v>
       </c>
-      <c r="E8" s="141"/>
+      <c r="E8" s="142"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="136"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D9" s="4">
         <v>606</v>
       </c>
-      <c r="E9" s="141"/>
+      <c r="E9" s="142"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="136"/>
+      <c r="B10" s="137"/>
       <c r="C10" s="45" t="s">
         <v>120</v>
       </c>
       <c r="D10" s="5">
         <v>607</v>
       </c>
-      <c r="E10" s="141"/>
+      <c r="E10" s="142"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <v>9</v>
       </c>
-      <c r="B11" s="136"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="4">
         <v>609</v>
       </c>
-      <c r="E11" s="141"/>
+      <c r="E11" s="142"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <v>10</v>
       </c>
-      <c r="B12" s="136"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D12" s="4">
         <v>610</v>
       </c>
-      <c r="E12" s="141"/>
+      <c r="E12" s="142"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <v>11</v>
       </c>
-      <c r="B13" s="136"/>
+      <c r="B13" s="137"/>
       <c r="C13" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D13" s="4">
         <v>613</v>
       </c>
-      <c r="E13" s="141"/>
+      <c r="E13" s="142"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>12</v>
       </c>
-      <c r="B14" s="136"/>
+      <c r="B14" s="137"/>
       <c r="C14" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D14" s="4">
         <v>614</v>
       </c>
-      <c r="E14" s="141"/>
+      <c r="E14" s="142"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <v>13</v>
       </c>
-      <c r="B15" s="136"/>
+      <c r="B15" s="137"/>
       <c r="C15" s="12" t="s">
         <v>125</v>
       </c>
       <c r="D15" s="4">
         <v>617</v>
       </c>
-      <c r="E15" s="141"/>
+      <c r="E15" s="142"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <v>14</v>
       </c>
-      <c r="B16" s="136"/>
+      <c r="B16" s="137"/>
       <c r="C16" s="12" t="s">
         <v>126</v>
       </c>
       <c r="D16" s="4">
         <v>618</v>
       </c>
-      <c r="E16" s="141"/>
+      <c r="E16" s="142"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <v>15</v>
       </c>
-      <c r="B17" s="136"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="42" t="s">
         <v>127</v>
       </c>
       <c r="D17" s="4">
         <v>619</v>
       </c>
-      <c r="E17" s="141"/>
+      <c r="E17" s="142"/>
       <c r="F17" s="2" t="s">
         <v>76</v>
       </c>
@@ -7507,14 +7546,14 @@
       <c r="A18" s="41">
         <v>16</v>
       </c>
-      <c r="B18" s="136"/>
+      <c r="B18" s="137"/>
       <c r="C18" s="42" t="s">
         <v>100</v>
       </c>
       <c r="D18" s="4">
         <v>620</v>
       </c>
-      <c r="E18" s="141"/>
+      <c r="E18" s="142"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -7539,14 +7578,14 @@
       <c r="A20" s="41">
         <v>18</v>
       </c>
-      <c r="B20" s="135"/>
+      <c r="B20" s="136"/>
       <c r="C20" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D20" s="4">
         <v>1001</v>
       </c>
-      <c r="E20" s="140" t="s">
+      <c r="E20" s="141" t="s">
         <v>115</v>
       </c>
       <c r="F20" s="2"/>
@@ -7555,168 +7594,168 @@
       <c r="A21" s="41">
         <v>19</v>
       </c>
-      <c r="B21" s="136"/>
+      <c r="B21" s="137"/>
       <c r="C21" s="12" t="s">
         <v>130</v>
       </c>
       <c r="D21" s="4">
         <v>1002</v>
       </c>
-      <c r="E21" s="141"/>
+      <c r="E21" s="142"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <v>20</v>
       </c>
-      <c r="B22" s="136"/>
+      <c r="B22" s="137"/>
       <c r="C22" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D22" s="4">
         <v>1003</v>
       </c>
-      <c r="E22" s="141"/>
+      <c r="E22" s="142"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <v>21</v>
       </c>
-      <c r="B23" s="136"/>
+      <c r="B23" s="137"/>
       <c r="C23" s="12" t="s">
         <v>132</v>
       </c>
       <c r="D23" s="4">
         <v>1004</v>
       </c>
-      <c r="E23" s="141"/>
+      <c r="E23" s="142"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <v>22</v>
       </c>
-      <c r="B24" s="136"/>
+      <c r="B24" s="137"/>
       <c r="C24" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D24" s="4">
         <v>1005</v>
       </c>
-      <c r="E24" s="141"/>
+      <c r="E24" s="142"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <v>23</v>
       </c>
-      <c r="B25" s="136"/>
+      <c r="B25" s="137"/>
       <c r="C25" s="12" t="s">
         <v>134</v>
       </c>
       <c r="D25" s="4">
         <v>1006</v>
       </c>
-      <c r="E25" s="141"/>
+      <c r="E25" s="142"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <v>24</v>
       </c>
-      <c r="B26" s="136"/>
+      <c r="B26" s="137"/>
       <c r="C26" s="12" t="s">
         <v>135</v>
       </c>
       <c r="D26" s="4">
         <v>1007</v>
       </c>
-      <c r="E26" s="141"/>
+      <c r="E26" s="142"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <v>25</v>
       </c>
-      <c r="B27" s="136"/>
+      <c r="B27" s="137"/>
       <c r="C27" s="12" t="s">
         <v>136</v>
       </c>
       <c r="D27" s="4">
         <v>1008</v>
       </c>
-      <c r="E27" s="141"/>
+      <c r="E27" s="142"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <v>26</v>
       </c>
-      <c r="B28" s="136"/>
+      <c r="B28" s="137"/>
       <c r="C28" s="12" t="s">
         <v>137</v>
       </c>
       <c r="D28" s="4">
         <v>1009</v>
       </c>
-      <c r="E28" s="141"/>
+      <c r="E28" s="142"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <v>27</v>
       </c>
-      <c r="B29" s="136"/>
+      <c r="B29" s="137"/>
       <c r="C29" s="12" t="s">
         <v>138</v>
       </c>
       <c r="D29" s="4">
         <v>1010</v>
       </c>
-      <c r="E29" s="141"/>
+      <c r="E29" s="142"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <v>28</v>
       </c>
-      <c r="B30" s="136"/>
+      <c r="B30" s="137"/>
       <c r="C30" s="12" t="s">
         <v>139</v>
       </c>
       <c r="D30" s="4">
         <v>1011</v>
       </c>
-      <c r="E30" s="141"/>
+      <c r="E30" s="142"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <v>29</v>
       </c>
-      <c r="B31" s="136"/>
+      <c r="B31" s="137"/>
       <c r="C31" s="45" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="4">
         <v>1012</v>
       </c>
-      <c r="E31" s="141"/>
+      <c r="E31" s="142"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <v>30</v>
       </c>
-      <c r="B32" s="136"/>
+      <c r="B32" s="137"/>
       <c r="C32" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D32" s="4">
         <v>1013</v>
       </c>
-      <c r="E32" s="141"/>
+      <c r="E32" s="142"/>
       <c r="F32" s="2" t="s">
         <v>142</v>
       </c>
@@ -7725,167 +7764,167 @@
       <c r="A33" s="41">
         <v>31</v>
       </c>
-      <c r="B33" s="136"/>
+      <c r="B33" s="137"/>
       <c r="C33" s="12" t="s">
         <v>143</v>
       </c>
       <c r="D33" s="4">
         <v>1014</v>
       </c>
-      <c r="E33" s="141"/>
+      <c r="E33" s="142"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <v>32</v>
       </c>
-      <c r="B34" s="136"/>
+      <c r="B34" s="137"/>
       <c r="C34" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D34" s="4">
         <v>1015</v>
       </c>
-      <c r="E34" s="141"/>
+      <c r="E34" s="142"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <v>33</v>
       </c>
-      <c r="B35" s="136"/>
+      <c r="B35" s="137"/>
       <c r="C35" s="12" t="s">
         <v>145</v>
       </c>
       <c r="D35" s="4">
         <v>1017</v>
       </c>
-      <c r="E35" s="141"/>
+      <c r="E35" s="142"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <v>34</v>
       </c>
-      <c r="B36" s="136"/>
+      <c r="B36" s="137"/>
       <c r="C36" s="12" t="s">
         <v>146</v>
       </c>
       <c r="D36" s="4">
         <v>1018</v>
       </c>
-      <c r="E36" s="141"/>
+      <c r="E36" s="142"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <v>35</v>
       </c>
-      <c r="B37" s="136"/>
+      <c r="B37" s="137"/>
       <c r="C37" s="12" t="s">
         <v>147</v>
       </c>
       <c r="D37" s="4">
         <v>1019</v>
       </c>
-      <c r="E37" s="141"/>
+      <c r="E37" s="142"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <v>36</v>
       </c>
-      <c r="B38" s="136"/>
+      <c r="B38" s="137"/>
       <c r="C38" s="12" t="s">
         <v>148</v>
       </c>
       <c r="D38" s="4">
         <v>1020</v>
       </c>
-      <c r="E38" s="141"/>
+      <c r="E38" s="142"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <v>37</v>
       </c>
-      <c r="B39" s="136"/>
+      <c r="B39" s="137"/>
       <c r="C39" s="12" t="s">
         <v>149</v>
       </c>
       <c r="D39" s="4">
         <v>1021</v>
       </c>
-      <c r="E39" s="141"/>
+      <c r="E39" s="142"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <v>38</v>
       </c>
-      <c r="B40" s="136"/>
+      <c r="B40" s="137"/>
       <c r="C40" s="12" t="s">
         <v>150</v>
       </c>
       <c r="D40" s="4">
         <v>1022</v>
       </c>
-      <c r="E40" s="141"/>
+      <c r="E40" s="142"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <v>39</v>
       </c>
-      <c r="B41" s="136"/>
+      <c r="B41" s="137"/>
       <c r="C41" s="12" t="s">
         <v>151</v>
       </c>
       <c r="D41" s="4">
         <v>1023</v>
       </c>
-      <c r="E41" s="141"/>
+      <c r="E41" s="142"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <v>40</v>
       </c>
-      <c r="B42" s="137"/>
+      <c r="B42" s="138"/>
       <c r="C42" s="42" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="4">
         <v>1024</v>
       </c>
-      <c r="E42" s="141"/>
+      <c r="E42" s="142"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="108" t="s">
+      <c r="A43" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110" t="s">
+      <c r="B43" s="110"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="E43" s="111"/>
+      <c r="E43" s="112"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="92"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="95"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="96"/>
     </row>
     <row r="45" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="96"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="99"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7921,15 +7960,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="103"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="104"/>
     </row>
     <row r="2" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
@@ -7966,7 +8005,7 @@
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="144" t="s">
+      <c r="G3" s="162" t="s">
         <v>240</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -7987,7 +8026,7 @@
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
-      <c r="G4" s="144"/>
+      <c r="G4" s="162"/>
       <c r="H4" s="14" t="s">
         <v>60</v>
       </c>
@@ -7997,7 +8036,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="159" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -8008,7 +8047,7 @@
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
-      <c r="G5" s="144" t="s">
+      <c r="G5" s="162" t="s">
         <v>241</v>
       </c>
     </row>
@@ -8017,7 +8056,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="146"/>
+      <c r="B6" s="161"/>
       <c r="C6" s="43" t="s">
         <v>154</v>
       </c>
@@ -8026,14 +8065,14 @@
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
-      <c r="G6" s="144"/>
+      <c r="G6" s="162"/>
     </row>
     <row r="7" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="159" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -8044,7 +8083,7 @@
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
-      <c r="G7" s="144" t="s">
+      <c r="G7" s="162" t="s">
         <v>155</v>
       </c>
       <c r="H7" s="54" t="s">
@@ -8056,7 +8095,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="162"/>
+      <c r="B8" s="160"/>
       <c r="C8" s="12" t="s">
         <v>162</v>
       </c>
@@ -8065,14 +8104,14 @@
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
-      <c r="G8" s="144"/>
+      <c r="G8" s="162"/>
     </row>
     <row r="9" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="162"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="12" t="s">
         <v>163</v>
       </c>
@@ -8081,14 +8120,14 @@
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
-      <c r="G9" s="144"/>
+      <c r="G9" s="162"/>
     </row>
     <row r="10" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="162"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="45" t="s">
         <v>164</v>
       </c>
@@ -8097,14 +8136,14 @@
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
-      <c r="G10" s="144"/>
+      <c r="G10" s="162"/>
     </row>
     <row r="11" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="162"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="12" t="s">
         <v>165</v>
       </c>
@@ -8113,14 +8152,14 @@
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
-      <c r="G11" s="144"/>
+      <c r="G11" s="162"/>
     </row>
     <row r="12" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="162"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="12" t="s">
         <v>166</v>
       </c>
@@ -8129,14 +8168,14 @@
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="56"/>
-      <c r="G12" s="144"/>
+      <c r="G12" s="162"/>
     </row>
     <row r="13" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="162"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="12" t="s">
         <v>167</v>
       </c>
@@ -8145,14 +8184,14 @@
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
-      <c r="G13" s="144"/>
+      <c r="G13" s="162"/>
     </row>
     <row r="14" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="162"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="12" t="s">
         <v>168</v>
       </c>
@@ -8161,14 +8200,14 @@
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
-      <c r="G14" s="144"/>
+      <c r="G14" s="162"/>
     </row>
     <row r="15" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="162"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="12" t="s">
         <v>169</v>
       </c>
@@ -8177,14 +8216,14 @@
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
-      <c r="G15" s="144"/>
+      <c r="G15" s="162"/>
     </row>
     <row r="16" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="162"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="12" t="s">
         <v>170</v>
       </c>
@@ -8193,14 +8232,14 @@
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
-      <c r="G16" s="144"/>
+      <c r="G16" s="162"/>
     </row>
     <row r="17" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="162"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="12" t="s">
         <v>171</v>
       </c>
@@ -8209,14 +8248,14 @@
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
-      <c r="G17" s="144"/>
+      <c r="G17" s="162"/>
     </row>
     <row r="18" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="162"/>
+      <c r="B18" s="160"/>
       <c r="C18" s="11" t="s">
         <v>172</v>
       </c>
@@ -8225,7 +8264,7 @@
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
-      <c r="G18" s="144"/>
+      <c r="G18" s="162"/>
       <c r="H18" s="54" t="s">
         <v>174</v>
       </c>
@@ -8235,7 +8274,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="146"/>
+      <c r="B19" s="161"/>
       <c r="C19" s="12" t="s">
         <v>173</v>
       </c>
@@ -8244,14 +8283,14 @@
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
-      <c r="G19" s="144"/>
+      <c r="G19" s="162"/>
     </row>
     <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="145" t="s">
+      <c r="B20" s="159" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -8262,7 +8301,7 @@
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="144" t="s">
+      <c r="G20" s="162" t="s">
         <v>156</v>
       </c>
     </row>
@@ -8271,7 +8310,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="162"/>
+      <c r="B21" s="160"/>
       <c r="C21" s="12" t="s">
         <v>177</v>
       </c>
@@ -8280,14 +8319,14 @@
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
-      <c r="G21" s="144"/>
+      <c r="G21" s="162"/>
     </row>
     <row r="22" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="162"/>
+      <c r="B22" s="160"/>
       <c r="C22" s="12" t="s">
         <v>245</v>
       </c>
@@ -8296,7 +8335,7 @@
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="56"/>
-      <c r="G22" s="144"/>
+      <c r="G22" s="162"/>
       <c r="H22" s="54" t="s">
         <v>200</v>
       </c>
@@ -8306,7 +8345,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="162"/>
+      <c r="B23" s="160"/>
       <c r="C23" s="12" t="s">
         <v>178</v>
       </c>
@@ -8315,14 +8354,14 @@
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
-      <c r="G23" s="144"/>
+      <c r="G23" s="162"/>
     </row>
     <row r="24" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="162"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="12" t="s">
         <v>179</v>
       </c>
@@ -8331,14 +8370,14 @@
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
-      <c r="G24" s="144"/>
+      <c r="G24" s="162"/>
     </row>
     <row r="25" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="162"/>
+      <c r="B25" s="160"/>
       <c r="C25" s="12" t="s">
         <v>180</v>
       </c>
@@ -8347,14 +8386,14 @@
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="56"/>
-      <c r="G25" s="144"/>
+      <c r="G25" s="162"/>
     </row>
     <row r="26" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="162"/>
+      <c r="B26" s="160"/>
       <c r="C26" s="12" t="s">
         <v>181</v>
       </c>
@@ -8363,14 +8402,14 @@
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
-      <c r="G26" s="144"/>
+      <c r="G26" s="162"/>
     </row>
     <row r="27" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="162"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="12" t="s">
         <v>182</v>
       </c>
@@ -8379,14 +8418,14 @@
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
-      <c r="G27" s="144"/>
+      <c r="G27" s="162"/>
     </row>
     <row r="28" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="162"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="12" t="s">
         <v>183</v>
       </c>
@@ -8395,14 +8434,14 @@
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
-      <c r="G28" s="144"/>
+      <c r="G28" s="162"/>
     </row>
     <row r="29" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="162"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="12" t="s">
         <v>184</v>
       </c>
@@ -8411,14 +8450,14 @@
       </c>
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
-      <c r="G29" s="144"/>
+      <c r="G29" s="162"/>
     </row>
     <row r="30" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="162"/>
+      <c r="B30" s="160"/>
       <c r="C30" s="12" t="s">
         <v>185</v>
       </c>
@@ -8427,14 +8466,14 @@
       </c>
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
-      <c r="G30" s="144"/>
+      <c r="G30" s="162"/>
     </row>
     <row r="31" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="162"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="12" t="s">
         <v>186</v>
       </c>
@@ -8443,14 +8482,14 @@
       </c>
       <c r="E31" s="56"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="144"/>
+      <c r="G31" s="162"/>
     </row>
     <row r="32" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="162"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="12" t="s">
         <v>187</v>
       </c>
@@ -8459,14 +8498,14 @@
       </c>
       <c r="E32" s="56"/>
       <c r="F32" s="56"/>
-      <c r="G32" s="144"/>
+      <c r="G32" s="162"/>
     </row>
     <row r="33" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="162"/>
+      <c r="B33" s="160"/>
       <c r="C33" s="12" t="s">
         <v>188</v>
       </c>
@@ -8475,14 +8514,14 @@
       </c>
       <c r="E33" s="56"/>
       <c r="F33" s="56"/>
-      <c r="G33" s="144"/>
+      <c r="G33" s="162"/>
     </row>
     <row r="34" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="162"/>
+      <c r="B34" s="160"/>
       <c r="C34" s="12" t="s">
         <v>189</v>
       </c>
@@ -8491,14 +8530,14 @@
       </c>
       <c r="E34" s="56"/>
       <c r="F34" s="56"/>
-      <c r="G34" s="144"/>
+      <c r="G34" s="162"/>
     </row>
     <row r="35" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="162"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="12" t="s">
         <v>190</v>
       </c>
@@ -8507,14 +8546,14 @@
       </c>
       <c r="E35" s="56"/>
       <c r="F35" s="56"/>
-      <c r="G35" s="144"/>
+      <c r="G35" s="162"/>
     </row>
     <row r="36" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="162"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="12" t="s">
         <v>191</v>
       </c>
@@ -8523,14 +8562,14 @@
       </c>
       <c r="E36" s="56"/>
       <c r="F36" s="56"/>
-      <c r="G36" s="144"/>
+      <c r="G36" s="162"/>
     </row>
     <row r="37" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="162"/>
+      <c r="B37" s="160"/>
       <c r="C37" s="12" t="s">
         <v>192</v>
       </c>
@@ -8539,14 +8578,14 @@
       </c>
       <c r="E37" s="56"/>
       <c r="F37" s="56"/>
-      <c r="G37" s="144"/>
+      <c r="G37" s="162"/>
     </row>
     <row r="38" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="162"/>
+      <c r="B38" s="160"/>
       <c r="C38" s="12" t="s">
         <v>193</v>
       </c>
@@ -8555,14 +8594,14 @@
       </c>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
-      <c r="G38" s="144"/>
+      <c r="G38" s="162"/>
     </row>
     <row r="39" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="162"/>
+      <c r="B39" s="160"/>
       <c r="C39" s="12" t="s">
         <v>194</v>
       </c>
@@ -8571,14 +8610,14 @@
       </c>
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
-      <c r="G39" s="144"/>
+      <c r="G39" s="162"/>
     </row>
     <row r="40" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="162"/>
+      <c r="B40" s="160"/>
       <c r="C40" s="12" t="s">
         <v>195</v>
       </c>
@@ -8587,14 +8626,14 @@
       </c>
       <c r="E40" s="56"/>
       <c r="F40" s="56"/>
-      <c r="G40" s="144"/>
+      <c r="G40" s="162"/>
     </row>
     <row r="41" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="162"/>
+      <c r="B41" s="160"/>
       <c r="C41" s="12" t="s">
         <v>196</v>
       </c>
@@ -8603,14 +8642,14 @@
       </c>
       <c r="E41" s="56"/>
       <c r="F41" s="56"/>
-      <c r="G41" s="144"/>
+      <c r="G41" s="162"/>
     </row>
     <row r="42" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="162"/>
+      <c r="B42" s="160"/>
       <c r="C42" s="12" t="s">
         <v>197</v>
       </c>
@@ -8619,14 +8658,14 @@
       </c>
       <c r="E42" s="56"/>
       <c r="F42" s="56"/>
-      <c r="G42" s="144"/>
+      <c r="G42" s="162"/>
     </row>
     <row r="43" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="162"/>
+      <c r="B43" s="160"/>
       <c r="C43" s="12" t="s">
         <v>198</v>
       </c>
@@ -8635,14 +8674,14 @@
       </c>
       <c r="E43" s="56"/>
       <c r="F43" s="56"/>
-      <c r="G43" s="144"/>
+      <c r="G43" s="162"/>
     </row>
     <row r="44" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="146"/>
+      <c r="B44" s="161"/>
       <c r="C44" s="12" t="s">
         <v>199</v>
       </c>
@@ -8651,7 +8690,7 @@
       </c>
       <c r="E44" s="56"/>
       <c r="F44" s="56"/>
-      <c r="G44" s="144"/>
+      <c r="G44" s="162"/>
     </row>
     <row r="45" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
@@ -8672,50 +8711,50 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="147" t="s">
+      <c r="A46" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="148"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="149" t="str">
+      <c r="B46" s="145"/>
+      <c r="C46" s="146"/>
+      <c r="D46" s="146" t="str">
         <f>COUNT(D3:D45)&amp;"객실"</f>
         <v>43객실</v>
       </c>
-      <c r="E46" s="150"/>
-      <c r="F46" s="150"/>
-      <c r="G46" s="151"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="148"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="152"/>
-      <c r="B47" s="153"/>
-      <c r="C47" s="154"/>
-      <c r="D47" s="154"/>
-      <c r="E47" s="155"/>
-      <c r="F47" s="155"/>
-      <c r="G47" s="156"/>
+      <c r="A47" s="149"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="152"/>
+      <c r="F47" s="152"/>
+      <c r="G47" s="153"/>
     </row>
     <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="157"/>
-      <c r="B48" s="158"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="160"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="161"/>
+      <c r="A48" s="154"/>
+      <c r="B48" s="155"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="156"/>
+      <c r="E48" s="157"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="D46:G46"/>
     <mergeCell ref="A47:G48"/>
     <mergeCell ref="B20:B44"/>
     <mergeCell ref="B7:B19"/>
     <mergeCell ref="G20:G44"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8740,13 +8779,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
     </row>
     <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
@@ -8775,7 +8814,7 @@
       <c r="D3" s="4">
         <v>1107</v>
       </c>
-      <c r="E3" s="140" t="s">
+      <c r="E3" s="141" t="s">
         <v>238</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -8794,7 +8833,7 @@
       <c r="D4" s="4">
         <v>1109</v>
       </c>
-      <c r="E4" s="142"/>
+      <c r="E4" s="143"/>
       <c r="F4" s="14" t="s">
         <v>60</v>
       </c>
@@ -8804,7 +8843,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="159" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -8813,7 +8852,7 @@
       <c r="D5" s="5">
         <v>1114</v>
       </c>
-      <c r="E5" s="141" t="s">
+      <c r="E5" s="142" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8822,21 +8861,21 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="146"/>
+      <c r="B6" s="161"/>
       <c r="C6" s="42" t="s">
         <v>154</v>
       </c>
       <c r="D6" s="4">
         <v>1122</v>
       </c>
-      <c r="E6" s="142"/>
+      <c r="E6" s="143"/>
     </row>
     <row r="7" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="159" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -8845,7 +8884,7 @@
       <c r="D7" s="4">
         <v>601</v>
       </c>
-      <c r="E7" s="140" t="s">
+      <c r="E7" s="141" t="s">
         <v>158</v>
       </c>
     </row>
@@ -8854,224 +8893,224 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="162"/>
+      <c r="B8" s="160"/>
       <c r="C8" s="12" t="s">
         <v>203</v>
       </c>
       <c r="D8" s="4">
         <v>604</v>
       </c>
-      <c r="E8" s="141"/>
+      <c r="E8" s="142"/>
     </row>
     <row r="9" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="162"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="12" t="s">
         <v>201</v>
       </c>
       <c r="D9" s="4">
         <v>605</v>
       </c>
-      <c r="E9" s="141"/>
+      <c r="E9" s="142"/>
     </row>
     <row r="10" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="162"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="12" t="s">
         <v>204</v>
       </c>
       <c r="D10" s="4">
         <v>606</v>
       </c>
-      <c r="E10" s="141"/>
+      <c r="E10" s="142"/>
     </row>
     <row r="11" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="162"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="45" t="s">
         <v>205</v>
       </c>
       <c r="D11" s="5">
         <v>607</v>
       </c>
-      <c r="E11" s="141"/>
+      <c r="E11" s="142"/>
     </row>
     <row r="12" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="162"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="12" t="s">
         <v>206</v>
       </c>
       <c r="D12" s="4">
         <v>609</v>
       </c>
-      <c r="E12" s="141"/>
+      <c r="E12" s="142"/>
     </row>
     <row r="13" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="162"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D13" s="4">
         <v>610</v>
       </c>
-      <c r="E13" s="141"/>
+      <c r="E13" s="142"/>
     </row>
     <row r="14" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="162"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="12" t="s">
         <v>208</v>
       </c>
       <c r="D14" s="4">
         <v>613</v>
       </c>
-      <c r="E14" s="141"/>
+      <c r="E14" s="142"/>
     </row>
     <row r="15" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="162"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="12" t="s">
         <v>209</v>
       </c>
       <c r="D15" s="4">
         <v>614</v>
       </c>
-      <c r="E15" s="141"/>
+      <c r="E15" s="142"/>
     </row>
     <row r="16" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="162"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="12" t="s">
         <v>210</v>
       </c>
       <c r="D16" s="4">
         <v>617</v>
       </c>
-      <c r="E16" s="141"/>
+      <c r="E16" s="142"/>
     </row>
     <row r="17" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="162"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="12" t="s">
         <v>211</v>
       </c>
       <c r="D17" s="4">
         <v>618</v>
       </c>
-      <c r="E17" s="141"/>
+      <c r="E17" s="142"/>
     </row>
     <row r="18" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="162"/>
+      <c r="B18" s="160"/>
       <c r="C18" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D18" s="4">
         <v>619</v>
       </c>
-      <c r="E18" s="141"/>
+      <c r="E18" s="142"/>
     </row>
     <row r="19" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="162"/>
+      <c r="B19" s="160"/>
       <c r="C19" s="12" t="s">
         <v>213</v>
       </c>
       <c r="D19" s="4">
         <v>620</v>
       </c>
-      <c r="E19" s="141"/>
+      <c r="E19" s="142"/>
     </row>
     <row r="20" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="162"/>
+      <c r="B20" s="160"/>
       <c r="C20" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D20" s="4">
         <v>622</v>
       </c>
-      <c r="E20" s="141"/>
+      <c r="E20" s="142"/>
     </row>
     <row r="21" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="162"/>
+      <c r="B21" s="160"/>
       <c r="C21" s="12" t="s">
         <v>215</v>
       </c>
       <c r="D21" s="4">
         <v>623</v>
       </c>
-      <c r="E21" s="141"/>
+      <c r="E21" s="142"/>
     </row>
     <row r="22" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="162"/>
+      <c r="B22" s="160"/>
       <c r="C22" s="12" t="s">
         <v>216</v>
       </c>
       <c r="D22" s="4">
         <v>626</v>
       </c>
-      <c r="E22" s="141"/>
+      <c r="E22" s="142"/>
     </row>
     <row r="23" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="162"/>
+      <c r="B23" s="160"/>
       <c r="C23" s="12" t="s">
         <v>247</v>
       </c>
       <c r="D23" s="4">
         <v>701</v>
       </c>
-      <c r="E23" s="141"/>
+      <c r="E23" s="142"/>
       <c r="F23" s="54"/>
     </row>
     <row r="24" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
@@ -9079,56 +9118,56 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="162"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="12" t="s">
         <v>217</v>
       </c>
       <c r="D24" s="4">
         <v>704</v>
       </c>
-      <c r="E24" s="141"/>
+      <c r="E24" s="142"/>
     </row>
     <row r="25" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="162"/>
+      <c r="B25" s="160"/>
       <c r="C25" s="12" t="s">
         <v>218</v>
       </c>
       <c r="D25" s="4">
         <v>705</v>
       </c>
-      <c r="E25" s="141"/>
+      <c r="E25" s="142"/>
     </row>
     <row r="26" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="162"/>
+      <c r="B26" s="160"/>
       <c r="C26" s="12" t="s">
         <v>219</v>
       </c>
       <c r="D26" s="4">
         <v>706</v>
       </c>
-      <c r="E26" s="141"/>
+      <c r="E26" s="142"/>
     </row>
     <row r="27" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="162"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="11" t="s">
         <v>220</v>
       </c>
       <c r="D27" s="4">
         <v>707</v>
       </c>
-      <c r="E27" s="141"/>
+      <c r="E27" s="142"/>
       <c r="F27" s="54" t="s">
         <v>248</v>
       </c>
@@ -9138,42 +9177,42 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="162"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="12" t="s">
         <v>221</v>
       </c>
       <c r="D28" s="4">
         <v>709</v>
       </c>
-      <c r="E28" s="141"/>
+      <c r="E28" s="142"/>
     </row>
     <row r="29" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="162"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="12" t="s">
         <v>222</v>
       </c>
       <c r="D29" s="4">
         <v>710</v>
       </c>
-      <c r="E29" s="141"/>
+      <c r="E29" s="142"/>
     </row>
     <row r="30" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="162"/>
+      <c r="B30" s="160"/>
       <c r="C30" s="12" t="s">
         <v>223</v>
       </c>
       <c r="D30" s="4">
         <v>713</v>
       </c>
-      <c r="E30" s="141"/>
+      <c r="E30" s="142"/>
     </row>
     <row r="31" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
@@ -9212,7 +9251,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="145" t="s">
+      <c r="B33" s="159" t="s">
         <v>105</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -9221,7 +9260,7 @@
       <c r="D33" s="4">
         <v>1012</v>
       </c>
-      <c r="E33" s="140" t="s">
+      <c r="E33" s="141" t="s">
         <v>159</v>
       </c>
     </row>
@@ -9230,28 +9269,28 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="162"/>
+      <c r="B34" s="160"/>
       <c r="C34" s="12" t="s">
         <v>225</v>
       </c>
       <c r="D34" s="4">
         <v>1013</v>
       </c>
-      <c r="E34" s="141"/>
+      <c r="E34" s="142"/>
     </row>
     <row r="35" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="162"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="12" t="s">
         <v>246</v>
       </c>
       <c r="D35" s="4">
         <v>1014</v>
       </c>
-      <c r="E35" s="141"/>
+      <c r="E35" s="142"/>
       <c r="F35" s="54"/>
     </row>
     <row r="36" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
@@ -9259,165 +9298,165 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="162"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="12" t="s">
         <v>226</v>
       </c>
       <c r="D36" s="4">
         <v>1015</v>
       </c>
-      <c r="E36" s="141"/>
+      <c r="E36" s="142"/>
     </row>
     <row r="37" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="162"/>
+      <c r="B37" s="160"/>
       <c r="C37" s="12" t="s">
         <v>227</v>
       </c>
       <c r="D37" s="4">
         <v>1017</v>
       </c>
-      <c r="E37" s="141"/>
+      <c r="E37" s="142"/>
     </row>
     <row r="38" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="162"/>
+      <c r="B38" s="160"/>
       <c r="C38" s="12" t="s">
         <v>228</v>
       </c>
       <c r="D38" s="4">
         <v>1018</v>
       </c>
-      <c r="E38" s="141"/>
+      <c r="E38" s="142"/>
     </row>
     <row r="39" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="162"/>
+      <c r="B39" s="160"/>
       <c r="C39" s="12" t="s">
         <v>229</v>
       </c>
       <c r="D39" s="4">
         <v>1019</v>
       </c>
-      <c r="E39" s="141"/>
+      <c r="E39" s="142"/>
     </row>
     <row r="40" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="162"/>
+      <c r="B40" s="160"/>
       <c r="C40" s="12" t="s">
         <v>230</v>
       </c>
       <c r="D40" s="4">
         <v>1020</v>
       </c>
-      <c r="E40" s="141"/>
+      <c r="E40" s="142"/>
     </row>
     <row r="41" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="162"/>
+      <c r="B41" s="160"/>
       <c r="C41" s="12" t="s">
         <v>231</v>
       </c>
       <c r="D41" s="4">
         <v>1021</v>
       </c>
-      <c r="E41" s="141"/>
+      <c r="E41" s="142"/>
     </row>
     <row r="42" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="162"/>
+      <c r="B42" s="160"/>
       <c r="C42" s="12" t="s">
         <v>232</v>
       </c>
       <c r="D42" s="4">
         <v>1022</v>
       </c>
-      <c r="E42" s="141"/>
+      <c r="E42" s="142"/>
     </row>
     <row r="43" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="162"/>
+      <c r="B43" s="160"/>
       <c r="C43" s="12" t="s">
         <v>233</v>
       </c>
       <c r="D43" s="4">
         <v>1023</v>
       </c>
-      <c r="E43" s="141"/>
+      <c r="E43" s="142"/>
     </row>
     <row r="44" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="162"/>
+      <c r="B44" s="160"/>
       <c r="C44" s="12" t="s">
         <v>234</v>
       </c>
       <c r="D44" s="4">
         <v>1024</v>
       </c>
-      <c r="E44" s="141"/>
+      <c r="E44" s="142"/>
     </row>
     <row r="45" spans="1:6" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="146"/>
+      <c r="B45" s="161"/>
       <c r="C45" s="12" t="s">
         <v>235</v>
       </c>
       <c r="D45" s="4">
         <v>1025</v>
       </c>
-      <c r="E45" s="142"/>
+      <c r="E45" s="143"/>
     </row>
     <row r="46" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="108" t="s">
+      <c r="A46" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="109"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110" t="s">
+      <c r="B46" s="110"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="111"/>
+      <c r="E46" s="112"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="163"/>
-      <c r="B47" s="164"/>
-      <c r="C47" s="164"/>
-      <c r="D47" s="165"/>
-      <c r="E47" s="165"/>
+      <c r="A47" s="164"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="166"/>
+      <c r="E47" s="166"/>
     </row>
     <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="157"/>
-      <c r="B48" s="158"/>
-      <c r="C48" s="158"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="159"/>
+      <c r="A48" s="154"/>
+      <c r="B48" s="155"/>
+      <c r="C48" s="155"/>
+      <c r="D48" s="156"/>
+      <c r="E48" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9459,15 +9498,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="103"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="104"/>
     </row>
     <row r="2" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
@@ -9496,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="53"/>
-      <c r="C3" s="168" t="s">
+      <c r="C3" s="169" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="4">
@@ -9504,7 +9543,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="141" t="s">
         <v>290</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -9517,13 +9556,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="53"/>
-      <c r="C4" s="169"/>
+      <c r="C4" s="170"/>
       <c r="D4" s="4">
         <v>705</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="142"/>
+      <c r="G4" s="143"/>
       <c r="H4" s="14" t="s">
         <v>60</v>
       </c>
@@ -9534,7 +9573,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="53"/>
-      <c r="C5" s="168" t="s">
+      <c r="C5" s="169" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="4">
@@ -9542,7 +9581,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="141" t="s">
+      <c r="G5" s="142" t="s">
         <v>291</v>
       </c>
       <c r="H5" s="2"/>
@@ -9553,20 +9592,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="169"/>
+      <c r="C6" s="170"/>
       <c r="D6" s="4">
         <v>1103</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="142"/>
+      <c r="G6" s="143"/>
     </row>
     <row r="7" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="159" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -9577,7 +9616,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="144" t="s">
+      <c r="G7" s="162" t="s">
         <v>241</v>
       </c>
     </row>
@@ -9586,7 +9625,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="162"/>
+      <c r="B8" s="160"/>
       <c r="C8" s="42" t="s">
         <v>128</v>
       </c>
@@ -9595,14 +9634,14 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="144"/>
+      <c r="G8" s="162"/>
     </row>
     <row r="9" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="162"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="12" t="s">
         <v>254</v>
       </c>
@@ -9611,7 +9650,7 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="162" t="s">
         <v>252</v>
       </c>
     </row>
@@ -9620,7 +9659,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="162"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="12" t="s">
         <v>255</v>
       </c>
@@ -9629,14 +9668,14 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="144"/>
+      <c r="G10" s="162"/>
     </row>
     <row r="11" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="162"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="45" t="s">
         <v>262</v>
       </c>
@@ -9645,14 +9684,14 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="144"/>
+      <c r="G11" s="162"/>
     </row>
     <row r="12" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="162"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="12" t="s">
         <v>256</v>
       </c>
@@ -9661,14 +9700,14 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="144"/>
+      <c r="G12" s="162"/>
     </row>
     <row r="13" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="162"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="12" t="s">
         <v>257</v>
       </c>
@@ -9677,14 +9716,14 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="144"/>
+      <c r="G13" s="162"/>
     </row>
     <row r="14" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="162"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="12" t="s">
         <v>258</v>
       </c>
@@ -9693,14 +9732,14 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="144"/>
+      <c r="G14" s="162"/>
     </row>
     <row r="15" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="162"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="12" t="s">
         <v>286</v>
       </c>
@@ -9709,7 +9748,7 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="144"/>
+      <c r="G15" s="162"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
@@ -9717,7 +9756,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="162"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="12" t="s">
         <v>260</v>
       </c>
@@ -9726,14 +9765,14 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="144"/>
+      <c r="G16" s="162"/>
     </row>
     <row r="17" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="162"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="12" t="s">
         <v>259</v>
       </c>
@@ -9742,7 +9781,7 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="144"/>
+      <c r="G17" s="162"/>
       <c r="O17" s="43"/>
     </row>
     <row r="18" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
@@ -9750,7 +9789,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="162"/>
+      <c r="B18" s="160"/>
       <c r="C18" s="11" t="s">
         <v>287</v>
       </c>
@@ -9759,7 +9798,7 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="144"/>
+      <c r="G18" s="162"/>
       <c r="H18" s="3" t="s">
         <v>263</v>
       </c>
@@ -9769,7 +9808,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="146"/>
+      <c r="B19" s="161"/>
       <c r="C19" s="12" t="s">
         <v>261</v>
       </c>
@@ -9778,14 +9817,14 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="144"/>
+      <c r="G19" s="162"/>
     </row>
     <row r="20" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="145" t="s">
+      <c r="B20" s="159" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -9796,7 +9835,7 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="144" t="s">
+      <c r="G20" s="162" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9805,7 +9844,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="162"/>
+      <c r="B21" s="160"/>
       <c r="C21" s="12" t="s">
         <v>265</v>
       </c>
@@ -9814,14 +9853,14 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="144"/>
+      <c r="G21" s="162"/>
     </row>
     <row r="22" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="162"/>
+      <c r="B22" s="160"/>
       <c r="C22" s="12" t="s">
         <v>266</v>
       </c>
@@ -9830,14 +9869,14 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="144"/>
+      <c r="G22" s="162"/>
     </row>
     <row r="23" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="162"/>
+      <c r="B23" s="160"/>
       <c r="C23" s="12" t="s">
         <v>267</v>
       </c>
@@ -9846,14 +9885,14 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="144"/>
+      <c r="G23" s="162"/>
     </row>
     <row r="24" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="162"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="12" t="s">
         <v>268</v>
       </c>
@@ -9862,14 +9901,14 @@
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="144"/>
+      <c r="G24" s="162"/>
     </row>
     <row r="25" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="162"/>
+      <c r="B25" s="160"/>
       <c r="C25" s="12" t="s">
         <v>269</v>
       </c>
@@ -9878,14 +9917,14 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="144"/>
+      <c r="G25" s="162"/>
     </row>
     <row r="26" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="162"/>
+      <c r="B26" s="160"/>
       <c r="C26" s="12" t="s">
         <v>279</v>
       </c>
@@ -9894,14 +9933,14 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="144"/>
+      <c r="G26" s="162"/>
     </row>
     <row r="27" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="162"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="12" t="s">
         <v>340</v>
       </c>
@@ -9910,18 +9949,18 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="166" t="s">
+      <c r="G27" s="162"/>
+      <c r="H27" s="167" t="s">
         <v>341</v>
       </c>
-      <c r="I27" s="167"/>
+      <c r="I27" s="168"/>
     </row>
     <row r="28" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="162"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="12" t="s">
         <v>270</v>
       </c>
@@ -9930,14 +9969,14 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="144"/>
+      <c r="G28" s="162"/>
     </row>
     <row r="29" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="162"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="12" t="s">
         <v>289</v>
       </c>
@@ -9946,14 +9985,14 @@
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="144"/>
+      <c r="G29" s="162"/>
     </row>
     <row r="30" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="162"/>
+      <c r="B30" s="160"/>
       <c r="C30" s="12" t="s">
         <v>271</v>
       </c>
@@ -9962,14 +10001,14 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="144"/>
+      <c r="G30" s="162"/>
     </row>
     <row r="31" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="162"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="12" t="s">
         <v>272</v>
       </c>
@@ -9978,14 +10017,14 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="144"/>
+      <c r="G31" s="162"/>
     </row>
     <row r="32" spans="1:15" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="162"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="12" t="s">
         <v>273</v>
       </c>
@@ -9994,14 +10033,14 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="144"/>
+      <c r="G32" s="162"/>
     </row>
     <row r="33" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="162"/>
+      <c r="B33" s="160"/>
       <c r="C33" s="12" t="s">
         <v>274</v>
       </c>
@@ -10010,14 +10049,14 @@
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="144"/>
+      <c r="G33" s="162"/>
     </row>
     <row r="34" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="162"/>
+      <c r="B34" s="160"/>
       <c r="C34" s="12" t="s">
         <v>275</v>
       </c>
@@ -10026,14 +10065,14 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="144"/>
+      <c r="G34" s="162"/>
     </row>
     <row r="35" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="162"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="12" t="s">
         <v>277</v>
       </c>
@@ -10042,14 +10081,14 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="144"/>
+      <c r="G35" s="162"/>
     </row>
     <row r="36" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="162"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="11" t="s">
         <v>293</v>
       </c>
@@ -10058,7 +10097,7 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="144"/>
+      <c r="G36" s="162"/>
       <c r="H36" s="58" t="s">
         <v>285</v>
       </c>
@@ -10068,7 +10107,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="162"/>
+      <c r="B37" s="160"/>
       <c r="C37" s="12" t="s">
         <v>276</v>
       </c>
@@ -10077,14 +10116,14 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="144"/>
+      <c r="G37" s="162"/>
     </row>
     <row r="38" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="162"/>
+      <c r="B38" s="160"/>
       <c r="C38" s="12" t="s">
         <v>278</v>
       </c>
@@ -10093,14 +10132,14 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="144"/>
+      <c r="G38" s="162"/>
     </row>
     <row r="39" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="162"/>
+      <c r="B39" s="160"/>
       <c r="C39" s="12" t="s">
         <v>280</v>
       </c>
@@ -10109,14 +10148,14 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="144"/>
+      <c r="G39" s="162"/>
     </row>
     <row r="40" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="162"/>
+      <c r="B40" s="160"/>
       <c r="C40" s="12" t="s">
         <v>288</v>
       </c>
@@ -10125,14 +10164,14 @@
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="144"/>
+      <c r="G40" s="162"/>
     </row>
     <row r="41" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="162"/>
+      <c r="B41" s="160"/>
       <c r="C41" s="12" t="s">
         <v>281</v>
       </c>
@@ -10141,14 +10180,14 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="144"/>
+      <c r="G41" s="162"/>
     </row>
     <row r="42" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="162"/>
+      <c r="B42" s="160"/>
       <c r="C42" s="12" t="s">
         <v>282</v>
       </c>
@@ -10157,14 +10196,14 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="144"/>
+      <c r="G42" s="162"/>
     </row>
     <row r="43" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="162"/>
+      <c r="B43" s="160"/>
       <c r="C43" s="12" t="s">
         <v>283</v>
       </c>
@@ -10173,14 +10212,14 @@
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="144"/>
+      <c r="G43" s="162"/>
     </row>
     <row r="44" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="162"/>
+      <c r="B44" s="160"/>
       <c r="C44" s="12" t="s">
         <v>284</v>
       </c>
@@ -10189,14 +10228,14 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="144"/>
+      <c r="G44" s="162"/>
     </row>
     <row r="45" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="146"/>
+      <c r="B45" s="161"/>
       <c r="C45" s="45" t="s">
         <v>292</v>
       </c>
@@ -10205,39 +10244,39 @@
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="144"/>
+      <c r="G45" s="162"/>
       <c r="H45" s="58"/>
     </row>
     <row r="46" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="147" t="s">
+      <c r="A46" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="148"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="149" t="s">
+      <c r="B46" s="145"/>
+      <c r="C46" s="146"/>
+      <c r="D46" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="150"/>
-      <c r="F46" s="150"/>
-      <c r="G46" s="151"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="148"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="152"/>
-      <c r="B47" s="153"/>
-      <c r="C47" s="154"/>
-      <c r="D47" s="154"/>
-      <c r="E47" s="155"/>
-      <c r="F47" s="155"/>
-      <c r="G47" s="156"/>
+      <c r="A47" s="149"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="152"/>
+      <c r="F47" s="152"/>
+      <c r="G47" s="153"/>
     </row>
     <row r="48" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="157"/>
-      <c r="B48" s="158"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="160"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="161"/>
+      <c r="A48" s="154"/>
+      <c r="B48" s="155"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="156"/>
+      <c r="E48" s="157"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -10282,15 +10321,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="103"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="104"/>
     </row>
     <row r="2" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
@@ -10319,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="52"/>
-      <c r="C3" s="168" t="s">
+      <c r="C3" s="169" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="4">
@@ -10327,7 +10366,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="170" t="s">
+      <c r="G3" s="171" t="s">
         <v>298</v>
       </c>
     </row>
@@ -10336,13 +10375,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="53"/>
-      <c r="C4" s="169"/>
+      <c r="C4" s="170"/>
       <c r="D4" s="4">
         <v>705</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="171"/>
+      <c r="G4" s="172"/>
     </row>
     <row r="5" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
@@ -10350,7 +10389,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="52"/>
-      <c r="C5" s="168" t="s">
+      <c r="C5" s="169" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="4">
@@ -10358,7 +10397,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="140" t="s">
+      <c r="G5" s="141" t="s">
         <v>297</v>
       </c>
     </row>
@@ -10368,20 +10407,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="169"/>
+      <c r="C6" s="170"/>
       <c r="D6" s="4">
         <v>1103</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="142"/>
+      <c r="G6" s="143"/>
     </row>
     <row r="7" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="159" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="42" t="s">
@@ -10392,7 +10431,7 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="140" t="s">
+      <c r="G7" s="141" t="s">
         <v>296</v>
       </c>
     </row>
@@ -10401,7 +10440,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="162"/>
+      <c r="B8" s="160"/>
       <c r="C8" s="42" t="s">
         <v>154</v>
       </c>
@@ -10410,14 +10449,14 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="141"/>
+      <c r="G8" s="142"/>
     </row>
     <row r="9" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" ref="A9:A47" si="1">ROW()-2</f>
         <v>7</v>
       </c>
-      <c r="B9" s="162"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="45" t="s">
         <v>299</v>
       </c>
@@ -10426,7 +10465,7 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="141" t="s">
         <v>310</v>
       </c>
     </row>
@@ -10435,7 +10474,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="162"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="12" t="s">
         <v>300</v>
       </c>
@@ -10444,14 +10483,14 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="141"/>
+      <c r="G10" s="142"/>
     </row>
     <row r="11" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="162"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="12" t="s">
         <v>301</v>
       </c>
@@ -10460,14 +10499,14 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="141"/>
+      <c r="G11" s="142"/>
     </row>
     <row r="12" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="162"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="12" t="s">
         <v>302</v>
       </c>
@@ -10476,14 +10515,14 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="141"/>
+      <c r="G12" s="142"/>
     </row>
     <row r="13" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="162"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="12" t="s">
         <v>303</v>
       </c>
@@ -10492,14 +10531,14 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="141"/>
+      <c r="G13" s="142"/>
     </row>
     <row r="14" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="162"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="45" t="s">
         <v>304</v>
       </c>
@@ -10508,14 +10547,14 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="141"/>
+      <c r="G14" s="142"/>
     </row>
     <row r="15" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="162"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="12" t="s">
         <v>305</v>
       </c>
@@ -10524,14 +10563,14 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="141"/>
+      <c r="G15" s="142"/>
     </row>
     <row r="16" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="162"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="12" t="s">
         <v>306</v>
       </c>
@@ -10540,14 +10579,14 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="141"/>
+      <c r="G16" s="142"/>
     </row>
     <row r="17" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="162"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="12" t="s">
         <v>388</v>
       </c>
@@ -10556,7 +10595,7 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="141"/>
+      <c r="G17" s="142"/>
       <c r="H17" s="54" t="s">
         <v>389</v>
       </c>
@@ -10566,7 +10605,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="162"/>
+      <c r="B18" s="160"/>
       <c r="C18" s="12" t="s">
         <v>342</v>
       </c>
@@ -10575,7 +10614,7 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="141"/>
+      <c r="G18" s="142"/>
       <c r="H18" s="54" t="s">
         <v>390</v>
       </c>
@@ -10585,7 +10624,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="162"/>
+      <c r="B19" s="160"/>
       <c r="C19" s="12" t="s">
         <v>307</v>
       </c>
@@ -10594,14 +10633,14 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="141"/>
+      <c r="G19" s="142"/>
     </row>
     <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="162"/>
+      <c r="B20" s="160"/>
       <c r="C20" s="12" t="s">
         <v>308</v>
       </c>
@@ -10610,14 +10649,14 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="141"/>
+      <c r="G20" s="142"/>
     </row>
     <row r="21" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="162"/>
+      <c r="B21" s="160"/>
       <c r="C21" s="12" t="s">
         <v>309</v>
       </c>
@@ -10626,14 +10665,14 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="141"/>
+      <c r="G21" s="142"/>
     </row>
     <row r="22" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="145" t="s">
+      <c r="B22" s="159" t="s">
         <v>106</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -10644,7 +10683,7 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="172" t="s">
+      <c r="G22" s="173" t="s">
         <v>295</v>
       </c>
     </row>
@@ -10653,7 +10692,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="162"/>
+      <c r="B23" s="160"/>
       <c r="C23" s="12" t="s">
         <v>313</v>
       </c>
@@ -10662,14 +10701,14 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="173"/>
+      <c r="G23" s="174"/>
     </row>
     <row r="24" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="162"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="12" t="s">
         <v>314</v>
       </c>
@@ -10678,14 +10717,14 @@
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="173"/>
+      <c r="G24" s="174"/>
     </row>
     <row r="25" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="162"/>
+      <c r="B25" s="160"/>
       <c r="C25" s="12" t="s">
         <v>315</v>
       </c>
@@ -10694,14 +10733,14 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="173"/>
+      <c r="G25" s="174"/>
     </row>
     <row r="26" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="162"/>
+      <c r="B26" s="160"/>
       <c r="C26" s="12" t="s">
         <v>316</v>
       </c>
@@ -10710,14 +10749,14 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="173"/>
+      <c r="G26" s="174"/>
     </row>
     <row r="27" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="162"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="12" t="s">
         <v>317</v>
       </c>
@@ -10726,14 +10765,14 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="173"/>
+      <c r="G27" s="174"/>
     </row>
     <row r="28" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="162"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="12" t="s">
         <v>318</v>
       </c>
@@ -10742,14 +10781,14 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="173"/>
+      <c r="G28" s="174"/>
     </row>
     <row r="29" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="162"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="12" t="s">
         <v>319</v>
       </c>
@@ -10758,14 +10797,14 @@
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="173"/>
+      <c r="G29" s="174"/>
     </row>
     <row r="30" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="162"/>
+      <c r="B30" s="160"/>
       <c r="C30" s="12" t="s">
         <v>320</v>
       </c>
@@ -10774,14 +10813,14 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="173"/>
+      <c r="G30" s="174"/>
     </row>
     <row r="31" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="162"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="12" t="s">
         <v>321</v>
       </c>
@@ -10790,14 +10829,14 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="173"/>
+      <c r="G31" s="174"/>
     </row>
     <row r="32" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="162"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="12" t="s">
         <v>322</v>
       </c>
@@ -10806,14 +10845,14 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="173"/>
+      <c r="G32" s="174"/>
     </row>
     <row r="33" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="162"/>
+      <c r="B33" s="160"/>
       <c r="C33" s="12" t="s">
         <v>323</v>
       </c>
@@ -10822,14 +10861,14 @@
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="173"/>
+      <c r="G33" s="174"/>
     </row>
     <row r="34" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="162"/>
+      <c r="B34" s="160"/>
       <c r="C34" s="12" t="s">
         <v>324</v>
       </c>
@@ -10838,14 +10877,14 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="173"/>
+      <c r="G34" s="174"/>
     </row>
     <row r="35" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="162"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="12" t="s">
         <v>325</v>
       </c>
@@ -10854,14 +10893,14 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="173"/>
+      <c r="G35" s="174"/>
     </row>
     <row r="36" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="162"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="12" t="s">
         <v>326</v>
       </c>
@@ -10870,14 +10909,14 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="173"/>
+      <c r="G36" s="174"/>
     </row>
     <row r="37" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="162"/>
+      <c r="B37" s="160"/>
       <c r="C37" s="12" t="s">
         <v>327</v>
       </c>
@@ -10886,14 +10925,14 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="173"/>
+      <c r="G37" s="174"/>
     </row>
     <row r="38" spans="1:8" ht="63" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="162"/>
+      <c r="B38" s="160"/>
       <c r="C38" s="59" t="s">
         <v>338</v>
       </c>
@@ -10902,7 +10941,7 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="173"/>
+      <c r="G38" s="174"/>
       <c r="H38" s="60" t="s">
         <v>328</v>
       </c>
@@ -10912,7 +10951,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="162"/>
+      <c r="B39" s="160"/>
       <c r="C39" s="12" t="s">
         <v>329</v>
       </c>
@@ -10921,14 +10960,14 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="173"/>
+      <c r="G39" s="174"/>
     </row>
     <row r="40" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="162"/>
+      <c r="B40" s="160"/>
       <c r="C40" s="12" t="s">
         <v>330</v>
       </c>
@@ -10937,14 +10976,14 @@
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="173"/>
+      <c r="G40" s="174"/>
     </row>
     <row r="41" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="162"/>
+      <c r="B41" s="160"/>
       <c r="C41" s="12" t="s">
         <v>337</v>
       </c>
@@ -10953,14 +10992,14 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="173"/>
+      <c r="G41" s="174"/>
     </row>
     <row r="42" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="162"/>
+      <c r="B42" s="160"/>
       <c r="C42" s="12" t="s">
         <v>331</v>
       </c>
@@ -10969,14 +11008,14 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="173"/>
+      <c r="G42" s="174"/>
     </row>
     <row r="43" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="162"/>
+      <c r="B43" s="160"/>
       <c r="C43" s="12" t="s">
         <v>332</v>
       </c>
@@ -10985,14 +11024,14 @@
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="173"/>
+      <c r="G43" s="174"/>
     </row>
     <row r="44" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="162"/>
+      <c r="B44" s="160"/>
       <c r="C44" s="12" t="s">
         <v>333</v>
       </c>
@@ -11001,14 +11040,14 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="173"/>
+      <c r="G44" s="174"/>
     </row>
     <row r="45" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="162"/>
+      <c r="B45" s="160"/>
       <c r="C45" s="12" t="s">
         <v>334</v>
       </c>
@@ -11017,14 +11056,14 @@
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="173"/>
+      <c r="G45" s="174"/>
     </row>
     <row r="46" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A46" s="41">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="162"/>
+      <c r="B46" s="160"/>
       <c r="C46" s="12" t="s">
         <v>335</v>
       </c>
@@ -11033,14 +11072,14 @@
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="173"/>
+      <c r="G46" s="174"/>
     </row>
     <row r="47" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A47" s="41">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="146"/>
+      <c r="B47" s="161"/>
       <c r="C47" s="12" t="s">
         <v>336</v>
       </c>
@@ -11049,41 +11088,47 @@
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="174"/>
+      <c r="G47" s="175"/>
     </row>
     <row r="48" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="147" t="s">
+      <c r="A48" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="148"/>
-      <c r="C48" s="149"/>
-      <c r="D48" s="149" t="s">
+      <c r="B48" s="145"/>
+      <c r="C48" s="146"/>
+      <c r="D48" s="146" t="s">
         <v>311</v>
       </c>
-      <c r="E48" s="150"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="151"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="148"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="152"/>
-      <c r="B49" s="153"/>
-      <c r="C49" s="154"/>
-      <c r="D49" s="154"/>
-      <c r="E49" s="155"/>
-      <c r="F49" s="155"/>
-      <c r="G49" s="156"/>
+      <c r="A49" s="149"/>
+      <c r="B49" s="150"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="152"/>
+      <c r="F49" s="152"/>
+      <c r="G49" s="153"/>
     </row>
     <row r="50" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="157"/>
-      <c r="B50" s="158"/>
-      <c r="C50" s="159"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="160"/>
-      <c r="F50" s="160"/>
-      <c r="G50" s="161"/>
+      <c r="A50" s="154"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="157"/>
+      <c r="F50" s="157"/>
+      <c r="G50" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="A49:G50"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B22:B47"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="G3:G4"/>
@@ -11091,12 +11136,6 @@
     <mergeCell ref="G22:G47"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="B7:B21"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="A49:G50"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B22:B47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11122,15 +11161,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="103"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="104"/>
     </row>
     <row r="2" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
@@ -11159,7 +11198,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="52"/>
-      <c r="C3" s="168" t="s">
+      <c r="C3" s="169" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="4">
@@ -11167,10 +11206,10 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="141" t="s">
         <v>391</v>
       </c>
-      <c r="M3" s="168"/>
+      <c r="M3" s="169"/>
     </row>
     <row r="4" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
@@ -11178,21 +11217,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="53"/>
-      <c r="C4" s="169"/>
+      <c r="C4" s="170"/>
       <c r="D4" s="4">
         <v>918</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="142"/>
-      <c r="M4" s="169"/>
+      <c r="G4" s="143"/>
+      <c r="M4" s="170"/>
     </row>
     <row r="5" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="159" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -11203,7 +11242,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="140" t="s">
+      <c r="G5" s="141" t="s">
         <v>387</v>
       </c>
     </row>
@@ -11212,7 +11251,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="146"/>
+      <c r="B6" s="161"/>
       <c r="C6" s="42" t="s">
         <v>154</v>
       </c>
@@ -11221,7 +11260,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="142"/>
+      <c r="G6" s="143"/>
     </row>
     <row r="7" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
@@ -11229,7 +11268,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="168" t="s">
+      <c r="C7" s="169" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="4">
@@ -11237,7 +11276,7 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="175" t="s">
+      <c r="G7" s="176" t="s">
         <v>392</v>
       </c>
     </row>
@@ -11247,20 +11286,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="169"/>
+      <c r="C8" s="170"/>
       <c r="D8" s="4">
         <v>1208</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="171"/>
+      <c r="G8" s="172"/>
     </row>
     <row r="9" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="159" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -11271,7 +11310,7 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="141" t="s">
         <v>344</v>
       </c>
       <c r="H9" s="54" t="s">
@@ -11283,7 +11322,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="162"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="12" t="s">
         <v>348</v>
       </c>
@@ -11292,14 +11331,14 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="141"/>
+      <c r="G10" s="142"/>
     </row>
     <row r="11" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="162"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="12" t="s">
         <v>349</v>
       </c>
@@ -11308,14 +11347,14 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="141"/>
+      <c r="G11" s="142"/>
     </row>
     <row r="12" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="162"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="12" t="s">
         <v>350</v>
       </c>
@@ -11324,14 +11363,14 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="141"/>
+      <c r="G12" s="142"/>
     </row>
     <row r="13" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="162"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="12" t="s">
         <v>351</v>
       </c>
@@ -11340,14 +11379,14 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="141"/>
+      <c r="G13" s="142"/>
     </row>
     <row r="14" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="162"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="45" t="s">
         <v>352</v>
       </c>
@@ -11356,14 +11395,14 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="141"/>
+      <c r="G14" s="142"/>
     </row>
     <row r="15" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="162"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="12" t="s">
         <v>353</v>
       </c>
@@ -11372,14 +11411,14 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="141"/>
+      <c r="G15" s="142"/>
     </row>
     <row r="16" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="162"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="12" t="s">
         <v>354</v>
       </c>
@@ -11388,14 +11427,14 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="141"/>
+      <c r="G16" s="142"/>
     </row>
     <row r="17" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="162"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="12" t="s">
         <v>355</v>
       </c>
@@ -11404,14 +11443,14 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="141"/>
+      <c r="G17" s="142"/>
     </row>
     <row r="18" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="162"/>
+      <c r="B18" s="160"/>
       <c r="C18" s="11" t="s">
         <v>359</v>
       </c>
@@ -11420,7 +11459,7 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="141"/>
+      <c r="G18" s="142"/>
       <c r="H18" s="54" t="s">
         <v>360</v>
       </c>
@@ -11430,7 +11469,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="162"/>
+      <c r="B19" s="160"/>
       <c r="C19" s="12" t="s">
         <v>356</v>
       </c>
@@ -11439,14 +11478,14 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="141"/>
+      <c r="G19" s="142"/>
     </row>
     <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="162"/>
+      <c r="B20" s="160"/>
       <c r="C20" s="12" t="s">
         <v>357</v>
       </c>
@@ -11455,14 +11494,14 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="141"/>
+      <c r="G20" s="142"/>
     </row>
     <row r="21" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="146"/>
+      <c r="B21" s="161"/>
       <c r="C21" s="12" t="s">
         <v>358</v>
       </c>
@@ -11471,14 +11510,14 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="141"/>
+      <c r="G21" s="142"/>
     </row>
     <row r="22" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="145" t="s">
+      <c r="B22" s="159" t="s">
         <v>106</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -11489,7 +11528,7 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="172" t="s">
+      <c r="G22" s="173" t="s">
         <v>253</v>
       </c>
     </row>
@@ -11498,7 +11537,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="162"/>
+      <c r="B23" s="160"/>
       <c r="C23" s="12" t="s">
         <v>362</v>
       </c>
@@ -11507,14 +11546,14 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="173"/>
+      <c r="G23" s="174"/>
     </row>
     <row r="24" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="162"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="12" t="s">
         <v>363</v>
       </c>
@@ -11523,14 +11562,14 @@
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="173"/>
+      <c r="G24" s="174"/>
     </row>
     <row r="25" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="162"/>
+      <c r="B25" s="160"/>
       <c r="C25" s="12" t="s">
         <v>364</v>
       </c>
@@ -11539,14 +11578,14 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="173"/>
+      <c r="G25" s="174"/>
     </row>
     <row r="26" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="162"/>
+      <c r="B26" s="160"/>
       <c r="C26" s="12" t="s">
         <v>365</v>
       </c>
@@ -11555,14 +11594,14 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="173"/>
+      <c r="G26" s="174"/>
     </row>
     <row r="27" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="162"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="12" t="s">
         <v>366</v>
       </c>
@@ -11571,14 +11610,14 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="173"/>
+      <c r="G27" s="174"/>
     </row>
     <row r="28" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="162"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="12" t="s">
         <v>367</v>
       </c>
@@ -11587,14 +11626,14 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="173"/>
+      <c r="G28" s="174"/>
     </row>
     <row r="29" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="162"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="12" t="s">
         <v>368</v>
       </c>
@@ -11603,14 +11642,14 @@
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="173"/>
+      <c r="G29" s="174"/>
     </row>
     <row r="30" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="162"/>
+      <c r="B30" s="160"/>
       <c r="C30" s="12" t="s">
         <v>369</v>
       </c>
@@ -11619,14 +11658,14 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="173"/>
+      <c r="G30" s="174"/>
     </row>
     <row r="31" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="162"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="12" t="s">
         <v>370</v>
       </c>
@@ -11635,14 +11674,14 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="173"/>
+      <c r="G31" s="174"/>
     </row>
     <row r="32" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="162"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="12" t="s">
         <v>371</v>
       </c>
@@ -11651,14 +11690,14 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="173"/>
+      <c r="G32" s="174"/>
     </row>
     <row r="33" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="162"/>
+      <c r="B33" s="160"/>
       <c r="C33" s="12" t="s">
         <v>372</v>
       </c>
@@ -11667,14 +11706,14 @@
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="173"/>
+      <c r="G33" s="174"/>
     </row>
     <row r="34" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="162"/>
+      <c r="B34" s="160"/>
       <c r="C34" s="12" t="s">
         <v>373</v>
       </c>
@@ -11683,14 +11722,14 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="173"/>
+      <c r="G34" s="174"/>
     </row>
     <row r="35" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="162"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="12" t="s">
         <v>374</v>
       </c>
@@ -11699,14 +11738,14 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="173"/>
+      <c r="G35" s="174"/>
     </row>
     <row r="36" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="162"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="12" t="s">
         <v>375</v>
       </c>
@@ -11715,14 +11754,14 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="173"/>
+      <c r="G36" s="174"/>
     </row>
     <row r="37" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="162"/>
+      <c r="B37" s="160"/>
       <c r="C37" s="12" t="s">
         <v>376</v>
       </c>
@@ -11731,14 +11770,14 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="173"/>
+      <c r="G37" s="174"/>
     </row>
     <row r="38" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="162"/>
+      <c r="B38" s="160"/>
       <c r="C38" s="12" t="s">
         <v>377</v>
       </c>
@@ -11747,14 +11786,14 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="173"/>
+      <c r="G38" s="174"/>
     </row>
     <row r="39" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="162"/>
+      <c r="B39" s="160"/>
       <c r="C39" s="12" t="s">
         <v>378</v>
       </c>
@@ -11763,14 +11802,14 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="173"/>
+      <c r="G39" s="174"/>
     </row>
     <row r="40" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="162"/>
+      <c r="B40" s="160"/>
       <c r="C40" s="12" t="s">
         <v>379</v>
       </c>
@@ -11779,14 +11818,14 @@
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="173"/>
+      <c r="G40" s="174"/>
     </row>
     <row r="41" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="162"/>
+      <c r="B41" s="160"/>
       <c r="C41" s="12" t="s">
         <v>380</v>
       </c>
@@ -11795,14 +11834,14 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="173"/>
+      <c r="G41" s="174"/>
     </row>
     <row r="42" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="162"/>
+      <c r="B42" s="160"/>
       <c r="C42" s="12" t="s">
         <v>381</v>
       </c>
@@ -11811,14 +11850,14 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="173"/>
+      <c r="G42" s="174"/>
     </row>
     <row r="43" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="162"/>
+      <c r="B43" s="160"/>
       <c r="C43" s="12" t="s">
         <v>382</v>
       </c>
@@ -11827,14 +11866,14 @@
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="173"/>
+      <c r="G43" s="174"/>
     </row>
     <row r="44" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="162"/>
+      <c r="B44" s="160"/>
       <c r="C44" s="12" t="s">
         <v>383</v>
       </c>
@@ -11843,14 +11882,14 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="173"/>
+      <c r="G44" s="174"/>
     </row>
     <row r="45" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="162"/>
+      <c r="B45" s="160"/>
       <c r="C45" s="12" t="s">
         <v>384</v>
       </c>
@@ -11859,14 +11898,14 @@
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="173"/>
+      <c r="G45" s="174"/>
     </row>
     <row r="46" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A46" s="41">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="162"/>
+      <c r="B46" s="160"/>
       <c r="C46" s="12" t="s">
         <v>385</v>
       </c>
@@ -11875,14 +11914,14 @@
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="173"/>
+      <c r="G46" s="174"/>
     </row>
     <row r="47" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A47" s="41">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="146"/>
+      <c r="B47" s="161"/>
       <c r="C47" s="12" t="s">
         <v>386</v>
       </c>
@@ -11891,39 +11930,39 @@
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="174"/>
+      <c r="G47" s="175"/>
     </row>
     <row r="48" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="147" t="s">
+      <c r="A48" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="148"/>
-      <c r="C48" s="149"/>
-      <c r="D48" s="149" t="str">
+      <c r="B48" s="145"/>
+      <c r="C48" s="146"/>
+      <c r="D48" s="146" t="str">
         <f>COUNT(D3:D47)&amp;"객실"</f>
         <v>45객실</v>
       </c>
-      <c r="E48" s="150"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="151"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="148"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="152"/>
-      <c r="B49" s="153"/>
-      <c r="C49" s="154"/>
-      <c r="D49" s="154"/>
-      <c r="E49" s="155"/>
-      <c r="F49" s="155"/>
-      <c r="G49" s="156"/>
+      <c r="A49" s="149"/>
+      <c r="B49" s="150"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="152"/>
+      <c r="F49" s="152"/>
+      <c r="G49" s="153"/>
     </row>
     <row r="50" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="157"/>
-      <c r="B50" s="158"/>
-      <c r="C50" s="159"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="160"/>
-      <c r="F50" s="160"/>
-      <c r="G50" s="161"/>
+      <c r="A50" s="154"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="157"/>
+      <c r="F50" s="157"/>
+      <c r="G50" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -11953,8 +11992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737E0D4C-3811-4612-BA12-2FE91132D48C}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11965,31 +12004,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="103"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="104"/>
     </row>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="62" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="71" t="s">
         <v>250</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -12001,17 +12040,17 @@
         <f t="shared" ref="A3:A46" si="0">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="176" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="193" t="s">
         <v>395</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="74">
         <v>801</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="189" t="s">
-        <v>432</v>
+      <c r="G3" s="187" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -12019,128 +12058,128 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="77">
+      <c r="B4" s="66"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="75">
         <v>804</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="179"/>
+      <c r="G4" s="188"/>
     </row>
     <row r="5" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="63">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="196" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="81">
+      <c r="D5" s="79">
         <v>714</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="190" t="s">
+      <c r="G5" s="189" t="s">
         <v>394</v>
       </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="195"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="178"/>
     </row>
     <row r="6" spans="1:13" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="63">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="197"/>
-      <c r="D6" s="82">
+      <c r="B6" s="66"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="80">
         <v>718</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="191"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="195"/>
+      <c r="G6" s="190"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="178"/>
     </row>
     <row r="7" spans="1:13" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="63">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="184" t="s">
+      <c r="B7" s="196" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="78">
+      <c r="D7" s="76">
         <v>1107</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="J7" s="69"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="75"/>
+      <c r="G7" s="198" t="s">
+        <v>429</v>
+      </c>
+      <c r="J7" s="68"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="8" spans="1:13" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="63">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="185"/>
+      <c r="B8" s="197"/>
       <c r="C8" s="61" t="s">
         <v>428</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="77">
         <v>1113</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="187"/>
+      <c r="G8" s="199"/>
     </row>
     <row r="9" spans="1:13" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="63">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="185"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="78">
         <v>1202</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="188"/>
+      <c r="G9" s="200"/>
     </row>
     <row r="10" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A10" s="63">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="160" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="71" t="s">
-        <v>436</v>
-      </c>
-      <c r="D10" s="81">
+      <c r="C10" s="70" t="s">
+        <v>433</v>
+      </c>
+      <c r="D10" s="79">
         <v>601</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="178" t="s">
+      <c r="G10" s="195" t="s">
         <v>396</v>
       </c>
     </row>
@@ -12149,7 +12188,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="162"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="12" t="s">
         <v>397</v>
       </c>
@@ -12158,14 +12197,14 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="179"/>
+      <c r="G11" s="188"/>
     </row>
     <row r="12" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A12" s="63">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="162"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="12" t="s">
         <v>398</v>
       </c>
@@ -12174,30 +12213,30 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="179"/>
+      <c r="G12" s="188"/>
     </row>
     <row r="13" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A13" s="63">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="162"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="12" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D13" s="4">
         <v>606</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="179"/>
+      <c r="G13" s="188"/>
     </row>
     <row r="14" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A14" s="63">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="162"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="12" t="s">
         <v>399</v>
       </c>
@@ -12206,25 +12245,25 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="179"/>
+      <c r="G14" s="188"/>
     </row>
     <row r="15" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A15" s="63">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="162"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="59" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D15" s="4">
         <v>609</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="179"/>
+      <c r="G15" s="188"/>
       <c r="H15" s="58" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30.6" x14ac:dyDescent="0.4">
@@ -12232,7 +12271,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="162"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="12" t="s">
         <v>400</v>
       </c>
@@ -12241,14 +12280,14 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="179"/>
+      <c r="G16" s="188"/>
     </row>
     <row r="17" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A17" s="63">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="162"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="12" t="s">
         <v>401</v>
       </c>
@@ -12257,14 +12296,14 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="179"/>
+      <c r="G17" s="188"/>
     </row>
     <row r="18" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A18" s="63">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="162"/>
+      <c r="B18" s="160"/>
       <c r="C18" s="12" t="s">
         <v>402</v>
       </c>
@@ -12273,14 +12312,14 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="179"/>
+      <c r="G18" s="188"/>
     </row>
     <row r="19" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A19" s="63">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="162"/>
+      <c r="B19" s="160"/>
       <c r="C19" s="12" t="s">
         <v>403</v>
       </c>
@@ -12289,14 +12328,14 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="179"/>
+      <c r="G19" s="188"/>
     </row>
     <row r="20" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A20" s="63">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="162"/>
+      <c r="B20" s="160"/>
       <c r="C20" s="12" t="s">
         <v>404</v>
       </c>
@@ -12305,23 +12344,23 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="179"/>
+      <c r="G20" s="188"/>
     </row>
     <row r="21" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="63">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="192"/>
-      <c r="C21" s="88" t="s">
-        <v>445</v>
-      </c>
-      <c r="D21" s="83">
+      <c r="B21" s="191"/>
+      <c r="C21" s="86" t="s">
+        <v>439</v>
+      </c>
+      <c r="D21" s="81">
         <v>619</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="179"/>
+      <c r="G21" s="188"/>
       <c r="H21" s="58"/>
     </row>
     <row r="22" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
@@ -12329,19 +12368,19 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="193" t="s">
+      <c r="B22" s="192" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="87" t="s">
         <v>405</v>
       </c>
-      <c r="D22" s="78">
+      <c r="D22" s="76">
         <v>901</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="198" t="s">
-        <v>439</v>
+      <c r="G22" s="181" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
@@ -12349,8 +12388,8 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="162"/>
-      <c r="C23" s="42" t="s">
+      <c r="B23" s="160"/>
+      <c r="C23" s="12" t="s">
         <v>427</v>
       </c>
       <c r="D23" s="4">
@@ -12358,15 +12397,15 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="199"/>
+      <c r="G23" s="182"/>
     </row>
     <row r="24" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A24" s="63">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="162"/>
-      <c r="C24" s="42" t="s">
+      <c r="B24" s="160"/>
+      <c r="C24" s="12" t="s">
         <v>407</v>
       </c>
       <c r="D24" s="4">
@@ -12374,15 +12413,15 @@
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="199"/>
+      <c r="G24" s="182"/>
     </row>
     <row r="25" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="63">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="162"/>
-      <c r="C25" s="42" t="s">
+      <c r="B25" s="160"/>
+      <c r="C25" s="12" t="s">
         <v>408</v>
       </c>
       <c r="D25" s="4">
@@ -12390,15 +12429,15 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="199"/>
+      <c r="G25" s="182"/>
     </row>
     <row r="26" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A26" s="63">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="162"/>
-      <c r="C26" s="42" t="s">
+      <c r="B26" s="160"/>
+      <c r="C26" s="12" t="s">
         <v>409</v>
       </c>
       <c r="D26" s="4">
@@ -12406,15 +12445,15 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="199"/>
+      <c r="G26" s="182"/>
     </row>
     <row r="27" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A27" s="63">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="162"/>
-      <c r="C27" s="42" t="s">
+      <c r="B27" s="160"/>
+      <c r="C27" s="12" t="s">
         <v>410</v>
       </c>
       <c r="D27" s="4">
@@ -12422,15 +12461,15 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="199"/>
+      <c r="G27" s="182"/>
     </row>
     <row r="28" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A28" s="63">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="162"/>
-      <c r="C28" s="42" t="s">
+      <c r="B28" s="160"/>
+      <c r="C28" s="12" t="s">
         <v>411</v>
       </c>
       <c r="D28" s="4">
@@ -12438,15 +12477,15 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="199"/>
+      <c r="G28" s="182"/>
     </row>
     <row r="29" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A29" s="63">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="162"/>
-      <c r="C29" s="42" t="s">
+      <c r="B29" s="160"/>
+      <c r="C29" s="12" t="s">
         <v>412</v>
       </c>
       <c r="D29" s="4">
@@ -12454,15 +12493,15 @@
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="199"/>
+      <c r="G29" s="182"/>
     </row>
     <row r="30" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A30" s="63">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="162"/>
-      <c r="C30" s="42" t="s">
+      <c r="B30" s="160"/>
+      <c r="C30" s="12" t="s">
         <v>413</v>
       </c>
       <c r="D30" s="4">
@@ -12470,15 +12509,15 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="199"/>
+      <c r="G30" s="182"/>
     </row>
     <row r="31" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A31" s="63">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="162"/>
-      <c r="C31" s="42" t="s">
+      <c r="B31" s="160"/>
+      <c r="C31" s="12" t="s">
         <v>414</v>
       </c>
       <c r="D31" s="4">
@@ -12486,15 +12525,15 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="199"/>
+      <c r="G31" s="182"/>
     </row>
     <row r="32" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A32" s="63">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="162"/>
-      <c r="C32" s="42" t="s">
+      <c r="B32" s="160"/>
+      <c r="C32" s="12" t="s">
         <v>415</v>
       </c>
       <c r="D32" s="4">
@@ -12502,15 +12541,15 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="199"/>
-    </row>
-    <row r="33" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="G32" s="182"/>
+    </row>
+    <row r="33" spans="1:12" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A33" s="63">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="162"/>
-      <c r="C33" s="42" t="s">
+      <c r="B33" s="160"/>
+      <c r="C33" s="12" t="s">
         <v>416</v>
       </c>
       <c r="D33" s="4">
@@ -12518,15 +12557,15 @@
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="199"/>
-    </row>
-    <row r="34" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="G33" s="182"/>
+    </row>
+    <row r="34" spans="1:12" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A34" s="63">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="162"/>
-      <c r="C34" s="42" t="s">
+      <c r="B34" s="160"/>
+      <c r="C34" s="12" t="s">
         <v>417</v>
       </c>
       <c r="D34" s="4">
@@ -12534,15 +12573,15 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="199"/>
-    </row>
-    <row r="35" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="G34" s="182"/>
+    </row>
+    <row r="35" spans="1:12" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A35" s="63">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="162"/>
-      <c r="C35" s="42" t="s">
+      <c r="B35" s="160"/>
+      <c r="C35" s="12" t="s">
         <v>418</v>
       </c>
       <c r="D35" s="4">
@@ -12550,15 +12589,15 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="199"/>
-    </row>
-    <row r="36" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="G35" s="182"/>
+    </row>
+    <row r="36" spans="1:12" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A36" s="63">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="162"/>
-      <c r="C36" s="42" t="s">
+      <c r="B36" s="160"/>
+      <c r="C36" s="12" t="s">
         <v>419</v>
       </c>
       <c r="D36" s="4">
@@ -12566,15 +12605,15 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="199"/>
-    </row>
-    <row r="37" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="G36" s="182"/>
+    </row>
+    <row r="37" spans="1:12" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A37" s="63">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="162"/>
-      <c r="C37" s="42" t="s">
+      <c r="B37" s="160"/>
+      <c r="C37" s="12" t="s">
         <v>420</v>
       </c>
       <c r="D37" s="4">
@@ -12582,15 +12621,15 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="199"/>
-    </row>
-    <row r="38" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="G37" s="182"/>
+    </row>
+    <row r="38" spans="1:12" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A38" s="63">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="162"/>
-      <c r="C38" s="42" t="s">
+      <c r="B38" s="160"/>
+      <c r="C38" s="12" t="s">
         <v>421</v>
       </c>
       <c r="D38" s="4">
@@ -12598,15 +12637,15 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="199"/>
-    </row>
-    <row r="39" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="G38" s="182"/>
+    </row>
+    <row r="39" spans="1:12" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A39" s="63">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="162"/>
-      <c r="C39" s="42" t="s">
+      <c r="B39" s="160"/>
+      <c r="C39" s="12" t="s">
         <v>422</v>
       </c>
       <c r="D39" s="4">
@@ -12614,15 +12653,15 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="199"/>
-    </row>
-    <row r="40" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="G39" s="182"/>
+    </row>
+    <row r="40" spans="1:12" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A40" s="63">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="162"/>
-      <c r="C40" s="42" t="s">
+      <c r="B40" s="160"/>
+      <c r="C40" s="12" t="s">
         <v>423</v>
       </c>
       <c r="D40" s="4">
@@ -12630,34 +12669,33 @@
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="199"/>
-    </row>
-    <row r="41" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="G40" s="182"/>
+    </row>
+    <row r="41" spans="1:12" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A41" s="63">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="162"/>
-      <c r="C41" s="11" t="s">
-        <v>437</v>
+      <c r="B41" s="160"/>
+      <c r="C41" s="45" t="s">
+        <v>480</v>
       </c>
       <c r="D41" s="4">
         <v>1002</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="199"/>
-      <c r="H41" s="58" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="G41" s="182"/>
+      <c r="H41" s="58"/>
+      <c r="L41" s="58"/>
+    </row>
+    <row r="42" spans="1:12" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A42" s="63">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="162"/>
-      <c r="C42" s="42" t="s">
+      <c r="B42" s="160"/>
+      <c r="C42" s="12" t="s">
         <v>425</v>
       </c>
       <c r="D42" s="4">
@@ -12665,15 +12703,15 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="199"/>
-    </row>
-    <row r="43" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="G42" s="182"/>
+    </row>
+    <row r="43" spans="1:12" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A43" s="63">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="162"/>
-      <c r="C43" s="42" t="s">
+      <c r="B43" s="160"/>
+      <c r="C43" s="12" t="s">
         <v>424</v>
       </c>
       <c r="D43" s="4">
@@ -12681,15 +12719,15 @@
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="199"/>
-    </row>
-    <row r="44" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="G43" s="182"/>
+    </row>
+    <row r="44" spans="1:12" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A44" s="63">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="162"/>
-      <c r="C44" s="42" t="s">
+      <c r="B44" s="160"/>
+      <c r="C44" s="12" t="s">
         <v>426</v>
       </c>
       <c r="D44" s="4">
@@ -12697,15 +12735,15 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="199"/>
-    </row>
-    <row r="45" spans="1:8" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="G44" s="182"/>
+    </row>
+    <row r="45" spans="1:12" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A45" s="63">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="162"/>
-      <c r="C45" s="42" t="s">
+      <c r="B45" s="160"/>
+      <c r="C45" s="12" t="s">
         <v>406</v>
       </c>
       <c r="D45" s="4">
@@ -12713,65 +12751,58 @@
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="199"/>
-    </row>
-    <row r="46" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G45" s="182"/>
+    </row>
+    <row r="46" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="63">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="162"/>
-      <c r="C46" s="72" t="s">
-        <v>429</v>
+      <c r="B46" s="160"/>
+      <c r="C46" s="92" t="s">
+        <v>481</v>
       </c>
       <c r="D46" s="4">
         <v>1007</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="199"/>
-      <c r="H46" s="58" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="180" t="s">
+      <c r="G46" s="182"/>
+      <c r="H46" s="58"/>
+    </row>
+    <row r="47" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A47" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="181"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114" t="s">
-        <v>438</v>
-      </c>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="183"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" s="152"/>
-      <c r="B48" s="153"/>
-      <c r="C48" s="154"/>
-      <c r="D48" s="154"/>
-      <c r="E48" s="155"/>
-      <c r="F48" s="155"/>
-      <c r="G48" s="156"/>
+      <c r="B47" s="184"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115" t="s">
+        <v>434</v>
+      </c>
+      <c r="E47" s="185"/>
+      <c r="F47" s="185"/>
+      <c r="G47" s="186"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A48" s="149"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="152"/>
+      <c r="F48" s="152"/>
+      <c r="G48" s="153"/>
     </row>
     <row r="49" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="157"/>
-      <c r="B49" s="158"/>
-      <c r="C49" s="159"/>
-      <c r="D49" s="159"/>
-      <c r="E49" s="160"/>
-      <c r="F49" s="160"/>
-      <c r="G49" s="161"/>
+      <c r="A49" s="154"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="156"/>
+      <c r="E49" s="157"/>
+      <c r="F49" s="157"/>
+      <c r="G49" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G22:G46"/>
-    <mergeCell ref="A48:G49"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B10:B21"/>
@@ -12779,10 +12810,15 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="G10:G21"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G22:G46"/>
+    <mergeCell ref="A48:G49"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="G7:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/rooming.xlsx
+++ b/data/rooming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C1F9B8B-C5FB-4BB9-A5F9-42C4A3B572A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14F8EEE0-7C18-460D-9A6A-ACA9B96B84D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="483">
   <si>
     <t>Guest Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2381,10 +2381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김지아, 김수지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>노유미, 이혜선</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2449,10 +2445,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김수민, 박선영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최수민, 김보미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2474,10 +2466,6 @@
   </si>
   <si>
     <t>이호용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤희정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2485,6 +2473,45 @@
 더블 트윈
 22객실 
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 민영미, 김미진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최희란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김수민, 김수지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박선영, 윤희정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김지아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2객실
+더블 트윈
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY견고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>9/30~10/2(2박)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2502,16 +2529,8 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>9/28~30(2박)</t>
+      <t>9/30~10/2(2박)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 민영미, 김미진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최희란</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5737,8 +5756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C66E6-1A4E-48CD-A544-340952140C81}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5747,12 +5766,12 @@
     <col min="4" max="4" width="19.296875" customWidth="1"/>
     <col min="5" max="5" width="18.59765625" customWidth="1"/>
     <col min="6" max="6" width="16.59765625" customWidth="1"/>
-    <col min="7" max="7" width="22.09765625" customWidth="1"/>
+    <col min="7" max="7" width="26.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.2" x14ac:dyDescent="0.4">
       <c r="A1" s="101" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="103"/>
@@ -5797,7 +5816,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="187" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -5829,7 +5848,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="189" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -5873,7 +5892,7 @@
       </c>
       <c r="B8" s="197"/>
       <c r="C8" s="61" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D8" s="77">
         <v>1113</v>
@@ -6037,7 +6056,7 @@
       </c>
       <c r="B18" s="160"/>
       <c r="C18" s="45" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D18" s="4">
         <v>614</v>
@@ -6053,7 +6072,7 @@
       </c>
       <c r="B19" s="160"/>
       <c r="C19" s="45" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D19" s="4">
         <v>617</v>
@@ -6143,7 +6162,7 @@
       <c r="E24" s="83"/>
       <c r="F24" s="83"/>
       <c r="G24" s="202" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
@@ -6153,7 +6172,7 @@
       </c>
       <c r="B25" s="160"/>
       <c r="C25" s="12" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="D25" s="4">
         <v>902</v>
@@ -6169,7 +6188,7 @@
       </c>
       <c r="B26" s="160"/>
       <c r="C26" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D26" s="4">
         <v>903</v>
@@ -6185,7 +6204,7 @@
       </c>
       <c r="B27" s="160"/>
       <c r="C27" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D27" s="4">
         <v>904</v>
@@ -6201,7 +6220,7 @@
       </c>
       <c r="B28" s="160"/>
       <c r="C28" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D28" s="4">
         <v>905</v>
@@ -6217,7 +6236,7 @@
       </c>
       <c r="B29" s="160"/>
       <c r="C29" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D29" s="4">
         <v>906</v>
@@ -6233,7 +6252,7 @@
       </c>
       <c r="B30" s="160"/>
       <c r="C30" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D30" s="4">
         <v>907</v>
@@ -6249,7 +6268,7 @@
       </c>
       <c r="B31" s="160"/>
       <c r="C31" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D31" s="4">
         <v>908</v>
@@ -6265,7 +6284,7 @@
       </c>
       <c r="B32" s="160"/>
       <c r="C32" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D32" s="4">
         <v>909</v>
@@ -6281,7 +6300,7 @@
       </c>
       <c r="B33" s="160"/>
       <c r="C33" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D33" s="4">
         <v>910</v>
@@ -6297,7 +6316,7 @@
       </c>
       <c r="B34" s="160"/>
       <c r="C34" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D34" s="4">
         <v>911</v>
@@ -6313,7 +6332,7 @@
       </c>
       <c r="B35" s="160"/>
       <c r="C35" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D35" s="4">
         <v>912</v>
@@ -6329,7 +6348,7 @@
       </c>
       <c r="B36" s="160"/>
       <c r="C36" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D36" s="4">
         <v>913</v>
@@ -6345,7 +6364,7 @@
       </c>
       <c r="B37" s="160"/>
       <c r="C37" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D37" s="4">
         <v>914</v>
@@ -6361,7 +6380,7 @@
       </c>
       <c r="B38" s="160"/>
       <c r="C38" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D38" s="4">
         <v>915</v>
@@ -6377,7 +6396,7 @@
       </c>
       <c r="B39" s="160"/>
       <c r="C39" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D39" s="4">
         <v>917</v>
@@ -6393,7 +6412,7 @@
       </c>
       <c r="B40" s="160"/>
       <c r="C40" s="12" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D40" s="4">
         <v>918</v>
@@ -6409,7 +6428,7 @@
       </c>
       <c r="B41" s="160"/>
       <c r="C41" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D41" s="4">
         <v>919</v>
@@ -6425,7 +6444,7 @@
       </c>
       <c r="B42" s="160"/>
       <c r="C42" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D42" s="4">
         <v>920</v>
@@ -6441,7 +6460,7 @@
       </c>
       <c r="B43" s="160"/>
       <c r="C43" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D43" s="4">
         <v>922</v>
@@ -6457,7 +6476,7 @@
       </c>
       <c r="B44" s="160"/>
       <c r="C44" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D44" s="4">
         <v>923</v>
@@ -6473,7 +6492,7 @@
       </c>
       <c r="B45" s="91"/>
       <c r="C45" s="12" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D45" s="4">
         <v>926</v>
@@ -11992,8 +12011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737E0D4C-3811-4612-BA12-2FE91132D48C}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12678,7 +12697,7 @@
       </c>
       <c r="B41" s="160"/>
       <c r="C41" s="45" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D41" s="4">
         <v>1002</v>
@@ -12760,7 +12779,7 @@
       </c>
       <c r="B46" s="160"/>
       <c r="C46" s="92" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D46" s="4">
         <v>1007</v>

--- a/data/rooming.xlsx
+++ b/data/rooming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14F8EEE0-7C18-460D-9A6A-ACA9B96B84D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7858C80-3D62-4A49-9C27-11EEA233FD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1차수" sheetId="6" r:id="rId1"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="483">
   <si>
     <t>Guest Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2312,12 +2312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">롯데 (남)
-스탠다드 트윈
-14객실 
-</t>
-  </si>
-  <si>
     <t>여</t>
   </si>
   <si>
@@ -2341,10 +2335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>성문근, 임정우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이상철, 김지명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2353,14 +2343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이재현, 이형국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민수, 김우현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신재영, 이재도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2413,10 +2395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고지연, 최혜정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김혜련, 우연희</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2465,17 +2443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이호용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">롯데 (여)
-더블 트윈
-22객실 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 민영미, 김미진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2489,10 +2456,6 @@
   </si>
   <si>
     <t>박선영, 윤희정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김지아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2515,15 +2478,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>성문근, 이형국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임정우, 이재현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">2객실
-스탠다드 트윈
+      <t xml:space="preserve">스탠다드 트윈
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="15"/>
+        <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="HY견고딕"/>
         <family val="1"/>
@@ -2531,6 +2501,35 @@
       </rPr>
       <t>9/30~10/2(2박)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠다드 트윈</t>
+  </si>
+  <si>
+    <t>김민수, 이호용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고지연, 김지아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41객실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">롯데 (여)
+더블 트윈
+21객실 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">롯데 (남)
+스탠다드 트윈
+13객실 
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2541,7 +2540,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2917,6 +2916,13 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -3136,7 +3142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -3886,15 +3892,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4326,13 +4323,13 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5050,7 +5047,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5754,10 +5751,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C66E6-1A4E-48CD-A544-340952140C81}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5771,7 +5768,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.2" x14ac:dyDescent="0.4">
       <c r="A1" s="101" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="103"/>
@@ -5803,7 +5800,7 @@
     </row>
     <row r="3" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A3" s="63">
-        <f t="shared" ref="A3:A45" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A43" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="67"/>
@@ -5816,7 +5813,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="187" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -5833,7 +5830,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="188"/>
     </row>
-    <row r="5" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="63">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5847,8 +5844,8 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="189" t="s">
-        <v>482</v>
+      <c r="G5" s="91" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -5863,7 +5860,9 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="190"/>
+      <c r="G6" s="92" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A7" s="63">
@@ -5892,7 +5891,7 @@
       </c>
       <c r="B8" s="197"/>
       <c r="C8" s="61" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D8" s="77">
         <v>1113</v>
@@ -5926,7 +5925,7 @@
         <v>105</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D10" s="79">
         <v>601</v>
@@ -5934,7 +5933,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="198" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
@@ -5944,7 +5943,7 @@
       </c>
       <c r="B11" s="160"/>
       <c r="C11" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D11" s="4">
         <v>604</v>
@@ -5960,7 +5959,7 @@
       </c>
       <c r="B12" s="160"/>
       <c r="C12" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D12" s="4">
         <v>605</v>
@@ -5976,7 +5975,7 @@
       </c>
       <c r="B13" s="160"/>
       <c r="C13" s="12" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="D13" s="4">
         <v>606</v>
@@ -5992,7 +5991,7 @@
       </c>
       <c r="B14" s="160"/>
       <c r="C14" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D14" s="5">
         <v>607</v>
@@ -6008,7 +6007,7 @@
       </c>
       <c r="B15" s="160"/>
       <c r="C15" s="45" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D15" s="4">
         <v>609</v>
@@ -6024,7 +6023,7 @@
       </c>
       <c r="B16" s="160"/>
       <c r="C16" s="45" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="D16" s="4">
         <v>610</v>
@@ -6040,10 +6039,10 @@
       </c>
       <c r="B17" s="160"/>
       <c r="C17" s="45" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="D17" s="4">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -6056,10 +6055,10 @@
       </c>
       <c r="B18" s="160"/>
       <c r="C18" s="45" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D18" s="4">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -6072,98 +6071,98 @@
       </c>
       <c r="B19" s="160"/>
       <c r="C19" s="45" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="D19" s="4">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="199"/>
     </row>
-    <row r="20" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="63">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="160"/>
-      <c r="C20" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="D20" s="4">
-        <v>618</v>
+      <c r="C20" s="86" t="s">
+        <v>447</v>
+      </c>
+      <c r="D20" s="81">
+        <v>619</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="199"/>
     </row>
-    <row r="21" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="63">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="160"/>
-      <c r="C21" s="86" t="s">
-        <v>451</v>
-      </c>
-      <c r="D21" s="81">
-        <v>619</v>
+      <c r="C21" s="87" t="s">
+        <v>445</v>
+      </c>
+      <c r="D21" s="4">
+        <v>620</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="199"/>
     </row>
-    <row r="22" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="63">
+    <row r="22" spans="1:7" s="85" customFormat="1" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="84">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="160"/>
-      <c r="C22" s="87" t="s">
-        <v>449</v>
-      </c>
-      <c r="D22" s="4">
-        <v>620</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="199"/>
-    </row>
-    <row r="23" spans="1:7" s="85" customFormat="1" ht="31.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="84">
+      <c r="C22" s="88" t="s">
+        <v>446</v>
+      </c>
+      <c r="D22" s="64">
+        <v>622</v>
+      </c>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="201"/>
+    </row>
+    <row r="23" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
+      <c r="A23" s="82">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="160"/>
-      <c r="C23" s="88" t="s">
-        <v>450</v>
-      </c>
-      <c r="D23" s="64">
-        <v>622</v>
-      </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="201"/>
+      <c r="B23" s="160" t="s">
+        <v>436</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>448</v>
+      </c>
+      <c r="D23" s="83">
+        <v>901</v>
+      </c>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="202" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A24" s="82">
+      <c r="A24" s="63">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="160" t="s">
-        <v>437</v>
-      </c>
-      <c r="C24" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="D24" s="83">
-        <v>901</v>
-      </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="202" t="s">
-        <v>475</v>
-      </c>
+      <c r="B24" s="160"/>
+      <c r="C24" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="D24" s="4">
+        <v>902</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="203"/>
     </row>
     <row r="25" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
       <c r="A25" s="63">
@@ -6172,10 +6171,10 @@
       </c>
       <c r="B25" s="160"/>
       <c r="C25" s="12" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="D25" s="4">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -6188,10 +6187,10 @@
       </c>
       <c r="B26" s="160"/>
       <c r="C26" s="12" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D26" s="4">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -6204,10 +6203,10 @@
       </c>
       <c r="B27" s="160"/>
       <c r="C27" s="12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D27" s="4">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -6220,10 +6219,10 @@
       </c>
       <c r="B28" s="160"/>
       <c r="C28" s="12" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D28" s="4">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -6236,10 +6235,10 @@
       </c>
       <c r="B29" s="160"/>
       <c r="C29" s="12" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="D29" s="4">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -6252,10 +6251,10 @@
       </c>
       <c r="B30" s="160"/>
       <c r="C30" s="12" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="D30" s="4">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -6268,10 +6267,10 @@
       </c>
       <c r="B31" s="160"/>
       <c r="C31" s="12" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D31" s="4">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -6284,10 +6283,10 @@
       </c>
       <c r="B32" s="160"/>
       <c r="C32" s="12" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D32" s="4">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -6300,10 +6299,10 @@
       </c>
       <c r="B33" s="160"/>
       <c r="C33" s="12" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D33" s="4">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -6316,10 +6315,10 @@
       </c>
       <c r="B34" s="160"/>
       <c r="C34" s="12" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D34" s="4">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -6332,10 +6331,10 @@
       </c>
       <c r="B35" s="160"/>
       <c r="C35" s="12" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="D35" s="4">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -6348,10 +6347,10 @@
       </c>
       <c r="B36" s="160"/>
       <c r="C36" s="12" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D36" s="4">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -6364,10 +6363,10 @@
       </c>
       <c r="B37" s="160"/>
       <c r="C37" s="12" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D37" s="4">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -6380,10 +6379,10 @@
       </c>
       <c r="B38" s="160"/>
       <c r="C38" s="12" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D38" s="4">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -6396,10 +6395,10 @@
       </c>
       <c r="B39" s="160"/>
       <c r="C39" s="12" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="D39" s="4">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -6412,10 +6411,10 @@
       </c>
       <c r="B40" s="160"/>
       <c r="C40" s="12" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="D40" s="4">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -6428,10 +6427,10 @@
       </c>
       <c r="B41" s="160"/>
       <c r="C41" s="12" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D41" s="4">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -6444,10 +6443,10 @@
       </c>
       <c r="B42" s="160"/>
       <c r="C42" s="12" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D42" s="4">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -6460,94 +6459,61 @@
       </c>
       <c r="B43" s="160"/>
       <c r="C43" s="12" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D43" s="4">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="203"/>
-    </row>
-    <row r="44" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A44" s="63">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="160"/>
-      <c r="C44" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="D44" s="4">
-        <v>923</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="204"/>
-    </row>
-    <row r="45" spans="1:7" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A45" s="63">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="91"/>
-      <c r="C45" s="12" t="s">
+      <c r="G43" s="204"/>
+    </row>
+    <row r="44" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A44" s="183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="184"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115" t="s">
         <v>480</v>
       </c>
-      <c r="D45" s="4">
-        <v>926</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="90"/>
-    </row>
-    <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="183" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="184"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" s="185"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="186"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="149"/>
-      <c r="B47" s="150"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
-      <c r="E47" s="152"/>
-      <c r="F47" s="152"/>
-      <c r="G47" s="153"/>
-    </row>
-    <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="154"/>
-      <c r="B48" s="155"/>
-      <c r="C48" s="156"/>
-      <c r="D48" s="156"/>
-      <c r="E48" s="157"/>
-      <c r="F48" s="157"/>
-      <c r="G48" s="158"/>
+      <c r="E44" s="185"/>
+      <c r="F44" s="185"/>
+      <c r="G44" s="186"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" s="149"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="152"/>
+      <c r="G45" s="153"/>
+    </row>
+    <row r="46" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="154"/>
+      <c r="B46" s="155"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="158"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A47:G48"/>
-    <mergeCell ref="G10:G23"/>
-    <mergeCell ref="B24:B44"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="G24:G44"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:G46"/>
+  <mergeCells count="13">
+    <mergeCell ref="A45:G46"/>
+    <mergeCell ref="G10:G22"/>
+    <mergeCell ref="B23:B43"/>
+    <mergeCell ref="B10:B22"/>
+    <mergeCell ref="G23:G43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:G44"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6561,8 +6527,8 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7301,8 +7267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C9648B-A392-41F5-A8B4-06A1D4DE9CD0}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:E43"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7967,7 +7933,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8785,8 +8751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1C208C-2BF7-424A-9DD3-974103DD6970}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46:E46"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9504,8 +9470,8 @@
   </sheetPr>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10327,8 +10293,8 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11167,7 +11133,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12011,8 +11977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737E0D4C-3811-4612-BA12-2FE91132D48C}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12241,7 +12207,7 @@
       </c>
       <c r="B13" s="160"/>
       <c r="C13" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D13" s="4">
         <v>606</v>
@@ -12372,7 +12338,7 @@
       </c>
       <c r="B21" s="191"/>
       <c r="C21" s="86" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D21" s="81">
         <v>619</v>
@@ -12697,7 +12663,7 @@
       </c>
       <c r="B41" s="160"/>
       <c r="C41" s="45" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D41" s="4">
         <v>1002</v>
@@ -12778,8 +12744,8 @@
         <v>44</v>
       </c>
       <c r="B46" s="160"/>
-      <c r="C46" s="92" t="s">
-        <v>477</v>
+      <c r="C46" s="90" t="s">
+        <v>470</v>
       </c>
       <c r="D46" s="4">
         <v>1007</v>
